--- a/OTJ Tracker Data Engineer L5.xlsx
+++ b/OTJ Tracker Data Engineer L5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laho2188\Documents\GitHub\Learning-Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF98CD0C-CAA9-47DC-9CCA-89EEDB3F4BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF354459-59C3-4F4E-9287-6B2987E9AC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="365">
   <si>
     <t xml:space="preserve">Apprenticeship Training Log </t>
   </si>
@@ -1144,21 +1144,12 @@
     <t>OTJT Log, Appendix</t>
   </si>
   <si>
-    <t>19.09.2024</t>
-  </si>
-  <si>
-    <t>24.09.2024</t>
-  </si>
-  <si>
     <t>Changing the data source of the CleaningLog Power BI reports from daily downloaded Excel files, to live data from Data Lakehouse</t>
   </si>
   <si>
     <t>Webinar</t>
   </si>
   <si>
-    <t>Weekly</t>
-  </si>
-  <si>
     <t>Shadowing my manager Jay about data quality on our data sources</t>
   </si>
   <si>
@@ -1174,15 +1165,9 @@
     <t>Managing Data Projects and Products</t>
   </si>
   <si>
-    <t>Core reading list - K28</t>
-  </si>
-  <si>
     <t>LinkedIn Learning: Data Engineering Fundations</t>
   </si>
   <si>
-    <t>Shadowing - K4, K5, K9, S26</t>
-  </si>
-  <si>
     <t>Shadowing - K2, K14, K17, K18, S7, S9, S13, B1, B2, B6</t>
   </si>
   <si>
@@ -1196,6 +1181,33 @@
   </si>
   <si>
     <t>Other - K28, B6</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Core reading list - K28, K29, S29</t>
+  </si>
+  <si>
+    <t>Shadowing - K4, K5, K9, S26, B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports - K1, K3, K6, K7, K9, K10, K11, K21, K25, K28, K30, S1, S3, S6, S11, S12, S13, S19, S23, S26, B1, B2, B3, B5, </t>
+  </si>
+  <si>
+    <t>Creating an general sample Power Bi report for all clients, replacing/ removing any sensitive data</t>
+  </si>
+  <si>
+    <t>Checking with my colleague Jay M, the systems/apps implemented in the company to centralise them and to find the best solutions</t>
+  </si>
+  <si>
+    <t>NDG Linux Unhatched: Course + Certification</t>
+  </si>
+  <si>
+    <t>Shadowing - K1, K3, K5, K6, K7, K9, K10, K11, K12, K13, K16, K17, K21, K22, K24, K25, K26, K28, K29, K30, S2, S3, S5, S8, S11, S12, S13, S14, S17, S22, S23, S24, S25, S26, S27, S28, S29, B1, B2, B3, B4, B5, B6</t>
+  </si>
+  <si>
+    <t>Research (internal wikis, etc.) - K28, K29, S14, S28, S29, B1, B6</t>
   </si>
 </sst>
 </file>
@@ -2579,9 +2591,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2637,41 +2646,48 @@
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2681,12 +2697,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2727,6 +2737,60 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2748,24 +2812,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2777,40 +2823,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3290,8 +3302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H19"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,7 +3313,7 @@
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" customWidth="1"/>
@@ -3356,12 +3368,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="177"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="198"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="2"/>
@@ -3392,14 +3404,14 @@
     </row>
     <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="52"/>
@@ -3499,12 +3511,12 @@
       </c>
       <c r="H5" s="195"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="182"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3539,10 +3551,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>346</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>343</v>
+        <v>344</v>
+      </c>
+      <c r="D6" s="175">
+        <v>45554</v>
       </c>
       <c r="E6" s="132">
         <v>4</v>
@@ -3595,9 +3607,11 @@
       <c r="B7" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="133" t="s">
+      <c r="C7" s="55" t="s">
         <v>344</v>
+      </c>
+      <c r="D7" s="176">
+        <v>45582</v>
       </c>
       <c r="E7" s="56">
         <v>12</v>
@@ -3650,8 +3664,12 @@
       <c r="B8" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="133"/>
+      <c r="C8" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="176">
+        <v>45617</v>
+      </c>
       <c r="E8" s="56">
         <v>15</v>
       </c>
@@ -3660,7 +3678,7 @@
       </c>
       <c r="G8" s="124">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H8" s="195"/>
       <c r="I8" s="4"/>
@@ -4141,12 +4159,12 @@
       </c>
       <c r="H17" s="195"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="179"/>
-      <c r="N17" s="179"/>
-      <c r="O17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="182"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -4245,7 +4263,7 @@
       </c>
       <c r="G19" s="128">
         <f>SUM(G6:G18)</f>
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="H19" s="195"/>
       <c r="I19" s="4"/>
@@ -4387,24 +4405,28 @@
       <c r="B22" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="C22" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="177">
+        <v>45617</v>
+      </c>
       <c r="E22" s="56">
         <v>24</v>
       </c>
       <c r="F22" s="56"/>
       <c r="G22" s="56">
         <f>IF(NOT(ISBLANK(D22)), SUM(E22:F22), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="167"/>
+        <v>24</v>
+      </c>
+      <c r="H22" s="203"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="179"/>
-      <c r="O22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="182"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4448,7 +4470,7 @@
         <f>IF(NOT(ISBLANK(D23)), SUM(E23:F23), 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="167"/>
+      <c r="H23" s="203"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4499,7 +4521,7 @@
         <f>IF(NOT(ISBLANK(D24)), SUM(E24:F24), 0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="167"/>
+      <c r="H24" s="203"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4550,7 +4572,7 @@
         <f>IF(NOT(ISBLANK(D25)), SUM(E25:F25), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="167"/>
+      <c r="H25" s="203"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4601,7 +4623,7 @@
         <f>IF(NOT(ISBLANK(D26)), SUM(E26:F26), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="167"/>
+      <c r="H26" s="203"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4645,7 +4667,7 @@
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
-      <c r="H27" s="167"/>
+      <c r="H27" s="203"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4698,9 +4720,9 @@
       </c>
       <c r="G28" s="58">
         <f>SUM(G22:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="167"/>
+        <v>24</v>
+      </c>
+      <c r="H28" s="203"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4746,12 +4768,12 @@
       <c r="G29" s="190"/>
       <c r="H29" s="191"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
-      <c r="O29" s="180"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="182"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -5011,23 +5033,23 @@
       <c r="D35" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="172" t="s">
+      <c r="E35" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="172"/>
+      <c r="F35" s="202"/>
       <c r="G35" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="168" t="s">
+      <c r="H35" s="204" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="178"/>
-      <c r="K35" s="179"/>
-      <c r="L35" s="179"/>
-      <c r="M35" s="179"/>
-      <c r="N35" s="179"/>
-      <c r="O35" s="180"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="182"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5059,7 +5081,7 @@
     <row r="36" spans="1:42" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="77" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C36" s="142" t="s">
         <v>145</v>
@@ -5067,14 +5089,14 @@
       <c r="D36" s="143">
         <v>45559</v>
       </c>
-      <c r="E36" s="173" t="s">
-        <v>349</v>
-      </c>
-      <c r="F36" s="174"/>
+      <c r="E36" s="200" t="s">
+        <v>346</v>
+      </c>
+      <c r="F36" s="201"/>
       <c r="G36" s="145">
         <v>3</v>
       </c>
-      <c r="H36" s="169"/>
+      <c r="H36" s="205"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -5113,7 +5135,7 @@
     <row r="37" spans="1:42" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="77" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C37" s="142" t="s">
         <v>146</v>
@@ -5121,14 +5143,14 @@
       <c r="D37" s="144">
         <v>45572</v>
       </c>
-      <c r="E37" s="173" t="s">
-        <v>348</v>
-      </c>
-      <c r="F37" s="174"/>
+      <c r="E37" s="200" t="s">
+        <v>345</v>
+      </c>
+      <c r="F37" s="201"/>
       <c r="G37" s="145">
         <v>4</v>
       </c>
-      <c r="H37" s="169"/>
+      <c r="H37" s="205"/>
       <c r="I37" s="5"/>
       <c r="J37" s="183"/>
       <c r="K37" s="184"/>
@@ -5167,7 +5189,7 @@
     <row r="38" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="77" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C38" s="142" t="s">
         <v>147</v>
@@ -5175,14 +5197,14 @@
       <c r="D38" s="143">
         <v>45575</v>
       </c>
-      <c r="E38" s="173" t="s">
-        <v>354</v>
-      </c>
-      <c r="F38" s="174"/>
+      <c r="E38" s="200" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" s="201"/>
       <c r="G38" s="145">
         <v>3</v>
       </c>
-      <c r="H38" s="169"/>
+      <c r="H38" s="205"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -5221,7 +5243,7 @@
     <row r="39" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="77" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C39" s="142" t="s">
         <v>147</v>
@@ -5229,21 +5251,21 @@
       <c r="D39" s="143">
         <v>45579</v>
       </c>
-      <c r="E39" s="173" t="s">
-        <v>352</v>
-      </c>
-      <c r="F39" s="174"/>
+      <c r="E39" s="200" t="s">
+        <v>349</v>
+      </c>
+      <c r="F39" s="201"/>
       <c r="G39" s="145">
         <v>3</v>
       </c>
-      <c r="H39" s="169"/>
+      <c r="H39" s="205"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="178"/>
-      <c r="K39" s="179"/>
-      <c r="L39" s="179"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="179"/>
-      <c r="O39" s="180"/>
+      <c r="J39" s="180"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="181"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="182"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -5275,7 +5297,7 @@
     <row r="40" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="77" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C40" s="142" t="s">
         <v>149</v>
@@ -5283,14 +5305,14 @@
       <c r="D40" s="143">
         <v>45586</v>
       </c>
-      <c r="E40" s="173" t="s">
-        <v>345</v>
-      </c>
-      <c r="F40" s="174"/>
+      <c r="E40" s="200" t="s">
+        <v>343</v>
+      </c>
+      <c r="F40" s="201"/>
       <c r="G40" s="145">
         <v>8</v>
       </c>
-      <c r="H40" s="169"/>
+      <c r="H40" s="205"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -5329,22 +5351,22 @@
     <row r="41" spans="1:42" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="77" t="s">
-        <v>357</v>
-      </c>
-      <c r="C41" s="156" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="224">
+      <c r="D41" s="174">
         <v>45597</v>
       </c>
-      <c r="E41" s="173" t="s">
-        <v>358</v>
-      </c>
-      <c r="F41" s="174"/>
+      <c r="E41" s="200" t="s">
+        <v>353</v>
+      </c>
+      <c r="F41" s="201"/>
       <c r="G41" s="145">
         <v>3</v>
       </c>
-      <c r="H41" s="169"/>
+      <c r="H41" s="205"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -5383,22 +5405,22 @@
     <row r="42" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="77" t="s">
-        <v>360</v>
-      </c>
-      <c r="C42" s="156" t="s">
+        <v>355</v>
+      </c>
+      <c r="C42" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="224">
+      <c r="D42" s="174">
         <v>45601</v>
       </c>
-      <c r="E42" s="173" t="s">
-        <v>359</v>
-      </c>
-      <c r="F42" s="174"/>
+      <c r="E42" s="200" t="s">
+        <v>354</v>
+      </c>
+      <c r="F42" s="201"/>
       <c r="G42" s="145">
         <v>2</v>
       </c>
-      <c r="H42" s="169"/>
+      <c r="H42" s="205"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -5434,15 +5456,25 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="166"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="169"/>
+      <c r="B43" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="C43" s="155" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="150">
+        <v>45609</v>
+      </c>
+      <c r="E43" s="200" t="s">
+        <v>360</v>
+      </c>
+      <c r="F43" s="201"/>
+      <c r="G43" s="145">
+        <v>8</v>
+      </c>
+      <c r="H43" s="205"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -5478,15 +5510,25 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="166"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="169"/>
+      <c r="B44" s="77" t="s">
+        <v>363</v>
+      </c>
+      <c r="C44" s="155" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="150">
+        <v>45614</v>
+      </c>
+      <c r="E44" s="200" t="s">
+        <v>361</v>
+      </c>
+      <c r="F44" s="201"/>
+      <c r="G44" s="145">
+        <v>12</v>
+      </c>
+      <c r="H44" s="205"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -5522,15 +5564,25 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="166"/>
-      <c r="F45" s="166"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="169"/>
+      <c r="B45" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="C45" s="155" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="150">
+        <v>45623</v>
+      </c>
+      <c r="E45" s="200" t="s">
+        <v>362</v>
+      </c>
+      <c r="F45" s="201"/>
+      <c r="G45" s="145">
+        <v>5</v>
+      </c>
+      <c r="H45" s="205"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -5569,12 +5621,12 @@
     <row r="46" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="77"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="166"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="199"/>
+      <c r="F46" s="199"/>
       <c r="G46" s="145"/>
-      <c r="H46" s="169"/>
+      <c r="H46" s="205"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -5613,12 +5665,12 @@
     <row r="47" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="77"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="199"/>
+      <c r="F47" s="199"/>
       <c r="G47" s="145"/>
-      <c r="H47" s="169"/>
+      <c r="H47" s="205"/>
       <c r="I47" s="42"/>
       <c r="J47" s="36"/>
       <c r="K47" s="2"/>
@@ -5654,15 +5706,15 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="1:42" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="77"/>
       <c r="C48" s="142"/>
       <c r="D48" s="143"/>
-      <c r="E48" s="173"/>
-      <c r="F48" s="174"/>
+      <c r="E48" s="200"/>
+      <c r="F48" s="201"/>
       <c r="G48" s="145"/>
-      <c r="H48" s="169"/>
+      <c r="H48" s="205"/>
       <c r="I48" s="42"/>
       <c r="J48" s="36"/>
       <c r="K48" s="2"/>
@@ -5701,12 +5753,12 @@
     <row r="49" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="78"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="169"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="199"/>
+      <c r="F49" s="199"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="205"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5745,12 +5797,12 @@
     <row r="50" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
       <c r="B50" s="75"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="166"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="169"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="199"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="205"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -5789,12 +5841,12 @@
     <row r="51" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="75"/>
-      <c r="C51" s="156"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="166"/>
-      <c r="F51" s="166"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="169"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="199"/>
+      <c r="F51" s="199"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="205"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -5833,12 +5885,12 @@
     <row r="52" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="75"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="152"/>
-      <c r="E52" s="166"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="169"/>
+      <c r="C52" s="155"/>
+      <c r="D52" s="151"/>
+      <c r="E52" s="199"/>
+      <c r="F52" s="199"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="205"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -5877,12 +5929,12 @@
     <row r="53" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="75"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="152"/>
-      <c r="E53" s="166"/>
-      <c r="F53" s="166"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="169"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="151"/>
+      <c r="E53" s="199"/>
+      <c r="F53" s="199"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="205"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -5921,12 +5973,12 @@
     <row r="54" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="75"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="152"/>
-      <c r="E54" s="166"/>
-      <c r="F54" s="166"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="169"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="151"/>
+      <c r="E54" s="199"/>
+      <c r="F54" s="199"/>
+      <c r="G54" s="146"/>
+      <c r="H54" s="205"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -5965,12 +6017,12 @@
     <row r="55" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="56"/>
-      <c r="C55" s="156"/>
-      <c r="D55" s="152"/>
-      <c r="E55" s="166"/>
-      <c r="F55" s="166"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="169"/>
+      <c r="C55" s="155"/>
+      <c r="D55" s="151"/>
+      <c r="E55" s="199"/>
+      <c r="F55" s="199"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="205"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -6009,12 +6061,12 @@
     <row r="56" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="56"/>
-      <c r="C56" s="156"/>
-      <c r="D56" s="152"/>
-      <c r="E56" s="166"/>
-      <c r="F56" s="166"/>
-      <c r="G56" s="147"/>
-      <c r="H56" s="169"/>
+      <c r="C56" s="155"/>
+      <c r="D56" s="151"/>
+      <c r="E56" s="199"/>
+      <c r="F56" s="199"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="205"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -6053,12 +6105,12 @@
     <row r="57" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="56"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="166"/>
-      <c r="F57" s="166"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="169"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="151"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="199"/>
+      <c r="G57" s="146"/>
+      <c r="H57" s="205"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -6097,12 +6149,12 @@
     <row r="58" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="56"/>
-      <c r="C58" s="156"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="166"/>
-      <c r="F58" s="166"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="169"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="199"/>
+      <c r="F58" s="199"/>
+      <c r="G58" s="146"/>
+      <c r="H58" s="205"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -6141,12 +6193,12 @@
     <row r="59" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="56"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="152"/>
-      <c r="E59" s="166"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="147"/>
-      <c r="H59" s="169"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="199"/>
+      <c r="F59" s="199"/>
+      <c r="G59" s="146"/>
+      <c r="H59" s="205"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -6185,12 +6237,12 @@
     <row r="60" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="56"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="166"/>
-      <c r="F60" s="166"/>
-      <c r="G60" s="147"/>
-      <c r="H60" s="169"/>
+      <c r="C60" s="155"/>
+      <c r="D60" s="151"/>
+      <c r="E60" s="199"/>
+      <c r="F60" s="199"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="205"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -6231,15 +6283,15 @@
       <c r="B61" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="157"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="148">
+      <c r="C61" s="156"/>
+      <c r="D61" s="152"/>
+      <c r="E61" s="207"/>
+      <c r="F61" s="207"/>
+      <c r="G61" s="147">
         <f>SUM(G36:G60)</f>
-        <v>26</v>
-      </c>
-      <c r="H61" s="170"/>
+        <v>51</v>
+      </c>
+      <c r="H61" s="206"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -6278,11 +6330,11 @@
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="123"/>
-      <c r="C62" s="158"/>
-      <c r="D62" s="154"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="153"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="149"/>
+      <c r="G62" s="148"/>
       <c r="H62" s="120"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -6324,13 +6376,13 @@
       <c r="B63" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="159"/>
-      <c r="D63" s="155"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="154"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="150">
+      <c r="G63" s="149">
         <f>G61+G19+G28+G62</f>
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="H63" s="43"/>
       <c r="I63" s="2"/>
@@ -6416,7 +6468,6 @@
       <c r="A65" s="3"/>
       <c r="B65" s="1"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="213"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="36"/>
@@ -6465,7 +6516,6 @@
         <v>487</v>
       </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="213"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="36"/>
@@ -6511,10 +6561,9 @@
       </c>
       <c r="C67" s="56">
         <f>G63</f>
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="213"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="36"/>
@@ -6560,10 +6609,9 @@
       </c>
       <c r="C68" s="58">
         <f>C66-C67</f>
-        <v>430</v>
+        <v>349</v>
       </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="213"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="36"/>
@@ -6606,7 +6654,6 @@
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="213"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="36"/>
@@ -6649,7 +6696,6 @@
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="213"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -6692,7 +6738,6 @@
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="213"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -12447,32 +12492,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="H5:H19"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="H22:H28"/>
     <mergeCell ref="H35:H61"/>
@@ -12489,6 +12508,32 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="H5:H19"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="6">
@@ -12508,7 +12553,7 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C7:C20 C33</xm:sqref>
+          <xm:sqref>C33 C9:C20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
@@ -12711,8 +12756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BS319"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12732,57 +12777,57 @@
       <c r="A1" s="137" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="171" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="221" t="s">
+      <c r="C1" s="171" t="s">
         <v>65</v>
       </c>
       <c r="D1" s="141" t="s">
         <v>262</v>
       </c>
-      <c r="E1" s="214" t="s">
+      <c r="E1" s="165" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="215" t="s">
+      <c r="F1" s="166" t="s">
         <v>66</v>
       </c>
       <c r="G1" s="141" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="223" t="s">
+      <c r="H1" s="173" t="s">
         <v>325</v>
       </c>
-      <c r="I1" s="215" t="s">
+      <c r="I1" s="166" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="172" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="218" t="s">
+      <c r="C2" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="219" t="s">
+      <c r="D2" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="216" t="s">
+      <c r="E2" s="167" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="217" t="s">
+      <c r="F2" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="222" t="s">
+      <c r="G2" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="172" t="s">
         <v>324</v>
       </c>
-      <c r="I2" s="218" t="s">
+      <c r="I2" s="168" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="135"/>
@@ -12840,28 +12885,28 @@
       <c r="A3" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="222" t="s">
+      <c r="B3" s="172" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="218" t="s">
+      <c r="C3" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="216" t="s">
+      <c r="D3" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="167" t="s">
         <v>296</v>
       </c>
-      <c r="F3" s="218" t="s">
+      <c r="F3" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="222" t="s">
+      <c r="G3" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="172" t="s">
         <v>326</v>
       </c>
-      <c r="I3" s="218" t="s">
+      <c r="I3" s="168" t="s">
         <v>73</v>
       </c>
       <c r="J3" s="135"/>
@@ -12917,30 +12962,30 @@
     </row>
     <row r="4" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="172" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="216" t="s">
+      <c r="D4" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="167" t="s">
         <v>297</v>
       </c>
-      <c r="F4" s="218" t="s">
+      <c r="F4" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="222" t="s">
+      <c r="G4" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="172" t="s">
         <v>327</v>
       </c>
-      <c r="I4" s="218" t="s">
+      <c r="I4" s="168" t="s">
         <v>76</v>
       </c>
       <c r="J4" s="135"/>
@@ -12998,28 +13043,28 @@
       <c r="A5" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="172" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="218" t="s">
+      <c r="C5" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="219" t="s">
+      <c r="D5" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="216" t="s">
+      <c r="E5" s="167" t="s">
         <v>298</v>
       </c>
-      <c r="F5" s="218" t="s">
+      <c r="F5" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="222" t="s">
+      <c r="G5" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="172" t="s">
         <v>328</v>
       </c>
-      <c r="I5" s="218" t="s">
+      <c r="I5" s="168" t="s">
         <v>79</v>
       </c>
       <c r="J5" s="135"/>
@@ -13075,30 +13120,30 @@
     </row>
     <row r="6" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="172" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="219" t="s">
+      <c r="D6" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="216" t="s">
+      <c r="E6" s="167" t="s">
         <v>299</v>
       </c>
-      <c r="F6" s="218" t="s">
+      <c r="F6" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="222" t="s">
+      <c r="G6" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="172" t="s">
         <v>329</v>
       </c>
-      <c r="I6" s="218" t="s">
+      <c r="I6" s="168" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="135"/>
@@ -13156,28 +13201,28 @@
       <c r="A7" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="222" t="s">
+      <c r="B7" s="172" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="216" t="s">
+      <c r="D7" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="167" t="s">
         <v>300</v>
       </c>
-      <c r="F7" s="218" t="s">
+      <c r="F7" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="220" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="222" t="s">
+      <c r="G7" s="170" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="172" t="s">
         <v>330</v>
       </c>
-      <c r="I7" s="218" t="s">
+      <c r="I7" s="168" t="s">
         <v>85</v>
       </c>
       <c r="J7" s="135"/>
@@ -13233,21 +13278,21 @@
     </row>
     <row r="8" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="172" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="216" t="s">
+      <c r="D8" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="167" t="s">
         <v>301</v>
       </c>
-      <c r="F8" s="218" t="s">
+      <c r="F8" s="168" t="s">
         <v>87</v>
       </c>
       <c r="G8" s="81"/>
@@ -13308,19 +13353,19 @@
       <c r="A9" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="222" t="s">
+      <c r="B9" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="C9" s="218" t="s">
+      <c r="C9" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="216" t="s">
+      <c r="D9" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="167" t="s">
         <v>302</v>
       </c>
-      <c r="F9" s="218" t="s">
+      <c r="F9" s="168" t="s">
         <v>89</v>
       </c>
       <c r="G9" s="81"/>
@@ -13381,19 +13426,19 @@
       <c r="A10" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="222" t="s">
+      <c r="B10" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="218" t="s">
+      <c r="C10" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="216" t="s">
+      <c r="D10" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="167" t="s">
         <v>303</v>
       </c>
-      <c r="F10" s="218" t="s">
+      <c r="F10" s="168" t="s">
         <v>91</v>
       </c>
       <c r="G10" s="81"/>
@@ -13452,21 +13497,21 @@
     </row>
     <row r="11" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="139" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="172" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="168" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="222" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11" s="218" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="216" t="s">
+      <c r="E11" s="167" t="s">
         <v>304</v>
       </c>
-      <c r="F11" s="218" t="s">
+      <c r="F11" s="168" t="s">
         <v>93</v>
       </c>
       <c r="G11" s="81"/>
@@ -13525,21 +13570,21 @@
     </row>
     <row r="12" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="172" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="218" t="s">
+      <c r="C12" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="216" t="s">
+      <c r="D12" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="167" t="s">
         <v>305</v>
       </c>
-      <c r="F12" s="218" t="s">
+      <c r="F12" s="168" t="s">
         <v>95</v>
       </c>
       <c r="G12" s="81"/>
@@ -13598,21 +13643,21 @@
     </row>
     <row r="13" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="172" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="218" t="s">
+      <c r="C13" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="216" t="s">
+      <c r="D13" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="167" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="218" t="s">
+      <c r="F13" s="168" t="s">
         <v>97</v>
       </c>
       <c r="G13" s="81"/>
@@ -13671,21 +13716,21 @@
     </row>
     <row r="14" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="172" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="218" t="s">
+      <c r="C14" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="216" t="s">
+      <c r="D14" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="167" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="218" t="s">
+      <c r="F14" s="168" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="81"/>
@@ -13742,23 +13787,23 @@
       <c r="BF14" s="42"/>
       <c r="BG14" s="42"/>
     </row>
-    <row r="15" spans="1:59" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="222" t="s">
+      <c r="B15" s="172" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="218" t="s">
+      <c r="C15" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="216" t="s">
+      <c r="D15" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="167" t="s">
         <v>308</v>
       </c>
-      <c r="F15" s="218" t="s">
+      <c r="F15" s="168" t="s">
         <v>101</v>
       </c>
       <c r="G15" s="81"/>
@@ -13817,21 +13862,21 @@
     </row>
     <row r="16" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="139" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="172" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="168" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="222" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16" s="218" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="216" t="s">
+      <c r="E16" s="167" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="218" t="s">
+      <c r="F16" s="168" t="s">
         <v>103</v>
       </c>
       <c r="G16" s="81"/>
@@ -13888,23 +13933,23 @@
       <c r="BF16" s="42"/>
       <c r="BG16" s="42"/>
     </row>
-    <row r="17" spans="1:59" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="172" t="s">
         <v>279</v>
       </c>
-      <c r="C17" s="218" t="s">
+      <c r="C17" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="219" t="s">
+      <c r="D17" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="216" t="s">
+      <c r="E17" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="218" t="s">
+      <c r="F17" s="168" t="s">
         <v>105</v>
       </c>
       <c r="G17" s="81"/>
@@ -13963,21 +14008,21 @@
     </row>
     <row r="18" spans="1:59" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="172" t="s">
         <v>280</v>
       </c>
-      <c r="C18" s="218" t="s">
+      <c r="C18" s="168" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="216" t="s">
+      <c r="D18" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="167" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="218" t="s">
+      <c r="F18" s="168" t="s">
         <v>107</v>
       </c>
       <c r="G18" s="81"/>
@@ -14038,19 +14083,19 @@
       <c r="A19" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="222" t="s">
+      <c r="B19" s="172" t="s">
         <v>281</v>
       </c>
-      <c r="C19" s="218" t="s">
+      <c r="C19" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="219" t="s">
+      <c r="D19" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="216" t="s">
+      <c r="E19" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="F19" s="218" t="s">
+      <c r="F19" s="168" t="s">
         <v>109</v>
       </c>
       <c r="G19" s="81"/>
@@ -14109,21 +14154,21 @@
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="172" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="218" t="s">
+      <c r="C20" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="216" t="s">
+      <c r="D20" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="167" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="218" t="s">
+      <c r="F20" s="168" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="81"/>
@@ -14184,19 +14229,19 @@
       <c r="A21" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="222" t="s">
+      <c r="B21" s="172" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="218" t="s">
+      <c r="C21" s="168" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="219" t="s">
+      <c r="D21" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="216" t="s">
+      <c r="E21" s="167" t="s">
         <v>314</v>
       </c>
-      <c r="F21" s="218" t="s">
+      <c r="F21" s="168" t="s">
         <v>113</v>
       </c>
       <c r="G21" s="81"/>
@@ -14255,21 +14300,21 @@
     </row>
     <row r="22" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="139" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="172" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="222" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="218" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="216" t="s">
+      <c r="E22" s="167" t="s">
         <v>315</v>
       </c>
-      <c r="F22" s="218" t="s">
+      <c r="F22" s="168" t="s">
         <v>115</v>
       </c>
       <c r="G22" s="81"/>
@@ -14328,21 +14373,21 @@
     </row>
     <row r="23" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="172" t="s">
         <v>285</v>
       </c>
-      <c r="C23" s="218" t="s">
+      <c r="C23" s="168" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="216" t="s">
+      <c r="D23" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="167" t="s">
         <v>316</v>
       </c>
-      <c r="F23" s="218" t="s">
+      <c r="F23" s="168" t="s">
         <v>117</v>
       </c>
       <c r="G23" s="81"/>
@@ -14401,21 +14446,21 @@
     </row>
     <row r="24" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="172" t="s">
         <v>286</v>
       </c>
-      <c r="C24" s="218" t="s">
+      <c r="C24" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="216" t="s">
+      <c r="D24" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="167" t="s">
         <v>317</v>
       </c>
-      <c r="F24" s="218" t="s">
+      <c r="F24" s="168" t="s">
         <v>119</v>
       </c>
       <c r="G24" s="81"/>
@@ -14474,21 +14519,21 @@
     </row>
     <row r="25" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="172" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="218" t="s">
+      <c r="C25" s="168" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="216" t="s">
+      <c r="D25" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="167" t="s">
         <v>318</v>
       </c>
-      <c r="F25" s="218" t="s">
+      <c r="F25" s="168" t="s">
         <v>121</v>
       </c>
       <c r="G25" s="81"/>
@@ -14547,21 +14592,21 @@
     </row>
     <row r="26" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="172" t="s">
         <v>288</v>
       </c>
-      <c r="C26" s="218" t="s">
+      <c r="C26" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="216" t="s">
+      <c r="D26" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="167" t="s">
         <v>319</v>
       </c>
-      <c r="F26" s="218" t="s">
+      <c r="F26" s="168" t="s">
         <v>123</v>
       </c>
       <c r="G26" s="81"/>
@@ -14620,21 +14665,21 @@
     </row>
     <row r="27" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="172" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="218" t="s">
+      <c r="C27" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="216" t="s">
+      <c r="D27" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="167" t="s">
         <v>320</v>
       </c>
-      <c r="F27" s="218" t="s">
+      <c r="F27" s="168" t="s">
         <v>125</v>
       </c>
       <c r="G27" s="81"/>
@@ -14695,19 +14740,19 @@
       <c r="A28" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="222" t="s">
+      <c r="B28" s="172" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="218" t="s">
+      <c r="C28" s="168" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="216" t="s">
+      <c r="D28" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="167" t="s">
         <v>321</v>
       </c>
-      <c r="F28" s="218" t="s">
+      <c r="F28" s="168" t="s">
         <v>127</v>
       </c>
       <c r="G28" s="81"/>
@@ -14766,21 +14811,21 @@
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="172" t="s">
         <v>291</v>
       </c>
-      <c r="C29" s="218" t="s">
+      <c r="C29" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="219" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="216" t="s">
+      <c r="D29" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="167" t="s">
         <v>322</v>
       </c>
-      <c r="F29" s="218" t="s">
+      <c r="F29" s="168" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="81"/>
@@ -14839,21 +14884,21 @@
     </row>
     <row r="30" spans="1:59" s="81" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="172" t="s">
         <v>292</v>
       </c>
-      <c r="C30" s="218" t="s">
+      <c r="C30" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="220" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="216" t="s">
+      <c r="D30" s="170" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="167" t="s">
         <v>323</v>
       </c>
-      <c r="F30" s="218" t="s">
+      <c r="F30" s="168" t="s">
         <v>131</v>
       </c>
       <c r="I30" s="82"/>
@@ -14910,12 +14955,12 @@
     </row>
     <row r="31" spans="1:59" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="140" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="222" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="172" t="s">
         <v>293</v>
       </c>
-      <c r="C31" s="218" t="s">
+      <c r="C31" s="168" t="s">
         <v>132</v>
       </c>
       <c r="D31" s="81"/>
@@ -26745,10 +26790,10 @@
       <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="216" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="202">
+      <c r="B2" s="220">
         <v>1</v>
       </c>
       <c r="C2" s="69" t="s">
@@ -26804,8 +26849,8 @@
       <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="199"/>
-      <c r="B3" s="196"/>
+      <c r="A3" s="217"/>
+      <c r="B3" s="214"/>
       <c r="C3" s="71" t="s">
         <v>145</v>
       </c>
@@ -26856,8 +26901,8 @@
       <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="199"/>
-      <c r="B4" s="196"/>
+      <c r="A4" s="217"/>
+      <c r="B4" s="214"/>
       <c r="C4" s="71" t="s">
         <v>146</v>
       </c>
@@ -26908,8 +26953,8 @@
       <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199"/>
-      <c r="B5" s="201"/>
+      <c r="A5" s="217"/>
+      <c r="B5" s="219"/>
       <c r="C5" s="71" t="s">
         <v>147</v>
       </c>
@@ -26960,8 +27005,8 @@
       <c r="AH5" s="66"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="199"/>
-      <c r="B6" s="196">
+      <c r="A6" s="217"/>
+      <c r="B6" s="214">
         <v>2</v>
       </c>
       <c r="C6" s="71" t="s">
@@ -27016,8 +27061,8 @@
       <c r="AH6" s="66"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="199"/>
-      <c r="B7" s="196"/>
+      <c r="A7" s="217"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="71" t="s">
         <v>149</v>
       </c>
@@ -27068,8 +27113,8 @@
       <c r="AH7" s="66"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="196"/>
+      <c r="A8" s="217"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="71" t="s">
         <v>150</v>
       </c>
@@ -27119,8 +27164,8 @@
       <c r="AH8" s="66"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
-      <c r="B9" s="196"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="214"/>
       <c r="C9" s="71" t="s">
         <v>151</v>
       </c>
@@ -27175,8 +27220,8 @@
       <c r="AH9" s="66"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="199"/>
-      <c r="B10" s="196">
+      <c r="A10" s="217"/>
+      <c r="B10" s="214">
         <v>3</v>
       </c>
       <c r="C10" s="71" t="s">
@@ -27234,8 +27279,8 @@
       <c r="AH10" s="66"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="199"/>
-      <c r="B11" s="196"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="214"/>
       <c r="C11" s="71" t="s">
         <v>156</v>
       </c>
@@ -27290,8 +27335,8 @@
       <c r="AH11" s="66"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="199"/>
-      <c r="B12" s="196"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="71" t="s">
         <v>158</v>
       </c>
@@ -27349,8 +27394,8 @@
       <c r="AH12" s="66"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
-      <c r="B13" s="196"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="214"/>
       <c r="C13" s="71" t="s">
         <v>163</v>
       </c>
@@ -27416,8 +27461,8 @@
       <c r="AH13" s="66"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="199"/>
-      <c r="B14" s="196">
+      <c r="A14" s="217"/>
+      <c r="B14" s="214">
         <v>4</v>
       </c>
       <c r="C14" s="71" t="s">
@@ -27484,8 +27529,8 @@
       <c r="AH14" s="66"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="199"/>
-      <c r="B15" s="196"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="71" t="s">
         <v>166</v>
       </c>
@@ -27548,8 +27593,8 @@
       <c r="AH15" s="66"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="199"/>
-      <c r="B16" s="196"/>
+      <c r="A16" s="217"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="71" t="s">
         <v>167</v>
       </c>
@@ -27612,8 +27657,8 @@
       <c r="AH16" s="66"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="199"/>
-      <c r="B17" s="196"/>
+      <c r="A17" s="217"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="71" t="s">
         <v>168</v>
       </c>
@@ -27676,8 +27721,8 @@
       <c r="AH17" s="66"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="199"/>
-      <c r="B18" s="196">
+      <c r="A18" s="217"/>
+      <c r="B18" s="214">
         <v>5</v>
       </c>
       <c r="C18" s="71" t="s">
@@ -27744,8 +27789,8 @@
       <c r="AH18" s="66"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="199"/>
-      <c r="B19" s="196"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="214"/>
       <c r="C19" s="71" t="s">
         <v>170</v>
       </c>
@@ -27809,8 +27854,8 @@
       <c r="AH19" s="66"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="199"/>
-      <c r="B20" s="196"/>
+      <c r="A20" s="217"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="71" t="s">
         <v>171</v>
       </c>
@@ -27873,8 +27918,8 @@
       <c r="AH20" s="66"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="199"/>
-      <c r="B21" s="196"/>
+      <c r="A21" s="217"/>
+      <c r="B21" s="214"/>
       <c r="C21" s="71" t="s">
         <v>172</v>
       </c>
@@ -27937,8 +27982,8 @@
       <c r="AG21" s="80"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="199"/>
-      <c r="B22" s="196">
+      <c r="A22" s="217"/>
+      <c r="B22" s="214">
         <v>6</v>
       </c>
       <c r="C22" s="71" t="s">
@@ -28004,8 +28049,8 @@
       <c r="AG22" s="80"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="199"/>
-      <c r="B23" s="196"/>
+      <c r="A23" s="217"/>
+      <c r="B23" s="214"/>
       <c r="C23" s="71" t="s">
         <v>174</v>
       </c>
@@ -28070,8 +28115,8 @@
       <c r="AG23" s="80"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="199"/>
-      <c r="B24" s="196"/>
+      <c r="A24" s="217"/>
+      <c r="B24" s="214"/>
       <c r="C24" s="71" t="s">
         <v>175</v>
       </c>
@@ -28132,8 +28177,8 @@
       <c r="AG24" s="80"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="199"/>
-      <c r="B25" s="196"/>
+      <c r="A25" s="217"/>
+      <c r="B25" s="214"/>
       <c r="C25" s="71" t="s">
         <v>176</v>
       </c>
@@ -28191,8 +28236,8 @@
       <c r="AG25" s="66"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="199"/>
-      <c r="B26" s="196">
+      <c r="A26" s="217"/>
+      <c r="B26" s="214">
         <v>7</v>
       </c>
       <c r="C26" s="71" t="s">
@@ -28252,8 +28297,8 @@
       <c r="AG26" s="66"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="199"/>
-      <c r="B27" s="196"/>
+      <c r="A27" s="217"/>
+      <c r="B27" s="214"/>
       <c r="C27" s="71" t="s">
         <v>178</v>
       </c>
@@ -28309,8 +28354,8 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="199"/>
-      <c r="B28" s="196"/>
+      <c r="A28" s="217"/>
+      <c r="B28" s="214"/>
       <c r="C28" s="71" t="s">
         <v>180</v>
       </c>
@@ -28366,8 +28411,8 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="199"/>
-      <c r="B29" s="196"/>
+      <c r="A29" s="217"/>
+      <c r="B29" s="214"/>
       <c r="C29" s="71" t="s">
         <v>182</v>
       </c>
@@ -28424,8 +28469,8 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="199"/>
-      <c r="B30" s="196">
+      <c r="A30" s="217"/>
+      <c r="B30" s="214">
         <v>8</v>
       </c>
       <c r="C30" s="71" t="s">
@@ -28483,8 +28528,8 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="199"/>
-      <c r="B31" s="196"/>
+      <c r="A31" s="217"/>
+      <c r="B31" s="214"/>
       <c r="C31" s="71" t="s">
         <v>187</v>
       </c>
@@ -28539,8 +28584,8 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="199"/>
-      <c r="B32" s="196"/>
+      <c r="A32" s="217"/>
+      <c r="B32" s="214"/>
       <c r="C32" s="71" t="s">
         <v>189</v>
       </c>
@@ -28590,8 +28635,8 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="199"/>
-      <c r="B33" s="196"/>
+      <c r="A33" s="217"/>
+      <c r="B33" s="214"/>
       <c r="C33" s="71" t="s">
         <v>190</v>
       </c>
@@ -28637,8 +28682,8 @@
       <c r="AA33" s="66"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="199"/>
-      <c r="B34" s="196">
+      <c r="A34" s="217"/>
+      <c r="B34" s="214">
         <v>9</v>
       </c>
       <c r="C34" s="71" t="s">
@@ -28684,8 +28729,8 @@
       <c r="AA34" s="66"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="199"/>
-      <c r="B35" s="196"/>
+      <c r="A35" s="217"/>
+      <c r="B35" s="214"/>
       <c r="C35" s="71" t="s">
         <v>192</v>
       </c>
@@ -28728,8 +28773,8 @@
       <c r="AA35" s="66"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="199"/>
-      <c r="B36" s="196"/>
+      <c r="A36" s="217"/>
+      <c r="B36" s="214"/>
       <c r="C36" s="71" t="s">
         <v>193</v>
       </c>
@@ -28774,8 +28819,8 @@
       <c r="AA36" s="66"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="199"/>
-      <c r="B37" s="196"/>
+      <c r="A37" s="217"/>
+      <c r="B37" s="214"/>
       <c r="C37" s="71" t="s">
         <v>194</v>
       </c>
@@ -28818,8 +28863,8 @@
       <c r="AA37" s="66"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="199"/>
-      <c r="B38" s="196">
+      <c r="A38" s="217"/>
+      <c r="B38" s="214">
         <v>10</v>
       </c>
       <c r="C38" s="71" t="s">
@@ -28867,8 +28912,8 @@
       <c r="AH38" s="66"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="199"/>
-      <c r="B39" s="196"/>
+      <c r="A39" s="217"/>
+      <c r="B39" s="214"/>
       <c r="C39" s="71" t="s">
         <v>196</v>
       </c>
@@ -28913,8 +28958,8 @@
       <c r="AH39" s="66"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="199"/>
-      <c r="B40" s="196"/>
+      <c r="A40" s="217"/>
+      <c r="B40" s="214"/>
       <c r="C40" s="71" t="s">
         <v>197</v>
       </c>
@@ -28958,8 +29003,8 @@
       <c r="AH40" s="66"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="199"/>
-      <c r="B41" s="196"/>
+      <c r="A41" s="217"/>
+      <c r="B41" s="214"/>
       <c r="C41" s="71" t="s">
         <v>198</v>
       </c>
@@ -29009,8 +29054,8 @@
       <c r="AH41" s="66"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="199"/>
-      <c r="B42" s="196">
+      <c r="A42" s="217"/>
+      <c r="B42" s="214">
         <v>11</v>
       </c>
       <c r="C42" s="71" t="s">
@@ -29063,8 +29108,8 @@
       <c r="AH42" s="66"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="199"/>
-      <c r="B43" s="196"/>
+      <c r="A43" s="217"/>
+      <c r="B43" s="214"/>
       <c r="C43" s="71" t="s">
         <v>200</v>
       </c>
@@ -29117,8 +29162,8 @@
       <c r="AH43" s="66"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="199"/>
-      <c r="B44" s="196"/>
+      <c r="A44" s="217"/>
+      <c r="B44" s="214"/>
       <c r="C44" s="71" t="s">
         <v>201</v>
       </c>
@@ -29168,8 +29213,8 @@
       <c r="AH44" s="66"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="199"/>
-      <c r="B45" s="196"/>
+      <c r="A45" s="217"/>
+      <c r="B45" s="214"/>
       <c r="C45" s="71" t="s">
         <v>202</v>
       </c>
@@ -29219,8 +29264,8 @@
       <c r="AH45" s="66"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="199"/>
-      <c r="B46" s="196">
+      <c r="A46" s="217"/>
+      <c r="B46" s="214">
         <v>12</v>
       </c>
       <c r="C46" s="71" t="s">
@@ -29274,8 +29319,8 @@
       <c r="AH46" s="66"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="199"/>
-      <c r="B47" s="196"/>
+      <c r="A47" s="217"/>
+      <c r="B47" s="214"/>
       <c r="C47" s="71" t="s">
         <v>204</v>
       </c>
@@ -29325,8 +29370,8 @@
       <c r="AH47" s="66"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="199"/>
-      <c r="B48" s="196"/>
+      <c r="A48" s="217"/>
+      <c r="B48" s="214"/>
       <c r="C48" s="71" t="s">
         <v>205</v>
       </c>
@@ -29378,8 +29423,8 @@
       <c r="AH48" s="66"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="199"/>
-      <c r="B49" s="196"/>
+      <c r="A49" s="217"/>
+      <c r="B49" s="214"/>
       <c r="C49" s="71" t="s">
         <v>206</v>
       </c>
@@ -29429,8 +29474,8 @@
       <c r="AH49" s="66"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="199"/>
-      <c r="B50" s="196">
+      <c r="A50" s="217"/>
+      <c r="B50" s="214">
         <v>13</v>
       </c>
       <c r="C50" s="71" t="s">
@@ -29484,8 +29529,8 @@
       <c r="AH50" s="66"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="199"/>
-      <c r="B51" s="196"/>
+      <c r="A51" s="217"/>
+      <c r="B51" s="214"/>
       <c r="C51" s="71" t="s">
         <v>208</v>
       </c>
@@ -29535,8 +29580,8 @@
       <c r="AH51" s="66"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="199"/>
-      <c r="B52" s="196"/>
+      <c r="A52" s="217"/>
+      <c r="B52" s="214"/>
       <c r="C52" s="71" t="s">
         <v>209</v>
       </c>
@@ -29585,8 +29630,8 @@
       <c r="AH52" s="66"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="199"/>
-      <c r="B53" s="196"/>
+      <c r="A53" s="217"/>
+      <c r="B53" s="214"/>
       <c r="C53" s="71" t="s">
         <v>210</v>
       </c>
@@ -29636,8 +29681,8 @@
       <c r="AH53" s="66"/>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="199"/>
-      <c r="B54" s="196">
+      <c r="A54" s="217"/>
+      <c r="B54" s="214">
         <v>14</v>
       </c>
       <c r="C54" s="71" t="s">
@@ -29691,8 +29736,8 @@
       <c r="AH54" s="66"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="199"/>
-      <c r="B55" s="196"/>
+      <c r="A55" s="217"/>
+      <c r="B55" s="214"/>
       <c r="C55" s="71" t="s">
         <v>212</v>
       </c>
@@ -29743,8 +29788,8 @@
       <c r="AH55" s="66"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="199"/>
-      <c r="B56" s="196"/>
+      <c r="A56" s="217"/>
+      <c r="B56" s="214"/>
       <c r="C56" s="71" t="s">
         <v>213</v>
       </c>
@@ -29794,8 +29839,8 @@
       <c r="AH56" s="66"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="199"/>
-      <c r="B57" s="196"/>
+      <c r="A57" s="217"/>
+      <c r="B57" s="214"/>
       <c r="C57" s="71" t="s">
         <v>214</v>
       </c>
@@ -29846,8 +29891,8 @@
       <c r="AH57" s="66"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="199"/>
-      <c r="B58" s="196">
+      <c r="A58" s="217"/>
+      <c r="B58" s="214">
         <v>15</v>
       </c>
       <c r="C58" s="71" t="s">
@@ -29902,8 +29947,8 @@
       <c r="AH58" s="66"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="199"/>
-      <c r="B59" s="196"/>
+      <c r="A59" s="217"/>
+      <c r="B59" s="214"/>
       <c r="C59" s="71" t="s">
         <v>216</v>
       </c>
@@ -29954,8 +29999,8 @@
       <c r="AH59" s="66"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="199"/>
-      <c r="B60" s="196"/>
+      <c r="A60" s="217"/>
+      <c r="B60" s="214"/>
       <c r="C60" s="71" t="s">
         <v>217</v>
       </c>
@@ -30006,8 +30051,8 @@
       <c r="AH60" s="66"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" s="200"/>
-      <c r="B61" s="197"/>
+      <c r="A61" s="218"/>
+      <c r="B61" s="215"/>
       <c r="C61" s="73" t="s">
         <v>218</v>
       </c>
@@ -30058,10 +30103,10 @@
       <c r="AH61" s="66"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="198" t="s">
+      <c r="A62" s="216" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="201">
+      <c r="B62" s="219">
         <v>16</v>
       </c>
       <c r="C62" s="71" t="s">
@@ -30099,7 +30144,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="72">
-        <f t="shared" ref="Y62:Y65" si="5">SUM(U62:X62)</f>
+        <f>SUM(U62:X62)</f>
         <v>0</v>
       </c>
       <c r="Z62" s="66"/>
@@ -30113,8 +30158,8 @@
       <c r="AH62" s="66"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" s="199"/>
-      <c r="B63" s="196"/>
+      <c r="A63" s="217"/>
+      <c r="B63" s="214"/>
       <c r="C63" s="71" t="s">
         <v>220</v>
       </c>
@@ -30150,7 +30195,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="72">
-        <f t="shared" si="5"/>
+        <f>SUM(U63:X63)</f>
         <v>0</v>
       </c>
       <c r="Z63" s="66"/>
@@ -30164,8 +30209,8 @@
       <c r="AH63" s="66"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="199"/>
-      <c r="B64" s="196"/>
+      <c r="A64" s="217"/>
+      <c r="B64" s="214"/>
       <c r="C64" s="71" t="s">
         <v>221</v>
       </c>
@@ -30201,7 +30246,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="72">
-        <f t="shared" si="5"/>
+        <f>SUM(U64:X64)</f>
         <v>0</v>
       </c>
       <c r="Z64" s="66"/>
@@ -30215,8 +30260,8 @@
       <c r="AH64" s="66"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="199"/>
-      <c r="B65" s="196"/>
+      <c r="A65" s="217"/>
+      <c r="B65" s="214"/>
       <c r="C65" s="71" t="s">
         <v>222</v>
       </c>
@@ -30252,7 +30297,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="72">
-        <f t="shared" si="5"/>
+        <f>SUM(U65:X65)</f>
         <v>0</v>
       </c>
       <c r="Z65" s="66"/>
@@ -30266,8 +30311,8 @@
       <c r="AH65" s="66"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="199"/>
-      <c r="B66" s="196">
+      <c r="A66" s="217"/>
+      <c r="B66" s="214">
         <v>17</v>
       </c>
       <c r="C66" s="71" t="s">
@@ -30305,7 +30350,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="72">
-        <f t="shared" ref="Y66:Y77" si="6">SUM(U66:X66)</f>
+        <f t="shared" ref="Y66:Y77" si="5">SUM(U66:X66)</f>
         <v>0</v>
       </c>
       <c r="Z66" s="66"/>
@@ -30319,8 +30364,8 @@
       <c r="AH66" s="66"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A67" s="199"/>
-      <c r="B67" s="196"/>
+      <c r="A67" s="217"/>
+      <c r="B67" s="214"/>
       <c r="C67" s="71" t="s">
         <v>224</v>
       </c>
@@ -30356,7 +30401,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z67" s="66"/>
@@ -30370,8 +30415,8 @@
       <c r="AH67" s="66"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="199"/>
-      <c r="B68" s="196"/>
+      <c r="A68" s="217"/>
+      <c r="B68" s="214"/>
       <c r="C68" s="71" t="s">
         <v>225</v>
       </c>
@@ -30407,7 +30452,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z68" s="66"/>
@@ -30421,8 +30466,8 @@
       <c r="AH68" s="66"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="199"/>
-      <c r="B69" s="196"/>
+      <c r="A69" s="217"/>
+      <c r="B69" s="214"/>
       <c r="C69" s="71" t="s">
         <v>226</v>
       </c>
@@ -30458,7 +30503,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z69" s="66"/>
@@ -30472,8 +30517,8 @@
       <c r="AH69" s="66"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="199"/>
-      <c r="B70" s="196">
+      <c r="A70" s="217"/>
+      <c r="B70" s="214">
         <v>18</v>
       </c>
       <c r="C70" s="71" t="s">
@@ -30511,7 +30556,7 @@
         <v>0</v>
       </c>
       <c r="Y70" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z70" s="66"/>
@@ -30525,8 +30570,8 @@
       <c r="AH70" s="66"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="199"/>
-      <c r="B71" s="196"/>
+      <c r="A71" s="217"/>
+      <c r="B71" s="214"/>
       <c r="C71" s="71" t="s">
         <v>228</v>
       </c>
@@ -30562,7 +30607,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z71" s="66"/>
@@ -30576,8 +30621,8 @@
       <c r="AH71" s="66"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="199"/>
-      <c r="B72" s="196"/>
+      <c r="A72" s="217"/>
+      <c r="B72" s="214"/>
       <c r="C72" s="71" t="s">
         <v>229</v>
       </c>
@@ -30613,7 +30658,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z72" s="66"/>
@@ -30627,8 +30672,8 @@
       <c r="AH72" s="66"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="199"/>
-      <c r="B73" s="196"/>
+      <c r="A73" s="217"/>
+      <c r="B73" s="214"/>
       <c r="C73" s="71" t="s">
         <v>230</v>
       </c>
@@ -30664,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z73" s="66"/>
@@ -30678,8 +30723,8 @@
       <c r="AH73" s="66"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="199"/>
-      <c r="B74" s="196">
+      <c r="A74" s="217"/>
+      <c r="B74" s="214">
         <v>19</v>
       </c>
       <c r="C74" s="71" t="s">
@@ -30717,7 +30762,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z74" s="66"/>
@@ -30731,8 +30776,8 @@
       <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="199"/>
-      <c r="B75" s="196"/>
+      <c r="A75" s="217"/>
+      <c r="B75" s="214"/>
       <c r="C75" s="71" t="s">
         <v>232</v>
       </c>
@@ -30768,7 +30813,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z75" s="66"/>
@@ -30782,8 +30827,8 @@
       <c r="AH75" s="66"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="199"/>
-      <c r="B76" s="196"/>
+      <c r="A76" s="217"/>
+      <c r="B76" s="214"/>
       <c r="C76" s="71" t="s">
         <v>233</v>
       </c>
@@ -30819,7 +30864,7 @@
         <v>0</v>
       </c>
       <c r="Y76" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z76" s="66"/>
@@ -30833,8 +30878,8 @@
       <c r="AH76" s="66"/>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="200"/>
-      <c r="B77" s="197"/>
+      <c r="A77" s="218"/>
+      <c r="B77" s="215"/>
       <c r="C77" s="73" t="s">
         <v>234</v>
       </c>
@@ -30870,7 +30915,7 @@
         <v>0</v>
       </c>
       <c r="Y77" s="74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z77" s="66"/>
@@ -30892,63 +30937,63 @@
         <v>0</v>
       </c>
       <c r="E78" s="87">
-        <f t="shared" ref="E78:S78" si="7">SUM(E2:E77)</f>
+        <f t="shared" ref="E78:S78" si="6">SUM(E2:E77)</f>
         <v>4</v>
       </c>
       <c r="F78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="H78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="I78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="J78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="K78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="L78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="N78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="O78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="P78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="Q78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="R78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="S78" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T78" s="66"/>
@@ -31021,10 +31066,10 @@
     <row r="80" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="66"/>
       <c r="B80" s="66"/>
-      <c r="C80" s="205" t="s">
+      <c r="C80" s="210" t="s">
         <v>235</v>
       </c>
-      <c r="D80" s="206"/>
+      <c r="D80" s="211"/>
       <c r="E80" s="70">
         <v>60</v>
       </c>
@@ -31063,10 +31108,10 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="66"/>
       <c r="B81" s="66"/>
-      <c r="C81" s="207" t="s">
+      <c r="C81" s="212" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="208"/>
+      <c r="D81" s="213"/>
       <c r="E81" s="72">
         <v>322.5</v>
       </c>
@@ -31103,10 +31148,10 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="66"/>
-      <c r="C82" s="207" t="s">
+      <c r="C82" s="212" t="s">
         <v>238</v>
       </c>
-      <c r="D82" s="208"/>
+      <c r="D82" s="213"/>
       <c r="E82" s="72">
         <v>35</v>
       </c>
@@ -31143,10 +31188,10 @@
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="B83" s="66"/>
-      <c r="C83" s="207" t="s">
+      <c r="C83" s="212" t="s">
         <v>239</v>
       </c>
-      <c r="D83" s="208"/>
+      <c r="D83" s="213"/>
       <c r="E83" s="72">
         <v>287</v>
       </c>
@@ -31183,10 +31228,10 @@
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="B84" s="66"/>
-      <c r="C84" s="207" t="s">
+      <c r="C84" s="212" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="208"/>
+      <c r="D84" s="213"/>
       <c r="E84" s="72">
         <v>60</v>
       </c>
@@ -31223,10 +31268,10 @@
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
       <c r="B85" s="66"/>
-      <c r="C85" s="203" t="s">
+      <c r="C85" s="208" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="204"/>
+      <c r="D85" s="209"/>
       <c r="E85" s="74">
         <f>Y79</f>
         <v>483</v>
@@ -31294,17 +31339,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="B74:B77"/>
@@ -31321,6 +31355,17 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31337,70 +31382,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="159" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="160" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="159" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="161">
         <v>45579</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="159" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="162" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="159" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="163" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="159" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="165">
-        <v>1.2</v>
+      <c r="B5" s="164">
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="159" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="162">
-        <v>45602</v>
+      <c r="B6" s="161">
+        <v>45632</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="159" t="s">
         <v>339</v>
       </c>
-      <c r="B7" s="163" t="s">
-        <v>347</v>
+      <c r="B7" s="162" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="159" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="160" t="s">
         <v>342</v>
       </c>
     </row>
@@ -31649,21 +31695,21 @@
     </row>
     <row r="5" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="209" t="s">
+      <c r="B5" s="221" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
-      <c r="L5" s="210"/>
-      <c r="M5" s="210"/>
-      <c r="N5" s="211"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="223"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -31743,21 +31789,21 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="224" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="212"/>
+      <c r="B11" s="224"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="212"/>
+      <c r="B12" s="224"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="212"/>
+      <c r="B13" s="224"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="212"/>
+      <c r="B14" s="224"/>
     </row>
     <row r="21" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R21" s="18"/>
@@ -31777,37 +31823,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="d03ffd70-462c-4172-9015-a0cdff42c83c">
-      <UserInfo>
-        <DisplayName>Craig Stevens</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Afzan Matloob</DisplayName>
-        <AccountId>46</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65f98c99-c090-489b-8346-b847c18a5011">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060D9039996957B47A2820CA7E129C20F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61c230ac488284aa1c9442a337ce5a7f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65f98c99-c090-489b-8346-b847c18a5011" xmlns:ns3="d03ffd70-462c-4172-9015-a0cdff42c83c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4cea2a2cd68f11dd2b0a1fdf049f3860" ns2:_="" ns3:_="">
     <xsd:import namespace="65f98c99-c090-489b-8346-b847c18a5011"/>
@@ -32024,10 +32039,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="d03ffd70-462c-4172-9015-a0cdff42c83c">
+      <UserInfo>
+        <DisplayName>Craig Stevens</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Afzan Matloob</DisplayName>
+        <AccountId>46</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65f98c99-c090-489b-8346-b847c18a5011">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{710DD5DA-09F7-4D7C-A10A-C80CDC0D2E16}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="65f98c99-c090-489b-8346-b847c18a5011"/>
+    <ds:schemaRef ds:uri="d03ffd70-462c-4172-9015-a0cdff42c83c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32044,20 +32101,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{710DD5DA-09F7-4D7C-A10A-C80CDC0D2E16}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="65f98c99-c090-489b-8346-b847c18a5011"/>
-    <ds:schemaRef ds:uri="d03ffd70-462c-4172-9015-a0cdff42c83c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/OTJ Tracker Data Engineer L5.xlsx
+++ b/OTJ Tracker Data Engineer L5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laho2188\Documents\GitHub\Learning-Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF354459-59C3-4F4E-9287-6B2987E9AC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E567AA-F0DF-48F6-B1C5-3941B5D632E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OTJT Log" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="375">
   <si>
     <t xml:space="preserve">Apprenticeship Training Log </t>
   </si>
@@ -1208,6 +1208,36 @@
   </si>
   <si>
     <t>Research (internal wikis, etc.) - K28, K29, S14, S28, S29, B1, B6</t>
+  </si>
+  <si>
+    <t>Cleaning Log apps x2 - gathering requirements from the clients</t>
+  </si>
+  <si>
+    <t>Cleaning Log apps x2 - buildings the apps</t>
+  </si>
+  <si>
+    <t>Cleaning Log apps x2 - presenting the apps to the clients</t>
+  </si>
+  <si>
+    <t>K1, K3, K5, K6, K7, K8, K9, K10, K11, K12, K13, K16, K17, K20, K21, K22, K23, K24, K25, K28, K29, K30, S1, S2, S3, S5, S8, S11, S12, S13, S14,  S17, S19, S22, S23, S24, S25, S26, S27, S28, B1, B2, B3, B4, B5, B6</t>
+  </si>
+  <si>
+    <t>K1, K2, K3, K4, K5, K6, K7, K8, K9, K10, K11, K12, K13, K14, K15, K16, K17, K18, K19, K20, K22, K25, K28, K29, K30, S1, S2, S3, S4, S6, S8, S9, S10, S11, S12, S13,  S15, S17, S18, S19, S22, S23, S24, S25, S26, S27, S28, B1, B2, B3, B4, B5, B6</t>
+  </si>
+  <si>
+    <t>K1, K5, K6, K11, K17, K18, K25, K28, K29, K30, S1, S6, S7, S8, S10, S11, S12, S13, S15, S17, S18, S19, S20, S21, S22, S24, S25, S26, B1, B2, B3, B4, B5, B6</t>
+  </si>
+  <si>
+    <t>K1, K5, K11, K16, K17, K18, K20, K21, K23, K25, K27, K28, K29, K30, S1, S2, S4, S8, S11, S12, S13, S17, S18,  S19, S23, S24, B1, B2, B3, B4, B5, B6</t>
+  </si>
+  <si>
+    <t>Cleaning Log apps x2 - testing the apps/fixing the issues</t>
+  </si>
+  <si>
+    <t>Identifying/fixing issues from the new UK blob/server</t>
+  </si>
+  <si>
+    <t>K1, K2, K3, K4, K5, K7, K8, K9, K10, K11, K12, K13, K14, K15, K16, K17, K18, K19, K20, K21, K22, K24, K25, K26, K28, K29, K30, S1, S2, S3, S4, S5, S7, S8, S9, S10, S11, S12, S13, S17, S19, S20, S22, S23, S24, S25, S26, S27, S28, B1, B2, B3, B4, B5, B6</t>
   </si>
 </sst>
 </file>
@@ -2328,7 +2358,7 @@
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2453,9 +2483,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3302,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,12 +3395,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="198"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="197"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="2"/>
@@ -3404,14 +3431,14 @@
     </row>
     <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="179"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="178"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="52"/>
@@ -3509,14 +3536,14 @@
       <c r="G5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="195"/>
+      <c r="H5" s="194"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="182"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3547,33 +3574,33 @@
     </row>
     <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="130" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="175">
+      <c r="D6" s="174">
         <v>45554</v>
       </c>
-      <c r="E6" s="132">
+      <c r="E6" s="131">
         <v>4</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="124">
+      <c r="G6" s="123">
         <f t="shared" ref="G6:G18" si="0">IF(NOT(ISBLANK(D6)), SUM(E6:F6), 0)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="195"/>
+      <c r="H6" s="194"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="130"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="129"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -3610,20 +3637,20 @@
       <c r="C7" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="D7" s="176">
+      <c r="D7" s="175">
         <v>45582</v>
       </c>
       <c r="E7" s="56">
         <v>12</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F7" s="124">
         <v>15</v>
       </c>
-      <c r="G7" s="124">
+      <c r="G7" s="123">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="H7" s="195"/>
+      <c r="H7" s="194"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3667,20 +3694,20 @@
       <c r="C8" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="176">
+      <c r="D8" s="175">
         <v>45617</v>
       </c>
       <c r="E8" s="56">
         <v>15</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F8" s="124">
         <v>17</v>
       </c>
-      <c r="G8" s="124">
+      <c r="G8" s="123">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="195"/>
+      <c r="H8" s="194"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3722,18 +3749,18 @@
         <v>12</v>
       </c>
       <c r="C9" s="56"/>
-      <c r="D9" s="133"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="56">
         <v>27</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="124">
         <v>27</v>
       </c>
-      <c r="G9" s="124">
+      <c r="G9" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="195"/>
+      <c r="H9" s="194"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3771,22 +3798,22 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="82" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="133"/>
+      <c r="D10" s="132"/>
       <c r="E10" s="56">
         <v>12</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10" s="124">
         <v>12</v>
       </c>
-      <c r="G10" s="124">
+      <c r="G10" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="195"/>
+      <c r="H10" s="194"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3828,18 +3855,18 @@
         <v>14</v>
       </c>
       <c r="C11" s="56"/>
-      <c r="D11" s="133"/>
+      <c r="D11" s="132"/>
       <c r="E11" s="56">
         <v>24</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="124">
         <v>22</v>
       </c>
-      <c r="G11" s="124">
+      <c r="G11" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="195"/>
+      <c r="H11" s="194"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3881,18 +3908,18 @@
         <v>15</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="133"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="56">
         <v>9</v>
       </c>
-      <c r="F12" s="125">
+      <c r="F12" s="124">
         <v>12</v>
       </c>
-      <c r="G12" s="124">
+      <c r="G12" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="195"/>
+      <c r="H12" s="194"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3934,18 +3961,18 @@
         <v>16</v>
       </c>
       <c r="C13" s="56"/>
-      <c r="D13" s="133"/>
+      <c r="D13" s="132"/>
       <c r="E13" s="56">
         <v>12</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="124">
         <v>12</v>
       </c>
-      <c r="G13" s="124">
+      <c r="G13" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="195"/>
+      <c r="H13" s="194"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3987,18 +4014,18 @@
         <v>17</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="133"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="56">
         <v>21</v>
       </c>
-      <c r="F14" s="125">
+      <c r="F14" s="124">
         <v>22</v>
       </c>
-      <c r="G14" s="124">
+      <c r="G14" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="195"/>
+      <c r="H14" s="194"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4040,18 +4067,18 @@
         <v>18</v>
       </c>
       <c r="C15" s="56"/>
-      <c r="D15" s="133"/>
+      <c r="D15" s="132"/>
       <c r="E15" s="56">
         <v>18</v>
       </c>
-      <c r="F15" s="125">
+      <c r="F15" s="124">
         <v>12</v>
       </c>
-      <c r="G15" s="124">
+      <c r="G15" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="195"/>
+      <c r="H15" s="194"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4093,18 +4120,18 @@
         <v>19</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="133"/>
+      <c r="D16" s="132"/>
       <c r="E16" s="56">
         <v>15</v>
       </c>
-      <c r="F16" s="125">
+      <c r="F16" s="124">
         <v>12</v>
       </c>
-      <c r="G16" s="124">
+      <c r="G16" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="195"/>
+      <c r="H16" s="194"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -4146,25 +4173,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="56"/>
-      <c r="D17" s="133"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="56">
         <v>15</v>
       </c>
-      <c r="F17" s="125">
+      <c r="F17" s="124">
         <v>12</v>
       </c>
-      <c r="G17" s="124">
+      <c r="G17" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="195"/>
+      <c r="H17" s="194"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="182"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="181"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -4203,14 +4230,14 @@
       <c r="E18" s="56">
         <v>11</v>
       </c>
-      <c r="F18" s="126">
+      <c r="F18" s="125">
         <v>0</v>
       </c>
-      <c r="G18" s="124">
+      <c r="G18" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="195"/>
+      <c r="H18" s="194"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -4257,15 +4284,15 @@
         <f>SUM(E6:E18)</f>
         <v>195</v>
       </c>
-      <c r="F19" s="127">
+      <c r="F19" s="126">
         <f>SUM(F7:F18)</f>
         <v>175</v>
       </c>
-      <c r="G19" s="128">
+      <c r="G19" s="127">
         <f>SUM(G6:G18)</f>
         <v>63</v>
       </c>
-      <c r="H19" s="195"/>
+      <c r="H19" s="194"/>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -4405,10 +4432,10 @@
       <c r="B22" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="177">
+      <c r="D22" s="176">
         <v>45617</v>
       </c>
       <c r="E22" s="56">
@@ -4419,14 +4446,14 @@
         <f>IF(NOT(ISBLANK(D22)), SUM(E22:F22), 0)</f>
         <v>24</v>
       </c>
-      <c r="H22" s="203"/>
+      <c r="H22" s="202"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="182"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="181"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4470,7 +4497,7 @@
         <f>IF(NOT(ISBLANK(D23)), SUM(E23:F23), 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="203"/>
+      <c r="H23" s="202"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4521,7 +4548,7 @@
         <f>IF(NOT(ISBLANK(D24)), SUM(E24:F24), 0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="203"/>
+      <c r="H24" s="202"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4572,7 +4599,7 @@
         <f>IF(NOT(ISBLANK(D25)), SUM(E25:F25), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="203"/>
+      <c r="H25" s="202"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4623,7 +4650,7 @@
         <f>IF(NOT(ISBLANK(D26)), SUM(E26:F26), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="203"/>
+      <c r="H26" s="202"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4667,7 +4694,7 @@
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
-      <c r="H27" s="203"/>
+      <c r="H27" s="202"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4722,7 +4749,7 @@
         <f>SUM(G22:H27)</f>
         <v>24</v>
       </c>
-      <c r="H28" s="203"/>
+      <c r="H28" s="202"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4760,20 +4787,20 @@
     </row>
     <row r="29" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="189"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="191"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="190"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="181"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="182"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="181"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -4811,12 +4838,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187"/>
-      <c r="O30" s="188"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="186"/>
+      <c r="L30" s="186"/>
+      <c r="M30" s="186"/>
+      <c r="N30" s="186"/>
+      <c r="O30" s="187"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -4847,13 +4874,13 @@
     </row>
     <row r="31" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="192" t="s">
+      <c r="B31" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="194"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="193"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -5033,23 +5060,23 @@
       <c r="D35" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="202" t="s">
+      <c r="E35" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="202"/>
+      <c r="F35" s="201"/>
       <c r="G35" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="204" t="s">
+      <c r="H35" s="203" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="182"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="180"/>
+      <c r="L35" s="180"/>
+      <c r="M35" s="180"/>
+      <c r="N35" s="180"/>
+      <c r="O35" s="181"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5083,20 +5110,20 @@
       <c r="B36" s="77" t="s">
         <v>347</v>
       </c>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="143">
+      <c r="D36" s="142">
         <v>45559</v>
       </c>
-      <c r="E36" s="200" t="s">
+      <c r="E36" s="199" t="s">
         <v>346</v>
       </c>
-      <c r="F36" s="201"/>
-      <c r="G36" s="145">
+      <c r="F36" s="200"/>
+      <c r="G36" s="144">
         <v>3</v>
       </c>
-      <c r="H36" s="205"/>
+      <c r="H36" s="204"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -5137,27 +5164,27 @@
       <c r="B37" s="77" t="s">
         <v>358</v>
       </c>
-      <c r="C37" s="142" t="s">
+      <c r="C37" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="144">
+      <c r="D37" s="143">
         <v>45572</v>
       </c>
-      <c r="E37" s="200" t="s">
+      <c r="E37" s="199" t="s">
         <v>345</v>
       </c>
-      <c r="F37" s="201"/>
-      <c r="G37" s="145">
+      <c r="F37" s="200"/>
+      <c r="G37" s="144">
         <v>4</v>
       </c>
-      <c r="H37" s="205"/>
+      <c r="H37" s="204"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="183"/>
-      <c r="K37" s="184"/>
-      <c r="L37" s="184"/>
-      <c r="M37" s="184"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="185"/>
+      <c r="J37" s="182"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="183"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="183"/>
+      <c r="O37" s="184"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -5191,20 +5218,20 @@
       <c r="B38" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="C38" s="142" t="s">
+      <c r="C38" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="143">
+      <c r="D38" s="142">
         <v>45575</v>
       </c>
-      <c r="E38" s="200" t="s">
+      <c r="E38" s="199" t="s">
         <v>350</v>
       </c>
-      <c r="F38" s="201"/>
-      <c r="G38" s="145">
+      <c r="F38" s="200"/>
+      <c r="G38" s="144">
         <v>3</v>
       </c>
-      <c r="H38" s="205"/>
+      <c r="H38" s="204"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -5245,27 +5272,27 @@
       <c r="B39" s="77" t="s">
         <v>348</v>
       </c>
-      <c r="C39" s="142" t="s">
+      <c r="C39" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="143">
+      <c r="D39" s="142">
         <v>45579</v>
       </c>
-      <c r="E39" s="200" t="s">
+      <c r="E39" s="199" t="s">
         <v>349</v>
       </c>
-      <c r="F39" s="201"/>
-      <c r="G39" s="145">
+      <c r="F39" s="200"/>
+      <c r="G39" s="144">
         <v>3</v>
       </c>
-      <c r="H39" s="205"/>
+      <c r="H39" s="204"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="180"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="181"/>
-      <c r="M39" s="181"/>
-      <c r="N39" s="181"/>
-      <c r="O39" s="182"/>
+      <c r="J39" s="179"/>
+      <c r="K39" s="180"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="180"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="181"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -5299,20 +5326,20 @@
       <c r="B40" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="C40" s="142" t="s">
+      <c r="C40" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="143">
+      <c r="D40" s="142">
         <v>45586</v>
       </c>
-      <c r="E40" s="200" t="s">
+      <c r="E40" s="199" t="s">
         <v>343</v>
       </c>
-      <c r="F40" s="201"/>
-      <c r="G40" s="145">
+      <c r="F40" s="200"/>
+      <c r="G40" s="144">
         <v>8</v>
       </c>
-      <c r="H40" s="205"/>
+      <c r="H40" s="204"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -5353,20 +5380,20 @@
       <c r="B41" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="C41" s="155" t="s">
+      <c r="C41" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="174">
+      <c r="D41" s="173">
         <v>45597</v>
       </c>
-      <c r="E41" s="200" t="s">
+      <c r="E41" s="199" t="s">
         <v>353</v>
       </c>
-      <c r="F41" s="201"/>
-      <c r="G41" s="145">
+      <c r="F41" s="200"/>
+      <c r="G41" s="144">
         <v>3</v>
       </c>
-      <c r="H41" s="205"/>
+      <c r="H41" s="204"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -5407,20 +5434,20 @@
       <c r="B42" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="155" t="s">
+      <c r="C42" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="174">
+      <c r="D42" s="173">
         <v>45601</v>
       </c>
-      <c r="E42" s="200" t="s">
+      <c r="E42" s="199" t="s">
         <v>354</v>
       </c>
-      <c r="F42" s="201"/>
-      <c r="G42" s="145">
+      <c r="F42" s="200"/>
+      <c r="G42" s="144">
         <v>2</v>
       </c>
-      <c r="H42" s="205"/>
+      <c r="H42" s="204"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -5461,20 +5488,20 @@
       <c r="B43" s="77" t="s">
         <v>359</v>
       </c>
-      <c r="C43" s="155" t="s">
+      <c r="C43" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="150">
+      <c r="D43" s="149">
         <v>45609</v>
       </c>
-      <c r="E43" s="200" t="s">
+      <c r="E43" s="199" t="s">
         <v>360</v>
       </c>
-      <c r="F43" s="201"/>
-      <c r="G43" s="145">
+      <c r="F43" s="200"/>
+      <c r="G43" s="144">
         <v>8</v>
       </c>
-      <c r="H43" s="205"/>
+      <c r="H43" s="204"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -5515,20 +5542,20 @@
       <c r="B44" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="C44" s="155" t="s">
+      <c r="C44" s="154" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="150">
+      <c r="D44" s="149">
         <v>45614</v>
       </c>
-      <c r="E44" s="200" t="s">
+      <c r="E44" s="199" t="s">
         <v>361</v>
       </c>
-      <c r="F44" s="201"/>
-      <c r="G44" s="145">
+      <c r="F44" s="200"/>
+      <c r="G44" s="144">
         <v>12</v>
       </c>
-      <c r="H44" s="205"/>
+      <c r="H44" s="204"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -5564,25 +5591,25 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="77" t="s">
         <v>364</v>
       </c>
-      <c r="C45" s="155" t="s">
+      <c r="C45" s="154" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="150">
+      <c r="D45" s="149">
         <v>45623</v>
       </c>
-      <c r="E45" s="200" t="s">
+      <c r="E45" s="199" t="s">
         <v>362</v>
       </c>
-      <c r="F45" s="201"/>
-      <c r="G45" s="145">
+      <c r="F45" s="200"/>
+      <c r="G45" s="144">
         <v>5</v>
       </c>
-      <c r="H45" s="205"/>
+      <c r="H45" s="204"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -5618,15 +5645,25 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="155"/>
-      <c r="D46" s="150"/>
-      <c r="E46" s="199"/>
-      <c r="F46" s="199"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="205"/>
+      <c r="B46" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="C46" s="154" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="149">
+        <v>45632</v>
+      </c>
+      <c r="E46" s="199" t="s">
+        <v>373</v>
+      </c>
+      <c r="F46" s="200"/>
+      <c r="G46" s="144">
+        <v>5</v>
+      </c>
+      <c r="H46" s="204"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -5662,15 +5699,25 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
     </row>
-    <row r="47" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="155"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="199"/>
-      <c r="F47" s="199"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="205"/>
+      <c r="B47" s="75" t="s">
+        <v>368</v>
+      </c>
+      <c r="C47" s="154" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="149">
+        <v>45637</v>
+      </c>
+      <c r="E47" s="199" t="s">
+        <v>365</v>
+      </c>
+      <c r="F47" s="200"/>
+      <c r="G47" s="144">
+        <v>6</v>
+      </c>
+      <c r="H47" s="204"/>
       <c r="I47" s="42"/>
       <c r="J47" s="36"/>
       <c r="K47" s="2"/>
@@ -5706,15 +5753,25 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="143"/>
-      <c r="E48" s="200"/>
-      <c r="F48" s="201"/>
-      <c r="G48" s="145"/>
-      <c r="H48" s="205"/>
+      <c r="B48" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="C48" s="154" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="149">
+        <v>45644</v>
+      </c>
+      <c r="E48" s="199" t="s">
+        <v>366</v>
+      </c>
+      <c r="F48" s="200"/>
+      <c r="G48" s="144">
+        <v>18</v>
+      </c>
+      <c r="H48" s="204"/>
       <c r="I48" s="42"/>
       <c r="J48" s="36"/>
       <c r="K48" s="2"/>
@@ -5750,15 +5807,25 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
     </row>
-    <row r="49" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="199"/>
-      <c r="F49" s="199"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="205"/>
+      <c r="B49" s="75" t="s">
+        <v>370</v>
+      </c>
+      <c r="C49" s="141" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="142">
+        <v>45299</v>
+      </c>
+      <c r="E49" s="199" t="s">
+        <v>372</v>
+      </c>
+      <c r="F49" s="200"/>
+      <c r="G49" s="144">
+        <v>4</v>
+      </c>
+      <c r="H49" s="204"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5794,15 +5861,25 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
     </row>
-    <row r="50" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="155"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="199"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="205"/>
+      <c r="B50" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="C50" s="141" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="142">
+        <v>45306</v>
+      </c>
+      <c r="E50" s="199" t="s">
+        <v>367</v>
+      </c>
+      <c r="F50" s="200"/>
+      <c r="G50" s="145">
+        <v>5</v>
+      </c>
+      <c r="H50" s="204"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -5841,12 +5918,12 @@
     <row r="51" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="75"/>
-      <c r="C51" s="155"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="199"/>
-      <c r="F51" s="199"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="205"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="198"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="145"/>
+      <c r="H51" s="204"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -5885,12 +5962,12 @@
     <row r="52" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="75"/>
-      <c r="C52" s="155"/>
-      <c r="D52" s="151"/>
-      <c r="E52" s="199"/>
-      <c r="F52" s="199"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="205"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="204"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -5929,12 +6006,12 @@
     <row r="53" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="75"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="151"/>
-      <c r="E53" s="199"/>
-      <c r="F53" s="199"/>
-      <c r="G53" s="146"/>
-      <c r="H53" s="205"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="198"/>
+      <c r="F53" s="198"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="204"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -5973,12 +6050,12 @@
     <row r="54" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="75"/>
-      <c r="C54" s="155"/>
-      <c r="D54" s="151"/>
-      <c r="E54" s="199"/>
-      <c r="F54" s="199"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="205"/>
+      <c r="C54" s="154"/>
+      <c r="D54" s="150"/>
+      <c r="E54" s="198"/>
+      <c r="F54" s="198"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="204"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -6017,12 +6094,12 @@
     <row r="55" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="56"/>
-      <c r="C55" s="155"/>
-      <c r="D55" s="151"/>
-      <c r="E55" s="199"/>
-      <c r="F55" s="199"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="205"/>
+      <c r="C55" s="154"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="198"/>
+      <c r="F55" s="198"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="204"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -6061,12 +6138,12 @@
     <row r="56" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="56"/>
-      <c r="C56" s="155"/>
-      <c r="D56" s="151"/>
-      <c r="E56" s="199"/>
-      <c r="F56" s="199"/>
-      <c r="G56" s="146"/>
-      <c r="H56" s="205"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="198"/>
+      <c r="F56" s="198"/>
+      <c r="G56" s="145"/>
+      <c r="H56" s="204"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -6105,12 +6182,12 @@
     <row r="57" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="56"/>
-      <c r="C57" s="155"/>
-      <c r="D57" s="151"/>
-      <c r="E57" s="199"/>
-      <c r="F57" s="199"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="205"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="198"/>
+      <c r="F57" s="198"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="204"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -6149,12 +6226,12 @@
     <row r="58" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="56"/>
-      <c r="C58" s="155"/>
-      <c r="D58" s="151"/>
-      <c r="E58" s="199"/>
-      <c r="F58" s="199"/>
-      <c r="G58" s="146"/>
-      <c r="H58" s="205"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="198"/>
+      <c r="F58" s="198"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="204"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -6193,12 +6270,12 @@
     <row r="59" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="56"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="151"/>
-      <c r="E59" s="199"/>
-      <c r="F59" s="199"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="205"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="198"/>
+      <c r="F59" s="198"/>
+      <c r="G59" s="145"/>
+      <c r="H59" s="204"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -6237,12 +6314,12 @@
     <row r="60" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="56"/>
-      <c r="C60" s="155"/>
-      <c r="D60" s="151"/>
-      <c r="E60" s="199"/>
-      <c r="F60" s="199"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="205"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="198"/>
+      <c r="F60" s="198"/>
+      <c r="G60" s="145"/>
+      <c r="H60" s="204"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -6280,18 +6357,18 @@
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="121" t="s">
+      <c r="B61" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="156"/>
-      <c r="D61" s="152"/>
-      <c r="E61" s="207"/>
-      <c r="F61" s="207"/>
-      <c r="G61" s="147">
+      <c r="C61" s="155"/>
+      <c r="D61" s="151"/>
+      <c r="E61" s="206"/>
+      <c r="F61" s="206"/>
+      <c r="G61" s="146">
         <f>SUM(G36:G60)</f>
-        <v>51</v>
-      </c>
-      <c r="H61" s="206"/>
+        <v>89</v>
+      </c>
+      <c r="H61" s="205"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -6329,13 +6406,13 @@
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="123"/>
-      <c r="C62" s="157"/>
-      <c r="D62" s="153"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="152"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="148"/>
-      <c r="H62" s="120"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="119"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -6373,16 +6450,16 @@
     </row>
     <row r="63" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="122" t="s">
+      <c r="B63" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="158"/>
-      <c r="D63" s="154"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="153"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="149">
+      <c r="G63" s="148">
         <f>G61+G19+G28+G62</f>
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="H63" s="43"/>
       <c r="I63" s="2"/>
@@ -6561,7 +6638,7 @@
       </c>
       <c r="C67" s="56">
         <f>G63</f>
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D67" s="2"/>
       <c r="F67" s="2"/>
@@ -6609,7 +6686,7 @@
       </c>
       <c r="C68" s="58">
         <f>C66-C67</f>
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="D68" s="2"/>
       <c r="F68" s="2"/>
@@ -12505,13 +12582,12 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
@@ -12521,6 +12597,7 @@
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="J29:O29"/>
     <mergeCell ref="J17:O17"/>
@@ -12555,17 +12632,17 @@
           </x14:formula1>
           <xm:sqref>C33 C9:C20</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000006000000}">
+          <x14:formula1>
+            <xm:f>'List - Hide'!$A$2:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>C61:C62 C72:C90 C64</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>'List - Hide'!$C$2:$C$19</xm:f>
           </x14:formula1>
           <xm:sqref>C36:C60</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000006000000}">
-          <x14:formula1>
-            <xm:f>'List - Hide'!$A$2:$A$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>C61:C62 C72:C90 C64</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12756,8 +12833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BS319"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12774,63 +12851,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="136" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="170" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="140" t="s">
         <v>262</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="E1" s="164" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="166" t="s">
+      <c r="F1" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="141" t="s">
+      <c r="G1" s="140" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="173" t="s">
+      <c r="H1" s="172" t="s">
         <v>325</v>
       </c>
-      <c r="I1" s="166" t="s">
+      <c r="I1" s="165" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="171" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="166" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="168" t="s">
+      <c r="F2" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="169" t="s">
+      <c r="G2" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="172" t="s">
+      <c r="H2" s="171" t="s">
         <v>324</v>
       </c>
-      <c r="I2" s="168" t="s">
+      <c r="I2" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="135"/>
+      <c r="J2" s="134"/>
       <c r="K2" s="42"/>
       <c r="L2" s="42"/>
       <c r="M2" s="42"/>
@@ -12882,34 +12959,34 @@
       <c r="BG2" s="42"/>
     </row>
     <row r="3" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="171" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="167" t="s">
+      <c r="E3" s="166" t="s">
         <v>296</v>
       </c>
-      <c r="F3" s="168" t="s">
+      <c r="F3" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="169" t="s">
+      <c r="G3" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="172" t="s">
+      <c r="H3" s="171" t="s">
         <v>326</v>
       </c>
-      <c r="I3" s="168" t="s">
+      <c r="I3" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="135"/>
+      <c r="J3" s="134"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
@@ -12961,34 +13038,34 @@
       <c r="BG3" s="42"/>
     </row>
     <row r="4" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="171" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="169" t="s">
+      <c r="D4" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="F4" s="168" t="s">
+      <c r="F4" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="171" t="s">
         <v>327</v>
       </c>
-      <c r="I4" s="168" t="s">
+      <c r="I4" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="135"/>
+      <c r="J4" s="134"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
       <c r="M4" s="42"/>
@@ -13040,34 +13117,34 @@
       <c r="BG4" s="42"/>
     </row>
     <row r="5" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="172" t="s">
+      <c r="A5" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="171" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="167" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="169" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="167" t="s">
+      <c r="D5" s="168" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="166" t="s">
         <v>298</v>
       </c>
-      <c r="F5" s="168" t="s">
+      <c r="F5" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="169" t="s">
+      <c r="G5" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="172" t="s">
+      <c r="H5" s="171" t="s">
         <v>328</v>
       </c>
-      <c r="I5" s="168" t="s">
+      <c r="I5" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="135"/>
+      <c r="J5" s="134"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
       <c r="M5" s="42"/>
@@ -13119,34 +13196,34 @@
       <c r="BG5" s="42"/>
     </row>
     <row r="6" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="171" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="169" t="s">
+      <c r="D6" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="167" t="s">
+      <c r="E6" s="166" t="s">
         <v>299</v>
       </c>
-      <c r="F6" s="168" t="s">
+      <c r="F6" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="169" t="s">
+      <c r="G6" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="172" t="s">
+      <c r="H6" s="171" t="s">
         <v>329</v>
       </c>
-      <c r="I6" s="168" t="s">
+      <c r="I6" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="135"/>
+      <c r="J6" s="134"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
@@ -13198,34 +13275,34 @@
       <c r="BG6" s="42"/>
     </row>
     <row r="7" spans="1:59" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="171" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="167" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="169" t="s">
+      <c r="D7" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="167" t="s">
+      <c r="E7" s="166" t="s">
         <v>300</v>
       </c>
-      <c r="F7" s="168" t="s">
+      <c r="F7" s="167" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="170" t="s">
+      <c r="G7" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="172" t="s">
+      <c r="H7" s="171" t="s">
         <v>330</v>
       </c>
-      <c r="I7" s="168" t="s">
+      <c r="I7" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="135"/>
+      <c r="J7" s="134"/>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
@@ -13277,27 +13354,27 @@
       <c r="BG7" s="42"/>
     </row>
     <row r="8" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="171" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="169" t="s">
+      <c r="D8" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="167" t="s">
+      <c r="E8" s="166" t="s">
         <v>301</v>
       </c>
-      <c r="F8" s="168" t="s">
+      <c r="F8" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="136"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="135"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
@@ -13350,27 +13427,27 @@
       <c r="BG8" s="42"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A9" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="172" t="s">
+      <c r="A9" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="C9" s="168" t="s">
+      <c r="C9" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="169" t="s">
+      <c r="D9" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="166" t="s">
         <v>302</v>
       </c>
-      <c r="F9" s="168" t="s">
+      <c r="F9" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
@@ -13423,27 +13500,27 @@
       <c r="BG9" s="42"/>
     </row>
     <row r="10" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="169" t="s">
+      <c r="D10" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="167" t="s">
+      <c r="E10" s="166" t="s">
         <v>303</v>
       </c>
-      <c r="F10" s="168" t="s">
+      <c r="F10" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
@@ -13496,27 +13573,27 @@
       <c r="BG10" s="42"/>
     </row>
     <row r="11" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="172" t="s">
+      <c r="B11" s="171" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="168" t="s">
+      <c r="C11" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="169" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="167" t="s">
+      <c r="D11" s="168" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="166" t="s">
         <v>304</v>
       </c>
-      <c r="F11" s="168" t="s">
+      <c r="F11" s="167" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="82"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="81"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
@@ -13569,27 +13646,27 @@
       <c r="BG11" s="42"/>
     </row>
     <row r="12" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="172" t="s">
+      <c r="B12" s="171" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="168" t="s">
+      <c r="C12" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="169" t="s">
+      <c r="D12" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="167" t="s">
+      <c r="E12" s="166" t="s">
         <v>305</v>
       </c>
-      <c r="F12" s="168" t="s">
+      <c r="F12" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="82"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
       <c r="L12" s="42"/>
@@ -13642,27 +13719,27 @@
       <c r="BG12" s="42"/>
     </row>
     <row r="13" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="171" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="168" t="s">
+      <c r="C13" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="169" t="s">
+      <c r="D13" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="167" t="s">
+      <c r="E13" s="166" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="168" t="s">
+      <c r="F13" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="82"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
@@ -13715,27 +13792,27 @@
       <c r="BG13" s="42"/>
     </row>
     <row r="14" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="171" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="168" t="s">
+      <c r="C14" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="169" t="s">
+      <c r="D14" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="167" t="s">
+      <c r="E14" s="166" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="168" t="s">
+      <c r="F14" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="82"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
       <c r="L14" s="42"/>
@@ -13788,27 +13865,27 @@
       <c r="BG14" s="42"/>
     </row>
     <row r="15" spans="1:59" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="172" t="s">
+      <c r="A15" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="171" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="168" t="s">
+      <c r="C15" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="169" t="s">
+      <c r="D15" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="166" t="s">
         <v>308</v>
       </c>
-      <c r="F15" s="168" t="s">
+      <c r="F15" s="167" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
@@ -13861,27 +13938,27 @@
       <c r="BG15" s="42"/>
     </row>
     <row r="16" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="139" t="s">
+      <c r="A16" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="171" t="s">
         <v>278</v>
       </c>
-      <c r="C16" s="168" t="s">
+      <c r="C16" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="169" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="167" t="s">
+      <c r="D16" s="168" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="166" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="168" t="s">
+      <c r="F16" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
@@ -13934,27 +14011,27 @@
       <c r="BG16" s="42"/>
     </row>
     <row r="17" spans="1:59" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="139" t="s">
+      <c r="A17" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="171" t="s">
         <v>279</v>
       </c>
-      <c r="C17" s="168" t="s">
+      <c r="C17" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="169" t="s">
+      <c r="D17" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="167" t="s">
+      <c r="E17" s="166" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="168" t="s">
+      <c r="F17" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="81"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
@@ -14007,27 +14084,27 @@
       <c r="BG17" s="42"/>
     </row>
     <row r="18" spans="1:59" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="172" t="s">
+      <c r="B18" s="171" t="s">
         <v>280</v>
       </c>
-      <c r="C18" s="168" t="s">
+      <c r="C18" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="169" t="s">
+      <c r="D18" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="167" t="s">
+      <c r="E18" s="166" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="168" t="s">
+      <c r="F18" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="82"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="L18" s="42"/>
@@ -14080,27 +14157,27 @@
       <c r="BG18" s="42"/>
     </row>
     <row r="19" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="172" t="s">
+      <c r="B19" s="171" t="s">
         <v>281</v>
       </c>
-      <c r="C19" s="168" t="s">
+      <c r="C19" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="169" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="167" t="s">
+      <c r="D19" s="168" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="166" t="s">
         <v>312</v>
       </c>
-      <c r="F19" s="168" t="s">
+      <c r="F19" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="81"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
       <c r="L19" s="42"/>
@@ -14153,27 +14230,27 @@
       <c r="BG19" s="42"/>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="172" t="s">
+      <c r="B20" s="171" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="168" t="s">
+      <c r="C20" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="169" t="s">
+      <c r="D20" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="167" t="s">
+      <c r="E20" s="166" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="168" t="s">
+      <c r="F20" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="81"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
       <c r="L20" s="42"/>
@@ -14226,27 +14303,27 @@
       <c r="BG20" s="42"/>
     </row>
     <row r="21" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="172" t="s">
+      <c r="A21" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="171" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="168" t="s">
+      <c r="C21" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="169" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="167" t="s">
+      <c r="D21" s="168" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="166" t="s">
         <v>314</v>
       </c>
-      <c r="F21" s="168" t="s">
+      <c r="F21" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="81"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
@@ -14299,27 +14376,27 @@
       <c r="BG21" s="42"/>
     </row>
     <row r="22" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="139" t="s">
+      <c r="A22" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="172" t="s">
+      <c r="B22" s="171" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="168" t="s">
+      <c r="C22" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="169" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="167" t="s">
+      <c r="D22" s="168" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="166" t="s">
         <v>315</v>
       </c>
-      <c r="F22" s="168" t="s">
+      <c r="F22" s="167" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="82"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="81"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
       <c r="L22" s="42"/>
@@ -14372,27 +14449,27 @@
       <c r="BG22" s="42"/>
     </row>
     <row r="23" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="139" t="s">
+      <c r="A23" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="172" t="s">
+      <c r="B23" s="171" t="s">
         <v>285</v>
       </c>
-      <c r="C23" s="168" t="s">
+      <c r="C23" s="167" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="169" t="s">
+      <c r="D23" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="167" t="s">
+      <c r="E23" s="166" t="s">
         <v>316</v>
       </c>
-      <c r="F23" s="168" t="s">
+      <c r="F23" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="81"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
@@ -14445,27 +14522,27 @@
       <c r="BG23" s="42"/>
     </row>
     <row r="24" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="139" t="s">
+      <c r="A24" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="172" t="s">
+      <c r="B24" s="171" t="s">
         <v>286</v>
       </c>
-      <c r="C24" s="168" t="s">
+      <c r="C24" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="169" t="s">
+      <c r="D24" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="167" t="s">
+      <c r="E24" s="166" t="s">
         <v>317</v>
       </c>
-      <c r="F24" s="168" t="s">
+      <c r="F24" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="82"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="81"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
       <c r="L24" s="42"/>
@@ -14518,27 +14595,27 @@
       <c r="BG24" s="42"/>
     </row>
     <row r="25" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="172" t="s">
+      <c r="B25" s="171" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="168" t="s">
+      <c r="C25" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="169" t="s">
+      <c r="D25" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="167" t="s">
+      <c r="E25" s="166" t="s">
         <v>318</v>
       </c>
-      <c r="F25" s="168" t="s">
+      <c r="F25" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="81"/>
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
       <c r="L25" s="42"/>
@@ -14591,27 +14668,27 @@
       <c r="BG25" s="42"/>
     </row>
     <row r="26" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="139" t="s">
+      <c r="A26" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="171" t="s">
         <v>288</v>
       </c>
-      <c r="C26" s="168" t="s">
+      <c r="C26" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="169" t="s">
+      <c r="D26" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="167" t="s">
+      <c r="E26" s="166" t="s">
         <v>319</v>
       </c>
-      <c r="F26" s="168" t="s">
+      <c r="F26" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="82"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="81"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
@@ -14664,27 +14741,27 @@
       <c r="BG26" s="42"/>
     </row>
     <row r="27" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="139" t="s">
+      <c r="A27" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="172" t="s">
+      <c r="B27" s="171" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="168" t="s">
+      <c r="C27" s="167" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="169" t="s">
+      <c r="D27" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="167" t="s">
+      <c r="E27" s="166" t="s">
         <v>320</v>
       </c>
-      <c r="F27" s="168" t="s">
+      <c r="F27" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="82"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="81"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
@@ -14737,27 +14814,27 @@
       <c r="BG27" s="42"/>
     </row>
     <row r="28" spans="1:59" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="139" t="s">
+      <c r="A28" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="172" t="s">
+      <c r="B28" s="171" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="168" t="s">
+      <c r="C28" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="169" t="s">
+      <c r="D28" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="167" t="s">
+      <c r="E28" s="166" t="s">
         <v>321</v>
       </c>
-      <c r="F28" s="168" t="s">
+      <c r="F28" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="82"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="81"/>
       <c r="J28" s="42"/>
       <c r="K28" s="42"/>
       <c r="L28" s="42"/>
@@ -14810,27 +14887,27 @@
       <c r="BG28" s="42"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A29" s="139" t="s">
+      <c r="A29" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="172" t="s">
+      <c r="B29" s="171" t="s">
         <v>291</v>
       </c>
-      <c r="C29" s="168" t="s">
+      <c r="C29" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="169" t="s">
+      <c r="D29" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="167" t="s">
+      <c r="E29" s="166" t="s">
         <v>322</v>
       </c>
-      <c r="F29" s="168" t="s">
+      <c r="F29" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="82"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="81"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
@@ -14882,93 +14959,93 @@
       <c r="BF29" s="42"/>
       <c r="BG29" s="42"/>
     </row>
-    <row r="30" spans="1:59" s="81" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="139" t="s">
+    <row r="30" spans="1:59" s="80" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="172" t="s">
+      <c r="B30" s="171" t="s">
         <v>292</v>
       </c>
-      <c r="C30" s="168" t="s">
+      <c r="C30" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="170" t="s">
+      <c r="D30" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="167" t="s">
+      <c r="E30" s="166" t="s">
         <v>323</v>
       </c>
-      <c r="F30" s="168" t="s">
+      <c r="F30" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="82"/>
-      <c r="AC30" s="82"/>
-      <c r="AD30" s="82"/>
-      <c r="AE30" s="82"/>
-      <c r="AF30" s="82"/>
-      <c r="AG30" s="82"/>
-      <c r="AH30" s="82"/>
-      <c r="AI30" s="82"/>
-      <c r="AJ30" s="82"/>
-      <c r="AK30" s="82"/>
-      <c r="AL30" s="82"/>
-      <c r="AM30" s="82"/>
-      <c r="AN30" s="82"/>
-      <c r="AO30" s="82"/>
-      <c r="AP30" s="82"/>
-      <c r="AQ30" s="82"/>
-      <c r="AR30" s="82"/>
-      <c r="AS30" s="82"/>
-      <c r="AT30" s="82"/>
-      <c r="AU30" s="82"/>
-      <c r="AV30" s="82"/>
-      <c r="AW30" s="82"/>
-      <c r="AX30" s="82"/>
-      <c r="AY30" s="82"/>
-      <c r="AZ30" s="82"/>
-      <c r="BA30" s="82"/>
-      <c r="BB30" s="82"/>
-      <c r="BC30" s="82"/>
-      <c r="BD30" s="82"/>
-      <c r="BE30" s="82"/>
-      <c r="BF30" s="82"/>
-      <c r="BG30" s="82"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="81"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="81"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="81"/>
+      <c r="AN30" s="81"/>
+      <c r="AO30" s="81"/>
+      <c r="AP30" s="81"/>
+      <c r="AQ30" s="81"/>
+      <c r="AR30" s="81"/>
+      <c r="AS30" s="81"/>
+      <c r="AT30" s="81"/>
+      <c r="AU30" s="81"/>
+      <c r="AV30" s="81"/>
+      <c r="AW30" s="81"/>
+      <c r="AX30" s="81"/>
+      <c r="AY30" s="81"/>
+      <c r="AZ30" s="81"/>
+      <c r="BA30" s="81"/>
+      <c r="BB30" s="81"/>
+      <c r="BC30" s="81"/>
+      <c r="BD30" s="81"/>
+      <c r="BE30" s="81"/>
+      <c r="BF30" s="81"/>
+      <c r="BG30" s="81"/>
     </row>
     <row r="31" spans="1:59" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="172" t="s">
+      <c r="B31" s="171" t="s">
         <v>293</v>
       </c>
-      <c r="C31" s="168" t="s">
+      <c r="C31" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="82"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="81"/>
       <c r="J31" s="42"/>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
@@ -15021,7 +15098,7 @@
       <c r="BG31" s="42"/>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="F32" s="134"/>
+      <c r="F32" s="133"/>
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
@@ -26713,70 +26790,70 @@
       <c r="A1" s="65"/>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="88" t="s">
+      <c r="N1" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="88" t="s">
+      <c r="O1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="88" t="s">
+      <c r="P1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="88" t="s">
+      <c r="Q1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="S1" s="85" t="s">
+      <c r="S1" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="T1" s="85" t="s">
+      <c r="T1" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="U1" s="85" t="s">
+      <c r="U1" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="85" t="s">
+      <c r="V1" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="85" t="s">
+      <c r="W1" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="85" t="s">
+      <c r="X1" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="86" t="s">
+      <c r="Y1" s="85" t="s">
         <v>142</v>
       </c>
       <c r="Z1" s="65"/>
@@ -26790,39 +26867,39 @@
       <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="215" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="220">
+      <c r="B2" s="219">
         <v>1</v>
       </c>
       <c r="C2" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111">
+      <c r="D2" s="109"/>
+      <c r="E2" s="110">
         <v>4</v>
       </c>
-      <c r="F2" s="111">
+      <c r="F2" s="110">
         <v>3</v>
       </c>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="112"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="111"/>
       <c r="R2" s="67">
         <v>2</v>
       </c>
       <c r="S2" s="67"/>
       <c r="T2" s="67"/>
-      <c r="U2" s="93">
+      <c r="U2" s="92">
         <v>3</v>
       </c>
       <c r="V2" s="67">
@@ -26849,12 +26926,12 @@
       <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="217"/>
-      <c r="B3" s="214"/>
+      <c r="A3" s="216"/>
+      <c r="B3" s="213"/>
       <c r="C3" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="113"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66">
         <v>3</v>
@@ -26869,11 +26946,11 @@
       <c r="N3" s="66"/>
       <c r="O3" s="66"/>
       <c r="P3" s="66"/>
-      <c r="Q3" s="114"/>
+      <c r="Q3" s="113"/>
       <c r="R3" s="66"/>
       <c r="S3" s="66"/>
       <c r="T3" s="66"/>
-      <c r="U3" s="94">
+      <c r="U3" s="93">
         <f t="shared" ref="U3:U58" si="1">SUM(C3:Q3)</f>
         <v>3</v>
       </c>
@@ -26901,12 +26978,12 @@
       <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="217"/>
-      <c r="B4" s="214"/>
+      <c r="A4" s="216"/>
+      <c r="B4" s="213"/>
       <c r="C4" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="113"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66">
         <v>3</v>
@@ -26921,11 +26998,11 @@
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
       <c r="P4" s="66"/>
-      <c r="Q4" s="114"/>
+      <c r="Q4" s="113"/>
       <c r="R4" s="66"/>
       <c r="S4" s="66"/>
       <c r="T4" s="66"/>
-      <c r="U4" s="94">
+      <c r="U4" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -26953,12 +27030,12 @@
       <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="217"/>
-      <c r="B5" s="219"/>
+      <c r="A5" s="216"/>
+      <c r="B5" s="218"/>
       <c r="C5" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="66"/>
       <c r="F5" s="66">
         <v>3</v>
@@ -26973,11 +27050,11 @@
       <c r="N5" s="66"/>
       <c r="O5" s="66"/>
       <c r="P5" s="66"/>
-      <c r="Q5" s="114"/>
+      <c r="Q5" s="113"/>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
-      <c r="U5" s="94">
+      <c r="U5" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27005,14 +27082,14 @@
       <c r="AH5" s="66"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="217"/>
-      <c r="B6" s="214">
+      <c r="A6" s="216"/>
+      <c r="B6" s="213">
         <v>2</v>
       </c>
       <c r="C6" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
       <c r="G6" s="66">
@@ -27027,13 +27104,13 @@
       <c r="N6" s="66"/>
       <c r="O6" s="66"/>
       <c r="P6" s="66"/>
-      <c r="Q6" s="114"/>
+      <c r="Q6" s="113"/>
       <c r="R6" s="66">
         <v>2</v>
       </c>
       <c r="S6" s="66"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="94">
+      <c r="U6" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27061,12 +27138,12 @@
       <c r="AH6" s="66"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="217"/>
-      <c r="B7" s="214"/>
+      <c r="A7" s="216"/>
+      <c r="B7" s="213"/>
       <c r="C7" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="113"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="66"/>
       <c r="F7" s="66"/>
       <c r="G7" s="66">
@@ -27081,11 +27158,11 @@
       <c r="N7" s="66"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
-      <c r="Q7" s="114"/>
+      <c r="Q7" s="113"/>
       <c r="R7" s="66"/>
       <c r="S7" s="66"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="94">
+      <c r="U7" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27113,12 +27190,12 @@
       <c r="AH7" s="66"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="217"/>
-      <c r="B8" s="214"/>
+      <c r="A8" s="216"/>
+      <c r="B8" s="213"/>
       <c r="C8" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="113"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="66"/>
       <c r="G8" s="66">
         <v>3</v>
@@ -27132,11 +27209,11 @@
       <c r="N8" s="66"/>
       <c r="O8" s="66"/>
       <c r="P8" s="66"/>
-      <c r="Q8" s="114"/>
+      <c r="Q8" s="113"/>
       <c r="R8" s="66"/>
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="94">
+      <c r="U8" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27164,12 +27241,12 @@
       <c r="AH8" s="66"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="217"/>
-      <c r="B9" s="214"/>
+      <c r="A9" s="216"/>
+      <c r="B9" s="213"/>
       <c r="C9" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="113"/>
+      <c r="D9" s="112"/>
       <c r="E9" s="66"/>
       <c r="G9" s="66">
         <v>3</v>
@@ -27183,11 +27260,11 @@
       <c r="N9" s="66"/>
       <c r="O9" s="66"/>
       <c r="P9" s="66"/>
-      <c r="Q9" s="114"/>
+      <c r="Q9" s="113"/>
       <c r="R9" s="66"/>
       <c r="S9" s="66"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="94">
+      <c r="U9" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27220,14 +27297,14 @@
       <c r="AH9" s="66"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="217"/>
-      <c r="B10" s="214">
+      <c r="A10" s="216"/>
+      <c r="B10" s="213">
         <v>3</v>
       </c>
       <c r="C10" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="113"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="66"/>
       <c r="G10" s="66">
         <v>3</v>
@@ -27241,13 +27318,13 @@
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
       <c r="P10" s="66"/>
-      <c r="Q10" s="114"/>
+      <c r="Q10" s="113"/>
       <c r="R10" s="66">
         <v>2</v>
       </c>
       <c r="S10" s="66"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="94">
+      <c r="U10" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27266,7 +27343,7 @@
       </c>
       <c r="Z10" s="66"/>
       <c r="AA10" s="66"/>
-      <c r="AB10" s="107" t="s">
+      <c r="AB10" s="106" t="s">
         <v>154</v>
       </c>
       <c r="AC10" s="66"/>
@@ -27279,12 +27356,12 @@
       <c r="AH10" s="66"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="217"/>
-      <c r="B11" s="214"/>
+      <c r="A11" s="216"/>
+      <c r="B11" s="213"/>
       <c r="C11" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="113"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="66"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66">
@@ -27298,11 +27375,11 @@
       <c r="N11" s="66"/>
       <c r="O11" s="66"/>
       <c r="P11" s="66"/>
-      <c r="Q11" s="114"/>
+      <c r="Q11" s="113"/>
       <c r="R11" s="66"/>
       <c r="S11" s="66"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="94">
+      <c r="U11" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27321,10 +27398,10 @@
       </c>
       <c r="Z11" s="66"/>
       <c r="AA11" s="66"/>
-      <c r="AB11" s="108" t="s">
+      <c r="AB11" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="AC11" s="109">
+      <c r="AC11" s="108">
         <f>Y79+AC9</f>
         <v>487</v>
       </c>
@@ -27335,12 +27412,12 @@
       <c r="AH11" s="66"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="217"/>
-      <c r="B12" s="214"/>
+      <c r="A12" s="216"/>
+      <c r="B12" s="213"/>
       <c r="C12" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="113"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="66"/>
       <c r="G12" s="66"/>
       <c r="H12" s="66">
@@ -27354,11 +27431,11 @@
       <c r="N12" s="66"/>
       <c r="O12" s="66"/>
       <c r="P12" s="66"/>
-      <c r="Q12" s="114"/>
+      <c r="Q12" s="113"/>
       <c r="R12" s="66"/>
       <c r="S12" s="66"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="94">
+      <c r="U12" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27378,28 +27455,28 @@
       <c r="Z12" s="66"/>
       <c r="AA12" s="66"/>
       <c r="AB12" s="66"/>
-      <c r="AC12" s="97" t="s">
+      <c r="AC12" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="AD12" s="97" t="s">
+      <c r="AD12" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="AE12" s="96" t="s">
+      <c r="AE12" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="AF12" s="96" t="s">
+      <c r="AF12" s="95" t="s">
         <v>162</v>
       </c>
       <c r="AG12" s="66"/>
       <c r="AH12" s="66"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="217"/>
-      <c r="B13" s="214"/>
+      <c r="A13" s="216"/>
+      <c r="B13" s="213"/>
       <c r="C13" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="113"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="66"/>
       <c r="F13" s="66"/>
       <c r="G13" s="66"/>
@@ -27414,13 +27491,13 @@
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
       <c r="P13" s="66"/>
-      <c r="Q13" s="114"/>
+      <c r="Q13" s="113"/>
       <c r="R13" s="66"/>
-      <c r="S13" s="119" t="s">
+      <c r="S13" s="118" t="s">
         <v>164</v>
       </c>
       <c r="T13" s="66"/>
-      <c r="U13" s="94">
+      <c r="U13" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27439,36 +27516,36 @@
       </c>
       <c r="Z13" s="66"/>
       <c r="AA13" s="66"/>
-      <c r="AB13" s="106" t="s">
+      <c r="AB13" s="105" t="s">
         <v>10</v>
       </c>
       <c r="AC13" s="76">
         <f>F78</f>
         <v>12</v>
       </c>
-      <c r="AD13" s="79">
+      <c r="AD13" s="78">
         <f t="shared" ref="AD13:AD24" si="2">AC13/$AC$11</f>
         <v>2.4640657084188913E-2</v>
       </c>
-      <c r="AE13" s="79">
+      <c r="AE13" s="78">
         <f>AD13</f>
         <v>2.4640657084188913E-2</v>
       </c>
       <c r="AF13" s="76">
         <v>2</v>
       </c>
-      <c r="AG13" s="80"/>
+      <c r="AG13" s="79"/>
       <c r="AH13" s="66"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="217"/>
-      <c r="B14" s="214">
+      <c r="A14" s="216"/>
+      <c r="B14" s="213">
         <v>4</v>
       </c>
       <c r="C14" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="113"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="66"/>
       <c r="G14" s="66"/>
       <c r="H14" s="66">
@@ -27482,13 +27559,13 @@
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
       <c r="P14" s="66"/>
-      <c r="Q14" s="114"/>
+      <c r="Q14" s="113"/>
       <c r="R14" s="66">
         <v>2</v>
       </c>
       <c r="S14" s="66"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="94">
+      <c r="U14" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27507,34 +27584,34 @@
       </c>
       <c r="Z14" s="66"/>
       <c r="AA14" s="66"/>
-      <c r="AB14" s="106" t="s">
+      <c r="AB14" s="105" t="s">
         <v>11</v>
       </c>
       <c r="AC14" s="76">
         <f>G78</f>
         <v>15</v>
       </c>
-      <c r="AD14" s="79">
+      <c r="AD14" s="78">
         <f t="shared" si="2"/>
         <v>3.0800821355236138E-2</v>
       </c>
-      <c r="AE14" s="79">
+      <c r="AE14" s="78">
         <f t="shared" ref="AE14:AE24" si="3">AE13+AD14</f>
         <v>5.5441478439425054E-2</v>
       </c>
       <c r="AF14" s="76">
         <v>2</v>
       </c>
-      <c r="AG14" s="80"/>
+      <c r="AG14" s="79"/>
       <c r="AH14" s="66"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="217"/>
-      <c r="B15" s="214"/>
+      <c r="A15" s="216"/>
+      <c r="B15" s="213"/>
       <c r="C15" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="113"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="66"/>
       <c r="G15" s="66"/>
       <c r="H15" s="66">
@@ -27548,11 +27625,11 @@
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
       <c r="P15" s="66"/>
-      <c r="Q15" s="114"/>
+      <c r="Q15" s="113"/>
       <c r="R15" s="66"/>
       <c r="S15" s="66"/>
       <c r="T15" s="66"/>
-      <c r="U15" s="94">
+      <c r="U15" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27571,34 +27648,34 @@
       </c>
       <c r="Z15" s="66"/>
       <c r="AA15" s="66"/>
-      <c r="AB15" s="106" t="s">
+      <c r="AB15" s="105" t="s">
         <v>12</v>
       </c>
       <c r="AC15" s="76">
         <f>H78</f>
         <v>27</v>
       </c>
-      <c r="AD15" s="79">
+      <c r="AD15" s="78">
         <f t="shared" si="2"/>
         <v>5.5441478439425054E-2</v>
       </c>
-      <c r="AE15" s="79">
+      <c r="AE15" s="78">
         <f t="shared" si="3"/>
         <v>0.11088295687885011</v>
       </c>
       <c r="AF15" s="76">
         <v>2</v>
       </c>
-      <c r="AG15" s="80"/>
+      <c r="AG15" s="79"/>
       <c r="AH15" s="66"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="217"/>
-      <c r="B16" s="214"/>
+      <c r="A16" s="216"/>
+      <c r="B16" s="213"/>
       <c r="C16" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="113"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="66"/>
       <c r="G16" s="66"/>
       <c r="H16" s="66">
@@ -27612,11 +27689,11 @@
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
       <c r="P16" s="66"/>
-      <c r="Q16" s="114"/>
+      <c r="Q16" s="113"/>
       <c r="R16" s="66"/>
       <c r="S16" s="66"/>
       <c r="T16" s="66"/>
-      <c r="U16" s="94">
+      <c r="U16" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27635,34 +27712,34 @@
       </c>
       <c r="Z16" s="66"/>
       <c r="AA16" s="66"/>
-      <c r="AB16" s="106" t="s">
+      <c r="AB16" s="105" t="s">
         <v>13</v>
       </c>
       <c r="AC16" s="76">
         <f>I78</f>
         <v>12</v>
       </c>
-      <c r="AD16" s="79">
+      <c r="AD16" s="78">
         <f t="shared" si="2"/>
         <v>2.4640657084188913E-2</v>
       </c>
-      <c r="AE16" s="79">
+      <c r="AE16" s="78">
         <f t="shared" si="3"/>
         <v>0.13552361396303902</v>
       </c>
       <c r="AF16" s="76">
         <v>2</v>
       </c>
-      <c r="AG16" s="80"/>
+      <c r="AG16" s="79"/>
       <c r="AH16" s="66"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="217"/>
-      <c r="B17" s="214"/>
+      <c r="A17" s="216"/>
+      <c r="B17" s="213"/>
       <c r="C17" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="113"/>
+      <c r="D17" s="112"/>
       <c r="E17" s="66"/>
       <c r="G17" s="66"/>
       <c r="H17" s="66">
@@ -27676,11 +27753,11 @@
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
       <c r="P17" s="66"/>
-      <c r="Q17" s="114"/>
+      <c r="Q17" s="113"/>
       <c r="R17" s="66"/>
       <c r="S17" s="66"/>
       <c r="T17" s="66"/>
-      <c r="U17" s="94">
+      <c r="U17" s="93">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -27699,36 +27776,36 @@
       </c>
       <c r="Z17" s="66"/>
       <c r="AA17" s="66"/>
-      <c r="AB17" s="106" t="s">
+      <c r="AB17" s="105" t="s">
         <v>14</v>
       </c>
       <c r="AC17" s="76">
         <f>J78</f>
         <v>24</v>
       </c>
-      <c r="AD17" s="79">
+      <c r="AD17" s="78">
         <f t="shared" si="2"/>
         <v>4.9281314168377825E-2</v>
       </c>
-      <c r="AE17" s="79">
+      <c r="AE17" s="78">
         <f t="shared" si="3"/>
         <v>0.18480492813141686</v>
       </c>
       <c r="AF17" s="76">
         <v>2</v>
       </c>
-      <c r="AG17" s="80"/>
+      <c r="AG17" s="79"/>
       <c r="AH17" s="66"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="217"/>
-      <c r="B18" s="214">
+      <c r="A18" s="216"/>
+      <c r="B18" s="213">
         <v>5</v>
       </c>
       <c r="C18" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="113"/>
+      <c r="D18" s="112"/>
       <c r="E18" s="66"/>
       <c r="G18" s="66"/>
       <c r="H18" s="66">
@@ -27742,13 +27819,13 @@
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
       <c r="P18" s="66"/>
-      <c r="Q18" s="114"/>
+      <c r="Q18" s="113"/>
       <c r="R18" s="66">
         <v>2</v>
       </c>
       <c r="S18" s="66"/>
       <c r="T18" s="66"/>
-      <c r="U18" s="94">
+      <c r="U18" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27767,34 +27844,34 @@
       </c>
       <c r="Z18" s="66"/>
       <c r="AA18" s="66"/>
-      <c r="AB18" s="106" t="s">
+      <c r="AB18" s="105" t="s">
         <v>15</v>
       </c>
       <c r="AC18" s="76">
         <f>K78</f>
         <v>9</v>
       </c>
-      <c r="AD18" s="79">
+      <c r="AD18" s="78">
         <f t="shared" si="2"/>
         <v>1.8480492813141684E-2</v>
       </c>
-      <c r="AE18" s="79">
+      <c r="AE18" s="78">
         <f t="shared" si="3"/>
         <v>0.20328542094455854</v>
       </c>
       <c r="AF18" s="76">
         <v>2</v>
       </c>
-      <c r="AG18" s="80"/>
+      <c r="AG18" s="79"/>
       <c r="AH18" s="66"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="217"/>
-      <c r="B19" s="214"/>
+      <c r="A19" s="216"/>
+      <c r="B19" s="213"/>
       <c r="C19" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="113"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
       <c r="G19" s="66"/>
@@ -27809,11 +27886,11 @@
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
       <c r="P19" s="66"/>
-      <c r="Q19" s="114"/>
+      <c r="Q19" s="113"/>
       <c r="R19" s="66"/>
       <c r="S19" s="66"/>
       <c r="T19" s="66"/>
-      <c r="U19" s="94">
+      <c r="U19" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27832,34 +27909,34 @@
       </c>
       <c r="Z19" s="66"/>
       <c r="AA19" s="66"/>
-      <c r="AB19" s="106" t="s">
+      <c r="AB19" s="105" t="s">
         <v>16</v>
       </c>
       <c r="AC19" s="76">
         <f>L78</f>
         <v>12</v>
       </c>
-      <c r="AD19" s="79">
+      <c r="AD19" s="78">
         <f t="shared" si="2"/>
         <v>2.4640657084188913E-2</v>
       </c>
-      <c r="AE19" s="79">
+      <c r="AE19" s="78">
         <f t="shared" si="3"/>
         <v>0.22792607802874745</v>
       </c>
       <c r="AF19" s="76">
         <v>2</v>
       </c>
-      <c r="AG19" s="80"/>
+      <c r="AG19" s="79"/>
       <c r="AH19" s="66"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="217"/>
-      <c r="B20" s="214"/>
+      <c r="A20" s="216"/>
+      <c r="B20" s="213"/>
       <c r="C20" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="113"/>
+      <c r="D20" s="112"/>
       <c r="E20" s="66"/>
       <c r="F20" s="66"/>
       <c r="G20" s="66"/>
@@ -27874,10 +27951,10 @@
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
       <c r="P20" s="66"/>
-      <c r="Q20" s="114"/>
+      <c r="Q20" s="113"/>
       <c r="R20" s="66"/>
       <c r="T20" s="66"/>
-      <c r="U20" s="94">
+      <c r="U20" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27896,34 +27973,34 @@
       </c>
       <c r="Z20" s="66"/>
       <c r="AA20" s="66"/>
-      <c r="AB20" s="106" t="s">
+      <c r="AB20" s="105" t="s">
         <v>17</v>
       </c>
       <c r="AC20" s="76">
         <f>M78</f>
         <v>21</v>
       </c>
-      <c r="AD20" s="79">
+      <c r="AD20" s="78">
         <f t="shared" si="2"/>
         <v>4.3121149897330596E-2</v>
       </c>
-      <c r="AE20" s="79">
+      <c r="AE20" s="78">
         <f t="shared" si="3"/>
         <v>0.27104722792607805</v>
       </c>
       <c r="AF20" s="76">
         <v>2</v>
       </c>
-      <c r="AG20" s="80"/>
+      <c r="AG20" s="79"/>
       <c r="AH20" s="66"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="217"/>
-      <c r="B21" s="214"/>
+      <c r="A21" s="216"/>
+      <c r="B21" s="213"/>
       <c r="C21" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="113"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="66"/>
       <c r="F21" s="66"/>
       <c r="G21" s="66"/>
@@ -27938,11 +28015,11 @@
       <c r="N21" s="66"/>
       <c r="O21" s="66"/>
       <c r="P21" s="66"/>
-      <c r="Q21" s="114"/>
+      <c r="Q21" s="113"/>
       <c r="R21" s="66"/>
       <c r="S21" s="66"/>
       <c r="T21" s="66"/>
-      <c r="U21" s="94">
+      <c r="U21" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -27961,35 +28038,35 @@
       </c>
       <c r="Z21" s="66"/>
       <c r="AA21" s="66"/>
-      <c r="AB21" s="106" t="s">
+      <c r="AB21" s="105" t="s">
         <v>18</v>
       </c>
       <c r="AC21" s="76">
         <f>N78</f>
         <v>18</v>
       </c>
-      <c r="AD21" s="79">
+      <c r="AD21" s="78">
         <f t="shared" si="2"/>
         <v>3.6960985626283367E-2</v>
       </c>
-      <c r="AE21" s="79">
+      <c r="AE21" s="78">
         <f t="shared" si="3"/>
         <v>0.30800821355236141</v>
       </c>
       <c r="AF21" s="76">
         <v>2</v>
       </c>
-      <c r="AG21" s="80"/>
+      <c r="AG21" s="79"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="217"/>
-      <c r="B22" s="214">
+      <c r="A22" s="216"/>
+      <c r="B22" s="213">
         <v>6</v>
       </c>
       <c r="C22" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="113"/>
+      <c r="D22" s="112"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
       <c r="G22" s="66"/>
@@ -28004,12 +28081,12 @@
       <c r="N22" s="66"/>
       <c r="O22" s="66"/>
       <c r="P22" s="66"/>
-      <c r="Q22" s="114"/>
+      <c r="Q22" s="113"/>
       <c r="R22" s="66">
         <v>2</v>
       </c>
       <c r="T22" s="66"/>
-      <c r="U22" s="94">
+      <c r="U22" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28028,33 +28105,33 @@
       </c>
       <c r="Z22" s="66"/>
       <c r="AA22" s="66"/>
-      <c r="AB22" s="106" t="s">
+      <c r="AB22" s="105" t="s">
         <v>19</v>
       </c>
       <c r="AC22" s="76">
         <f>O78</f>
         <v>15</v>
       </c>
-      <c r="AD22" s="79">
+      <c r="AD22" s="78">
         <f t="shared" si="2"/>
         <v>3.0800821355236138E-2</v>
       </c>
-      <c r="AE22" s="79">
+      <c r="AE22" s="78">
         <f t="shared" si="3"/>
         <v>0.33880903490759756</v>
       </c>
       <c r="AF22" s="76">
         <v>2</v>
       </c>
-      <c r="AG22" s="80"/>
+      <c r="AG22" s="79"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="217"/>
-      <c r="B23" s="214"/>
+      <c r="A23" s="216"/>
+      <c r="B23" s="213"/>
       <c r="C23" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="113"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="66"/>
       <c r="F23" s="66"/>
       <c r="G23" s="66"/>
@@ -28069,13 +28146,13 @@
       <c r="N23" s="66"/>
       <c r="O23" s="66"/>
       <c r="P23" s="66"/>
-      <c r="Q23" s="114"/>
+      <c r="Q23" s="113"/>
       <c r="R23" s="66"/>
-      <c r="S23" s="119" t="s">
+      <c r="S23" s="118" t="s">
         <v>164</v>
       </c>
       <c r="T23" s="66"/>
-      <c r="U23" s="94">
+      <c r="U23" s="93">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -28094,33 +28171,33 @@
       </c>
       <c r="Z23" s="66"/>
       <c r="AA23" s="66"/>
-      <c r="AB23" s="106" t="s">
+      <c r="AB23" s="105" t="s">
         <v>20</v>
       </c>
       <c r="AC23" s="76">
         <f>P78</f>
         <v>15</v>
       </c>
-      <c r="AD23" s="79">
+      <c r="AD23" s="78">
         <f t="shared" si="2"/>
         <v>3.0800821355236138E-2</v>
       </c>
-      <c r="AE23" s="79">
+      <c r="AE23" s="78">
         <f t="shared" si="3"/>
         <v>0.36960985626283371</v>
       </c>
       <c r="AF23" s="76">
         <v>2</v>
       </c>
-      <c r="AG23" s="80"/>
+      <c r="AG23" s="79"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="217"/>
-      <c r="B24" s="214"/>
+      <c r="A24" s="216"/>
+      <c r="B24" s="213"/>
       <c r="C24" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="113"/>
+      <c r="D24" s="112"/>
       <c r="E24" s="66"/>
       <c r="F24" s="66"/>
       <c r="G24" s="66"/>
@@ -28135,10 +28212,10 @@
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
       <c r="P24" s="66"/>
-      <c r="Q24" s="114"/>
+      <c r="Q24" s="113"/>
       <c r="R24" s="66"/>
       <c r="T24" s="66"/>
-      <c r="U24" s="94">
+      <c r="U24" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28157,32 +28234,32 @@
       </c>
       <c r="Z24" s="66"/>
       <c r="AA24" s="66"/>
-      <c r="AB24" s="106" t="s">
+      <c r="AB24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="AC24" s="99">
+      <c r="AC24" s="98">
         <v>11</v>
       </c>
-      <c r="AD24" s="79">
+      <c r="AD24" s="78">
         <f t="shared" si="2"/>
         <v>2.2587268993839837E-2</v>
       </c>
-      <c r="AE24" s="102">
+      <c r="AE24" s="101">
         <f t="shared" si="3"/>
         <v>0.39219712525667355</v>
       </c>
       <c r="AF24" s="76">
         <v>2</v>
       </c>
-      <c r="AG24" s="80"/>
+      <c r="AG24" s="79"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="217"/>
-      <c r="B25" s="214"/>
+      <c r="A25" s="216"/>
+      <c r="B25" s="213"/>
       <c r="C25" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="113"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="66"/>
@@ -28197,10 +28274,10 @@
       <c r="N25" s="66"/>
       <c r="O25" s="66"/>
       <c r="P25" s="66"/>
-      <c r="Q25" s="114"/>
+      <c r="Q25" s="113"/>
       <c r="R25" s="66"/>
       <c r="T25" s="66"/>
-      <c r="U25" s="94">
+      <c r="U25" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28220,30 +28297,30 @@
       <c r="Z25" s="66"/>
       <c r="AA25" s="66"/>
       <c r="AB25" s="65"/>
-      <c r="AC25" s="101">
+      <c r="AC25" s="100">
         <f>SUM(AC13:AC24)</f>
         <v>191</v>
       </c>
-      <c r="AD25" s="100">
+      <c r="AD25" s="99">
         <f>SUM(AC25/AC11)</f>
         <v>0.3921971252566735</v>
       </c>
       <c r="AE25" s="66"/>
-      <c r="AF25" s="109">
+      <c r="AF25" s="108">
         <f>SUM(AF13:AF24)</f>
         <v>24</v>
       </c>
       <c r="AG25" s="66"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="217"/>
-      <c r="B26" s="214">
+      <c r="A26" s="216"/>
+      <c r="B26" s="213">
         <v>7</v>
       </c>
       <c r="C26" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="113"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
       <c r="G26" s="66"/>
@@ -28258,13 +28335,13 @@
       <c r="N26" s="66"/>
       <c r="O26" s="66"/>
       <c r="P26" s="66"/>
-      <c r="Q26" s="114"/>
+      <c r="Q26" s="113"/>
       <c r="R26" s="66">
         <v>2</v>
       </c>
       <c r="S26" s="66"/>
       <c r="T26" s="66"/>
-      <c r="U26" s="94">
+      <c r="U26" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28284,25 +28361,25 @@
       <c r="Z26" s="66"/>
       <c r="AA26" s="66"/>
       <c r="AB26" s="65"/>
-      <c r="AC26" s="97" t="s">
+      <c r="AC26" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="AD26" s="97" t="s">
+      <c r="AD26" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="AE26" s="96" t="s">
+      <c r="AE26" s="95" t="s">
         <v>161</v>
       </c>
       <c r="AF26" s="66"/>
       <c r="AG26" s="66"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="217"/>
-      <c r="B27" s="214"/>
+      <c r="A27" s="216"/>
+      <c r="B27" s="213"/>
       <c r="C27" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="113"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
       <c r="G27" s="66"/>
@@ -28317,11 +28394,11 @@
       <c r="N27" s="66"/>
       <c r="O27" s="66"/>
       <c r="P27" s="66"/>
-      <c r="Q27" s="114"/>
+      <c r="Q27" s="113"/>
       <c r="R27" s="66"/>
       <c r="S27" s="66"/>
       <c r="T27" s="66"/>
-      <c r="U27" s="94">
+      <c r="U27" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28340,26 +28417,26 @@
       </c>
       <c r="Z27" s="66"/>
       <c r="AA27" s="66"/>
-      <c r="AB27" s="98" t="s">
+      <c r="AB27" s="97" t="s">
         <v>179</v>
       </c>
       <c r="AC27" s="76">
         <v>10</v>
       </c>
-      <c r="AD27" s="103">
+      <c r="AD27" s="102">
         <v>0.2</v>
       </c>
-      <c r="AE27" s="79">
+      <c r="AE27" s="78">
         <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="217"/>
-      <c r="B28" s="214"/>
+      <c r="A28" s="216"/>
+      <c r="B28" s="213"/>
       <c r="C28" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="113"/>
+      <c r="D28" s="112"/>
       <c r="E28" s="66"/>
       <c r="F28" s="66"/>
       <c r="G28" s="66"/>
@@ -28374,11 +28451,11 @@
       <c r="N28" s="66"/>
       <c r="O28" s="66"/>
       <c r="P28" s="66"/>
-      <c r="Q28" s="114"/>
+      <c r="Q28" s="113"/>
       <c r="R28" s="66"/>
       <c r="S28" s="66"/>
       <c r="T28" s="66"/>
-      <c r="U28" s="94">
+      <c r="U28" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28397,32 +28474,32 @@
       </c>
       <c r="Z28" s="66"/>
       <c r="AA28" s="66"/>
-      <c r="AB28" s="98" t="s">
+      <c r="AB28" s="97" t="s">
         <v>181</v>
       </c>
       <c r="AC28" s="76">
         <v>10</v>
       </c>
-      <c r="AD28" s="103">
+      <c r="AD28" s="102">
         <v>0.2</v>
       </c>
-      <c r="AE28" s="79">
+      <c r="AE28" s="78">
         <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="217"/>
-      <c r="B29" s="214"/>
+      <c r="A29" s="216"/>
+      <c r="B29" s="213"/>
       <c r="C29" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="113"/>
+      <c r="D29" s="112"/>
       <c r="E29" s="66"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
       <c r="H29" s="66"/>
       <c r="I29" s="66"/>
-      <c r="J29" s="109">
+      <c r="J29" s="108">
         <v>3</v>
       </c>
       <c r="L29" s="66"/>
@@ -28430,11 +28507,11 @@
       <c r="N29" s="66"/>
       <c r="O29" s="66"/>
       <c r="P29" s="66"/>
-      <c r="Q29" s="114"/>
+      <c r="Q29" s="113"/>
       <c r="R29" s="66"/>
       <c r="S29" s="66"/>
       <c r="T29" s="66"/>
-      <c r="U29" s="94">
+      <c r="U29" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28455,28 +28532,28 @@
         <v>183</v>
       </c>
       <c r="AA29" s="66"/>
-      <c r="AB29" s="98" t="s">
+      <c r="AB29" s="97" t="s">
         <v>184</v>
       </c>
       <c r="AC29" s="76">
         <v>10</v>
       </c>
-      <c r="AD29" s="103">
+      <c r="AD29" s="102">
         <v>0.2</v>
       </c>
-      <c r="AE29" s="79">
+      <c r="AE29" s="78">
         <v>0.6</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="217"/>
-      <c r="B30" s="214">
+      <c r="A30" s="216"/>
+      <c r="B30" s="213">
         <v>8</v>
       </c>
       <c r="C30" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="113"/>
+      <c r="D30" s="112"/>
       <c r="E30" s="66"/>
       <c r="F30" s="66"/>
       <c r="G30" s="66"/>
@@ -28491,12 +28568,12 @@
       <c r="N30" s="66"/>
       <c r="O30" s="66"/>
       <c r="P30" s="66"/>
-      <c r="Q30" s="114"/>
+      <c r="Q30" s="113"/>
       <c r="R30" s="66">
         <v>2</v>
       </c>
       <c r="T30" s="66"/>
-      <c r="U30" s="94">
+      <c r="U30" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28514,26 +28591,26 @@
         <v>9.5</v>
       </c>
       <c r="AA30" s="66"/>
-      <c r="AB30" s="98" t="s">
+      <c r="AB30" s="97" t="s">
         <v>186</v>
       </c>
       <c r="AC30" s="76">
         <v>10</v>
       </c>
-      <c r="AD30" s="103">
+      <c r="AD30" s="102">
         <v>0.2</v>
       </c>
-      <c r="AE30" s="79">
+      <c r="AE30" s="78">
         <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="217"/>
-      <c r="B31" s="214"/>
+      <c r="A31" s="216"/>
+      <c r="B31" s="213"/>
       <c r="C31" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="113"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="66"/>
       <c r="F31" s="66"/>
       <c r="G31" s="66"/>
@@ -28547,11 +28624,11 @@
       <c r="N31" s="66"/>
       <c r="O31" s="66"/>
       <c r="P31" s="66"/>
-      <c r="Q31" s="114"/>
+      <c r="Q31" s="113"/>
       <c r="R31" s="66"/>
       <c r="S31" s="66"/>
       <c r="T31" s="66"/>
-      <c r="U31" s="94">
+      <c r="U31" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28570,26 +28647,26 @@
       </c>
       <c r="Z31" s="66"/>
       <c r="AA31" s="66"/>
-      <c r="AB31" s="98" t="s">
+      <c r="AB31" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="AC31" s="99">
+      <c r="AC31" s="98">
         <v>10</v>
       </c>
-      <c r="AD31" s="104">
+      <c r="AD31" s="103">
         <v>0.2</v>
       </c>
-      <c r="AE31" s="102">
+      <c r="AE31" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="217"/>
-      <c r="B32" s="214"/>
+      <c r="A32" s="216"/>
+      <c r="B32" s="213"/>
       <c r="C32" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="113"/>
+      <c r="D32" s="112"/>
       <c r="E32" s="66"/>
       <c r="F32" s="66"/>
       <c r="G32" s="66"/>
@@ -28603,10 +28680,10 @@
       <c r="N32" s="66"/>
       <c r="O32" s="66"/>
       <c r="P32" s="66"/>
-      <c r="Q32" s="114"/>
+      <c r="Q32" s="113"/>
       <c r="R32" s="66"/>
       <c r="T32" s="66"/>
-      <c r="U32" s="94">
+      <c r="U32" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28629,18 +28706,18 @@
         <f>SUM(AC27:AC31)</f>
         <v>50</v>
       </c>
-      <c r="AD32" s="105">
+      <c r="AD32" s="104">
         <f>SUM(AD27:AD31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="217"/>
-      <c r="B33" s="214"/>
+      <c r="A33" s="216"/>
+      <c r="B33" s="213"/>
       <c r="C33" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="113"/>
+      <c r="D33" s="112"/>
       <c r="E33" s="66"/>
       <c r="F33" s="66"/>
       <c r="G33" s="66"/>
@@ -28655,13 +28732,13 @@
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
       <c r="P33" s="66"/>
-      <c r="Q33" s="114"/>
+      <c r="Q33" s="113"/>
       <c r="R33" s="66"/>
-      <c r="S33" s="119" t="s">
+      <c r="S33" s="118" t="s">
         <v>164</v>
       </c>
       <c r="T33" s="66"/>
-      <c r="U33" s="94">
+      <c r="U33" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28682,14 +28759,14 @@
       <c r="AA33" s="66"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="217"/>
-      <c r="B34" s="214">
+      <c r="A34" s="216"/>
+      <c r="B34" s="213">
         <v>9</v>
       </c>
       <c r="C34" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="113"/>
+      <c r="D34" s="112"/>
       <c r="E34" s="66"/>
       <c r="F34" s="66"/>
       <c r="G34" s="66"/>
@@ -28703,12 +28780,12 @@
       <c r="N34" s="66"/>
       <c r="O34" s="66"/>
       <c r="P34" s="66"/>
-      <c r="Q34" s="114"/>
+      <c r="Q34" s="113"/>
       <c r="R34" s="66">
         <v>2</v>
       </c>
       <c r="T34" s="66"/>
-      <c r="U34" s="94">
+      <c r="U34" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28729,12 +28806,12 @@
       <c r="AA34" s="66"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="217"/>
-      <c r="B35" s="214"/>
+      <c r="A35" s="216"/>
+      <c r="B35" s="213"/>
       <c r="C35" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="D35" s="113"/>
+      <c r="D35" s="112"/>
       <c r="E35" s="66"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -28748,11 +28825,11 @@
       <c r="N35" s="66"/>
       <c r="O35" s="66"/>
       <c r="P35" s="66"/>
-      <c r="Q35" s="114"/>
+      <c r="Q35" s="113"/>
       <c r="R35" s="66"/>
       <c r="S35" s="66"/>
       <c r="T35" s="66"/>
-      <c r="U35" s="94">
+      <c r="U35" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28773,12 +28850,12 @@
       <c r="AA35" s="66"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="217"/>
-      <c r="B36" s="214"/>
+      <c r="A36" s="216"/>
+      <c r="B36" s="213"/>
       <c r="C36" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="113"/>
+      <c r="D36" s="112"/>
       <c r="E36" s="66"/>
       <c r="F36" s="66"/>
       <c r="G36" s="66"/>
@@ -28786,17 +28863,17 @@
       <c r="I36" s="66"/>
       <c r="J36" s="66"/>
       <c r="K36" s="66"/>
-      <c r="L36" s="109">
+      <c r="L36" s="108">
         <v>3</v>
       </c>
       <c r="N36" s="66"/>
       <c r="O36" s="66"/>
       <c r="P36" s="66"/>
-      <c r="Q36" s="114"/>
+      <c r="Q36" s="113"/>
       <c r="R36" s="66"/>
       <c r="S36" s="66"/>
       <c r="T36" s="66"/>
-      <c r="U36" s="94">
+      <c r="U36" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28819,12 +28896,12 @@
       <c r="AA36" s="66"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="217"/>
-      <c r="B37" s="214"/>
+      <c r="A37" s="216"/>
+      <c r="B37" s="213"/>
       <c r="C37" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="113"/>
+      <c r="D37" s="112"/>
       <c r="E37" s="66"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -28838,11 +28915,11 @@
       <c r="N37" s="66"/>
       <c r="O37" s="66"/>
       <c r="P37" s="66"/>
-      <c r="Q37" s="114"/>
+      <c r="Q37" s="113"/>
       <c r="R37" s="66"/>
       <c r="S37" s="66"/>
       <c r="T37" s="66"/>
-      <c r="U37" s="94">
+      <c r="U37" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28863,14 +28940,14 @@
       <c r="AA37" s="66"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="217"/>
-      <c r="B38" s="214">
+      <c r="A38" s="216"/>
+      <c r="B38" s="213">
         <v>10</v>
       </c>
       <c r="C38" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="113"/>
+      <c r="D38" s="112"/>
       <c r="E38" s="66"/>
       <c r="F38" s="66"/>
       <c r="G38" s="66"/>
@@ -28885,12 +28962,12 @@
       <c r="N38" s="66"/>
       <c r="O38" s="66"/>
       <c r="P38" s="66"/>
-      <c r="Q38" s="114"/>
+      <c r="Q38" s="113"/>
       <c r="R38" s="66">
         <v>2</v>
       </c>
       <c r="T38" s="66"/>
-      <c r="U38" s="94">
+      <c r="U38" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28912,12 +28989,12 @@
       <c r="AH38" s="66"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="217"/>
-      <c r="B39" s="214"/>
+      <c r="A39" s="216"/>
+      <c r="B39" s="213"/>
       <c r="C39" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="D39" s="113"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="66"/>
       <c r="F39" s="66"/>
       <c r="G39" s="66"/>
@@ -28932,11 +29009,11 @@
       <c r="N39" s="66"/>
       <c r="O39" s="66"/>
       <c r="P39" s="66"/>
-      <c r="Q39" s="114"/>
+      <c r="Q39" s="113"/>
       <c r="R39" s="66"/>
       <c r="S39" s="66"/>
       <c r="T39" s="66"/>
-      <c r="U39" s="94">
+      <c r="U39" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -28958,12 +29035,12 @@
       <c r="AH39" s="66"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="217"/>
-      <c r="B40" s="214"/>
+      <c r="A40" s="216"/>
+      <c r="B40" s="213"/>
       <c r="C40" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="113"/>
+      <c r="D40" s="112"/>
       <c r="E40" s="66"/>
       <c r="F40" s="66"/>
       <c r="G40" s="66"/>
@@ -28977,11 +29054,11 @@
       </c>
       <c r="O40" s="66"/>
       <c r="P40" s="66"/>
-      <c r="Q40" s="114"/>
+      <c r="Q40" s="113"/>
       <c r="R40" s="66"/>
       <c r="S40" s="66"/>
       <c r="T40" s="66"/>
-      <c r="U40" s="94">
+      <c r="U40" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29003,12 +29080,12 @@
       <c r="AH40" s="66"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="217"/>
-      <c r="B41" s="214"/>
+      <c r="A41" s="216"/>
+      <c r="B41" s="213"/>
       <c r="C41" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="113"/>
+      <c r="D41" s="112"/>
       <c r="E41" s="66"/>
       <c r="F41" s="66"/>
       <c r="G41" s="66"/>
@@ -29022,11 +29099,11 @@
       </c>
       <c r="O41" s="66"/>
       <c r="P41" s="66"/>
-      <c r="Q41" s="114"/>
+      <c r="Q41" s="113"/>
       <c r="R41" s="66"/>
       <c r="S41" s="66"/>
       <c r="T41" s="66"/>
-      <c r="U41" s="94">
+      <c r="U41" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29054,14 +29131,14 @@
       <c r="AH41" s="66"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="217"/>
-      <c r="B42" s="214">
+      <c r="A42" s="216"/>
+      <c r="B42" s="213">
         <v>11</v>
       </c>
       <c r="C42" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="D42" s="113"/>
+      <c r="D42" s="112"/>
       <c r="E42" s="66"/>
       <c r="F42" s="66"/>
       <c r="G42" s="66"/>
@@ -29075,12 +29152,12 @@
       </c>
       <c r="O42" s="66"/>
       <c r="P42" s="66"/>
-      <c r="Q42" s="114"/>
+      <c r="Q42" s="113"/>
       <c r="R42" s="66">
         <v>2</v>
       </c>
       <c r="T42" s="66"/>
-      <c r="U42" s="94">
+      <c r="U42" s="93">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -29108,12 +29185,12 @@
       <c r="AH42" s="66"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="217"/>
-      <c r="B43" s="214"/>
+      <c r="A43" s="216"/>
+      <c r="B43" s="213"/>
       <c r="C43" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="113"/>
+      <c r="D43" s="112"/>
       <c r="E43" s="66"/>
       <c r="F43" s="66"/>
       <c r="G43" s="66"/>
@@ -29128,13 +29205,13 @@
       </c>
       <c r="O43" s="66"/>
       <c r="P43" s="66"/>
-      <c r="Q43" s="114"/>
+      <c r="Q43" s="113"/>
       <c r="R43" s="66"/>
-      <c r="S43" s="119" t="s">
+      <c r="S43" s="118" t="s">
         <v>164</v>
       </c>
       <c r="T43" s="66"/>
-      <c r="U43" s="94">
+      <c r="U43" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29162,12 +29239,12 @@
       <c r="AH43" s="66"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="217"/>
-      <c r="B44" s="214"/>
+      <c r="A44" s="216"/>
+      <c r="B44" s="213"/>
       <c r="C44" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="113"/>
+      <c r="D44" s="112"/>
       <c r="E44" s="66"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
@@ -29182,10 +29259,10 @@
       </c>
       <c r="O44" s="66"/>
       <c r="P44" s="66"/>
-      <c r="Q44" s="114"/>
+      <c r="Q44" s="113"/>
       <c r="R44" s="66"/>
       <c r="T44" s="66"/>
-      <c r="U44" s="94">
+      <c r="U44" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29213,12 +29290,12 @@
       <c r="AH44" s="66"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="217"/>
-      <c r="B45" s="214"/>
+      <c r="A45" s="216"/>
+      <c r="B45" s="213"/>
       <c r="C45" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D45" s="113"/>
+      <c r="D45" s="112"/>
       <c r="E45" s="66"/>
       <c r="F45" s="66"/>
       <c r="G45" s="66"/>
@@ -29232,11 +29309,11 @@
         <v>3</v>
       </c>
       <c r="P45" s="66"/>
-      <c r="Q45" s="114"/>
+      <c r="Q45" s="113"/>
       <c r="R45" s="66"/>
       <c r="S45" s="66"/>
       <c r="T45" s="66"/>
-      <c r="U45" s="94">
+      <c r="U45" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29264,14 +29341,14 @@
       <c r="AH45" s="66"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="217"/>
-      <c r="B46" s="214">
+      <c r="A46" s="216"/>
+      <c r="B46" s="213">
         <v>12</v>
       </c>
       <c r="C46" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="113"/>
+      <c r="D46" s="112"/>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
       <c r="G46" s="66"/>
@@ -29285,13 +29362,13 @@
         <v>3</v>
       </c>
       <c r="P46" s="66"/>
-      <c r="Q46" s="114"/>
+      <c r="Q46" s="113"/>
       <c r="R46" s="66">
         <v>2</v>
       </c>
       <c r="S46" s="66"/>
       <c r="T46" s="66"/>
-      <c r="U46" s="94">
+      <c r="U46" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29319,12 +29396,12 @@
       <c r="AH46" s="66"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="217"/>
-      <c r="B47" s="214"/>
+      <c r="A47" s="216"/>
+      <c r="B47" s="213"/>
       <c r="C47" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="D47" s="113"/>
+      <c r="D47" s="112"/>
       <c r="E47" s="66"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -29338,11 +29415,11 @@
         <v>3</v>
       </c>
       <c r="P47" s="66"/>
-      <c r="Q47" s="114"/>
+      <c r="Q47" s="113"/>
       <c r="R47" s="66"/>
       <c r="S47" s="66"/>
       <c r="T47" s="66"/>
-      <c r="U47" s="94">
+      <c r="U47" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29370,12 +29447,12 @@
       <c r="AH47" s="66"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="217"/>
-      <c r="B48" s="214"/>
+      <c r="A48" s="216"/>
+      <c r="B48" s="213"/>
       <c r="C48" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="113"/>
+      <c r="D48" s="112"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -29385,15 +29462,15 @@
       <c r="K48" s="66"/>
       <c r="L48" s="66"/>
       <c r="M48" s="66"/>
-      <c r="N48" s="109">
+      <c r="N48" s="108">
         <v>3</v>
       </c>
       <c r="P48" s="66"/>
-      <c r="Q48" s="114"/>
+      <c r="Q48" s="113"/>
       <c r="R48" s="66"/>
       <c r="S48" s="66"/>
       <c r="T48" s="66"/>
-      <c r="U48" s="94">
+      <c r="U48" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29423,12 +29500,12 @@
       <c r="AH48" s="66"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="217"/>
-      <c r="B49" s="214"/>
+      <c r="A49" s="216"/>
+      <c r="B49" s="213"/>
       <c r="C49" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="D49" s="113"/>
+      <c r="D49" s="112"/>
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
       <c r="G49" s="66"/>
@@ -29438,15 +29515,15 @@
       <c r="K49" s="66"/>
       <c r="L49" s="66"/>
       <c r="M49" s="66"/>
-      <c r="N49" s="109"/>
+      <c r="N49" s="108"/>
       <c r="O49" s="66">
         <v>3</v>
       </c>
       <c r="P49" s="66"/>
-      <c r="Q49" s="114"/>
+      <c r="Q49" s="113"/>
       <c r="R49" s="66"/>
       <c r="T49" s="66"/>
-      <c r="U49" s="94">
+      <c r="U49" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29474,14 +29551,14 @@
       <c r="AH49" s="66"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="217"/>
-      <c r="B50" s="214">
+      <c r="A50" s="216"/>
+      <c r="B50" s="213">
         <v>13</v>
       </c>
       <c r="C50" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="113"/>
+      <c r="D50" s="112"/>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
@@ -29495,13 +29572,13 @@
       <c r="O50" s="66">
         <v>3</v>
       </c>
-      <c r="Q50" s="114"/>
+      <c r="Q50" s="113"/>
       <c r="R50" s="66">
         <v>2</v>
       </c>
       <c r="S50" s="66"/>
       <c r="T50" s="66"/>
-      <c r="U50" s="94">
+      <c r="U50" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29529,12 +29606,12 @@
       <c r="AH50" s="66"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="217"/>
-      <c r="B51" s="214"/>
+      <c r="A51" s="216"/>
+      <c r="B51" s="213"/>
       <c r="C51" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="D51" s="113"/>
+      <c r="D51" s="112"/>
       <c r="E51" s="66"/>
       <c r="F51" s="66"/>
       <c r="G51" s="66"/>
@@ -29548,11 +29625,11 @@
       <c r="O51" s="66">
         <v>3</v>
       </c>
-      <c r="Q51" s="114"/>
+      <c r="Q51" s="113"/>
       <c r="R51" s="66"/>
       <c r="S51" s="66"/>
       <c r="T51" s="66"/>
-      <c r="U51" s="94">
+      <c r="U51" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29580,12 +29657,12 @@
       <c r="AH51" s="66"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="217"/>
-      <c r="B52" s="214"/>
+      <c r="A52" s="216"/>
+      <c r="B52" s="213"/>
       <c r="C52" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="D52" s="113"/>
+      <c r="D52" s="112"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -29599,10 +29676,10 @@
       <c r="O52" s="66">
         <v>3</v>
       </c>
-      <c r="Q52" s="114"/>
+      <c r="Q52" s="113"/>
       <c r="R52" s="66"/>
       <c r="T52" s="66"/>
-      <c r="U52" s="94">
+      <c r="U52" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29630,12 +29707,12 @@
       <c r="AH52" s="66"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="217"/>
-      <c r="B53" s="214"/>
+      <c r="A53" s="216"/>
+      <c r="B53" s="213"/>
       <c r="C53" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="D53" s="113"/>
+      <c r="D53" s="112"/>
       <c r="E53" s="66"/>
       <c r="F53" s="66"/>
       <c r="G53" s="66"/>
@@ -29649,11 +29726,11 @@
       <c r="O53" s="66">
         <v>3</v>
       </c>
-      <c r="Q53" s="114"/>
+      <c r="Q53" s="113"/>
       <c r="R53" s="66"/>
-      <c r="S53" s="119"/>
+      <c r="S53" s="118"/>
       <c r="T53" s="66"/>
-      <c r="U53" s="94">
+      <c r="U53" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29681,14 +29758,14 @@
       <c r="AH53" s="66"/>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="217"/>
-      <c r="B54" s="214">
+      <c r="A54" s="216"/>
+      <c r="B54" s="213">
         <v>14</v>
       </c>
       <c r="C54" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="D54" s="113"/>
+      <c r="D54" s="112"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -29703,12 +29780,12 @@
       <c r="P54" s="66">
         <v>3</v>
       </c>
-      <c r="Q54" s="114"/>
+      <c r="Q54" s="113"/>
       <c r="R54" s="66">
         <v>2</v>
       </c>
       <c r="T54" s="66"/>
-      <c r="U54" s="94">
+      <c r="U54" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29736,12 +29813,12 @@
       <c r="AH54" s="66"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="217"/>
-      <c r="B55" s="214"/>
+      <c r="A55" s="216"/>
+      <c r="B55" s="213"/>
       <c r="C55" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="D55" s="113"/>
+      <c r="D55" s="112"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
@@ -29756,11 +29833,11 @@
       <c r="P55" s="66">
         <v>3</v>
       </c>
-      <c r="Q55" s="115"/>
+      <c r="Q55" s="114"/>
       <c r="R55" s="66"/>
       <c r="S55" s="66"/>
       <c r="T55" s="66"/>
-      <c r="U55" s="94">
+      <c r="U55" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29788,12 +29865,12 @@
       <c r="AH55" s="66"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="217"/>
-      <c r="B56" s="214"/>
+      <c r="A56" s="216"/>
+      <c r="B56" s="213"/>
       <c r="C56" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="D56" s="113"/>
+      <c r="D56" s="112"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -29808,10 +29885,10 @@
       <c r="P56" s="66">
         <v>3</v>
       </c>
-      <c r="Q56" s="115"/>
+      <c r="Q56" s="114"/>
       <c r="R56" s="66"/>
       <c r="T56" s="66"/>
-      <c r="U56" s="94">
+      <c r="U56" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29839,12 +29916,12 @@
       <c r="AH56" s="66"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="217"/>
-      <c r="B57" s="214"/>
+      <c r="A57" s="216"/>
+      <c r="B57" s="213"/>
       <c r="C57" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="D57" s="113"/>
+      <c r="D57" s="112"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -29859,11 +29936,11 @@
       <c r="P57" s="66">
         <v>3</v>
       </c>
-      <c r="Q57" s="115"/>
+      <c r="Q57" s="114"/>
       <c r="R57" s="66"/>
       <c r="S57" s="66"/>
       <c r="T57" s="66"/>
-      <c r="U57" s="94">
+      <c r="U57" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29891,14 +29968,14 @@
       <c r="AH57" s="66"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="217"/>
-      <c r="B58" s="214">
+      <c r="A58" s="216"/>
+      <c r="B58" s="213">
         <v>15</v>
       </c>
       <c r="C58" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="D58" s="113"/>
+      <c r="D58" s="112"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -29913,13 +29990,13 @@
       <c r="P58" s="66">
         <v>3</v>
       </c>
-      <c r="Q58" s="115"/>
+      <c r="Q58" s="114"/>
       <c r="R58" s="66">
         <v>2</v>
       </c>
       <c r="S58" s="66"/>
       <c r="T58" s="66"/>
-      <c r="U58" s="94">
+      <c r="U58" s="93">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -29947,12 +30024,12 @@
       <c r="AH58" s="66"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="217"/>
-      <c r="B59" s="214"/>
+      <c r="A59" s="216"/>
+      <c r="B59" s="213"/>
       <c r="C59" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="D59" s="113"/>
+      <c r="D59" s="112"/>
       <c r="E59" s="66"/>
       <c r="F59" s="66"/>
       <c r="G59" s="66"/>
@@ -29965,13 +30042,13 @@
       <c r="N59" s="66"/>
       <c r="O59" s="66"/>
       <c r="P59" s="66"/>
-      <c r="Q59" s="114">
+      <c r="Q59" s="113">
         <v>3</v>
       </c>
       <c r="R59" s="66"/>
       <c r="S59" s="66"/>
       <c r="T59" s="66"/>
-      <c r="U59" s="94">
+      <c r="U59" s="93">
         <f>SUM(C59:Q59)</f>
         <v>3</v>
       </c>
@@ -29999,12 +30076,12 @@
       <c r="AH59" s="66"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="217"/>
-      <c r="B60" s="214"/>
+      <c r="A60" s="216"/>
+      <c r="B60" s="213"/>
       <c r="C60" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="D60" s="113"/>
+      <c r="D60" s="112"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
@@ -30017,13 +30094,13 @@
       <c r="N60" s="66"/>
       <c r="O60" s="66"/>
       <c r="P60" s="66"/>
-      <c r="Q60" s="114">
+      <c r="Q60" s="113">
         <v>3</v>
       </c>
       <c r="R60" s="66"/>
       <c r="S60" s="66"/>
       <c r="T60" s="66"/>
-      <c r="U60" s="94">
+      <c r="U60" s="93">
         <f>SUM(C60:Q60)</f>
         <v>3</v>
       </c>
@@ -30051,31 +30128,31 @@
       <c r="AH60" s="66"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" s="218"/>
-      <c r="B61" s="215"/>
+      <c r="A61" s="217"/>
+      <c r="B61" s="214"/>
       <c r="C61" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="116"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="117"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="117"/>
-      <c r="M61" s="117"/>
-      <c r="N61" s="117"/>
-      <c r="O61" s="117"/>
-      <c r="P61" s="117"/>
-      <c r="Q61" s="118">
+      <c r="D61" s="115"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="116"/>
+      <c r="K61" s="116"/>
+      <c r="L61" s="116"/>
+      <c r="M61" s="116"/>
+      <c r="N61" s="116"/>
+      <c r="O61" s="116"/>
+      <c r="P61" s="116"/>
+      <c r="Q61" s="117">
         <v>3</v>
       </c>
       <c r="R61" s="68"/>
       <c r="S61" s="68"/>
       <c r="T61" s="68"/>
-      <c r="U61" s="95">
+      <c r="U61" s="94">
         <f>SUM(C61:Q61)</f>
         <v>3</v>
       </c>
@@ -30103,16 +30180,16 @@
       <c r="AH61" s="66"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="216" t="s">
+      <c r="A62" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="219">
+      <c r="B62" s="218">
         <v>16</v>
       </c>
       <c r="C62" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="D62" s="94"/>
+      <c r="D62" s="93"/>
       <c r="E62" s="66"/>
       <c r="F62" s="66"/>
       <c r="G62" s="66"/>
@@ -30158,12 +30235,12 @@
       <c r="AH62" s="66"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" s="217"/>
-      <c r="B63" s="214"/>
+      <c r="A63" s="216"/>
+      <c r="B63" s="213"/>
       <c r="C63" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="D63" s="94"/>
+      <c r="D63" s="93"/>
       <c r="E63" s="66"/>
       <c r="F63" s="66"/>
       <c r="G63" s="66"/>
@@ -30209,12 +30286,12 @@
       <c r="AH63" s="66"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="217"/>
-      <c r="B64" s="214"/>
+      <c r="A64" s="216"/>
+      <c r="B64" s="213"/>
       <c r="C64" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="D64" s="94"/>
+      <c r="D64" s="93"/>
       <c r="E64" s="66"/>
       <c r="F64" s="66"/>
       <c r="G64" s="66"/>
@@ -30260,12 +30337,12 @@
       <c r="AH64" s="66"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="217"/>
-      <c r="B65" s="214"/>
+      <c r="A65" s="216"/>
+      <c r="B65" s="213"/>
       <c r="C65" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="D65" s="94"/>
+      <c r="D65" s="93"/>
       <c r="E65" s="66"/>
       <c r="F65" s="66"/>
       <c r="G65" s="66"/>
@@ -30311,14 +30388,14 @@
       <c r="AH65" s="66"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="217"/>
-      <c r="B66" s="214">
+      <c r="A66" s="216"/>
+      <c r="B66" s="213">
         <v>17</v>
       </c>
       <c r="C66" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="94"/>
+      <c r="D66" s="93"/>
       <c r="E66" s="66"/>
       <c r="F66" s="66"/>
       <c r="G66" s="66"/>
@@ -30364,12 +30441,12 @@
       <c r="AH66" s="66"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A67" s="217"/>
-      <c r="B67" s="214"/>
+      <c r="A67" s="216"/>
+      <c r="B67" s="213"/>
       <c r="C67" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="D67" s="94"/>
+      <c r="D67" s="93"/>
       <c r="E67" s="66"/>
       <c r="F67" s="66"/>
       <c r="G67" s="66"/>
@@ -30415,12 +30492,12 @@
       <c r="AH67" s="66"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="217"/>
-      <c r="B68" s="214"/>
+      <c r="A68" s="216"/>
+      <c r="B68" s="213"/>
       <c r="C68" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="D68" s="94"/>
+      <c r="D68" s="93"/>
       <c r="E68" s="66"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -30466,12 +30543,12 @@
       <c r="AH68" s="66"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="217"/>
-      <c r="B69" s="214"/>
+      <c r="A69" s="216"/>
+      <c r="B69" s="213"/>
       <c r="C69" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="D69" s="94"/>
+      <c r="D69" s="93"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -30517,14 +30594,14 @@
       <c r="AH69" s="66"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="217"/>
-      <c r="B70" s="214">
+      <c r="A70" s="216"/>
+      <c r="B70" s="213">
         <v>18</v>
       </c>
       <c r="C70" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="D70" s="94"/>
+      <c r="D70" s="93"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -30570,12 +30647,12 @@
       <c r="AH70" s="66"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="217"/>
-      <c r="B71" s="214"/>
+      <c r="A71" s="216"/>
+      <c r="B71" s="213"/>
       <c r="C71" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="D71" s="94"/>
+      <c r="D71" s="93"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -30621,12 +30698,12 @@
       <c r="AH71" s="66"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="217"/>
-      <c r="B72" s="214"/>
+      <c r="A72" s="216"/>
+      <c r="B72" s="213"/>
       <c r="C72" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="D72" s="94"/>
+      <c r="D72" s="93"/>
       <c r="E72" s="66"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -30672,12 +30749,12 @@
       <c r="AH72" s="66"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="217"/>
-      <c r="B73" s="214"/>
+      <c r="A73" s="216"/>
+      <c r="B73" s="213"/>
       <c r="C73" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="D73" s="94"/>
+      <c r="D73" s="93"/>
       <c r="E73" s="66"/>
       <c r="F73" s="66"/>
       <c r="G73" s="66"/>
@@ -30723,14 +30800,14 @@
       <c r="AH73" s="66"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="217"/>
-      <c r="B74" s="214">
+      <c r="A74" s="216"/>
+      <c r="B74" s="213">
         <v>19</v>
       </c>
       <c r="C74" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="94"/>
+      <c r="D74" s="93"/>
       <c r="E74" s="66"/>
       <c r="F74" s="66"/>
       <c r="G74" s="66"/>
@@ -30776,12 +30853,12 @@
       <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="217"/>
-      <c r="B75" s="214"/>
+      <c r="A75" s="216"/>
+      <c r="B75" s="213"/>
       <c r="C75" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="D75" s="94"/>
+      <c r="D75" s="93"/>
       <c r="E75" s="66"/>
       <c r="F75" s="66"/>
       <c r="G75" s="66"/>
@@ -30827,12 +30904,12 @@
       <c r="AH75" s="66"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="217"/>
-      <c r="B76" s="214"/>
+      <c r="A76" s="216"/>
+      <c r="B76" s="213"/>
       <c r="C76" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="D76" s="94"/>
+      <c r="D76" s="93"/>
       <c r="E76" s="66"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -30878,12 +30955,12 @@
       <c r="AH76" s="66"/>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="218"/>
-      <c r="B77" s="215"/>
+      <c r="A77" s="217"/>
+      <c r="B77" s="214"/>
       <c r="C77" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="95"/>
+      <c r="D77" s="94"/>
       <c r="E77" s="68"/>
       <c r="F77" s="68"/>
       <c r="G77" s="68"/>
@@ -30932,67 +31009,67 @@
       <c r="A78" s="66"/>
       <c r="B78" s="66"/>
       <c r="C78" s="66"/>
-      <c r="D78" s="87">
+      <c r="D78" s="86">
         <f>SUM(D2:D77)</f>
         <v>0</v>
       </c>
-      <c r="E78" s="87">
+      <c r="E78" s="86">
         <f t="shared" ref="E78:S78" si="6">SUM(E2:E77)</f>
         <v>4</v>
       </c>
-      <c r="F78" s="87">
+      <c r="F78" s="86">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="G78" s="87">
+      <c r="G78" s="86">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="H78" s="87">
+      <c r="H78" s="86">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="I78" s="87">
+      <c r="I78" s="86">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="J78" s="87">
+      <c r="J78" s="86">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="K78" s="87">
+      <c r="K78" s="86">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="L78" s="87">
+      <c r="L78" s="86">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="M78" s="87">
+      <c r="M78" s="86">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="N78" s="87">
+      <c r="N78" s="86">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="O78" s="87">
+      <c r="O78" s="86">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="P78" s="87">
+      <c r="P78" s="86">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="Q78" s="87">
+      <c r="Q78" s="86">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="R78" s="87">
+      <c r="R78" s="86">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="S78" s="87">
+      <c r="S78" s="86">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -31033,23 +31110,23 @@
       <c r="R79" s="66"/>
       <c r="S79" s="66"/>
       <c r="T79" s="66"/>
-      <c r="U79" s="89">
+      <c r="U79" s="88">
         <f>SUM(U2:U77)</f>
         <v>189</v>
       </c>
-      <c r="V79" s="90">
+      <c r="V79" s="89">
         <f>SUM(V2:V77)</f>
         <v>120</v>
       </c>
-      <c r="W79" s="90">
+      <c r="W79" s="89">
         <f>SUM(W2:W77)</f>
         <v>150</v>
       </c>
-      <c r="X79" s="90">
+      <c r="X79" s="89">
         <f>SUM(X2:X77)</f>
         <v>24</v>
       </c>
-      <c r="Y79" s="92">
+      <c r="Y79" s="91">
         <f>SUM(Y2:Y77)</f>
         <v>483</v>
       </c>
@@ -31066,10 +31143,10 @@
     <row r="80" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="66"/>
       <c r="B80" s="66"/>
-      <c r="C80" s="210" t="s">
+      <c r="C80" s="209" t="s">
         <v>235</v>
       </c>
-      <c r="D80" s="211"/>
+      <c r="D80" s="210"/>
       <c r="E80" s="70">
         <v>60</v>
       </c>
@@ -31092,7 +31169,7 @@
       <c r="V80" s="66"/>
       <c r="W80" s="66"/>
       <c r="X80" s="66"/>
-      <c r="Y80" s="91" t="s">
+      <c r="Y80" s="90" t="s">
         <v>236</v>
       </c>
       <c r="Z80" s="66"/>
@@ -31108,10 +31185,10 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="66"/>
       <c r="B81" s="66"/>
-      <c r="C81" s="212" t="s">
+      <c r="C81" s="211" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="213"/>
+      <c r="D81" s="212"/>
       <c r="E81" s="72">
         <v>322.5</v>
       </c>
@@ -31148,10 +31225,10 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="66"/>
-      <c r="C82" s="212" t="s">
+      <c r="C82" s="211" t="s">
         <v>238</v>
       </c>
-      <c r="D82" s="213"/>
+      <c r="D82" s="212"/>
       <c r="E82" s="72">
         <v>35</v>
       </c>
@@ -31188,10 +31265,10 @@
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="B83" s="66"/>
-      <c r="C83" s="212" t="s">
+      <c r="C83" s="211" t="s">
         <v>239</v>
       </c>
-      <c r="D83" s="213"/>
+      <c r="D83" s="212"/>
       <c r="E83" s="72">
         <v>287</v>
       </c>
@@ -31228,10 +31305,10 @@
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="B84" s="66"/>
-      <c r="C84" s="212" t="s">
+      <c r="C84" s="211" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="213"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="72">
         <v>60</v>
       </c>
@@ -31268,10 +31345,10 @@
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
       <c r="B85" s="66"/>
-      <c r="C85" s="208" t="s">
+      <c r="C85" s="207" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="209"/>
+      <c r="D85" s="208"/>
       <c r="E85" s="74">
         <f>Y79</f>
         <v>483</v>
@@ -31377,7 +31454,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31387,66 +31464,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="159" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="158" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="161">
+      <c r="B2" s="160">
         <v>45579</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="158" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="161" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="158" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="162" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="158" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="164">
-        <v>1.3</v>
+      <c r="B5" s="163">
+        <v>1.4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="158" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="161">
-        <v>45632</v>
+      <c r="B6" s="160">
+        <v>45304</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="158" t="s">
         <v>339</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="161" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="158" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="159" t="s">
         <v>342</v>
       </c>
     </row>
@@ -31695,21 +31772,21 @@
     </row>
     <row r="5" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="220" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="222"/>
-      <c r="K5" s="222"/>
-      <c r="L5" s="222"/>
-      <c r="M5" s="222"/>
-      <c r="N5" s="223"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="222"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -31789,21 +31866,21 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="223" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="224"/>
+      <c r="B11" s="223"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="224"/>
+      <c r="B12" s="223"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="224"/>
+      <c r="B13" s="223"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="224"/>
+      <c r="B14" s="223"/>
     </row>
     <row r="21" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R21" s="18"/>

--- a/OTJ Tracker Data Engineer L5.xlsx
+++ b/OTJ Tracker Data Engineer L5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laho2188\Documents\GitHub\Learning-Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E567AA-F0DF-48F6-B1C5-3941B5D632E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450CCAC8-B057-4443-BD67-2D21C459B160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OTJT Log" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="381">
   <si>
     <t xml:space="preserve">Apprenticeship Training Log </t>
   </si>
@@ -1147,9 +1147,6 @@
     <t>Changing the data source of the CleaningLog Power BI reports from daily downloaded Excel files, to live data from Data Lakehouse</t>
   </si>
   <si>
-    <t>Webinar</t>
-  </si>
-  <si>
     <t>Shadowing my manager Jay about data quality on our data sources</t>
   </si>
   <si>
@@ -1238,6 +1235,27 @@
   </si>
   <si>
     <t>K1, K2, K3, K4, K5, K7, K8, K9, K10, K11, K12, K13, K14, K15, K16, K17, K18, K19, K20, K21, K22, K24, K25, K26, K28, K29, K30, S1, S2, S3, S4, S5, S7, S8, S9, S10, S11, S12, S13, S17, S19, S20, S22, S23, S24, S25, S26, S27, S28, B1, B2, B3, B4, B5, B6</t>
+  </si>
+  <si>
+    <t>Creating the Power BI Babcock report with the new data received from the app</t>
+  </si>
+  <si>
+    <t>Core reading list - K28, K29, S28, S29</t>
+  </si>
+  <si>
+    <t>K1, K2, K3, K4, K5, K6, K7, K8, K9, K10, K11, K12, K15, K16, K17, K18, K19, K20, K21, K22, K23, K25, K27, K28, K30, S1, S2, S3, S4, S5, S6, S7, S8, S11, S12, S13, S15, S18, S22, S23, S24, S25, S26, S27, B1, B2, B3, B4, B5, B6</t>
+  </si>
+  <si>
+    <t>K1, K2, K3, K4, K5, K6, K7, K8, K9, K10, K11, K12, K14, K15, K16, K17, K18, K19, K20, K21, K22, K23, K24, K25, K27, K28, K29, K30, S1, S2, S3, S4, S5, S6, S7, S8, S11, S12, S13, S15, S18, S22, S23, S24, S25, S26, S27, B1, B2, B3, B4, B5, B6</t>
+  </si>
+  <si>
+    <t>Updating the Power BI reports (Buses, Stations, Depots, Babcock) with the live data from the server</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Webinars</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2376,7 @@
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2703,18 +2721,42 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2724,6 +2766,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2764,60 +2812,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2839,6 +2833,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2850,6 +2862,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3329,8 +3350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3395,12 +3416,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="197"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="186"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="2"/>
@@ -3431,14 +3452,14 @@
     </row>
     <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="178"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="191"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="52"/>
@@ -3536,14 +3557,14 @@
       <c r="G5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="194"/>
+      <c r="H5" s="204"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="181"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="189"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3577,10 +3598,10 @@
       <c r="B6" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>344</v>
-      </c>
-      <c r="D6" s="174">
+      <c r="C6" s="224" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="222">
         <v>45554</v>
       </c>
       <c r="E6" s="131">
@@ -3593,7 +3614,7 @@
         <f t="shared" ref="G6:G18" si="0">IF(NOT(ISBLANK(D6)), SUM(E6:F6), 0)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="194"/>
+      <c r="H6" s="204"/>
       <c r="I6" s="2"/>
       <c r="J6" s="128"/>
       <c r="K6" s="128"/>
@@ -3634,10 +3655,10 @@
       <c r="B7" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>344</v>
-      </c>
-      <c r="D7" s="175">
+      <c r="C7" s="224" t="s">
+        <v>380</v>
+      </c>
+      <c r="D7" s="223">
         <v>45582</v>
       </c>
       <c r="E7" s="56">
@@ -3650,7 +3671,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="H7" s="194"/>
+      <c r="H7" s="204"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3691,10 +3712,10 @@
       <c r="B8" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>344</v>
-      </c>
-      <c r="D8" s="175">
+      <c r="C8" s="224" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" s="223">
         <v>45617</v>
       </c>
       <c r="E8" s="56">
@@ -3707,7 +3728,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="194"/>
+      <c r="H8" s="204"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3748,8 +3769,12 @@
       <c r="B9" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="132"/>
+      <c r="C9" s="224" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="223">
+        <v>45687</v>
+      </c>
       <c r="E9" s="56">
         <v>27</v>
       </c>
@@ -3758,9 +3783,9 @@
       </c>
       <c r="G9" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="194"/>
+        <v>54</v>
+      </c>
+      <c r="H9" s="204"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3801,7 +3826,7 @@
       <c r="B10" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="132"/>
       <c r="E10" s="56">
         <v>12</v>
@@ -3813,7 +3838,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="194"/>
+      <c r="H10" s="204"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3854,7 +3879,7 @@
       <c r="B11" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="132"/>
       <c r="E11" s="56">
         <v>24</v>
@@ -3866,7 +3891,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="194"/>
+      <c r="H11" s="204"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3907,7 +3932,7 @@
       <c r="B12" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="132"/>
       <c r="E12" s="56">
         <v>9</v>
@@ -3919,7 +3944,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="194"/>
+      <c r="H12" s="204"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3960,7 +3985,7 @@
       <c r="B13" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="132"/>
       <c r="E13" s="56">
         <v>12</v>
@@ -3972,7 +3997,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="194"/>
+      <c r="H13" s="204"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4013,7 +4038,7 @@
       <c r="B14" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="132"/>
       <c r="E14" s="56">
         <v>21</v>
@@ -4025,7 +4050,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="194"/>
+      <c r="H14" s="204"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4066,7 +4091,7 @@
       <c r="B15" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="56"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="132"/>
       <c r="E15" s="56">
         <v>18</v>
@@ -4078,7 +4103,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="194"/>
+      <c r="H15" s="204"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4119,7 +4144,7 @@
       <c r="B16" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="132"/>
       <c r="E16" s="56">
         <v>15</v>
@@ -4131,7 +4156,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="194"/>
+      <c r="H16" s="204"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -4172,7 +4197,7 @@
       <c r="B17" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="132"/>
       <c r="E17" s="56">
         <v>15</v>
@@ -4184,14 +4209,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="194"/>
+      <c r="H17" s="204"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="181"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="188"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="188"/>
+      <c r="O17" s="189"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -4225,7 +4250,7 @@
       <c r="B18" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56">
         <v>11</v>
@@ -4237,7 +4262,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="194"/>
+      <c r="H18" s="204"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -4290,9 +4315,9 @@
       </c>
       <c r="G19" s="127">
         <f>SUM(G6:G18)</f>
-        <v>63</v>
-      </c>
-      <c r="H19" s="194"/>
+        <v>117</v>
+      </c>
+      <c r="H19" s="204"/>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -4435,7 +4460,7 @@
       <c r="C22" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="176">
+      <c r="D22" s="174">
         <v>45617</v>
       </c>
       <c r="E22" s="56">
@@ -4446,14 +4471,14 @@
         <f>IF(NOT(ISBLANK(D22)), SUM(E22:F22), 0)</f>
         <v>24</v>
       </c>
-      <c r="H22" s="202"/>
+      <c r="H22" s="176"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="181"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="188"/>
+      <c r="N22" s="188"/>
+      <c r="O22" s="189"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4487,8 +4512,8 @@
       <c r="B23" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="56">
         <v>24</v>
       </c>
@@ -4497,7 +4522,7 @@
         <f>IF(NOT(ISBLANK(D23)), SUM(E23:F23), 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="202"/>
+      <c r="H23" s="176"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4548,7 +4573,7 @@
         <f>IF(NOT(ISBLANK(D24)), SUM(E24:F24), 0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="202"/>
+      <c r="H24" s="176"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4599,7 +4624,7 @@
         <f>IF(NOT(ISBLANK(D25)), SUM(E25:F25), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="202"/>
+      <c r="H25" s="176"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4650,7 +4675,7 @@
         <f>IF(NOT(ISBLANK(D26)), SUM(E26:F26), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="202"/>
+      <c r="H26" s="176"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4694,7 +4719,7 @@
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
-      <c r="H27" s="202"/>
+      <c r="H27" s="176"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4749,7 +4774,7 @@
         <f>SUM(G22:H27)</f>
         <v>24</v>
       </c>
-      <c r="H28" s="202"/>
+      <c r="H28" s="176"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4787,20 +4812,20 @@
     </row>
     <row r="29" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="188"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="189"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="190"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="200"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="181"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="189"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -4838,12 +4863,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="186"/>
-      <c r="L30" s="186"/>
-      <c r="M30" s="186"/>
-      <c r="N30" s="186"/>
-      <c r="O30" s="187"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="196"/>
+      <c r="L30" s="196"/>
+      <c r="M30" s="196"/>
+      <c r="N30" s="196"/>
+      <c r="O30" s="197"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -4874,13 +4899,13 @@
     </row>
     <row r="31" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="191" t="s">
+      <c r="B31" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="192"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="193"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="202"/>
+      <c r="F31" s="203"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -5060,23 +5085,23 @@
       <c r="D35" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="201" t="s">
+      <c r="E35" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="201"/>
+      <c r="F35" s="183"/>
       <c r="G35" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="203" t="s">
+      <c r="H35" s="177" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="180"/>
-      <c r="O35" s="181"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="188"/>
+      <c r="L35" s="188"/>
+      <c r="M35" s="188"/>
+      <c r="N35" s="188"/>
+      <c r="O35" s="189"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5108,7 +5133,7 @@
     <row r="36" spans="1:42" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C36" s="141" t="s">
         <v>145</v>
@@ -5116,14 +5141,14 @@
       <c r="D36" s="142">
         <v>45559</v>
       </c>
-      <c r="E36" s="199" t="s">
-        <v>346</v>
-      </c>
-      <c r="F36" s="200"/>
+      <c r="E36" s="180" t="s">
+        <v>345</v>
+      </c>
+      <c r="F36" s="181"/>
       <c r="G36" s="144">
         <v>3</v>
       </c>
-      <c r="H36" s="204"/>
+      <c r="H36" s="178"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -5162,7 +5187,7 @@
     <row r="37" spans="1:42" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C37" s="141" t="s">
         <v>146</v>
@@ -5170,21 +5195,21 @@
       <c r="D37" s="143">
         <v>45572</v>
       </c>
-      <c r="E37" s="199" t="s">
-        <v>345</v>
-      </c>
-      <c r="F37" s="200"/>
+      <c r="E37" s="180" t="s">
+        <v>344</v>
+      </c>
+      <c r="F37" s="181"/>
       <c r="G37" s="144">
         <v>4</v>
       </c>
-      <c r="H37" s="204"/>
+      <c r="H37" s="178"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="182"/>
-      <c r="K37" s="183"/>
-      <c r="L37" s="183"/>
-      <c r="M37" s="183"/>
-      <c r="N37" s="183"/>
-      <c r="O37" s="184"/>
+      <c r="J37" s="192"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="193"/>
+      <c r="N37" s="193"/>
+      <c r="O37" s="194"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -5216,7 +5241,7 @@
     <row r="38" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C38" s="141" t="s">
         <v>147</v>
@@ -5224,14 +5249,14 @@
       <c r="D38" s="142">
         <v>45575</v>
       </c>
-      <c r="E38" s="199" t="s">
-        <v>350</v>
-      </c>
-      <c r="F38" s="200"/>
+      <c r="E38" s="180" t="s">
+        <v>349</v>
+      </c>
+      <c r="F38" s="181"/>
       <c r="G38" s="144">
         <v>3</v>
       </c>
-      <c r="H38" s="204"/>
+      <c r="H38" s="178"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -5270,7 +5295,7 @@
     <row r="39" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C39" s="141" t="s">
         <v>147</v>
@@ -5278,21 +5303,21 @@
       <c r="D39" s="142">
         <v>45579</v>
       </c>
-      <c r="E39" s="199" t="s">
-        <v>349</v>
-      </c>
-      <c r="F39" s="200"/>
+      <c r="E39" s="180" t="s">
+        <v>348</v>
+      </c>
+      <c r="F39" s="181"/>
       <c r="G39" s="144">
         <v>3</v>
       </c>
-      <c r="H39" s="204"/>
+      <c r="H39" s="178"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="179"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="181"/>
+      <c r="J39" s="187"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="188"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="188"/>
+      <c r="O39" s="189"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -5324,7 +5349,7 @@
     <row r="40" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="77" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C40" s="141" t="s">
         <v>149</v>
@@ -5332,14 +5357,14 @@
       <c r="D40" s="142">
         <v>45586</v>
       </c>
-      <c r="E40" s="199" t="s">
+      <c r="E40" s="180" t="s">
         <v>343</v>
       </c>
-      <c r="F40" s="200"/>
+      <c r="F40" s="181"/>
       <c r="G40" s="144">
         <v>8</v>
       </c>
-      <c r="H40" s="204"/>
+      <c r="H40" s="178"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -5378,7 +5403,7 @@
     <row r="41" spans="1:42" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C41" s="154" t="s">
         <v>150</v>
@@ -5386,14 +5411,14 @@
       <c r="D41" s="173">
         <v>45597</v>
       </c>
-      <c r="E41" s="199" t="s">
-        <v>353</v>
-      </c>
-      <c r="F41" s="200"/>
+      <c r="E41" s="180" t="s">
+        <v>352</v>
+      </c>
+      <c r="F41" s="181"/>
       <c r="G41" s="144">
         <v>3</v>
       </c>
-      <c r="H41" s="204"/>
+      <c r="H41" s="178"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -5432,7 +5457,7 @@
     <row r="42" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="77" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C42" s="154" t="s">
         <v>151</v>
@@ -5440,14 +5465,14 @@
       <c r="D42" s="173">
         <v>45601</v>
       </c>
-      <c r="E42" s="199" t="s">
-        <v>354</v>
-      </c>
-      <c r="F42" s="200"/>
+      <c r="E42" s="180" t="s">
+        <v>353</v>
+      </c>
+      <c r="F42" s="181"/>
       <c r="G42" s="144">
         <v>2</v>
       </c>
-      <c r="H42" s="204"/>
+      <c r="H42" s="178"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -5486,7 +5511,7 @@
     <row r="43" spans="1:42" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C43" s="154" t="s">
         <v>153</v>
@@ -5494,14 +5519,14 @@
       <c r="D43" s="149">
         <v>45609</v>
       </c>
-      <c r="E43" s="199" t="s">
-        <v>360</v>
-      </c>
-      <c r="F43" s="200"/>
+      <c r="E43" s="180" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" s="181"/>
       <c r="G43" s="144">
         <v>8</v>
       </c>
-      <c r="H43" s="204"/>
+      <c r="H43" s="178"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -5540,7 +5565,7 @@
     <row r="44" spans="1:42" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="77" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C44" s="154" t="s">
         <v>156</v>
@@ -5548,14 +5573,14 @@
       <c r="D44" s="149">
         <v>45614</v>
       </c>
-      <c r="E44" s="199" t="s">
-        <v>361</v>
-      </c>
-      <c r="F44" s="200"/>
+      <c r="E44" s="180" t="s">
+        <v>360</v>
+      </c>
+      <c r="F44" s="181"/>
       <c r="G44" s="144">
         <v>12</v>
       </c>
-      <c r="H44" s="204"/>
+      <c r="H44" s="178"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -5594,7 +5619,7 @@
     <row r="45" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="77" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C45" s="154" t="s">
         <v>158</v>
@@ -5602,14 +5627,14 @@
       <c r="D45" s="149">
         <v>45623</v>
       </c>
-      <c r="E45" s="199" t="s">
-        <v>362</v>
-      </c>
-      <c r="F45" s="200"/>
+      <c r="E45" s="180" t="s">
+        <v>361</v>
+      </c>
+      <c r="F45" s="181"/>
       <c r="G45" s="144">
         <v>5</v>
       </c>
-      <c r="H45" s="204"/>
+      <c r="H45" s="178"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -5648,7 +5673,7 @@
     <row r="46" spans="1:42" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C46" s="154" t="s">
         <v>163</v>
@@ -5656,14 +5681,14 @@
       <c r="D46" s="149">
         <v>45632</v>
       </c>
-      <c r="E46" s="199" t="s">
-        <v>373</v>
-      </c>
-      <c r="F46" s="200"/>
+      <c r="E46" s="180" t="s">
+        <v>372</v>
+      </c>
+      <c r="F46" s="181"/>
       <c r="G46" s="144">
         <v>5</v>
       </c>
-      <c r="H46" s="204"/>
+      <c r="H46" s="178"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -5702,7 +5727,7 @@
     <row r="47" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C47" s="154" t="s">
         <v>165</v>
@@ -5710,14 +5735,14 @@
       <c r="D47" s="149">
         <v>45637</v>
       </c>
-      <c r="E47" s="199" t="s">
-        <v>365</v>
-      </c>
-      <c r="F47" s="200"/>
+      <c r="E47" s="180" t="s">
+        <v>364</v>
+      </c>
+      <c r="F47" s="181"/>
       <c r="G47" s="144">
         <v>6</v>
       </c>
-      <c r="H47" s="204"/>
+      <c r="H47" s="178"/>
       <c r="I47" s="42"/>
       <c r="J47" s="36"/>
       <c r="K47" s="2"/>
@@ -5756,7 +5781,7 @@
     <row r="48" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C48" s="154" t="s">
         <v>166</v>
@@ -5764,14 +5789,14 @@
       <c r="D48" s="149">
         <v>45644</v>
       </c>
-      <c r="E48" s="199" t="s">
-        <v>366</v>
-      </c>
-      <c r="F48" s="200"/>
+      <c r="E48" s="180" t="s">
+        <v>365</v>
+      </c>
+      <c r="F48" s="181"/>
       <c r="G48" s="144">
         <v>18</v>
       </c>
-      <c r="H48" s="204"/>
+      <c r="H48" s="178"/>
       <c r="I48" s="42"/>
       <c r="J48" s="36"/>
       <c r="K48" s="2"/>
@@ -5810,7 +5835,7 @@
     <row r="49" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="75" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C49" s="141" t="s">
         <v>169</v>
@@ -5818,14 +5843,14 @@
       <c r="D49" s="142">
         <v>45299</v>
       </c>
-      <c r="E49" s="199" t="s">
-        <v>372</v>
-      </c>
-      <c r="F49" s="200"/>
+      <c r="E49" s="180" t="s">
+        <v>371</v>
+      </c>
+      <c r="F49" s="181"/>
       <c r="G49" s="144">
         <v>4</v>
       </c>
-      <c r="H49" s="204"/>
+      <c r="H49" s="178"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5864,7 +5889,7 @@
     <row r="50" spans="1:42" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
       <c r="B50" s="75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C50" s="141" t="s">
         <v>170</v>
@@ -5872,14 +5897,14 @@
       <c r="D50" s="142">
         <v>45306</v>
       </c>
-      <c r="E50" s="199" t="s">
-        <v>367</v>
-      </c>
-      <c r="F50" s="200"/>
+      <c r="E50" s="180" t="s">
+        <v>366</v>
+      </c>
+      <c r="F50" s="181"/>
       <c r="G50" s="145">
         <v>5</v>
       </c>
-      <c r="H50" s="204"/>
+      <c r="H50" s="178"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -5915,15 +5940,25 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
     </row>
-    <row r="51" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="150"/>
-      <c r="E51" s="198"/>
-      <c r="F51" s="198"/>
-      <c r="G51" s="145"/>
-      <c r="H51" s="204"/>
+      <c r="B51" s="75" t="s">
+        <v>376</v>
+      </c>
+      <c r="C51" s="154" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="149">
+        <v>45679</v>
+      </c>
+      <c r="E51" s="180" t="s">
+        <v>374</v>
+      </c>
+      <c r="F51" s="181"/>
+      <c r="G51" s="145">
+        <v>6</v>
+      </c>
+      <c r="H51" s="178"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -5959,15 +5994,25 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
     </row>
-    <row r="52" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="150"/>
-      <c r="E52" s="198"/>
-      <c r="F52" s="198"/>
-      <c r="G52" s="145"/>
-      <c r="H52" s="204"/>
+      <c r="B52" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="C52" s="154" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="149">
+        <v>45687</v>
+      </c>
+      <c r="E52" s="180" t="s">
+        <v>349</v>
+      </c>
+      <c r="F52" s="181"/>
+      <c r="G52" s="145">
+        <v>5</v>
+      </c>
+      <c r="H52" s="178"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -6003,15 +6048,25 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
     </row>
-    <row r="53" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="198"/>
-      <c r="F53" s="198"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="204"/>
+      <c r="B53" s="75" t="s">
+        <v>377</v>
+      </c>
+      <c r="C53" s="154" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="149">
+        <v>45694</v>
+      </c>
+      <c r="E53" s="180" t="s">
+        <v>378</v>
+      </c>
+      <c r="F53" s="181"/>
+      <c r="G53" s="145">
+        <v>9</v>
+      </c>
+      <c r="H53" s="178"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -6052,10 +6107,10 @@
       <c r="B54" s="75"/>
       <c r="C54" s="154"/>
       <c r="D54" s="150"/>
-      <c r="E54" s="198"/>
-      <c r="F54" s="198"/>
+      <c r="E54" s="175"/>
+      <c r="F54" s="175"/>
       <c r="G54" s="145"/>
-      <c r="H54" s="204"/>
+      <c r="H54" s="178"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -6096,10 +6151,10 @@
       <c r="B55" s="56"/>
       <c r="C55" s="154"/>
       <c r="D55" s="150"/>
-      <c r="E55" s="198"/>
-      <c r="F55" s="198"/>
+      <c r="E55" s="175"/>
+      <c r="F55" s="175"/>
       <c r="G55" s="145"/>
-      <c r="H55" s="204"/>
+      <c r="H55" s="178"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -6140,10 +6195,10 @@
       <c r="B56" s="56"/>
       <c r="C56" s="154"/>
       <c r="D56" s="150"/>
-      <c r="E56" s="198"/>
-      <c r="F56" s="198"/>
+      <c r="E56" s="175"/>
+      <c r="F56" s="175"/>
       <c r="G56" s="145"/>
-      <c r="H56" s="204"/>
+      <c r="H56" s="178"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -6184,10 +6239,10 @@
       <c r="B57" s="56"/>
       <c r="C57" s="154"/>
       <c r="D57" s="150"/>
-      <c r="E57" s="198"/>
-      <c r="F57" s="198"/>
+      <c r="E57" s="175"/>
+      <c r="F57" s="175"/>
       <c r="G57" s="145"/>
-      <c r="H57" s="204"/>
+      <c r="H57" s="178"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -6228,10 +6283,10 @@
       <c r="B58" s="56"/>
       <c r="C58" s="154"/>
       <c r="D58" s="150"/>
-      <c r="E58" s="198"/>
-      <c r="F58" s="198"/>
+      <c r="E58" s="175"/>
+      <c r="F58" s="175"/>
       <c r="G58" s="145"/>
-      <c r="H58" s="204"/>
+      <c r="H58" s="178"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -6272,10 +6327,10 @@
       <c r="B59" s="56"/>
       <c r="C59" s="154"/>
       <c r="D59" s="150"/>
-      <c r="E59" s="198"/>
-      <c r="F59" s="198"/>
+      <c r="E59" s="175"/>
+      <c r="F59" s="175"/>
       <c r="G59" s="145"/>
-      <c r="H59" s="204"/>
+      <c r="H59" s="178"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -6316,10 +6371,10 @@
       <c r="B60" s="56"/>
       <c r="C60" s="154"/>
       <c r="D60" s="150"/>
-      <c r="E60" s="198"/>
-      <c r="F60" s="198"/>
+      <c r="E60" s="175"/>
+      <c r="F60" s="175"/>
       <c r="G60" s="145"/>
-      <c r="H60" s="204"/>
+      <c r="H60" s="178"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -6362,13 +6417,13 @@
       </c>
       <c r="C61" s="155"/>
       <c r="D61" s="151"/>
-      <c r="E61" s="206"/>
-      <c r="F61" s="206"/>
+      <c r="E61" s="182"/>
+      <c r="F61" s="182"/>
       <c r="G61" s="146">
         <f>SUM(G36:G60)</f>
-        <v>89</v>
-      </c>
-      <c r="H61" s="205"/>
+        <v>109</v>
+      </c>
+      <c r="H61" s="179"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -6459,7 +6514,7 @@
       <c r="F63" s="27"/>
       <c r="G63" s="148">
         <f>G61+G19+G28+G62</f>
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="H63" s="43"/>
       <c r="I63" s="2"/>
@@ -6638,7 +6693,7 @@
       </c>
       <c r="C67" s="56">
         <f>G63</f>
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="D67" s="2"/>
       <c r="F67" s="2"/>
@@ -6686,7 +6741,7 @@
       </c>
       <c r="C68" s="58">
         <f>C66-C67</f>
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="D68" s="2"/>
       <c r="F68" s="2"/>
@@ -12569,6 +12624,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="H5:H19"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="H22:H28"/>
     <mergeCell ref="H35:H61"/>
@@ -12585,32 +12666,6 @@
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="H5:H19"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="6">
@@ -12625,12 +12680,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please select from the list" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>'List - Hide'!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C33 C9:C20</xm:sqref>
+          <xm:sqref>C33 C19:C20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
@@ -12642,7 +12697,13 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$C$2:$C$19</xm:f>
           </x14:formula1>
-          <xm:sqref>C36:C60</xm:sqref>
+          <xm:sqref>C36:C50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{7A73F8E1-1806-4BB1-AF10-2C07D518EB77}">
+          <x14:formula1>
+            <xm:f>'List - Hide'!$C$2:$C$77</xm:f>
+          </x14:formula1>
+          <xm:sqref>C51:C60</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12833,8 +12894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BS319"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12852,7 +12913,7 @@
   <sheetData>
     <row r="1" spans="1:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="136" t="s">
-        <v>262</v>
+        <v>379</v>
       </c>
       <c r="B1" s="170" t="s">
         <v>263</v>
@@ -26766,8 +26827,8 @@
   <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26867,10 +26928,10 @@
       <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="207" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="219">
+      <c r="B2" s="211">
         <v>1</v>
       </c>
       <c r="C2" s="69" t="s">
@@ -26926,8 +26987,8 @@
       <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="216"/>
-      <c r="B3" s="213"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="205"/>
       <c r="C3" s="71" t="s">
         <v>145</v>
       </c>
@@ -26978,8 +27039,8 @@
       <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="216"/>
-      <c r="B4" s="213"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="205"/>
       <c r="C4" s="71" t="s">
         <v>146</v>
       </c>
@@ -27030,8 +27091,8 @@
       <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="216"/>
-      <c r="B5" s="218"/>
+      <c r="A5" s="208"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="71" t="s">
         <v>147</v>
       </c>
@@ -27082,8 +27143,8 @@
       <c r="AH5" s="66"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="216"/>
-      <c r="B6" s="213">
+      <c r="A6" s="208"/>
+      <c r="B6" s="205">
         <v>2</v>
       </c>
       <c r="C6" s="71" t="s">
@@ -27138,8 +27199,8 @@
       <c r="AH6" s="66"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="216"/>
-      <c r="B7" s="213"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="205"/>
       <c r="C7" s="71" t="s">
         <v>149</v>
       </c>
@@ -27190,8 +27251,8 @@
       <c r="AH7" s="66"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="216"/>
-      <c r="B8" s="213"/>
+      <c r="A8" s="208"/>
+      <c r="B8" s="205"/>
       <c r="C8" s="71" t="s">
         <v>150</v>
       </c>
@@ -27241,8 +27302,8 @@
       <c r="AH8" s="66"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="216"/>
-      <c r="B9" s="213"/>
+      <c r="A9" s="208"/>
+      <c r="B9" s="205"/>
       <c r="C9" s="71" t="s">
         <v>151</v>
       </c>
@@ -27297,8 +27358,8 @@
       <c r="AH9" s="66"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="216"/>
-      <c r="B10" s="213">
+      <c r="A10" s="208"/>
+      <c r="B10" s="205">
         <v>3</v>
       </c>
       <c r="C10" s="71" t="s">
@@ -27356,8 +27417,8 @@
       <c r="AH10" s="66"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="216"/>
-      <c r="B11" s="213"/>
+      <c r="A11" s="208"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="71" t="s">
         <v>156</v>
       </c>
@@ -27412,8 +27473,8 @@
       <c r="AH11" s="66"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="216"/>
-      <c r="B12" s="213"/>
+      <c r="A12" s="208"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="71" t="s">
         <v>158</v>
       </c>
@@ -27471,8 +27532,8 @@
       <c r="AH12" s="66"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="216"/>
-      <c r="B13" s="213"/>
+      <c r="A13" s="208"/>
+      <c r="B13" s="205"/>
       <c r="C13" s="71" t="s">
         <v>163</v>
       </c>
@@ -27538,8 +27599,8 @@
       <c r="AH13" s="66"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="216"/>
-      <c r="B14" s="213">
+      <c r="A14" s="208"/>
+      <c r="B14" s="205">
         <v>4</v>
       </c>
       <c r="C14" s="71" t="s">
@@ -27606,8 +27667,8 @@
       <c r="AH14" s="66"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="216"/>
-      <c r="B15" s="213"/>
+      <c r="A15" s="208"/>
+      <c r="B15" s="205"/>
       <c r="C15" s="71" t="s">
         <v>166</v>
       </c>
@@ -27670,8 +27731,8 @@
       <c r="AH15" s="66"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="216"/>
-      <c r="B16" s="213"/>
+      <c r="A16" s="208"/>
+      <c r="B16" s="205"/>
       <c r="C16" s="71" t="s">
         <v>167</v>
       </c>
@@ -27734,8 +27795,8 @@
       <c r="AH16" s="66"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="216"/>
-      <c r="B17" s="213"/>
+      <c r="A17" s="208"/>
+      <c r="B17" s="205"/>
       <c r="C17" s="71" t="s">
         <v>168</v>
       </c>
@@ -27798,8 +27859,8 @@
       <c r="AH17" s="66"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="216"/>
-      <c r="B18" s="213">
+      <c r="A18" s="208"/>
+      <c r="B18" s="205">
         <v>5</v>
       </c>
       <c r="C18" s="71" t="s">
@@ -27866,8 +27927,8 @@
       <c r="AH18" s="66"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="216"/>
-      <c r="B19" s="213"/>
+      <c r="A19" s="208"/>
+      <c r="B19" s="205"/>
       <c r="C19" s="71" t="s">
         <v>170</v>
       </c>
@@ -27931,8 +27992,8 @@
       <c r="AH19" s="66"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="216"/>
-      <c r="B20" s="213"/>
+      <c r="A20" s="208"/>
+      <c r="B20" s="205"/>
       <c r="C20" s="71" t="s">
         <v>171</v>
       </c>
@@ -27995,8 +28056,8 @@
       <c r="AH20" s="66"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="216"/>
-      <c r="B21" s="213"/>
+      <c r="A21" s="208"/>
+      <c r="B21" s="205"/>
       <c r="C21" s="71" t="s">
         <v>172</v>
       </c>
@@ -28059,8 +28120,8 @@
       <c r="AG21" s="79"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="216"/>
-      <c r="B22" s="213">
+      <c r="A22" s="208"/>
+      <c r="B22" s="205">
         <v>6</v>
       </c>
       <c r="C22" s="71" t="s">
@@ -28126,8 +28187,8 @@
       <c r="AG22" s="79"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="216"/>
-      <c r="B23" s="213"/>
+      <c r="A23" s="208"/>
+      <c r="B23" s="205"/>
       <c r="C23" s="71" t="s">
         <v>174</v>
       </c>
@@ -28192,8 +28253,8 @@
       <c r="AG23" s="79"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="216"/>
-      <c r="B24" s="213"/>
+      <c r="A24" s="208"/>
+      <c r="B24" s="205"/>
       <c r="C24" s="71" t="s">
         <v>175</v>
       </c>
@@ -28254,8 +28315,8 @@
       <c r="AG24" s="79"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="216"/>
-      <c r="B25" s="213"/>
+      <c r="A25" s="208"/>
+      <c r="B25" s="205"/>
       <c r="C25" s="71" t="s">
         <v>176</v>
       </c>
@@ -28313,8 +28374,8 @@
       <c r="AG25" s="66"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="216"/>
-      <c r="B26" s="213">
+      <c r="A26" s="208"/>
+      <c r="B26" s="205">
         <v>7</v>
       </c>
       <c r="C26" s="71" t="s">
@@ -28374,8 +28435,8 @@
       <c r="AG26" s="66"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="216"/>
-      <c r="B27" s="213"/>
+      <c r="A27" s="208"/>
+      <c r="B27" s="205"/>
       <c r="C27" s="71" t="s">
         <v>178</v>
       </c>
@@ -28431,8 +28492,8 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="216"/>
-      <c r="B28" s="213"/>
+      <c r="A28" s="208"/>
+      <c r="B28" s="205"/>
       <c r="C28" s="71" t="s">
         <v>180</v>
       </c>
@@ -28488,8 +28549,8 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="216"/>
-      <c r="B29" s="213"/>
+      <c r="A29" s="208"/>
+      <c r="B29" s="205"/>
       <c r="C29" s="71" t="s">
         <v>182</v>
       </c>
@@ -28546,8 +28607,8 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="216"/>
-      <c r="B30" s="213">
+      <c r="A30" s="208"/>
+      <c r="B30" s="205">
         <v>8</v>
       </c>
       <c r="C30" s="71" t="s">
@@ -28605,8 +28666,8 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="216"/>
-      <c r="B31" s="213"/>
+      <c r="A31" s="208"/>
+      <c r="B31" s="205"/>
       <c r="C31" s="71" t="s">
         <v>187</v>
       </c>
@@ -28661,8 +28722,8 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="216"/>
-      <c r="B32" s="213"/>
+      <c r="A32" s="208"/>
+      <c r="B32" s="205"/>
       <c r="C32" s="71" t="s">
         <v>189</v>
       </c>
@@ -28712,8 +28773,8 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="216"/>
-      <c r="B33" s="213"/>
+      <c r="A33" s="208"/>
+      <c r="B33" s="205"/>
       <c r="C33" s="71" t="s">
         <v>190</v>
       </c>
@@ -28759,8 +28820,8 @@
       <c r="AA33" s="66"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="216"/>
-      <c r="B34" s="213">
+      <c r="A34" s="208"/>
+      <c r="B34" s="205">
         <v>9</v>
       </c>
       <c r="C34" s="71" t="s">
@@ -28806,8 +28867,8 @@
       <c r="AA34" s="66"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="216"/>
-      <c r="B35" s="213"/>
+      <c r="A35" s="208"/>
+      <c r="B35" s="205"/>
       <c r="C35" s="71" t="s">
         <v>192</v>
       </c>
@@ -28850,8 +28911,8 @@
       <c r="AA35" s="66"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="216"/>
-      <c r="B36" s="213"/>
+      <c r="A36" s="208"/>
+      <c r="B36" s="205"/>
       <c r="C36" s="71" t="s">
         <v>193</v>
       </c>
@@ -28896,8 +28957,8 @@
       <c r="AA36" s="66"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="216"/>
-      <c r="B37" s="213"/>
+      <c r="A37" s="208"/>
+      <c r="B37" s="205"/>
       <c r="C37" s="71" t="s">
         <v>194</v>
       </c>
@@ -28940,8 +29001,8 @@
       <c r="AA37" s="66"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="216"/>
-      <c r="B38" s="213">
+      <c r="A38" s="208"/>
+      <c r="B38" s="205">
         <v>10</v>
       </c>
       <c r="C38" s="71" t="s">
@@ -28989,8 +29050,8 @@
       <c r="AH38" s="66"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="216"/>
-      <c r="B39" s="213"/>
+      <c r="A39" s="208"/>
+      <c r="B39" s="205"/>
       <c r="C39" s="71" t="s">
         <v>196</v>
       </c>
@@ -29035,8 +29096,8 @@
       <c r="AH39" s="66"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="216"/>
-      <c r="B40" s="213"/>
+      <c r="A40" s="208"/>
+      <c r="B40" s="205"/>
       <c r="C40" s="71" t="s">
         <v>197</v>
       </c>
@@ -29080,8 +29141,8 @@
       <c r="AH40" s="66"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="216"/>
-      <c r="B41" s="213"/>
+      <c r="A41" s="208"/>
+      <c r="B41" s="205"/>
       <c r="C41" s="71" t="s">
         <v>198</v>
       </c>
@@ -29131,8 +29192,8 @@
       <c r="AH41" s="66"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="216"/>
-      <c r="B42" s="213">
+      <c r="A42" s="208"/>
+      <c r="B42" s="205">
         <v>11</v>
       </c>
       <c r="C42" s="71" t="s">
@@ -29185,8 +29246,8 @@
       <c r="AH42" s="66"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="216"/>
-      <c r="B43" s="213"/>
+      <c r="A43" s="208"/>
+      <c r="B43" s="205"/>
       <c r="C43" s="71" t="s">
         <v>200</v>
       </c>
@@ -29239,8 +29300,8 @@
       <c r="AH43" s="66"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="216"/>
-      <c r="B44" s="213"/>
+      <c r="A44" s="208"/>
+      <c r="B44" s="205"/>
       <c r="C44" s="71" t="s">
         <v>201</v>
       </c>
@@ -29290,8 +29351,8 @@
       <c r="AH44" s="66"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="216"/>
-      <c r="B45" s="213"/>
+      <c r="A45" s="208"/>
+      <c r="B45" s="205"/>
       <c r="C45" s="71" t="s">
         <v>202</v>
       </c>
@@ -29341,8 +29402,8 @@
       <c r="AH45" s="66"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="216"/>
-      <c r="B46" s="213">
+      <c r="A46" s="208"/>
+      <c r="B46" s="205">
         <v>12</v>
       </c>
       <c r="C46" s="71" t="s">
@@ -29396,8 +29457,8 @@
       <c r="AH46" s="66"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="216"/>
-      <c r="B47" s="213"/>
+      <c r="A47" s="208"/>
+      <c r="B47" s="205"/>
       <c r="C47" s="71" t="s">
         <v>204</v>
       </c>
@@ -29447,8 +29508,8 @@
       <c r="AH47" s="66"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="216"/>
-      <c r="B48" s="213"/>
+      <c r="A48" s="208"/>
+      <c r="B48" s="205"/>
       <c r="C48" s="71" t="s">
         <v>205</v>
       </c>
@@ -29500,8 +29561,8 @@
       <c r="AH48" s="66"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="216"/>
-      <c r="B49" s="213"/>
+      <c r="A49" s="208"/>
+      <c r="B49" s="205"/>
       <c r="C49" s="71" t="s">
         <v>206</v>
       </c>
@@ -29551,8 +29612,8 @@
       <c r="AH49" s="66"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="216"/>
-      <c r="B50" s="213">
+      <c r="A50" s="208"/>
+      <c r="B50" s="205">
         <v>13</v>
       </c>
       <c r="C50" s="71" t="s">
@@ -29606,8 +29667,8 @@
       <c r="AH50" s="66"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="216"/>
-      <c r="B51" s="213"/>
+      <c r="A51" s="208"/>
+      <c r="B51" s="205"/>
       <c r="C51" s="71" t="s">
         <v>208</v>
       </c>
@@ -29657,8 +29718,8 @@
       <c r="AH51" s="66"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="216"/>
-      <c r="B52" s="213"/>
+      <c r="A52" s="208"/>
+      <c r="B52" s="205"/>
       <c r="C52" s="71" t="s">
         <v>209</v>
       </c>
@@ -29707,8 +29768,8 @@
       <c r="AH52" s="66"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="216"/>
-      <c r="B53" s="213"/>
+      <c r="A53" s="208"/>
+      <c r="B53" s="205"/>
       <c r="C53" s="71" t="s">
         <v>210</v>
       </c>
@@ -29758,8 +29819,8 @@
       <c r="AH53" s="66"/>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="216"/>
-      <c r="B54" s="213">
+      <c r="A54" s="208"/>
+      <c r="B54" s="205">
         <v>14</v>
       </c>
       <c r="C54" s="71" t="s">
@@ -29813,8 +29874,8 @@
       <c r="AH54" s="66"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="216"/>
-      <c r="B55" s="213"/>
+      <c r="A55" s="208"/>
+      <c r="B55" s="205"/>
       <c r="C55" s="71" t="s">
         <v>212</v>
       </c>
@@ -29865,8 +29926,8 @@
       <c r="AH55" s="66"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="216"/>
-      <c r="B56" s="213"/>
+      <c r="A56" s="208"/>
+      <c r="B56" s="205"/>
       <c r="C56" s="71" t="s">
         <v>213</v>
       </c>
@@ -29916,8 +29977,8 @@
       <c r="AH56" s="66"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="216"/>
-      <c r="B57" s="213"/>
+      <c r="A57" s="208"/>
+      <c r="B57" s="205"/>
       <c r="C57" s="71" t="s">
         <v>214</v>
       </c>
@@ -29968,8 +30029,8 @@
       <c r="AH57" s="66"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="216"/>
-      <c r="B58" s="213">
+      <c r="A58" s="208"/>
+      <c r="B58" s="205">
         <v>15</v>
       </c>
       <c r="C58" s="71" t="s">
@@ -30024,8 +30085,8 @@
       <c r="AH58" s="66"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="216"/>
-      <c r="B59" s="213"/>
+      <c r="A59" s="208"/>
+      <c r="B59" s="205"/>
       <c r="C59" s="71" t="s">
         <v>216</v>
       </c>
@@ -30076,8 +30137,8 @@
       <c r="AH59" s="66"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="216"/>
-      <c r="B60" s="213"/>
+      <c r="A60" s="208"/>
+      <c r="B60" s="205"/>
       <c r="C60" s="71" t="s">
         <v>217</v>
       </c>
@@ -30128,8 +30189,8 @@
       <c r="AH60" s="66"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" s="217"/>
-      <c r="B61" s="214"/>
+      <c r="A61" s="209"/>
+      <c r="B61" s="206"/>
       <c r="C61" s="73" t="s">
         <v>218</v>
       </c>
@@ -30180,10 +30241,10 @@
       <c r="AH61" s="66"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="215" t="s">
+      <c r="A62" s="207" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="218">
+      <c r="B62" s="210">
         <v>16</v>
       </c>
       <c r="C62" s="71" t="s">
@@ -30235,8 +30296,8 @@
       <c r="AH62" s="66"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" s="216"/>
-      <c r="B63" s="213"/>
+      <c r="A63" s="208"/>
+      <c r="B63" s="205"/>
       <c r="C63" s="71" t="s">
         <v>220</v>
       </c>
@@ -30286,8 +30347,8 @@
       <c r="AH63" s="66"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="216"/>
-      <c r="B64" s="213"/>
+      <c r="A64" s="208"/>
+      <c r="B64" s="205"/>
       <c r="C64" s="71" t="s">
         <v>221</v>
       </c>
@@ -30337,8 +30398,8 @@
       <c r="AH64" s="66"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="216"/>
-      <c r="B65" s="213"/>
+      <c r="A65" s="208"/>
+      <c r="B65" s="205"/>
       <c r="C65" s="71" t="s">
         <v>222</v>
       </c>
@@ -30388,8 +30449,8 @@
       <c r="AH65" s="66"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="216"/>
-      <c r="B66" s="213">
+      <c r="A66" s="208"/>
+      <c r="B66" s="205">
         <v>17</v>
       </c>
       <c r="C66" s="71" t="s">
@@ -30441,8 +30502,8 @@
       <c r="AH66" s="66"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A67" s="216"/>
-      <c r="B67" s="213"/>
+      <c r="A67" s="208"/>
+      <c r="B67" s="205"/>
       <c r="C67" s="71" t="s">
         <v>224</v>
       </c>
@@ -30492,8 +30553,8 @@
       <c r="AH67" s="66"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="216"/>
-      <c r="B68" s="213"/>
+      <c r="A68" s="208"/>
+      <c r="B68" s="205"/>
       <c r="C68" s="71" t="s">
         <v>225</v>
       </c>
@@ -30543,8 +30604,8 @@
       <c r="AH68" s="66"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="216"/>
-      <c r="B69" s="213"/>
+      <c r="A69" s="208"/>
+      <c r="B69" s="205"/>
       <c r="C69" s="71" t="s">
         <v>226</v>
       </c>
@@ -30594,8 +30655,8 @@
       <c r="AH69" s="66"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="216"/>
-      <c r="B70" s="213">
+      <c r="A70" s="208"/>
+      <c r="B70" s="205">
         <v>18</v>
       </c>
       <c r="C70" s="71" t="s">
@@ -30647,8 +30708,8 @@
       <c r="AH70" s="66"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="216"/>
-      <c r="B71" s="213"/>
+      <c r="A71" s="208"/>
+      <c r="B71" s="205"/>
       <c r="C71" s="71" t="s">
         <v>228</v>
       </c>
@@ -30698,8 +30759,8 @@
       <c r="AH71" s="66"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="216"/>
-      <c r="B72" s="213"/>
+      <c r="A72" s="208"/>
+      <c r="B72" s="205"/>
       <c r="C72" s="71" t="s">
         <v>229</v>
       </c>
@@ -30749,8 +30810,8 @@
       <c r="AH72" s="66"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="216"/>
-      <c r="B73" s="213"/>
+      <c r="A73" s="208"/>
+      <c r="B73" s="205"/>
       <c r="C73" s="71" t="s">
         <v>230</v>
       </c>
@@ -30800,8 +30861,8 @@
       <c r="AH73" s="66"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="216"/>
-      <c r="B74" s="213">
+      <c r="A74" s="208"/>
+      <c r="B74" s="205">
         <v>19</v>
       </c>
       <c r="C74" s="71" t="s">
@@ -30853,8 +30914,8 @@
       <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="216"/>
-      <c r="B75" s="213"/>
+      <c r="A75" s="208"/>
+      <c r="B75" s="205"/>
       <c r="C75" s="71" t="s">
         <v>232</v>
       </c>
@@ -30904,8 +30965,8 @@
       <c r="AH75" s="66"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="216"/>
-      <c r="B76" s="213"/>
+      <c r="A76" s="208"/>
+      <c r="B76" s="205"/>
       <c r="C76" s="71" t="s">
         <v>233</v>
       </c>
@@ -30955,8 +31016,8 @@
       <c r="AH76" s="66"/>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="217"/>
-      <c r="B77" s="214"/>
+      <c r="A77" s="209"/>
+      <c r="B77" s="206"/>
       <c r="C77" s="73" t="s">
         <v>234</v>
       </c>
@@ -31143,10 +31204,10 @@
     <row r="80" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="66"/>
       <c r="B80" s="66"/>
-      <c r="C80" s="209" t="s">
+      <c r="C80" s="214" t="s">
         <v>235</v>
       </c>
-      <c r="D80" s="210"/>
+      <c r="D80" s="215"/>
       <c r="E80" s="70">
         <v>60</v>
       </c>
@@ -31185,10 +31246,10 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="66"/>
       <c r="B81" s="66"/>
-      <c r="C81" s="211" t="s">
+      <c r="C81" s="216" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="212"/>
+      <c r="D81" s="217"/>
       <c r="E81" s="72">
         <v>322.5</v>
       </c>
@@ -31225,10 +31286,10 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="66"/>
-      <c r="C82" s="211" t="s">
+      <c r="C82" s="216" t="s">
         <v>238</v>
       </c>
-      <c r="D82" s="212"/>
+      <c r="D82" s="217"/>
       <c r="E82" s="72">
         <v>35</v>
       </c>
@@ -31265,10 +31326,10 @@
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="B83" s="66"/>
-      <c r="C83" s="211" t="s">
+      <c r="C83" s="216" t="s">
         <v>239</v>
       </c>
-      <c r="D83" s="212"/>
+      <c r="D83" s="217"/>
       <c r="E83" s="72">
         <v>287</v>
       </c>
@@ -31305,10 +31366,10 @@
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="B84" s="66"/>
-      <c r="C84" s="211" t="s">
+      <c r="C84" s="216" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="212"/>
+      <c r="D84" s="217"/>
       <c r="E84" s="72">
         <v>60</v>
       </c>
@@ -31345,10 +31406,10 @@
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
       <c r="B85" s="66"/>
-      <c r="C85" s="207" t="s">
+      <c r="C85" s="212" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="208"/>
+      <c r="D85" s="213"/>
       <c r="E85" s="74">
         <f>Y79</f>
         <v>483</v>
@@ -31416,6 +31477,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="B74:B77"/>
@@ -31432,17 +31504,6 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31454,7 +31515,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31508,7 +31569,7 @@
         <v>338</v>
       </c>
       <c r="B6" s="160">
-        <v>45304</v>
+        <v>45332</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -31516,7 +31577,7 @@
         <v>339</v>
       </c>
       <c r="B7" s="161" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -31667,7 +31728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -31772,21 +31833,21 @@
     </row>
     <row r="5" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="218" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
-      <c r="L5" s="221"/>
-      <c r="M5" s="221"/>
-      <c r="N5" s="222"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="219"/>
+      <c r="J5" s="219"/>
+      <c r="K5" s="219"/>
+      <c r="L5" s="219"/>
+      <c r="M5" s="219"/>
+      <c r="N5" s="220"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -31866,21 +31927,21 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="223" t="s">
+      <c r="B10" s="221" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="223"/>
+      <c r="B11" s="221"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="223"/>
+      <c r="B12" s="221"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="223"/>
+      <c r="B13" s="221"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="223"/>
+      <c r="B14" s="221"/>
     </row>
     <row r="21" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R21" s="18"/>
@@ -31900,6 +31961,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="d03ffd70-462c-4172-9015-a0cdff42c83c">
+      <UserInfo>
+        <DisplayName>Craig Stevens</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Afzan Matloob</DisplayName>
+        <AccountId>46</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65f98c99-c090-489b-8346-b847c18a5011">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060D9039996957B47A2820CA7E129C20F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61c230ac488284aa1c9442a337ce5a7f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65f98c99-c090-489b-8346-b847c18a5011" xmlns:ns3="d03ffd70-462c-4172-9015-a0cdff42c83c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4cea2a2cd68f11dd2b0a1fdf049f3860" ns2:_="" ns3:_="">
     <xsd:import namespace="65f98c99-c090-489b-8346-b847c18a5011"/>
@@ -32116,28 +32199,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="d03ffd70-462c-4172-9015-a0cdff42c83c">
-      <UserInfo>
-        <DisplayName>Craig Stevens</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Afzan Matloob</DisplayName>
-        <AccountId>46</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65f98c99-c090-489b-8346-b847c18a5011">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -32148,6 +32209,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F627C2A1-639E-4000-94D7-FA9740411AFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d03ffd70-462c-4172-9015-a0cdff42c83c"/>
+    <ds:schemaRef ds:uri="65f98c99-c090-489b-8346-b847c18a5011"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{710DD5DA-09F7-4D7C-A10A-C80CDC0D2E16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32166,17 +32238,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F627C2A1-639E-4000-94D7-FA9740411AFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d03ffd70-462c-4172-9015-a0cdff42c83c"/>
-    <ds:schemaRef ds:uri="65f98c99-c090-489b-8346-b847c18a5011"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
   <ds:schemaRefs>

--- a/OTJ Tracker Data Engineer L5.xlsx
+++ b/OTJ Tracker Data Engineer L5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laho2188\Documents\GitHub\Learning-Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450CCAC8-B057-4443-BD67-2D21C459B160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAE7F8D-FB94-4F09-B914-7B0368E1A91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="385">
   <si>
     <t xml:space="preserve">Apprenticeship Training Log </t>
   </si>
@@ -1256,6 +1256,18 @@
   </si>
   <si>
     <t>Webinars</t>
+  </si>
+  <si>
+    <t>Building a Data Validation app in Python to compare the datasets of two different sources (client and our UK server)</t>
+  </si>
+  <si>
+    <t>Creating the Power BI New Square report with data from the client</t>
+  </si>
+  <si>
+    <t>LinkedIn Learning: Cybersecurity Foundations</t>
+  </si>
+  <si>
+    <t>LinkedIn Learning: Python for Data Engineering</t>
   </si>
 </sst>
 </file>
@@ -2722,41 +2734,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2766,12 +2757,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2812,6 +2797,60 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2833,24 +2872,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2862,15 +2883,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3350,8 +3362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,12 +3428,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="186"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="198"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="2"/>
@@ -3452,14 +3464,14 @@
     </row>
     <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="191"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="52"/>
@@ -3557,14 +3569,14 @@
       <c r="G5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="204"/>
+      <c r="H5" s="195"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="189"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="182"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3598,10 +3610,10 @@
       <c r="B6" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="177" t="s">
         <v>380</v>
       </c>
-      <c r="D6" s="222">
+      <c r="D6" s="175">
         <v>45554</v>
       </c>
       <c r="E6" s="131">
@@ -3614,7 +3626,7 @@
         <f t="shared" ref="G6:G18" si="0">IF(NOT(ISBLANK(D6)), SUM(E6:F6), 0)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="204"/>
+      <c r="H6" s="195"/>
       <c r="I6" s="2"/>
       <c r="J6" s="128"/>
       <c r="K6" s="128"/>
@@ -3655,10 +3667,10 @@
       <c r="B7" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="224" t="s">
+      <c r="C7" s="177" t="s">
         <v>380</v>
       </c>
-      <c r="D7" s="223">
+      <c r="D7" s="176">
         <v>45582</v>
       </c>
       <c r="E7" s="56">
@@ -3671,7 +3683,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="H7" s="204"/>
+      <c r="H7" s="195"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3712,10 +3724,10 @@
       <c r="B8" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="224" t="s">
+      <c r="C8" s="177" t="s">
         <v>380</v>
       </c>
-      <c r="D8" s="223">
+      <c r="D8" s="176">
         <v>45617</v>
       </c>
       <c r="E8" s="56">
@@ -3728,7 +3740,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="204"/>
+      <c r="H8" s="195"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3769,10 +3781,10 @@
       <c r="B9" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="224" t="s">
+      <c r="C9" s="177" t="s">
         <v>380</v>
       </c>
-      <c r="D9" s="223">
+      <c r="D9" s="176">
         <v>45687</v>
       </c>
       <c r="E9" s="56">
@@ -3785,7 +3797,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H9" s="204"/>
+      <c r="H9" s="195"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3826,8 +3838,12 @@
       <c r="B10" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="132"/>
+      <c r="C10" s="177" t="s">
+        <v>380</v>
+      </c>
+      <c r="D10" s="176">
+        <v>45715</v>
+      </c>
       <c r="E10" s="56">
         <v>12</v>
       </c>
@@ -3836,9 +3852,9 @@
       </c>
       <c r="G10" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="204"/>
+        <v>24</v>
+      </c>
+      <c r="H10" s="195"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3891,7 +3907,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="204"/>
+      <c r="H11" s="195"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3944,7 +3960,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="204"/>
+      <c r="H12" s="195"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3997,7 +4013,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="204"/>
+      <c r="H13" s="195"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4050,7 +4066,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="204"/>
+      <c r="H14" s="195"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4103,7 +4119,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="204"/>
+      <c r="H15" s="195"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4156,7 +4172,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="204"/>
+      <c r="H16" s="195"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -4209,14 +4225,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="204"/>
+      <c r="H17" s="195"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="189"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="182"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -4262,7 +4278,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="204"/>
+      <c r="H18" s="195"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -4315,9 +4331,9 @@
       </c>
       <c r="G19" s="127">
         <f>SUM(G6:G18)</f>
-        <v>117</v>
-      </c>
-      <c r="H19" s="204"/>
+        <v>141</v>
+      </c>
+      <c r="H19" s="195"/>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -4471,14 +4487,14 @@
         <f>IF(NOT(ISBLANK(D22)), SUM(E22:F22), 0)</f>
         <v>24</v>
       </c>
-      <c r="H22" s="176"/>
+      <c r="H22" s="203"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="188"/>
-      <c r="O22" s="189"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="182"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4512,17 +4528,21 @@
       <c r="B23" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="174"/>
+      <c r="C23" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="174">
+        <v>45707</v>
+      </c>
       <c r="E23" s="56">
         <v>24</v>
       </c>
       <c r="F23" s="56"/>
       <c r="G23" s="56">
         <f>IF(NOT(ISBLANK(D23)), SUM(E23:F23), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="176"/>
+        <v>24</v>
+      </c>
+      <c r="H23" s="203"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4573,7 +4593,7 @@
         <f>IF(NOT(ISBLANK(D24)), SUM(E24:F24), 0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="176"/>
+      <c r="H24" s="203"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4624,7 +4644,7 @@
         <f>IF(NOT(ISBLANK(D25)), SUM(E25:F25), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="176"/>
+      <c r="H25" s="203"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4675,7 +4695,7 @@
         <f>IF(NOT(ISBLANK(D26)), SUM(E26:F26), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="176"/>
+      <c r="H26" s="203"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4719,7 +4739,7 @@
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
-      <c r="H27" s="176"/>
+      <c r="H27" s="203"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4772,9 +4792,9 @@
       </c>
       <c r="G28" s="58">
         <f>SUM(G22:H27)</f>
-        <v>24</v>
-      </c>
-      <c r="H28" s="176"/>
+        <v>48</v>
+      </c>
+      <c r="H28" s="203"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4812,20 +4832,20 @@
     </row>
     <row r="29" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="198"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="200"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="191"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="188"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="188"/>
-      <c r="N29" s="188"/>
-      <c r="O29" s="189"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="182"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -4863,12 +4883,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="196"/>
-      <c r="L30" s="196"/>
-      <c r="M30" s="196"/>
-      <c r="N30" s="196"/>
-      <c r="O30" s="197"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="188"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -4899,13 +4919,13 @@
     </row>
     <row r="31" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="201" t="s">
+      <c r="B31" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="202"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="202"/>
-      <c r="F31" s="203"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="194"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -5085,23 +5105,23 @@
       <c r="D35" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="183" t="s">
+      <c r="E35" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="183"/>
+      <c r="F35" s="202"/>
       <c r="G35" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="177" t="s">
+      <c r="H35" s="204" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="188"/>
-      <c r="L35" s="188"/>
-      <c r="M35" s="188"/>
-      <c r="N35" s="188"/>
-      <c r="O35" s="189"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="182"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5141,14 +5161,14 @@
       <c r="D36" s="142">
         <v>45559</v>
       </c>
-      <c r="E36" s="180" t="s">
+      <c r="E36" s="200" t="s">
         <v>345</v>
       </c>
-      <c r="F36" s="181"/>
+      <c r="F36" s="201"/>
       <c r="G36" s="144">
         <v>3</v>
       </c>
-      <c r="H36" s="178"/>
+      <c r="H36" s="205"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -5195,21 +5215,21 @@
       <c r="D37" s="143">
         <v>45572</v>
       </c>
-      <c r="E37" s="180" t="s">
+      <c r="E37" s="200" t="s">
         <v>344</v>
       </c>
-      <c r="F37" s="181"/>
+      <c r="F37" s="201"/>
       <c r="G37" s="144">
         <v>4</v>
       </c>
-      <c r="H37" s="178"/>
+      <c r="H37" s="205"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="192"/>
-      <c r="K37" s="193"/>
-      <c r="L37" s="193"/>
-      <c r="M37" s="193"/>
-      <c r="N37" s="193"/>
-      <c r="O37" s="194"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="184"/>
+      <c r="L37" s="184"/>
+      <c r="M37" s="184"/>
+      <c r="N37" s="184"/>
+      <c r="O37" s="185"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -5249,14 +5269,14 @@
       <c r="D38" s="142">
         <v>45575</v>
       </c>
-      <c r="E38" s="180" t="s">
+      <c r="E38" s="200" t="s">
         <v>349</v>
       </c>
-      <c r="F38" s="181"/>
+      <c r="F38" s="201"/>
       <c r="G38" s="144">
         <v>3</v>
       </c>
-      <c r="H38" s="178"/>
+      <c r="H38" s="205"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -5303,21 +5323,21 @@
       <c r="D39" s="142">
         <v>45579</v>
       </c>
-      <c r="E39" s="180" t="s">
+      <c r="E39" s="200" t="s">
         <v>348</v>
       </c>
-      <c r="F39" s="181"/>
+      <c r="F39" s="201"/>
       <c r="G39" s="144">
         <v>3</v>
       </c>
-      <c r="H39" s="178"/>
+      <c r="H39" s="205"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="187"/>
-      <c r="K39" s="188"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="188"/>
-      <c r="N39" s="188"/>
-      <c r="O39" s="189"/>
+      <c r="J39" s="180"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="181"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="182"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -5357,14 +5377,14 @@
       <c r="D40" s="142">
         <v>45586</v>
       </c>
-      <c r="E40" s="180" t="s">
+      <c r="E40" s="200" t="s">
         <v>343</v>
       </c>
-      <c r="F40" s="181"/>
+      <c r="F40" s="201"/>
       <c r="G40" s="144">
         <v>8</v>
       </c>
-      <c r="H40" s="178"/>
+      <c r="H40" s="205"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -5411,14 +5431,14 @@
       <c r="D41" s="173">
         <v>45597</v>
       </c>
-      <c r="E41" s="180" t="s">
+      <c r="E41" s="200" t="s">
         <v>352</v>
       </c>
-      <c r="F41" s="181"/>
+      <c r="F41" s="201"/>
       <c r="G41" s="144">
         <v>3</v>
       </c>
-      <c r="H41" s="178"/>
+      <c r="H41" s="205"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -5465,14 +5485,14 @@
       <c r="D42" s="173">
         <v>45601</v>
       </c>
-      <c r="E42" s="180" t="s">
+      <c r="E42" s="200" t="s">
         <v>353</v>
       </c>
-      <c r="F42" s="181"/>
+      <c r="F42" s="201"/>
       <c r="G42" s="144">
         <v>2</v>
       </c>
-      <c r="H42" s="178"/>
+      <c r="H42" s="205"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -5519,14 +5539,14 @@
       <c r="D43" s="149">
         <v>45609</v>
       </c>
-      <c r="E43" s="180" t="s">
+      <c r="E43" s="200" t="s">
         <v>359</v>
       </c>
-      <c r="F43" s="181"/>
+      <c r="F43" s="201"/>
       <c r="G43" s="144">
         <v>8</v>
       </c>
-      <c r="H43" s="178"/>
+      <c r="H43" s="205"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -5573,14 +5593,14 @@
       <c r="D44" s="149">
         <v>45614</v>
       </c>
-      <c r="E44" s="180" t="s">
+      <c r="E44" s="200" t="s">
         <v>360</v>
       </c>
-      <c r="F44" s="181"/>
+      <c r="F44" s="201"/>
       <c r="G44" s="144">
         <v>12</v>
       </c>
-      <c r="H44" s="178"/>
+      <c r="H44" s="205"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -5627,14 +5647,14 @@
       <c r="D45" s="149">
         <v>45623</v>
       </c>
-      <c r="E45" s="180" t="s">
+      <c r="E45" s="200" t="s">
         <v>361</v>
       </c>
-      <c r="F45" s="181"/>
+      <c r="F45" s="201"/>
       <c r="G45" s="144">
         <v>5</v>
       </c>
-      <c r="H45" s="178"/>
+      <c r="H45" s="205"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -5681,14 +5701,14 @@
       <c r="D46" s="149">
         <v>45632</v>
       </c>
-      <c r="E46" s="180" t="s">
+      <c r="E46" s="200" t="s">
         <v>372</v>
       </c>
-      <c r="F46" s="181"/>
+      <c r="F46" s="201"/>
       <c r="G46" s="144">
         <v>5</v>
       </c>
-      <c r="H46" s="178"/>
+      <c r="H46" s="205"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -5735,14 +5755,14 @@
       <c r="D47" s="149">
         <v>45637</v>
       </c>
-      <c r="E47" s="180" t="s">
+      <c r="E47" s="200" t="s">
         <v>364</v>
       </c>
-      <c r="F47" s="181"/>
+      <c r="F47" s="201"/>
       <c r="G47" s="144">
         <v>6</v>
       </c>
-      <c r="H47" s="178"/>
+      <c r="H47" s="205"/>
       <c r="I47" s="42"/>
       <c r="J47" s="36"/>
       <c r="K47" s="2"/>
@@ -5789,14 +5809,14 @@
       <c r="D48" s="149">
         <v>45644</v>
       </c>
-      <c r="E48" s="180" t="s">
+      <c r="E48" s="200" t="s">
         <v>365</v>
       </c>
-      <c r="F48" s="181"/>
+      <c r="F48" s="201"/>
       <c r="G48" s="144">
         <v>18</v>
       </c>
-      <c r="H48" s="178"/>
+      <c r="H48" s="205"/>
       <c r="I48" s="42"/>
       <c r="J48" s="36"/>
       <c r="K48" s="2"/>
@@ -5843,14 +5863,14 @@
       <c r="D49" s="142">
         <v>45299</v>
       </c>
-      <c r="E49" s="180" t="s">
+      <c r="E49" s="200" t="s">
         <v>371</v>
       </c>
-      <c r="F49" s="181"/>
+      <c r="F49" s="201"/>
       <c r="G49" s="144">
         <v>4</v>
       </c>
-      <c r="H49" s="178"/>
+      <c r="H49" s="205"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5897,14 +5917,14 @@
       <c r="D50" s="142">
         <v>45306</v>
       </c>
-      <c r="E50" s="180" t="s">
+      <c r="E50" s="200" t="s">
         <v>366</v>
       </c>
-      <c r="F50" s="181"/>
+      <c r="F50" s="201"/>
       <c r="G50" s="145">
         <v>5</v>
       </c>
-      <c r="H50" s="178"/>
+      <c r="H50" s="205"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -5951,14 +5971,14 @@
       <c r="D51" s="149">
         <v>45679</v>
       </c>
-      <c r="E51" s="180" t="s">
+      <c r="E51" s="200" t="s">
         <v>374</v>
       </c>
-      <c r="F51" s="181"/>
+      <c r="F51" s="201"/>
       <c r="G51" s="145">
         <v>6</v>
       </c>
-      <c r="H51" s="178"/>
+      <c r="H51" s="205"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -6005,14 +6025,14 @@
       <c r="D52" s="149">
         <v>45687</v>
       </c>
-      <c r="E52" s="180" t="s">
-        <v>349</v>
-      </c>
-      <c r="F52" s="181"/>
+      <c r="E52" s="200" t="s">
+        <v>384</v>
+      </c>
+      <c r="F52" s="201"/>
       <c r="G52" s="145">
         <v>5</v>
       </c>
-      <c r="H52" s="178"/>
+      <c r="H52" s="205"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -6059,14 +6079,14 @@
       <c r="D53" s="149">
         <v>45694</v>
       </c>
-      <c r="E53" s="180" t="s">
+      <c r="E53" s="200" t="s">
         <v>378</v>
       </c>
-      <c r="F53" s="181"/>
+      <c r="F53" s="201"/>
       <c r="G53" s="145">
         <v>9</v>
       </c>
-      <c r="H53" s="178"/>
+      <c r="H53" s="205"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -6102,15 +6122,25 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
     </row>
-    <row r="54" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="154"/>
-      <c r="D54" s="150"/>
-      <c r="E54" s="175"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="178"/>
+      <c r="B54" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="C54" s="154" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="149">
+        <v>45701</v>
+      </c>
+      <c r="E54" s="200" t="s">
+        <v>383</v>
+      </c>
+      <c r="F54" s="201"/>
+      <c r="G54" s="145">
+        <v>4</v>
+      </c>
+      <c r="H54" s="205"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -6146,15 +6176,25 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
     </row>
-    <row r="55" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="154"/>
-      <c r="D55" s="150"/>
-      <c r="E55" s="175"/>
-      <c r="F55" s="175"/>
-      <c r="G55" s="145"/>
-      <c r="H55" s="178"/>
+      <c r="B55" s="75" t="s">
+        <v>373</v>
+      </c>
+      <c r="C55" s="154" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="149">
+        <v>45708</v>
+      </c>
+      <c r="E55" s="200" t="s">
+        <v>381</v>
+      </c>
+      <c r="F55" s="201"/>
+      <c r="G55" s="145">
+        <v>12</v>
+      </c>
+      <c r="H55" s="205"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -6190,15 +6230,25 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
     </row>
-    <row r="56" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="154"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="175"/>
-      <c r="F56" s="175"/>
-      <c r="G56" s="145"/>
-      <c r="H56" s="178"/>
+      <c r="B56" s="75" t="s">
+        <v>376</v>
+      </c>
+      <c r="C56" s="154" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="149">
+        <v>45715</v>
+      </c>
+      <c r="E56" s="200" t="s">
+        <v>382</v>
+      </c>
+      <c r="F56" s="201"/>
+      <c r="G56" s="145">
+        <v>6</v>
+      </c>
+      <c r="H56" s="205"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -6239,10 +6289,10 @@
       <c r="B57" s="56"/>
       <c r="C57" s="154"/>
       <c r="D57" s="150"/>
-      <c r="E57" s="175"/>
-      <c r="F57" s="175"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="199"/>
       <c r="G57" s="145"/>
-      <c r="H57" s="178"/>
+      <c r="H57" s="205"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -6283,10 +6333,10 @@
       <c r="B58" s="56"/>
       <c r="C58" s="154"/>
       <c r="D58" s="150"/>
-      <c r="E58" s="175"/>
-      <c r="F58" s="175"/>
+      <c r="E58" s="199"/>
+      <c r="F58" s="199"/>
       <c r="G58" s="145"/>
-      <c r="H58" s="178"/>
+      <c r="H58" s="205"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -6327,10 +6377,10 @@
       <c r="B59" s="56"/>
       <c r="C59" s="154"/>
       <c r="D59" s="150"/>
-      <c r="E59" s="175"/>
-      <c r="F59" s="175"/>
+      <c r="E59" s="199"/>
+      <c r="F59" s="199"/>
       <c r="G59" s="145"/>
-      <c r="H59" s="178"/>
+      <c r="H59" s="205"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -6371,10 +6421,10 @@
       <c r="B60" s="56"/>
       <c r="C60" s="154"/>
       <c r="D60" s="150"/>
-      <c r="E60" s="175"/>
-      <c r="F60" s="175"/>
+      <c r="E60" s="199"/>
+      <c r="F60" s="199"/>
       <c r="G60" s="145"/>
-      <c r="H60" s="178"/>
+      <c r="H60" s="205"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -6417,13 +6467,13 @@
       </c>
       <c r="C61" s="155"/>
       <c r="D61" s="151"/>
-      <c r="E61" s="182"/>
-      <c r="F61" s="182"/>
+      <c r="E61" s="207"/>
+      <c r="F61" s="207"/>
       <c r="G61" s="146">
         <f>SUM(G36:G60)</f>
-        <v>109</v>
-      </c>
-      <c r="H61" s="179"/>
+        <v>131</v>
+      </c>
+      <c r="H61" s="206"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -6514,7 +6564,7 @@
       <c r="F63" s="27"/>
       <c r="G63" s="148">
         <f>G61+G19+G28+G62</f>
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="H63" s="43"/>
       <c r="I63" s="2"/>
@@ -6693,7 +6743,7 @@
       </c>
       <c r="C67" s="56">
         <f>G63</f>
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="D67" s="2"/>
       <c r="F67" s="2"/>
@@ -6741,7 +6791,7 @@
       </c>
       <c r="C68" s="58">
         <f>C66-C67</f>
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="D68" s="2"/>
       <c r="F68" s="2"/>
@@ -12624,32 +12674,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="H5:H19"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="H22:H28"/>
     <mergeCell ref="H35:H61"/>
@@ -12666,6 +12690,32 @@
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="H5:H19"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="6">
@@ -26928,10 +26978,10 @@
       <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="216" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="211">
+      <c r="B2" s="220">
         <v>1</v>
       </c>
       <c r="C2" s="69" t="s">
@@ -26987,8 +27037,8 @@
       <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="208"/>
-      <c r="B3" s="205"/>
+      <c r="A3" s="217"/>
+      <c r="B3" s="214"/>
       <c r="C3" s="71" t="s">
         <v>145</v>
       </c>
@@ -27039,8 +27089,8 @@
       <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="208"/>
-      <c r="B4" s="205"/>
+      <c r="A4" s="217"/>
+      <c r="B4" s="214"/>
       <c r="C4" s="71" t="s">
         <v>146</v>
       </c>
@@ -27091,8 +27141,8 @@
       <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="208"/>
-      <c r="B5" s="210"/>
+      <c r="A5" s="217"/>
+      <c r="B5" s="219"/>
       <c r="C5" s="71" t="s">
         <v>147</v>
       </c>
@@ -27143,8 +27193,8 @@
       <c r="AH5" s="66"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="208"/>
-      <c r="B6" s="205">
+      <c r="A6" s="217"/>
+      <c r="B6" s="214">
         <v>2</v>
       </c>
       <c r="C6" s="71" t="s">
@@ -27199,8 +27249,8 @@
       <c r="AH6" s="66"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="208"/>
-      <c r="B7" s="205"/>
+      <c r="A7" s="217"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="71" t="s">
         <v>149</v>
       </c>
@@ -27251,8 +27301,8 @@
       <c r="AH7" s="66"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="208"/>
-      <c r="B8" s="205"/>
+      <c r="A8" s="217"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="71" t="s">
         <v>150</v>
       </c>
@@ -27302,8 +27352,8 @@
       <c r="AH8" s="66"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="208"/>
-      <c r="B9" s="205"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="214"/>
       <c r="C9" s="71" t="s">
         <v>151</v>
       </c>
@@ -27358,8 +27408,8 @@
       <c r="AH9" s="66"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="208"/>
-      <c r="B10" s="205">
+      <c r="A10" s="217"/>
+      <c r="B10" s="214">
         <v>3</v>
       </c>
       <c r="C10" s="71" t="s">
@@ -27417,8 +27467,8 @@
       <c r="AH10" s="66"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="208"/>
-      <c r="B11" s="205"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="214"/>
       <c r="C11" s="71" t="s">
         <v>156</v>
       </c>
@@ -27473,8 +27523,8 @@
       <c r="AH11" s="66"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="208"/>
-      <c r="B12" s="205"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="71" t="s">
         <v>158</v>
       </c>
@@ -27532,8 +27582,8 @@
       <c r="AH12" s="66"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="208"/>
-      <c r="B13" s="205"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="214"/>
       <c r="C13" s="71" t="s">
         <v>163</v>
       </c>
@@ -27599,8 +27649,8 @@
       <c r="AH13" s="66"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="208"/>
-      <c r="B14" s="205">
+      <c r="A14" s="217"/>
+      <c r="B14" s="214">
         <v>4</v>
       </c>
       <c r="C14" s="71" t="s">
@@ -27667,8 +27717,8 @@
       <c r="AH14" s="66"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="208"/>
-      <c r="B15" s="205"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="71" t="s">
         <v>166</v>
       </c>
@@ -27731,8 +27781,8 @@
       <c r="AH15" s="66"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="208"/>
-      <c r="B16" s="205"/>
+      <c r="A16" s="217"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="71" t="s">
         <v>167</v>
       </c>
@@ -27795,8 +27845,8 @@
       <c r="AH16" s="66"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="208"/>
-      <c r="B17" s="205"/>
+      <c r="A17" s="217"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="71" t="s">
         <v>168</v>
       </c>
@@ -27859,8 +27909,8 @@
       <c r="AH17" s="66"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="208"/>
-      <c r="B18" s="205">
+      <c r="A18" s="217"/>
+      <c r="B18" s="214">
         <v>5</v>
       </c>
       <c r="C18" s="71" t="s">
@@ -27927,8 +27977,8 @@
       <c r="AH18" s="66"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="208"/>
-      <c r="B19" s="205"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="214"/>
       <c r="C19" s="71" t="s">
         <v>170</v>
       </c>
@@ -27992,8 +28042,8 @@
       <c r="AH19" s="66"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="208"/>
-      <c r="B20" s="205"/>
+      <c r="A20" s="217"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="71" t="s">
         <v>171</v>
       </c>
@@ -28056,8 +28106,8 @@
       <c r="AH20" s="66"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="208"/>
-      <c r="B21" s="205"/>
+      <c r="A21" s="217"/>
+      <c r="B21" s="214"/>
       <c r="C21" s="71" t="s">
         <v>172</v>
       </c>
@@ -28120,8 +28170,8 @@
       <c r="AG21" s="79"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="208"/>
-      <c r="B22" s="205">
+      <c r="A22" s="217"/>
+      <c r="B22" s="214">
         <v>6</v>
       </c>
       <c r="C22" s="71" t="s">
@@ -28187,8 +28237,8 @@
       <c r="AG22" s="79"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="208"/>
-      <c r="B23" s="205"/>
+      <c r="A23" s="217"/>
+      <c r="B23" s="214"/>
       <c r="C23" s="71" t="s">
         <v>174</v>
       </c>
@@ -28253,8 +28303,8 @@
       <c r="AG23" s="79"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="208"/>
-      <c r="B24" s="205"/>
+      <c r="A24" s="217"/>
+      <c r="B24" s="214"/>
       <c r="C24" s="71" t="s">
         <v>175</v>
       </c>
@@ -28315,8 +28365,8 @@
       <c r="AG24" s="79"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="208"/>
-      <c r="B25" s="205"/>
+      <c r="A25" s="217"/>
+      <c r="B25" s="214"/>
       <c r="C25" s="71" t="s">
         <v>176</v>
       </c>
@@ -28374,8 +28424,8 @@
       <c r="AG25" s="66"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="208"/>
-      <c r="B26" s="205">
+      <c r="A26" s="217"/>
+      <c r="B26" s="214">
         <v>7</v>
       </c>
       <c r="C26" s="71" t="s">
@@ -28435,8 +28485,8 @@
       <c r="AG26" s="66"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="208"/>
-      <c r="B27" s="205"/>
+      <c r="A27" s="217"/>
+      <c r="B27" s="214"/>
       <c r="C27" s="71" t="s">
         <v>178</v>
       </c>
@@ -28492,8 +28542,8 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="208"/>
-      <c r="B28" s="205"/>
+      <c r="A28" s="217"/>
+      <c r="B28" s="214"/>
       <c r="C28" s="71" t="s">
         <v>180</v>
       </c>
@@ -28549,8 +28599,8 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="208"/>
-      <c r="B29" s="205"/>
+      <c r="A29" s="217"/>
+      <c r="B29" s="214"/>
       <c r="C29" s="71" t="s">
         <v>182</v>
       </c>
@@ -28607,8 +28657,8 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="208"/>
-      <c r="B30" s="205">
+      <c r="A30" s="217"/>
+      <c r="B30" s="214">
         <v>8</v>
       </c>
       <c r="C30" s="71" t="s">
@@ -28666,8 +28716,8 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="208"/>
-      <c r="B31" s="205"/>
+      <c r="A31" s="217"/>
+      <c r="B31" s="214"/>
       <c r="C31" s="71" t="s">
         <v>187</v>
       </c>
@@ -28722,8 +28772,8 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="208"/>
-      <c r="B32" s="205"/>
+      <c r="A32" s="217"/>
+      <c r="B32" s="214"/>
       <c r="C32" s="71" t="s">
         <v>189</v>
       </c>
@@ -28773,8 +28823,8 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="208"/>
-      <c r="B33" s="205"/>
+      <c r="A33" s="217"/>
+      <c r="B33" s="214"/>
       <c r="C33" s="71" t="s">
         <v>190</v>
       </c>
@@ -28820,8 +28870,8 @@
       <c r="AA33" s="66"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="208"/>
-      <c r="B34" s="205">
+      <c r="A34" s="217"/>
+      <c r="B34" s="214">
         <v>9</v>
       </c>
       <c r="C34" s="71" t="s">
@@ -28867,8 +28917,8 @@
       <c r="AA34" s="66"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="208"/>
-      <c r="B35" s="205"/>
+      <c r="A35" s="217"/>
+      <c r="B35" s="214"/>
       <c r="C35" s="71" t="s">
         <v>192</v>
       </c>
@@ -28911,8 +28961,8 @@
       <c r="AA35" s="66"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="208"/>
-      <c r="B36" s="205"/>
+      <c r="A36" s="217"/>
+      <c r="B36" s="214"/>
       <c r="C36" s="71" t="s">
         <v>193</v>
       </c>
@@ -28957,8 +29007,8 @@
       <c r="AA36" s="66"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="208"/>
-      <c r="B37" s="205"/>
+      <c r="A37" s="217"/>
+      <c r="B37" s="214"/>
       <c r="C37" s="71" t="s">
         <v>194</v>
       </c>
@@ -29001,8 +29051,8 @@
       <c r="AA37" s="66"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="208"/>
-      <c r="B38" s="205">
+      <c r="A38" s="217"/>
+      <c r="B38" s="214">
         <v>10</v>
       </c>
       <c r="C38" s="71" t="s">
@@ -29050,8 +29100,8 @@
       <c r="AH38" s="66"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="208"/>
-      <c r="B39" s="205"/>
+      <c r="A39" s="217"/>
+      <c r="B39" s="214"/>
       <c r="C39" s="71" t="s">
         <v>196</v>
       </c>
@@ -29096,8 +29146,8 @@
       <c r="AH39" s="66"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="208"/>
-      <c r="B40" s="205"/>
+      <c r="A40" s="217"/>
+      <c r="B40" s="214"/>
       <c r="C40" s="71" t="s">
         <v>197</v>
       </c>
@@ -29141,8 +29191,8 @@
       <c r="AH40" s="66"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="208"/>
-      <c r="B41" s="205"/>
+      <c r="A41" s="217"/>
+      <c r="B41" s="214"/>
       <c r="C41" s="71" t="s">
         <v>198</v>
       </c>
@@ -29192,8 +29242,8 @@
       <c r="AH41" s="66"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="208"/>
-      <c r="B42" s="205">
+      <c r="A42" s="217"/>
+      <c r="B42" s="214">
         <v>11</v>
       </c>
       <c r="C42" s="71" t="s">
@@ -29246,8 +29296,8 @@
       <c r="AH42" s="66"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="208"/>
-      <c r="B43" s="205"/>
+      <c r="A43" s="217"/>
+      <c r="B43" s="214"/>
       <c r="C43" s="71" t="s">
         <v>200</v>
       </c>
@@ -29300,8 +29350,8 @@
       <c r="AH43" s="66"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="208"/>
-      <c r="B44" s="205"/>
+      <c r="A44" s="217"/>
+      <c r="B44" s="214"/>
       <c r="C44" s="71" t="s">
         <v>201</v>
       </c>
@@ -29351,8 +29401,8 @@
       <c r="AH44" s="66"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="208"/>
-      <c r="B45" s="205"/>
+      <c r="A45" s="217"/>
+      <c r="B45" s="214"/>
       <c r="C45" s="71" t="s">
         <v>202</v>
       </c>
@@ -29402,8 +29452,8 @@
       <c r="AH45" s="66"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="208"/>
-      <c r="B46" s="205">
+      <c r="A46" s="217"/>
+      <c r="B46" s="214">
         <v>12</v>
       </c>
       <c r="C46" s="71" t="s">
@@ -29457,8 +29507,8 @@
       <c r="AH46" s="66"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="208"/>
-      <c r="B47" s="205"/>
+      <c r="A47" s="217"/>
+      <c r="B47" s="214"/>
       <c r="C47" s="71" t="s">
         <v>204</v>
       </c>
@@ -29508,8 +29558,8 @@
       <c r="AH47" s="66"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="208"/>
-      <c r="B48" s="205"/>
+      <c r="A48" s="217"/>
+      <c r="B48" s="214"/>
       <c r="C48" s="71" t="s">
         <v>205</v>
       </c>
@@ -29561,8 +29611,8 @@
       <c r="AH48" s="66"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="208"/>
-      <c r="B49" s="205"/>
+      <c r="A49" s="217"/>
+      <c r="B49" s="214"/>
       <c r="C49" s="71" t="s">
         <v>206</v>
       </c>
@@ -29612,8 +29662,8 @@
       <c r="AH49" s="66"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="208"/>
-      <c r="B50" s="205">
+      <c r="A50" s="217"/>
+      <c r="B50" s="214">
         <v>13</v>
       </c>
       <c r="C50" s="71" t="s">
@@ -29667,8 +29717,8 @@
       <c r="AH50" s="66"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="208"/>
-      <c r="B51" s="205"/>
+      <c r="A51" s="217"/>
+      <c r="B51" s="214"/>
       <c r="C51" s="71" t="s">
         <v>208</v>
       </c>
@@ -29718,8 +29768,8 @@
       <c r="AH51" s="66"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="208"/>
-      <c r="B52" s="205"/>
+      <c r="A52" s="217"/>
+      <c r="B52" s="214"/>
       <c r="C52" s="71" t="s">
         <v>209</v>
       </c>
@@ -29768,8 +29818,8 @@
       <c r="AH52" s="66"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="208"/>
-      <c r="B53" s="205"/>
+      <c r="A53" s="217"/>
+      <c r="B53" s="214"/>
       <c r="C53" s="71" t="s">
         <v>210</v>
       </c>
@@ -29819,8 +29869,8 @@
       <c r="AH53" s="66"/>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="208"/>
-      <c r="B54" s="205">
+      <c r="A54" s="217"/>
+      <c r="B54" s="214">
         <v>14</v>
       </c>
       <c r="C54" s="71" t="s">
@@ -29874,8 +29924,8 @@
       <c r="AH54" s="66"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="208"/>
-      <c r="B55" s="205"/>
+      <c r="A55" s="217"/>
+      <c r="B55" s="214"/>
       <c r="C55" s="71" t="s">
         <v>212</v>
       </c>
@@ -29926,8 +29976,8 @@
       <c r="AH55" s="66"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="208"/>
-      <c r="B56" s="205"/>
+      <c r="A56" s="217"/>
+      <c r="B56" s="214"/>
       <c r="C56" s="71" t="s">
         <v>213</v>
       </c>
@@ -29977,8 +30027,8 @@
       <c r="AH56" s="66"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="208"/>
-      <c r="B57" s="205"/>
+      <c r="A57" s="217"/>
+      <c r="B57" s="214"/>
       <c r="C57" s="71" t="s">
         <v>214</v>
       </c>
@@ -30029,8 +30079,8 @@
       <c r="AH57" s="66"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="208"/>
-      <c r="B58" s="205">
+      <c r="A58" s="217"/>
+      <c r="B58" s="214">
         <v>15</v>
       </c>
       <c r="C58" s="71" t="s">
@@ -30085,8 +30135,8 @@
       <c r="AH58" s="66"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="208"/>
-      <c r="B59" s="205"/>
+      <c r="A59" s="217"/>
+      <c r="B59" s="214"/>
       <c r="C59" s="71" t="s">
         <v>216</v>
       </c>
@@ -30137,8 +30187,8 @@
       <c r="AH59" s="66"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="208"/>
-      <c r="B60" s="205"/>
+      <c r="A60" s="217"/>
+      <c r="B60" s="214"/>
       <c r="C60" s="71" t="s">
         <v>217</v>
       </c>
@@ -30189,8 +30239,8 @@
       <c r="AH60" s="66"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" s="209"/>
-      <c r="B61" s="206"/>
+      <c r="A61" s="218"/>
+      <c r="B61" s="215"/>
       <c r="C61" s="73" t="s">
         <v>218</v>
       </c>
@@ -30241,10 +30291,10 @@
       <c r="AH61" s="66"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="207" t="s">
+      <c r="A62" s="216" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="210">
+      <c r="B62" s="219">
         <v>16</v>
       </c>
       <c r="C62" s="71" t="s">
@@ -30296,8 +30346,8 @@
       <c r="AH62" s="66"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" s="208"/>
-      <c r="B63" s="205"/>
+      <c r="A63" s="217"/>
+      <c r="B63" s="214"/>
       <c r="C63" s="71" t="s">
         <v>220</v>
       </c>
@@ -30347,8 +30397,8 @@
       <c r="AH63" s="66"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="208"/>
-      <c r="B64" s="205"/>
+      <c r="A64" s="217"/>
+      <c r="B64" s="214"/>
       <c r="C64" s="71" t="s">
         <v>221</v>
       </c>
@@ -30398,8 +30448,8 @@
       <c r="AH64" s="66"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="208"/>
-      <c r="B65" s="205"/>
+      <c r="A65" s="217"/>
+      <c r="B65" s="214"/>
       <c r="C65" s="71" t="s">
         <v>222</v>
       </c>
@@ -30449,8 +30499,8 @@
       <c r="AH65" s="66"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="208"/>
-      <c r="B66" s="205">
+      <c r="A66" s="217"/>
+      <c r="B66" s="214">
         <v>17</v>
       </c>
       <c r="C66" s="71" t="s">
@@ -30502,8 +30552,8 @@
       <c r="AH66" s="66"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A67" s="208"/>
-      <c r="B67" s="205"/>
+      <c r="A67" s="217"/>
+      <c r="B67" s="214"/>
       <c r="C67" s="71" t="s">
         <v>224</v>
       </c>
@@ -30553,8 +30603,8 @@
       <c r="AH67" s="66"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="208"/>
-      <c r="B68" s="205"/>
+      <c r="A68" s="217"/>
+      <c r="B68" s="214"/>
       <c r="C68" s="71" t="s">
         <v>225</v>
       </c>
@@ -30604,8 +30654,8 @@
       <c r="AH68" s="66"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="208"/>
-      <c r="B69" s="205"/>
+      <c r="A69" s="217"/>
+      <c r="B69" s="214"/>
       <c r="C69" s="71" t="s">
         <v>226</v>
       </c>
@@ -30655,8 +30705,8 @@
       <c r="AH69" s="66"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="208"/>
-      <c r="B70" s="205">
+      <c r="A70" s="217"/>
+      <c r="B70" s="214">
         <v>18</v>
       </c>
       <c r="C70" s="71" t="s">
@@ -30708,8 +30758,8 @@
       <c r="AH70" s="66"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="208"/>
-      <c r="B71" s="205"/>
+      <c r="A71" s="217"/>
+      <c r="B71" s="214"/>
       <c r="C71" s="71" t="s">
         <v>228</v>
       </c>
@@ -30759,8 +30809,8 @@
       <c r="AH71" s="66"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="208"/>
-      <c r="B72" s="205"/>
+      <c r="A72" s="217"/>
+      <c r="B72" s="214"/>
       <c r="C72" s="71" t="s">
         <v>229</v>
       </c>
@@ -30810,8 +30860,8 @@
       <c r="AH72" s="66"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="208"/>
-      <c r="B73" s="205"/>
+      <c r="A73" s="217"/>
+      <c r="B73" s="214"/>
       <c r="C73" s="71" t="s">
         <v>230</v>
       </c>
@@ -30861,8 +30911,8 @@
       <c r="AH73" s="66"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="208"/>
-      <c r="B74" s="205">
+      <c r="A74" s="217"/>
+      <c r="B74" s="214">
         <v>19</v>
       </c>
       <c r="C74" s="71" t="s">
@@ -30914,8 +30964,8 @@
       <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="208"/>
-      <c r="B75" s="205"/>
+      <c r="A75" s="217"/>
+      <c r="B75" s="214"/>
       <c r="C75" s="71" t="s">
         <v>232</v>
       </c>
@@ -30965,8 +31015,8 @@
       <c r="AH75" s="66"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="208"/>
-      <c r="B76" s="205"/>
+      <c r="A76" s="217"/>
+      <c r="B76" s="214"/>
       <c r="C76" s="71" t="s">
         <v>233</v>
       </c>
@@ -31016,8 +31066,8 @@
       <c r="AH76" s="66"/>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="209"/>
-      <c r="B77" s="206"/>
+      <c r="A77" s="218"/>
+      <c r="B77" s="215"/>
       <c r="C77" s="73" t="s">
         <v>234</v>
       </c>
@@ -31204,10 +31254,10 @@
     <row r="80" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="66"/>
       <c r="B80" s="66"/>
-      <c r="C80" s="214" t="s">
+      <c r="C80" s="210" t="s">
         <v>235</v>
       </c>
-      <c r="D80" s="215"/>
+      <c r="D80" s="211"/>
       <c r="E80" s="70">
         <v>60</v>
       </c>
@@ -31246,10 +31296,10 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="66"/>
       <c r="B81" s="66"/>
-      <c r="C81" s="216" t="s">
+      <c r="C81" s="212" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="217"/>
+      <c r="D81" s="213"/>
       <c r="E81" s="72">
         <v>322.5</v>
       </c>
@@ -31286,10 +31336,10 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="66"/>
-      <c r="C82" s="216" t="s">
+      <c r="C82" s="212" t="s">
         <v>238</v>
       </c>
-      <c r="D82" s="217"/>
+      <c r="D82" s="213"/>
       <c r="E82" s="72">
         <v>35</v>
       </c>
@@ -31326,10 +31376,10 @@
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="B83" s="66"/>
-      <c r="C83" s="216" t="s">
+      <c r="C83" s="212" t="s">
         <v>239</v>
       </c>
-      <c r="D83" s="217"/>
+      <c r="D83" s="213"/>
       <c r="E83" s="72">
         <v>287</v>
       </c>
@@ -31366,10 +31416,10 @@
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="B84" s="66"/>
-      <c r="C84" s="216" t="s">
+      <c r="C84" s="212" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="217"/>
+      <c r="D84" s="213"/>
       <c r="E84" s="72">
         <v>60</v>
       </c>
@@ -31406,10 +31456,10 @@
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
       <c r="B85" s="66"/>
-      <c r="C85" s="212" t="s">
+      <c r="C85" s="208" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="213"/>
+      <c r="D85" s="209"/>
       <c r="E85" s="74">
         <f>Y79</f>
         <v>483</v>
@@ -31477,17 +31527,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="B74:B77"/>
@@ -31504,6 +31543,17 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31515,7 +31565,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31569,7 +31619,7 @@
         <v>338</v>
       </c>
       <c r="B6" s="160">
-        <v>45332</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -31833,21 +31883,21 @@
     </row>
     <row r="5" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="221" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="219"/>
-      <c r="M5" s="219"/>
-      <c r="N5" s="220"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="223"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -31927,21 +31977,21 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="221" t="s">
+      <c r="B10" s="224" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="221"/>
+      <c r="B11" s="224"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="221"/>
+      <c r="B12" s="224"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="221"/>
+      <c r="B13" s="224"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="221"/>
+      <c r="B14" s="224"/>
     </row>
     <row r="21" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R21" s="18"/>
@@ -31961,28 +32011,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="d03ffd70-462c-4172-9015-a0cdff42c83c">
-      <UserInfo>
-        <DisplayName>Craig Stevens</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Afzan Matloob</DisplayName>
-        <AccountId>46</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65f98c99-c090-489b-8346-b847c18a5011">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060D9039996957B47A2820CA7E129C20F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61c230ac488284aa1c9442a337ce5a7f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65f98c99-c090-489b-8346-b847c18a5011" xmlns:ns3="d03ffd70-462c-4172-9015-a0cdff42c83c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4cea2a2cd68f11dd2b0a1fdf049f3860" ns2:_="" ns3:_="">
     <xsd:import namespace="65f98c99-c090-489b-8346-b847c18a5011"/>
@@ -32199,6 +32227,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="d03ffd70-462c-4172-9015-a0cdff42c83c">
+      <UserInfo>
+        <DisplayName>Craig Stevens</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Afzan Matloob</DisplayName>
+        <AccountId>46</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65f98c99-c090-489b-8346-b847c18a5011">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -32209,17 +32259,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F627C2A1-639E-4000-94D7-FA9740411AFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d03ffd70-462c-4172-9015-a0cdff42c83c"/>
-    <ds:schemaRef ds:uri="65f98c99-c090-489b-8346-b847c18a5011"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{710DD5DA-09F7-4D7C-A10A-C80CDC0D2E16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32238,6 +32277,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F627C2A1-639E-4000-94D7-FA9740411AFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d03ffd70-462c-4172-9015-a0cdff42c83c"/>
+    <ds:schemaRef ds:uri="65f98c99-c090-489b-8346-b847c18a5011"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
   <ds:schemaRefs>

--- a/OTJ Tracker Data Engineer L5.xlsx
+++ b/OTJ Tracker Data Engineer L5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laho2188\Documents\GitHub\Learning-Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAE7F8D-FB94-4F09-B914-7B0368E1A91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF77BB0-E8A2-495A-8630-ACAE696187CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="389">
   <si>
     <t xml:space="preserve">Apprenticeship Training Log </t>
   </si>
@@ -1268,6 +1268,18 @@
   </si>
   <si>
     <t>LinkedIn Learning: Python for Data Engineering</t>
+  </si>
+  <si>
+    <t>Creating the Power BI St James Square report with data from the client</t>
+  </si>
+  <si>
+    <t>LinkedIn Learning: Azure Data Factory</t>
+  </si>
+  <si>
+    <t>LinkedIn Learning: ETL in Python and SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power BI Data Warehouse Backup to Data Mart storage, with incremental refresh </t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -2243,39 +2255,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -2382,13 +2364,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2588,7 +2583,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2599,15 +2594,15 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2616,12 +2611,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2663,28 +2658,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2703,7 +2686,7 @@
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2721,7 +2704,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2743,11 +2726,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2757,6 +2767,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2797,60 +2813,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2872,6 +2834,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2883,6 +2863,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3360,10 +3361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP312"/>
+  <dimension ref="A1:AP315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,12 +3429,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="198"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="184"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="2"/>
@@ -3464,14 +3465,14 @@
     </row>
     <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="179"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="189"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="52"/>
@@ -3569,14 +3570,14 @@
       <c r="G5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="195"/>
+      <c r="H5" s="202"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="182"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="187"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3610,10 +3611,10 @@
       <c r="B6" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="173" t="s">
         <v>380</v>
       </c>
-      <c r="D6" s="175">
+      <c r="D6" s="171">
         <v>45554</v>
       </c>
       <c r="E6" s="131">
@@ -3626,7 +3627,7 @@
         <f t="shared" ref="G6:G18" si="0">IF(NOT(ISBLANK(D6)), SUM(E6:F6), 0)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="195"/>
+      <c r="H6" s="202"/>
       <c r="I6" s="2"/>
       <c r="J6" s="128"/>
       <c r="K6" s="128"/>
@@ -3667,10 +3668,10 @@
       <c r="B7" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="173" t="s">
         <v>380</v>
       </c>
-      <c r="D7" s="176">
+      <c r="D7" s="172">
         <v>45582</v>
       </c>
       <c r="E7" s="56">
@@ -3683,7 +3684,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="H7" s="195"/>
+      <c r="H7" s="202"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3724,10 +3725,10 @@
       <c r="B8" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="173" t="s">
         <v>380</v>
       </c>
-      <c r="D8" s="176">
+      <c r="D8" s="172">
         <v>45617</v>
       </c>
       <c r="E8" s="56">
@@ -3740,7 +3741,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="195"/>
+      <c r="H8" s="202"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3781,10 +3782,10 @@
       <c r="B9" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="173" t="s">
         <v>380</v>
       </c>
-      <c r="D9" s="176">
+      <c r="D9" s="172">
         <v>45687</v>
       </c>
       <c r="E9" s="56">
@@ -3797,7 +3798,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H9" s="195"/>
+      <c r="H9" s="202"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3838,10 +3839,10 @@
       <c r="B10" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="173" t="s">
         <v>380</v>
       </c>
-      <c r="D10" s="176">
+      <c r="D10" s="172">
         <v>45715</v>
       </c>
       <c r="E10" s="56">
@@ -3854,7 +3855,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="195"/>
+      <c r="H10" s="202"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3907,7 +3908,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="195"/>
+      <c r="H11" s="202"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3960,7 +3961,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="195"/>
+      <c r="H12" s="202"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4013,7 +4014,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="195"/>
+      <c r="H13" s="202"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4066,7 +4067,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="195"/>
+      <c r="H14" s="202"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4119,7 +4120,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="195"/>
+      <c r="H15" s="202"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4172,7 +4173,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="195"/>
+      <c r="H16" s="202"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -4225,14 +4226,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="195"/>
+      <c r="H17" s="202"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="182"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="186"/>
+      <c r="L17" s="186"/>
+      <c r="M17" s="186"/>
+      <c r="N17" s="186"/>
+      <c r="O17" s="187"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -4278,7 +4279,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="195"/>
+      <c r="H18" s="202"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -4333,7 +4334,7 @@
         <f>SUM(G6:G18)</f>
         <v>141</v>
       </c>
-      <c r="H19" s="195"/>
+      <c r="H19" s="202"/>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -4476,7 +4477,7 @@
       <c r="C22" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="174">
+      <c r="D22" s="170">
         <v>45617</v>
       </c>
       <c r="E22" s="56">
@@ -4487,14 +4488,14 @@
         <f>IF(NOT(ISBLANK(D22)), SUM(E22:F22), 0)</f>
         <v>24</v>
       </c>
-      <c r="H22" s="203"/>
+      <c r="H22" s="175"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="182"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="186"/>
+      <c r="L22" s="186"/>
+      <c r="M22" s="186"/>
+      <c r="N22" s="186"/>
+      <c r="O22" s="187"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4531,7 +4532,7 @@
       <c r="C23" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="174">
+      <c r="D23" s="170">
         <v>45707</v>
       </c>
       <c r="E23" s="56">
@@ -4542,7 +4543,7 @@
         <f>IF(NOT(ISBLANK(D23)), SUM(E23:F23), 0)</f>
         <v>24</v>
       </c>
-      <c r="H23" s="203"/>
+      <c r="H23" s="175"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4583,17 +4584,21 @@
       <c r="B24" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="C24" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="170">
+        <v>45755</v>
+      </c>
       <c r="E24" s="56">
         <v>24</v>
       </c>
       <c r="F24" s="56"/>
       <c r="G24" s="56">
         <f>IF(NOT(ISBLANK(D24)), SUM(E24:F24), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="203"/>
+        <v>24</v>
+      </c>
+      <c r="H24" s="175"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4644,7 +4649,7 @@
         <f>IF(NOT(ISBLANK(D25)), SUM(E25:F25), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="203"/>
+      <c r="H25" s="175"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4695,7 +4700,7 @@
         <f>IF(NOT(ISBLANK(D26)), SUM(E26:F26), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="203"/>
+      <c r="H26" s="175"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4739,7 +4744,7 @@
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
-      <c r="H27" s="203"/>
+      <c r="H27" s="175"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4792,9 +4797,9 @@
       </c>
       <c r="G28" s="58">
         <f>SUM(G22:H27)</f>
-        <v>48</v>
-      </c>
-      <c r="H28" s="203"/>
+        <v>72</v>
+      </c>
+      <c r="H28" s="175"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4832,20 +4837,20 @@
     </row>
     <row r="29" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="189"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="191"/>
+      <c r="B29" s="196"/>
+      <c r="C29" s="197"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="197"/>
+      <c r="H29" s="198"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="181"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="182"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="186"/>
+      <c r="L29" s="186"/>
+      <c r="M29" s="186"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="187"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -4883,12 +4888,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187"/>
-      <c r="O30" s="188"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="194"/>
+      <c r="O30" s="195"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -4919,13 +4924,13 @@
     </row>
     <row r="31" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="192" t="s">
+      <c r="B31" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="194"/>
+      <c r="C31" s="200"/>
+      <c r="D31" s="200"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="201"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -5105,23 +5110,23 @@
       <c r="D35" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="202" t="s">
+      <c r="E35" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="202"/>
+      <c r="F35" s="181"/>
       <c r="G35" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="204" t="s">
+      <c r="H35" s="176" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="182"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="186"/>
+      <c r="L35" s="186"/>
+      <c r="M35" s="186"/>
+      <c r="N35" s="186"/>
+      <c r="O35" s="187"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5161,14 +5166,14 @@
       <c r="D36" s="142">
         <v>45559</v>
       </c>
-      <c r="E36" s="200" t="s">
+      <c r="E36" s="179" t="s">
         <v>345</v>
       </c>
-      <c r="F36" s="201"/>
+      <c r="F36" s="180"/>
       <c r="G36" s="144">
         <v>3</v>
       </c>
-      <c r="H36" s="205"/>
+      <c r="H36" s="177"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -5215,21 +5220,21 @@
       <c r="D37" s="143">
         <v>45572</v>
       </c>
-      <c r="E37" s="200" t="s">
+      <c r="E37" s="179" t="s">
         <v>344</v>
       </c>
-      <c r="F37" s="201"/>
+      <c r="F37" s="180"/>
       <c r="G37" s="144">
         <v>4</v>
       </c>
-      <c r="H37" s="205"/>
+      <c r="H37" s="177"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="183"/>
-      <c r="K37" s="184"/>
-      <c r="L37" s="184"/>
-      <c r="M37" s="184"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="185"/>
+      <c r="J37" s="190"/>
+      <c r="K37" s="191"/>
+      <c r="L37" s="191"/>
+      <c r="M37" s="191"/>
+      <c r="N37" s="191"/>
+      <c r="O37" s="192"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -5269,14 +5274,14 @@
       <c r="D38" s="142">
         <v>45575</v>
       </c>
-      <c r="E38" s="200" t="s">
+      <c r="E38" s="179" t="s">
         <v>349</v>
       </c>
-      <c r="F38" s="201"/>
+      <c r="F38" s="180"/>
       <c r="G38" s="144">
         <v>3</v>
       </c>
-      <c r="H38" s="205"/>
+      <c r="H38" s="177"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -5323,21 +5328,21 @@
       <c r="D39" s="142">
         <v>45579</v>
       </c>
-      <c r="E39" s="200" t="s">
+      <c r="E39" s="179" t="s">
         <v>348</v>
       </c>
-      <c r="F39" s="201"/>
+      <c r="F39" s="180"/>
       <c r="G39" s="144">
         <v>3</v>
       </c>
-      <c r="H39" s="205"/>
+      <c r="H39" s="177"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="180"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="181"/>
-      <c r="M39" s="181"/>
-      <c r="N39" s="181"/>
-      <c r="O39" s="182"/>
+      <c r="J39" s="185"/>
+      <c r="K39" s="186"/>
+      <c r="L39" s="186"/>
+      <c r="M39" s="186"/>
+      <c r="N39" s="186"/>
+      <c r="O39" s="187"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -5377,14 +5382,14 @@
       <c r="D40" s="142">
         <v>45586</v>
       </c>
-      <c r="E40" s="200" t="s">
+      <c r="E40" s="179" t="s">
         <v>343</v>
       </c>
-      <c r="F40" s="201"/>
+      <c r="F40" s="180"/>
       <c r="G40" s="144">
         <v>8</v>
       </c>
-      <c r="H40" s="205"/>
+      <c r="H40" s="177"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -5425,20 +5430,20 @@
       <c r="B41" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="C41" s="154" t="s">
+      <c r="C41" s="151" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="173">
+      <c r="D41" s="169">
         <v>45597</v>
       </c>
-      <c r="E41" s="200" t="s">
+      <c r="E41" s="179" t="s">
         <v>352</v>
       </c>
-      <c r="F41" s="201"/>
+      <c r="F41" s="180"/>
       <c r="G41" s="144">
         <v>3</v>
       </c>
-      <c r="H41" s="205"/>
+      <c r="H41" s="177"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -5479,20 +5484,20 @@
       <c r="B42" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="C42" s="154" t="s">
+      <c r="C42" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="173">
+      <c r="D42" s="169">
         <v>45601</v>
       </c>
-      <c r="E42" s="200" t="s">
+      <c r="E42" s="179" t="s">
         <v>353</v>
       </c>
-      <c r="F42" s="201"/>
+      <c r="F42" s="180"/>
       <c r="G42" s="144">
         <v>2</v>
       </c>
-      <c r="H42" s="205"/>
+      <c r="H42" s="177"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -5533,20 +5538,20 @@
       <c r="B43" s="77" t="s">
         <v>358</v>
       </c>
-      <c r="C43" s="154" t="s">
+      <c r="C43" s="151" t="s">
         <v>153</v>
       </c>
       <c r="D43" s="149">
         <v>45609</v>
       </c>
-      <c r="E43" s="200" t="s">
+      <c r="E43" s="179" t="s">
         <v>359</v>
       </c>
-      <c r="F43" s="201"/>
+      <c r="F43" s="180"/>
       <c r="G43" s="144">
         <v>8</v>
       </c>
-      <c r="H43" s="205"/>
+      <c r="H43" s="177"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -5587,20 +5592,20 @@
       <c r="B44" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="C44" s="154" t="s">
+      <c r="C44" s="151" t="s">
         <v>156</v>
       </c>
       <c r="D44" s="149">
         <v>45614</v>
       </c>
-      <c r="E44" s="200" t="s">
+      <c r="E44" s="179" t="s">
         <v>360</v>
       </c>
-      <c r="F44" s="201"/>
+      <c r="F44" s="180"/>
       <c r="G44" s="144">
         <v>12</v>
       </c>
-      <c r="H44" s="205"/>
+      <c r="H44" s="177"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -5641,20 +5646,20 @@
       <c r="B45" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="C45" s="154" t="s">
+      <c r="C45" s="151" t="s">
         <v>158</v>
       </c>
       <c r="D45" s="149">
         <v>45623</v>
       </c>
-      <c r="E45" s="200" t="s">
+      <c r="E45" s="179" t="s">
         <v>361</v>
       </c>
-      <c r="F45" s="201"/>
+      <c r="F45" s="180"/>
       <c r="G45" s="144">
         <v>5</v>
       </c>
-      <c r="H45" s="205"/>
+      <c r="H45" s="177"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -5695,20 +5700,20 @@
       <c r="B46" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="C46" s="154" t="s">
+      <c r="C46" s="151" t="s">
         <v>163</v>
       </c>
       <c r="D46" s="149">
         <v>45632</v>
       </c>
-      <c r="E46" s="200" t="s">
+      <c r="E46" s="179" t="s">
         <v>372</v>
       </c>
-      <c r="F46" s="201"/>
+      <c r="F46" s="180"/>
       <c r="G46" s="144">
         <v>5</v>
       </c>
-      <c r="H46" s="205"/>
+      <c r="H46" s="177"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -5749,20 +5754,20 @@
       <c r="B47" s="75" t="s">
         <v>367</v>
       </c>
-      <c r="C47" s="154" t="s">
+      <c r="C47" s="151" t="s">
         <v>165</v>
       </c>
       <c r="D47" s="149">
         <v>45637</v>
       </c>
-      <c r="E47" s="200" t="s">
+      <c r="E47" s="179" t="s">
         <v>364</v>
       </c>
-      <c r="F47" s="201"/>
+      <c r="F47" s="180"/>
       <c r="G47" s="144">
         <v>6</v>
       </c>
-      <c r="H47" s="205"/>
+      <c r="H47" s="177"/>
       <c r="I47" s="42"/>
       <c r="J47" s="36"/>
       <c r="K47" s="2"/>
@@ -5803,20 +5808,20 @@
       <c r="B48" s="75" t="s">
         <v>368</v>
       </c>
-      <c r="C48" s="154" t="s">
+      <c r="C48" s="151" t="s">
         <v>166</v>
       </c>
       <c r="D48" s="149">
         <v>45644</v>
       </c>
-      <c r="E48" s="200" t="s">
+      <c r="E48" s="179" t="s">
         <v>365</v>
       </c>
-      <c r="F48" s="201"/>
+      <c r="F48" s="180"/>
       <c r="G48" s="144">
         <v>18</v>
       </c>
-      <c r="H48" s="205"/>
+      <c r="H48" s="177"/>
       <c r="I48" s="42"/>
       <c r="J48" s="36"/>
       <c r="K48" s="2"/>
@@ -5863,14 +5868,14 @@
       <c r="D49" s="142">
         <v>45299</v>
       </c>
-      <c r="E49" s="200" t="s">
+      <c r="E49" s="179" t="s">
         <v>371</v>
       </c>
-      <c r="F49" s="201"/>
+      <c r="F49" s="180"/>
       <c r="G49" s="144">
         <v>4</v>
       </c>
-      <c r="H49" s="205"/>
+      <c r="H49" s="177"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5917,14 +5922,14 @@
       <c r="D50" s="142">
         <v>45306</v>
       </c>
-      <c r="E50" s="200" t="s">
+      <c r="E50" s="179" t="s">
         <v>366</v>
       </c>
-      <c r="F50" s="201"/>
+      <c r="F50" s="180"/>
       <c r="G50" s="145">
         <v>5</v>
       </c>
-      <c r="H50" s="205"/>
+      <c r="H50" s="177"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -5965,20 +5970,20 @@
       <c r="B51" s="75" t="s">
         <v>376</v>
       </c>
-      <c r="C51" s="154" t="s">
+      <c r="C51" s="151" t="s">
         <v>171</v>
       </c>
       <c r="D51" s="149">
         <v>45679</v>
       </c>
-      <c r="E51" s="200" t="s">
+      <c r="E51" s="179" t="s">
         <v>374</v>
       </c>
-      <c r="F51" s="201"/>
+      <c r="F51" s="180"/>
       <c r="G51" s="145">
         <v>6</v>
       </c>
-      <c r="H51" s="205"/>
+      <c r="H51" s="177"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -6019,20 +6024,20 @@
       <c r="B52" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="C52" s="154" t="s">
+      <c r="C52" s="151" t="s">
         <v>172</v>
       </c>
       <c r="D52" s="149">
         <v>45687</v>
       </c>
-      <c r="E52" s="200" t="s">
+      <c r="E52" s="179" t="s">
         <v>384</v>
       </c>
-      <c r="F52" s="201"/>
+      <c r="F52" s="180"/>
       <c r="G52" s="145">
         <v>5</v>
       </c>
-      <c r="H52" s="205"/>
+      <c r="H52" s="177"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -6073,20 +6078,20 @@
       <c r="B53" s="75" t="s">
         <v>377</v>
       </c>
-      <c r="C53" s="154" t="s">
+      <c r="C53" s="151" t="s">
         <v>173</v>
       </c>
       <c r="D53" s="149">
         <v>45694</v>
       </c>
-      <c r="E53" s="200" t="s">
+      <c r="E53" s="179" t="s">
         <v>378</v>
       </c>
-      <c r="F53" s="201"/>
+      <c r="F53" s="180"/>
       <c r="G53" s="145">
         <v>9</v>
       </c>
-      <c r="H53" s="205"/>
+      <c r="H53" s="177"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -6127,20 +6132,20 @@
       <c r="B54" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="C54" s="154" t="s">
+      <c r="C54" s="151" t="s">
         <v>174</v>
       </c>
       <c r="D54" s="149">
         <v>45701</v>
       </c>
-      <c r="E54" s="200" t="s">
+      <c r="E54" s="179" t="s">
         <v>383</v>
       </c>
-      <c r="F54" s="201"/>
+      <c r="F54" s="180"/>
       <c r="G54" s="145">
         <v>4</v>
       </c>
-      <c r="H54" s="205"/>
+      <c r="H54" s="177"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -6181,20 +6186,20 @@
       <c r="B55" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="C55" s="154" t="s">
+      <c r="C55" s="151" t="s">
         <v>175</v>
       </c>
       <c r="D55" s="149">
         <v>45708</v>
       </c>
-      <c r="E55" s="200" t="s">
+      <c r="E55" s="179" t="s">
         <v>381</v>
       </c>
-      <c r="F55" s="201"/>
+      <c r="F55" s="180"/>
       <c r="G55" s="145">
         <v>12</v>
       </c>
-      <c r="H55" s="205"/>
+      <c r="H55" s="177"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -6235,20 +6240,20 @@
       <c r="B56" s="75" t="s">
         <v>376</v>
       </c>
-      <c r="C56" s="154" t="s">
+      <c r="C56" s="151" t="s">
         <v>176</v>
       </c>
       <c r="D56" s="149">
         <v>45715</v>
       </c>
-      <c r="E56" s="200" t="s">
+      <c r="E56" s="179" t="s">
         <v>382</v>
       </c>
-      <c r="F56" s="201"/>
+      <c r="F56" s="180"/>
       <c r="G56" s="145">
         <v>6</v>
       </c>
-      <c r="H56" s="205"/>
+      <c r="H56" s="177"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -6287,12 +6292,16 @@
     <row r="57" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="56"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="150"/>
-      <c r="E57" s="199"/>
-      <c r="F57" s="199"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="205"/>
+      <c r="C57" s="151" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="149">
+        <v>45722</v>
+      </c>
+      <c r="E57" s="174"/>
+      <c r="F57" s="174"/>
+      <c r="G57" s="221"/>
+      <c r="H57" s="177"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -6331,12 +6340,16 @@
     <row r="58" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="56"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="150"/>
-      <c r="E58" s="199"/>
-      <c r="F58" s="199"/>
-      <c r="G58" s="145"/>
-      <c r="H58" s="205"/>
+      <c r="C58" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="149">
+        <v>45722</v>
+      </c>
+      <c r="E58" s="174"/>
+      <c r="F58" s="174"/>
+      <c r="G58" s="221"/>
+      <c r="H58" s="177"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -6372,15 +6385,19 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="56"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="150"/>
-      <c r="E59" s="199"/>
-      <c r="F59" s="199"/>
-      <c r="G59" s="145"/>
-      <c r="H59" s="205"/>
+      <c r="C59" s="151" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="149">
+        <v>45729</v>
+      </c>
+      <c r="E59" s="174"/>
+      <c r="F59" s="174"/>
+      <c r="G59" s="221"/>
+      <c r="H59" s="177"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -6416,15 +6433,25 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="154"/>
-      <c r="D60" s="150"/>
-      <c r="E60" s="199"/>
-      <c r="F60" s="199"/>
-      <c r="G60" s="145"/>
-      <c r="H60" s="205"/>
+      <c r="B60" s="75" t="s">
+        <v>373</v>
+      </c>
+      <c r="C60" s="151" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="149">
+        <v>45736</v>
+      </c>
+      <c r="E60" s="226" t="s">
+        <v>388</v>
+      </c>
+      <c r="F60" s="226"/>
+      <c r="G60" s="221">
+        <v>10</v>
+      </c>
+      <c r="H60" s="177"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -6460,20 +6487,25 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="155"/>
-      <c r="D61" s="151"/>
-      <c r="E61" s="207"/>
-      <c r="F61" s="207"/>
-      <c r="G61" s="146">
-        <f>SUM(G36:G60)</f>
-        <v>131</v>
-      </c>
-      <c r="H61" s="206"/>
+      <c r="B61" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="C61" s="151" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="149">
+        <v>45743</v>
+      </c>
+      <c r="E61" s="179" t="s">
+        <v>387</v>
+      </c>
+      <c r="F61" s="180"/>
+      <c r="G61" s="221">
+        <v>3</v>
+      </c>
+      <c r="H61" s="177"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -6509,15 +6541,25 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="122"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="147"/>
-      <c r="H62" s="119"/>
+      <c r="B62" s="75" t="s">
+        <v>376</v>
+      </c>
+      <c r="C62" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="149">
+        <v>45750</v>
+      </c>
+      <c r="E62" s="179" t="s">
+        <v>385</v>
+      </c>
+      <c r="F62" s="180"/>
+      <c r="G62" s="221">
+        <v>6</v>
+      </c>
+      <c r="H62" s="177"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -6553,20 +6595,25 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:42" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="157"/>
-      <c r="D63" s="153"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="148">
-        <f>G61+G19+G28+G62</f>
-        <v>320</v>
-      </c>
-      <c r="H63" s="43"/>
+      <c r="B63" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="C63" s="220" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="149">
+        <v>45757</v>
+      </c>
+      <c r="E63" s="179" t="s">
+        <v>386</v>
+      </c>
+      <c r="F63" s="180"/>
+      <c r="G63" s="221">
+        <v>2</v>
+      </c>
+      <c r="H63" s="177"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -6604,13 +6651,18 @@
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="42"/>
+      <c r="B64" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="222"/>
+      <c r="D64" s="224"/>
+      <c r="E64" s="225"/>
+      <c r="F64" s="225"/>
+      <c r="G64" s="146">
+        <f>SUM(G36:G60)</f>
+        <v>141</v>
+      </c>
+      <c r="H64" s="178"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -6648,11 +6700,13 @@
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="1"/>
-      <c r="D65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="36"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="223"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="147"/>
+      <c r="H65" s="119"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -6688,19 +6742,20 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
-      <c r="B66" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="56">
-        <f>'List - Hide'!AC11</f>
-        <v>487</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="36"/>
+      <c r="B66" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="153"/>
+      <c r="D66" s="150"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="148">
+        <f>G64+G19+G28+G65</f>
+        <v>354</v>
+      </c>
+      <c r="H66" s="43"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -6738,17 +6793,13 @@
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C67" s="56">
-        <f>G63</f>
-        <v>320</v>
-      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="36"/>
+      <c r="H67" s="42"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -6786,13 +6837,7 @@
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="58">
-        <f>C66-C67</f>
-        <v>167</v>
-      </c>
+      <c r="B68" s="1"/>
       <c r="D68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -6834,7 +6879,13 @@
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="56">
+        <f>'List - Hide'!AC11</f>
+        <v>487</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -6876,11 +6927,17 @@
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="56">
+        <f>G66</f>
+        <v>354</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="H70" s="36"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -6918,11 +6975,17 @@
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="2"/>
+      <c r="B71" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="58">
+        <f>C69-C70</f>
+        <v>133</v>
+      </c>
       <c r="D71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="H71" s="36"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -6961,12 +7024,10 @@
     <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="H72" s="36"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -7005,9 +7066,7 @@
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -7049,9 +7108,7 @@
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -7143,7 +7200,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="4"/>
+      <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -7187,7 +7244,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="5"/>
+      <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -7223,7 +7280,7 @@
       <c r="AP77" s="2"/>
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -7231,7 +7288,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="5"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -7267,7 +7324,7 @@
       <c r="AP78" s="2"/>
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -7275,7 +7332,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -7311,7 +7368,7 @@
       <c r="AP79" s="2"/>
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -7319,7 +7376,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="I80" s="5"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -7363,7 +7420,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="I81" s="5"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -7654,6 +7711,13 @@
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
+      <c r="AJ87" s="2"/>
+      <c r="AK87" s="2"/>
+      <c r="AL87" s="2"/>
+      <c r="AM87" s="2"/>
+      <c r="AN87" s="2"/>
+      <c r="AO87" s="2"/>
+      <c r="AP87" s="2"/>
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
@@ -7691,6 +7755,13 @@
       <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
+      <c r="AJ88" s="2"/>
+      <c r="AK88" s="2"/>
+      <c r="AL88" s="2"/>
+      <c r="AM88" s="2"/>
+      <c r="AN88" s="2"/>
+      <c r="AO88" s="2"/>
+      <c r="AP88" s="2"/>
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
@@ -7728,6 +7799,13 @@
       <c r="AG89" s="2"/>
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
+      <c r="AJ89" s="2"/>
+      <c r="AK89" s="2"/>
+      <c r="AL89" s="2"/>
+      <c r="AM89" s="2"/>
+      <c r="AN89" s="2"/>
+      <c r="AO89" s="2"/>
+      <c r="AP89" s="2"/>
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
@@ -8211,7 +8289,7 @@
       <c r="AI102" s="2"/>
     </row>
     <row r="103" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
+      <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -8248,7 +8326,7 @@
       <c r="AI103" s="2"/>
     </row>
     <row r="104" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
+      <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -8285,7 +8363,7 @@
       <c r="AI104" s="2"/>
     </row>
     <row r="105" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
+      <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -8359,6 +8437,7 @@
       <c r="AI106" s="2"/>
     </row>
     <row r="107" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -8395,7 +8474,7 @@
       <c r="AI107" s="2"/>
     </row>
     <row r="108" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
+      <c r="A108" s="3"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -8432,7 +8511,7 @@
       <c r="AI108" s="2"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
+      <c r="A109" s="3"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -8469,7 +8548,6 @@
       <c r="AI109" s="2"/>
     </row>
     <row r="110" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -8506,7 +8584,7 @@
       <c r="AI110" s="2"/>
     </row>
     <row r="111" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
+      <c r="A111" s="4"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -9708,6 +9786,23 @@
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2"/>
+      <c r="V143" s="2"/>
+      <c r="W143" s="2"/>
+      <c r="X143" s="2"/>
+      <c r="Y143" s="2"/>
+      <c r="Z143" s="2"/>
+      <c r="AA143" s="2"/>
+      <c r="AB143" s="2"/>
+      <c r="AC143" s="2"/>
+      <c r="AD143" s="2"/>
+      <c r="AE143" s="2"/>
+      <c r="AF143" s="2"/>
+      <c r="AG143" s="2"/>
+      <c r="AH143" s="2"/>
+      <c r="AI143" s="2"/>
     </row>
     <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
@@ -9728,8 +9823,25 @@
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="2"/>
+      <c r="X144" s="2"/>
+      <c r="Y144" s="2"/>
+      <c r="Z144" s="2"/>
+      <c r="AA144" s="2"/>
+      <c r="AB144" s="2"/>
+      <c r="AC144" s="2"/>
+      <c r="AD144" s="2"/>
+      <c r="AE144" s="2"/>
+      <c r="AF144" s="2"/>
+      <c r="AG144" s="2"/>
+      <c r="AH144" s="2"/>
+      <c r="AI144" s="2"/>
+    </row>
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -9748,8 +9860,25 @@
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2"/>
+      <c r="V145" s="2"/>
+      <c r="W145" s="2"/>
+      <c r="X145" s="2"/>
+      <c r="Y145" s="2"/>
+      <c r="Z145" s="2"/>
+      <c r="AA145" s="2"/>
+      <c r="AB145" s="2"/>
+      <c r="AC145" s="2"/>
+      <c r="AD145" s="2"/>
+      <c r="AE145" s="2"/>
+      <c r="AF145" s="2"/>
+      <c r="AG145" s="2"/>
+      <c r="AH145" s="2"/>
+      <c r="AI145" s="2"/>
+    </row>
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -9769,7 +9898,7 @@
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -9789,7 +9918,7 @@
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -9809,7 +9938,7 @@
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -9829,7 +9958,7 @@
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -9849,7 +9978,7 @@
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -9869,7 +9998,7 @@
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -9889,7 +10018,7 @@
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -9909,7 +10038,7 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -9929,7 +10058,7 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -9949,7 +10078,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -9969,7 +10098,7 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -9989,7 +10118,7 @@
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -10009,7 +10138,7 @@
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -10029,7 +10158,7 @@
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -12241,6 +12370,13 @@
       <c r="I270" s="2"/>
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
+      <c r="L270" s="2"/>
+      <c r="M270" s="2"/>
+      <c r="N270" s="2"/>
+      <c r="O270" s="2"/>
+      <c r="P270" s="2"/>
+      <c r="Q270" s="2"/>
+      <c r="R270" s="2"/>
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
@@ -12254,6 +12390,13 @@
       <c r="I271" s="2"/>
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
+      <c r="L271" s="2"/>
+      <c r="M271" s="2"/>
+      <c r="N271" s="2"/>
+      <c r="O271" s="2"/>
+      <c r="P271" s="2"/>
+      <c r="Q271" s="2"/>
+      <c r="R271" s="2"/>
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
@@ -12267,6 +12410,13 @@
       <c r="I272" s="2"/>
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
+      <c r="L272" s="2"/>
+      <c r="M272" s="2"/>
+      <c r="N272" s="2"/>
+      <c r="O272" s="2"/>
+      <c r="P272" s="2"/>
+      <c r="Q272" s="2"/>
+      <c r="R272" s="2"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
@@ -12569,6 +12719,12 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
@@ -12576,6 +12732,12 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
@@ -12583,6 +12745,12 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
       <c r="H298" s="2"/>
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
@@ -12590,18 +12758,21 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
+      <c r="H299" s="2"/>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
+      <c r="H300" s="2"/>
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
+      <c r="H301" s="2"/>
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
@@ -12672,24 +12843,42 @@
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
     </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" s="2"/>
+      <c r="I313" s="2"/>
+      <c r="J313" s="2"/>
+      <c r="K313" s="2"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+      <c r="I314" s="2"/>
+      <c r="J314" s="2"/>
+      <c r="K314" s="2"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" s="2"/>
+      <c r="I315" s="2"/>
+      <c r="J315" s="2"/>
+      <c r="K315" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H22:H28"/>
-    <mergeCell ref="H35:H61"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
+  <mergeCells count="45">
     <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="H5:H19"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J22:O22"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E47:F47"/>
@@ -12703,19 +12892,22 @@
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E46:F46"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="H5:H19"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H22:H28"/>
+    <mergeCell ref="H35:H64"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="6">
@@ -12741,7 +12933,7 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$A$2:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>C61:C62 C72:C90 C64</xm:sqref>
+          <xm:sqref>C64:C65 C75:C93 C67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
@@ -12753,7 +12945,7 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$C$2:$C$77</xm:f>
           </x14:formula1>
-          <xm:sqref>C51:C60</xm:sqref>
+          <xm:sqref>C51:C63</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12944,8 +13136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BS319"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:I31"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12965,28 +13157,28 @@
       <c r="A1" s="136" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="166" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="166" t="s">
         <v>65</v>
       </c>
       <c r="D1" s="140" t="s">
         <v>262</v>
       </c>
-      <c r="E1" s="164" t="s">
+      <c r="E1" s="160" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="165" t="s">
+      <c r="F1" s="161" t="s">
         <v>66</v>
       </c>
       <c r="G1" s="140" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="172" t="s">
+      <c r="H1" s="168" t="s">
         <v>325</v>
       </c>
-      <c r="I1" s="165" t="s">
+      <c r="I1" s="161" t="s">
         <v>67</v>
       </c>
     </row>
@@ -12994,28 +13186,28 @@
       <c r="A2" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="167" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="166" t="s">
+      <c r="E2" s="162" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="167" t="s">
+      <c r="F2" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="168" t="s">
+      <c r="G2" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="171" t="s">
+      <c r="H2" s="167" t="s">
         <v>324</v>
       </c>
-      <c r="I2" s="167" t="s">
+      <c r="I2" s="163" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="134"/>
@@ -13073,28 +13265,28 @@
       <c r="A3" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="167" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="168" t="s">
+      <c r="D3" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="162" t="s">
         <v>296</v>
       </c>
-      <c r="F3" s="167" t="s">
+      <c r="F3" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="168" t="s">
+      <c r="G3" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="171" t="s">
+      <c r="H3" s="167" t="s">
         <v>326</v>
       </c>
-      <c r="I3" s="167" t="s">
+      <c r="I3" s="163" t="s">
         <v>73</v>
       </c>
       <c r="J3" s="134"/>
@@ -13152,28 +13344,28 @@
       <c r="A4" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="167" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="162" t="s">
         <v>297</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="168" t="s">
+      <c r="G4" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="171" t="s">
+      <c r="H4" s="167" t="s">
         <v>327</v>
       </c>
-      <c r="I4" s="167" t="s">
+      <c r="I4" s="163" t="s">
         <v>76</v>
       </c>
       <c r="J4" s="134"/>
@@ -13231,28 +13423,28 @@
       <c r="A5" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="167" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="168" t="s">
+      <c r="D5" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="166" t="s">
+      <c r="E5" s="162" t="s">
         <v>298</v>
       </c>
-      <c r="F5" s="167" t="s">
+      <c r="F5" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="168" t="s">
+      <c r="G5" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="171" t="s">
+      <c r="H5" s="167" t="s">
         <v>328</v>
       </c>
-      <c r="I5" s="167" t="s">
+      <c r="I5" s="163" t="s">
         <v>79</v>
       </c>
       <c r="J5" s="134"/>
@@ -13310,28 +13502,28 @@
       <c r="A6" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="167" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="168" t="s">
+      <c r="D6" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="166" t="s">
+      <c r="E6" s="162" t="s">
         <v>299</v>
       </c>
-      <c r="F6" s="167" t="s">
+      <c r="F6" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="168" t="s">
+      <c r="G6" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="171" t="s">
+      <c r="H6" s="167" t="s">
         <v>329</v>
       </c>
-      <c r="I6" s="167" t="s">
+      <c r="I6" s="163" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="134"/>
@@ -13389,28 +13581,28 @@
       <c r="A7" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="167" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="166" t="s">
+      <c r="E7" s="162" t="s">
         <v>300</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="169" t="s">
+      <c r="G7" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="171" t="s">
+      <c r="H7" s="167" t="s">
         <v>330</v>
       </c>
-      <c r="I7" s="167" t="s">
+      <c r="I7" s="163" t="s">
         <v>85</v>
       </c>
       <c r="J7" s="134"/>
@@ -13468,19 +13660,19 @@
       <c r="A8" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="167" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="167" t="s">
+      <c r="C8" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="168" t="s">
+      <c r="D8" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="166" t="s">
+      <c r="E8" s="162" t="s">
         <v>301</v>
       </c>
-      <c r="F8" s="167" t="s">
+      <c r="F8" s="163" t="s">
         <v>87</v>
       </c>
       <c r="G8" s="80"/>
@@ -13541,19 +13733,19 @@
       <c r="A9" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="167" t="s">
         <v>271</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="168" t="s">
+      <c r="D9" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="166" t="s">
+      <c r="E9" s="162" t="s">
         <v>302</v>
       </c>
-      <c r="F9" s="167" t="s">
+      <c r="F9" s="163" t="s">
         <v>89</v>
       </c>
       <c r="G9" s="80"/>
@@ -13614,19 +13806,19 @@
       <c r="A10" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="167" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="167" t="s">
+      <c r="C10" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="168" t="s">
+      <c r="D10" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="166" t="s">
+      <c r="E10" s="162" t="s">
         <v>303</v>
       </c>
-      <c r="F10" s="167" t="s">
+      <c r="F10" s="163" t="s">
         <v>91</v>
       </c>
       <c r="G10" s="80"/>
@@ -13687,19 +13879,19 @@
       <c r="A11" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="167" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="167" t="s">
+      <c r="C11" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="168" t="s">
+      <c r="D11" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="166" t="s">
+      <c r="E11" s="162" t="s">
         <v>304</v>
       </c>
-      <c r="F11" s="167" t="s">
+      <c r="F11" s="163" t="s">
         <v>93</v>
       </c>
       <c r="G11" s="80"/>
@@ -13760,19 +13952,19 @@
       <c r="A12" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="167" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="167" t="s">
+      <c r="C12" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="168" t="s">
+      <c r="D12" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="166" t="s">
+      <c r="E12" s="162" t="s">
         <v>305</v>
       </c>
-      <c r="F12" s="167" t="s">
+      <c r="F12" s="163" t="s">
         <v>95</v>
       </c>
       <c r="G12" s="80"/>
@@ -13833,19 +14025,19 @@
       <c r="A13" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="167" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="168" t="s">
+      <c r="D13" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="166" t="s">
+      <c r="E13" s="162" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="167" t="s">
+      <c r="F13" s="163" t="s">
         <v>97</v>
       </c>
       <c r="G13" s="80"/>
@@ -13906,19 +14098,19 @@
       <c r="A14" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="167" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="167" t="s">
+      <c r="C14" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="168" t="s">
+      <c r="D14" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="166" t="s">
+      <c r="E14" s="162" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="167" t="s">
+      <c r="F14" s="163" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="80"/>
@@ -13979,19 +14171,19 @@
       <c r="A15" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="167" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="168" t="s">
+      <c r="D15" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="166" t="s">
+      <c r="E15" s="162" t="s">
         <v>308</v>
       </c>
-      <c r="F15" s="167" t="s">
+      <c r="F15" s="163" t="s">
         <v>101</v>
       </c>
       <c r="G15" s="80"/>
@@ -14052,19 +14244,19 @@
       <c r="A16" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="163" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="168" t="s">
+      <c r="D16" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="166" t="s">
+      <c r="E16" s="162" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="167" t="s">
+      <c r="F16" s="163" t="s">
         <v>103</v>
       </c>
       <c r="G16" s="80"/>
@@ -14125,19 +14317,19 @@
       <c r="A17" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="167" t="s">
         <v>279</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="168" t="s">
+      <c r="D17" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="166" t="s">
+      <c r="E17" s="162" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="167" t="s">
+      <c r="F17" s="163" t="s">
         <v>105</v>
       </c>
       <c r="G17" s="80"/>
@@ -14198,19 +14390,19 @@
       <c r="A18" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="167" t="s">
         <v>280</v>
       </c>
-      <c r="C18" s="167" t="s">
+      <c r="C18" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="168" t="s">
+      <c r="D18" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="166" t="s">
+      <c r="E18" s="162" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="167" t="s">
+      <c r="F18" s="163" t="s">
         <v>107</v>
       </c>
       <c r="G18" s="80"/>
@@ -14271,19 +14463,19 @@
       <c r="A19" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="171" t="s">
+      <c r="B19" s="167" t="s">
         <v>281</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="168" t="s">
+      <c r="D19" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="166" t="s">
+      <c r="E19" s="162" t="s">
         <v>312</v>
       </c>
-      <c r="F19" s="167" t="s">
+      <c r="F19" s="163" t="s">
         <v>109</v>
       </c>
       <c r="G19" s="80"/>
@@ -14344,19 +14536,19 @@
       <c r="A20" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="167" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="167" t="s">
+      <c r="C20" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="168" t="s">
+      <c r="D20" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="166" t="s">
+      <c r="E20" s="162" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="167" t="s">
+      <c r="F20" s="163" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="80"/>
@@ -14417,19 +14609,19 @@
       <c r="A21" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="171" t="s">
+      <c r="B21" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="168" t="s">
+      <c r="D21" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="162" t="s">
         <v>314</v>
       </c>
-      <c r="F21" s="167" t="s">
+      <c r="F21" s="163" t="s">
         <v>113</v>
       </c>
       <c r="G21" s="80"/>
@@ -14490,19 +14682,19 @@
       <c r="A22" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="167" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="167" t="s">
+      <c r="C22" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="168" t="s">
+      <c r="D22" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="166" t="s">
+      <c r="E22" s="162" t="s">
         <v>315</v>
       </c>
-      <c r="F22" s="167" t="s">
+      <c r="F22" s="163" t="s">
         <v>115</v>
       </c>
       <c r="G22" s="80"/>
@@ -14563,19 +14755,19 @@
       <c r="A23" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="171" t="s">
+      <c r="B23" s="167" t="s">
         <v>285</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="163" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="168" t="s">
+      <c r="D23" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="166" t="s">
+      <c r="E23" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="F23" s="167" t="s">
+      <c r="F23" s="163" t="s">
         <v>117</v>
       </c>
       <c r="G23" s="80"/>
@@ -14636,19 +14828,19 @@
       <c r="A24" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="171" t="s">
+      <c r="B24" s="167" t="s">
         <v>286</v>
       </c>
-      <c r="C24" s="167" t="s">
+      <c r="C24" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="168" t="s">
+      <c r="D24" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="166" t="s">
+      <c r="E24" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="F24" s="167" t="s">
+      <c r="F24" s="163" t="s">
         <v>119</v>
       </c>
       <c r="G24" s="80"/>
@@ -14709,19 +14901,19 @@
       <c r="A25" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="167" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="167" t="s">
+      <c r="C25" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="168" t="s">
+      <c r="D25" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="166" t="s">
+      <c r="E25" s="162" t="s">
         <v>318</v>
       </c>
-      <c r="F25" s="167" t="s">
+      <c r="F25" s="163" t="s">
         <v>121</v>
       </c>
       <c r="G25" s="80"/>
@@ -14782,19 +14974,19 @@
       <c r="A26" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="171" t="s">
+      <c r="B26" s="167" t="s">
         <v>288</v>
       </c>
-      <c r="C26" s="167" t="s">
+      <c r="C26" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="168" t="s">
+      <c r="D26" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="166" t="s">
+      <c r="E26" s="162" t="s">
         <v>319</v>
       </c>
-      <c r="F26" s="167" t="s">
+      <c r="F26" s="163" t="s">
         <v>123</v>
       </c>
       <c r="G26" s="80"/>
@@ -14855,19 +15047,19 @@
       <c r="A27" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="171" t="s">
+      <c r="B27" s="167" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="168" t="s">
+      <c r="D27" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="166" t="s">
+      <c r="E27" s="162" t="s">
         <v>320</v>
       </c>
-      <c r="F27" s="167" t="s">
+      <c r="F27" s="163" t="s">
         <v>125</v>
       </c>
       <c r="G27" s="80"/>
@@ -14928,19 +15120,19 @@
       <c r="A28" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="167" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="167" t="s">
+      <c r="C28" s="163" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="168" t="s">
+      <c r="D28" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="166" t="s">
+      <c r="E28" s="162" t="s">
         <v>321</v>
       </c>
-      <c r="F28" s="167" t="s">
+      <c r="F28" s="163" t="s">
         <v>127</v>
       </c>
       <c r="G28" s="80"/>
@@ -15001,19 +15193,19 @@
       <c r="A29" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="171" t="s">
+      <c r="B29" s="167" t="s">
         <v>291</v>
       </c>
-      <c r="C29" s="167" t="s">
+      <c r="C29" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="168" t="s">
+      <c r="D29" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="166" t="s">
+      <c r="E29" s="162" t="s">
         <v>322</v>
       </c>
-      <c r="F29" s="167" t="s">
+      <c r="F29" s="163" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="80"/>
@@ -15074,19 +15266,19 @@
       <c r="A30" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="171" t="s">
+      <c r="B30" s="167" t="s">
         <v>292</v>
       </c>
-      <c r="C30" s="167" t="s">
+      <c r="C30" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="169" t="s">
+      <c r="D30" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="166" t="s">
+      <c r="E30" s="162" t="s">
         <v>323</v>
       </c>
-      <c r="F30" s="167" t="s">
+      <c r="F30" s="163" t="s">
         <v>131</v>
       </c>
       <c r="I30" s="81"/>
@@ -15145,10 +15337,10 @@
       <c r="A31" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="171" t="s">
+      <c r="B31" s="167" t="s">
         <v>293</v>
       </c>
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="163" t="s">
         <v>132</v>
       </c>
       <c r="D31" s="80"/>
@@ -26978,10 +27170,10 @@
       <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="205" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="220">
+      <c r="B2" s="209">
         <v>1</v>
       </c>
       <c r="C2" s="69" t="s">
@@ -27037,8 +27229,8 @@
       <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="217"/>
-      <c r="B3" s="214"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="203"/>
       <c r="C3" s="71" t="s">
         <v>145</v>
       </c>
@@ -27089,8 +27281,8 @@
       <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="217"/>
-      <c r="B4" s="214"/>
+      <c r="A4" s="206"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="71" t="s">
         <v>146</v>
       </c>
@@ -27141,8 +27333,8 @@
       <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="217"/>
-      <c r="B5" s="219"/>
+      <c r="A5" s="206"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="71" t="s">
         <v>147</v>
       </c>
@@ -27193,8 +27385,8 @@
       <c r="AH5" s="66"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="217"/>
-      <c r="B6" s="214">
+      <c r="A6" s="206"/>
+      <c r="B6" s="203">
         <v>2</v>
       </c>
       <c r="C6" s="71" t="s">
@@ -27249,8 +27441,8 @@
       <c r="AH6" s="66"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="217"/>
-      <c r="B7" s="214"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="203"/>
       <c r="C7" s="71" t="s">
         <v>149</v>
       </c>
@@ -27301,8 +27493,8 @@
       <c r="AH7" s="66"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="217"/>
-      <c r="B8" s="214"/>
+      <c r="A8" s="206"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="71" t="s">
         <v>150</v>
       </c>
@@ -27352,8 +27544,8 @@
       <c r="AH8" s="66"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="217"/>
-      <c r="B9" s="214"/>
+      <c r="A9" s="206"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="71" t="s">
         <v>151</v>
       </c>
@@ -27408,8 +27600,8 @@
       <c r="AH9" s="66"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="217"/>
-      <c r="B10" s="214">
+      <c r="A10" s="206"/>
+      <c r="B10" s="203">
         <v>3</v>
       </c>
       <c r="C10" s="71" t="s">
@@ -27467,8 +27659,8 @@
       <c r="AH10" s="66"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="217"/>
-      <c r="B11" s="214"/>
+      <c r="A11" s="206"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="71" t="s">
         <v>156</v>
       </c>
@@ -27523,8 +27715,8 @@
       <c r="AH11" s="66"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="217"/>
-      <c r="B12" s="214"/>
+      <c r="A12" s="206"/>
+      <c r="B12" s="203"/>
       <c r="C12" s="71" t="s">
         <v>158</v>
       </c>
@@ -27582,8 +27774,8 @@
       <c r="AH12" s="66"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="217"/>
-      <c r="B13" s="214"/>
+      <c r="A13" s="206"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="71" t="s">
         <v>163</v>
       </c>
@@ -27649,8 +27841,8 @@
       <c r="AH13" s="66"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="217"/>
-      <c r="B14" s="214">
+      <c r="A14" s="206"/>
+      <c r="B14" s="203">
         <v>4</v>
       </c>
       <c r="C14" s="71" t="s">
@@ -27717,8 +27909,8 @@
       <c r="AH14" s="66"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="217"/>
-      <c r="B15" s="214"/>
+      <c r="A15" s="206"/>
+      <c r="B15" s="203"/>
       <c r="C15" s="71" t="s">
         <v>166</v>
       </c>
@@ -27781,8 +27973,8 @@
       <c r="AH15" s="66"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="217"/>
-      <c r="B16" s="214"/>
+      <c r="A16" s="206"/>
+      <c r="B16" s="203"/>
       <c r="C16" s="71" t="s">
         <v>167</v>
       </c>
@@ -27845,8 +28037,8 @@
       <c r="AH16" s="66"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="217"/>
-      <c r="B17" s="214"/>
+      <c r="A17" s="206"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="71" t="s">
         <v>168</v>
       </c>
@@ -27909,8 +28101,8 @@
       <c r="AH17" s="66"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="217"/>
-      <c r="B18" s="214">
+      <c r="A18" s="206"/>
+      <c r="B18" s="203">
         <v>5</v>
       </c>
       <c r="C18" s="71" t="s">
@@ -27977,8 +28169,8 @@
       <c r="AH18" s="66"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="217"/>
-      <c r="B19" s="214"/>
+      <c r="A19" s="206"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="71" t="s">
         <v>170</v>
       </c>
@@ -28042,8 +28234,8 @@
       <c r="AH19" s="66"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="217"/>
-      <c r="B20" s="214"/>
+      <c r="A20" s="206"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="71" t="s">
         <v>171</v>
       </c>
@@ -28106,8 +28298,8 @@
       <c r="AH20" s="66"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="217"/>
-      <c r="B21" s="214"/>
+      <c r="A21" s="206"/>
+      <c r="B21" s="203"/>
       <c r="C21" s="71" t="s">
         <v>172</v>
       </c>
@@ -28170,8 +28362,8 @@
       <c r="AG21" s="79"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="217"/>
-      <c r="B22" s="214">
+      <c r="A22" s="206"/>
+      <c r="B22" s="203">
         <v>6</v>
       </c>
       <c r="C22" s="71" t="s">
@@ -28237,8 +28429,8 @@
       <c r="AG22" s="79"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="217"/>
-      <c r="B23" s="214"/>
+      <c r="A23" s="206"/>
+      <c r="B23" s="203"/>
       <c r="C23" s="71" t="s">
         <v>174</v>
       </c>
@@ -28303,8 +28495,8 @@
       <c r="AG23" s="79"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="217"/>
-      <c r="B24" s="214"/>
+      <c r="A24" s="206"/>
+      <c r="B24" s="203"/>
       <c r="C24" s="71" t="s">
         <v>175</v>
       </c>
@@ -28365,8 +28557,8 @@
       <c r="AG24" s="79"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="217"/>
-      <c r="B25" s="214"/>
+      <c r="A25" s="206"/>
+      <c r="B25" s="203"/>
       <c r="C25" s="71" t="s">
         <v>176</v>
       </c>
@@ -28424,8 +28616,8 @@
       <c r="AG25" s="66"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="217"/>
-      <c r="B26" s="214">
+      <c r="A26" s="206"/>
+      <c r="B26" s="203">
         <v>7</v>
       </c>
       <c r="C26" s="71" t="s">
@@ -28485,8 +28677,8 @@
       <c r="AG26" s="66"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="217"/>
-      <c r="B27" s="214"/>
+      <c r="A27" s="206"/>
+      <c r="B27" s="203"/>
       <c r="C27" s="71" t="s">
         <v>178</v>
       </c>
@@ -28542,8 +28734,8 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="217"/>
-      <c r="B28" s="214"/>
+      <c r="A28" s="206"/>
+      <c r="B28" s="203"/>
       <c r="C28" s="71" t="s">
         <v>180</v>
       </c>
@@ -28599,8 +28791,8 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="217"/>
-      <c r="B29" s="214"/>
+      <c r="A29" s="206"/>
+      <c r="B29" s="203"/>
       <c r="C29" s="71" t="s">
         <v>182</v>
       </c>
@@ -28657,8 +28849,8 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="217"/>
-      <c r="B30" s="214">
+      <c r="A30" s="206"/>
+      <c r="B30" s="203">
         <v>8</v>
       </c>
       <c r="C30" s="71" t="s">
@@ -28716,8 +28908,8 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="217"/>
-      <c r="B31" s="214"/>
+      <c r="A31" s="206"/>
+      <c r="B31" s="203"/>
       <c r="C31" s="71" t="s">
         <v>187</v>
       </c>
@@ -28772,8 +28964,8 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="217"/>
-      <c r="B32" s="214"/>
+      <c r="A32" s="206"/>
+      <c r="B32" s="203"/>
       <c r="C32" s="71" t="s">
         <v>189</v>
       </c>
@@ -28823,8 +29015,8 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="217"/>
-      <c r="B33" s="214"/>
+      <c r="A33" s="206"/>
+      <c r="B33" s="203"/>
       <c r="C33" s="71" t="s">
         <v>190</v>
       </c>
@@ -28870,8 +29062,8 @@
       <c r="AA33" s="66"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="217"/>
-      <c r="B34" s="214">
+      <c r="A34" s="206"/>
+      <c r="B34" s="203">
         <v>9</v>
       </c>
       <c r="C34" s="71" t="s">
@@ -28917,8 +29109,8 @@
       <c r="AA34" s="66"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="217"/>
-      <c r="B35" s="214"/>
+      <c r="A35" s="206"/>
+      <c r="B35" s="203"/>
       <c r="C35" s="71" t="s">
         <v>192</v>
       </c>
@@ -28961,8 +29153,8 @@
       <c r="AA35" s="66"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="217"/>
-      <c r="B36" s="214"/>
+      <c r="A36" s="206"/>
+      <c r="B36" s="203"/>
       <c r="C36" s="71" t="s">
         <v>193</v>
       </c>
@@ -29007,8 +29199,8 @@
       <c r="AA36" s="66"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="217"/>
-      <c r="B37" s="214"/>
+      <c r="A37" s="206"/>
+      <c r="B37" s="203"/>
       <c r="C37" s="71" t="s">
         <v>194</v>
       </c>
@@ -29051,8 +29243,8 @@
       <c r="AA37" s="66"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="217"/>
-      <c r="B38" s="214">
+      <c r="A38" s="206"/>
+      <c r="B38" s="203">
         <v>10</v>
       </c>
       <c r="C38" s="71" t="s">
@@ -29100,8 +29292,8 @@
       <c r="AH38" s="66"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="217"/>
-      <c r="B39" s="214"/>
+      <c r="A39" s="206"/>
+      <c r="B39" s="203"/>
       <c r="C39" s="71" t="s">
         <v>196</v>
       </c>
@@ -29146,8 +29338,8 @@
       <c r="AH39" s="66"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="217"/>
-      <c r="B40" s="214"/>
+      <c r="A40" s="206"/>
+      <c r="B40" s="203"/>
       <c r="C40" s="71" t="s">
         <v>197</v>
       </c>
@@ -29191,8 +29383,8 @@
       <c r="AH40" s="66"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="217"/>
-      <c r="B41" s="214"/>
+      <c r="A41" s="206"/>
+      <c r="B41" s="203"/>
       <c r="C41" s="71" t="s">
         <v>198</v>
       </c>
@@ -29242,8 +29434,8 @@
       <c r="AH41" s="66"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="217"/>
-      <c r="B42" s="214">
+      <c r="A42" s="206"/>
+      <c r="B42" s="203">
         <v>11</v>
       </c>
       <c r="C42" s="71" t="s">
@@ -29296,8 +29488,8 @@
       <c r="AH42" s="66"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="217"/>
-      <c r="B43" s="214"/>
+      <c r="A43" s="206"/>
+      <c r="B43" s="203"/>
       <c r="C43" s="71" t="s">
         <v>200</v>
       </c>
@@ -29350,8 +29542,8 @@
       <c r="AH43" s="66"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="217"/>
-      <c r="B44" s="214"/>
+      <c r="A44" s="206"/>
+      <c r="B44" s="203"/>
       <c r="C44" s="71" t="s">
         <v>201</v>
       </c>
@@ -29401,8 +29593,8 @@
       <c r="AH44" s="66"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="217"/>
-      <c r="B45" s="214"/>
+      <c r="A45" s="206"/>
+      <c r="B45" s="203"/>
       <c r="C45" s="71" t="s">
         <v>202</v>
       </c>
@@ -29452,8 +29644,8 @@
       <c r="AH45" s="66"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="217"/>
-      <c r="B46" s="214">
+      <c r="A46" s="206"/>
+      <c r="B46" s="203">
         <v>12</v>
       </c>
       <c r="C46" s="71" t="s">
@@ -29507,8 +29699,8 @@
       <c r="AH46" s="66"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="217"/>
-      <c r="B47" s="214"/>
+      <c r="A47" s="206"/>
+      <c r="B47" s="203"/>
       <c r="C47" s="71" t="s">
         <v>204</v>
       </c>
@@ -29558,8 +29750,8 @@
       <c r="AH47" s="66"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="217"/>
-      <c r="B48" s="214"/>
+      <c r="A48" s="206"/>
+      <c r="B48" s="203"/>
       <c r="C48" s="71" t="s">
         <v>205</v>
       </c>
@@ -29611,8 +29803,8 @@
       <c r="AH48" s="66"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="217"/>
-      <c r="B49" s="214"/>
+      <c r="A49" s="206"/>
+      <c r="B49" s="203"/>
       <c r="C49" s="71" t="s">
         <v>206</v>
       </c>
@@ -29662,8 +29854,8 @@
       <c r="AH49" s="66"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="217"/>
-      <c r="B50" s="214">
+      <c r="A50" s="206"/>
+      <c r="B50" s="203">
         <v>13</v>
       </c>
       <c r="C50" s="71" t="s">
@@ -29717,8 +29909,8 @@
       <c r="AH50" s="66"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="217"/>
-      <c r="B51" s="214"/>
+      <c r="A51" s="206"/>
+      <c r="B51" s="203"/>
       <c r="C51" s="71" t="s">
         <v>208</v>
       </c>
@@ -29768,8 +29960,8 @@
       <c r="AH51" s="66"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="217"/>
-      <c r="B52" s="214"/>
+      <c r="A52" s="206"/>
+      <c r="B52" s="203"/>
       <c r="C52" s="71" t="s">
         <v>209</v>
       </c>
@@ -29818,8 +30010,8 @@
       <c r="AH52" s="66"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="217"/>
-      <c r="B53" s="214"/>
+      <c r="A53" s="206"/>
+      <c r="B53" s="203"/>
       <c r="C53" s="71" t="s">
         <v>210</v>
       </c>
@@ -29869,8 +30061,8 @@
       <c r="AH53" s="66"/>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="217"/>
-      <c r="B54" s="214">
+      <c r="A54" s="206"/>
+      <c r="B54" s="203">
         <v>14</v>
       </c>
       <c r="C54" s="71" t="s">
@@ -29924,8 +30116,8 @@
       <c r="AH54" s="66"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="217"/>
-      <c r="B55" s="214"/>
+      <c r="A55" s="206"/>
+      <c r="B55" s="203"/>
       <c r="C55" s="71" t="s">
         <v>212</v>
       </c>
@@ -29976,8 +30168,8 @@
       <c r="AH55" s="66"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="217"/>
-      <c r="B56" s="214"/>
+      <c r="A56" s="206"/>
+      <c r="B56" s="203"/>
       <c r="C56" s="71" t="s">
         <v>213</v>
       </c>
@@ -30027,8 +30219,8 @@
       <c r="AH56" s="66"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="217"/>
-      <c r="B57" s="214"/>
+      <c r="A57" s="206"/>
+      <c r="B57" s="203"/>
       <c r="C57" s="71" t="s">
         <v>214</v>
       </c>
@@ -30079,8 +30271,8 @@
       <c r="AH57" s="66"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="217"/>
-      <c r="B58" s="214">
+      <c r="A58" s="206"/>
+      <c r="B58" s="203">
         <v>15</v>
       </c>
       <c r="C58" s="71" t="s">
@@ -30135,8 +30327,8 @@
       <c r="AH58" s="66"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="217"/>
-      <c r="B59" s="214"/>
+      <c r="A59" s="206"/>
+      <c r="B59" s="203"/>
       <c r="C59" s="71" t="s">
         <v>216</v>
       </c>
@@ -30187,8 +30379,8 @@
       <c r="AH59" s="66"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="217"/>
-      <c r="B60" s="214"/>
+      <c r="A60" s="206"/>
+      <c r="B60" s="203"/>
       <c r="C60" s="71" t="s">
         <v>217</v>
       </c>
@@ -30239,8 +30431,8 @@
       <c r="AH60" s="66"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" s="218"/>
-      <c r="B61" s="215"/>
+      <c r="A61" s="207"/>
+      <c r="B61" s="204"/>
       <c r="C61" s="73" t="s">
         <v>218</v>
       </c>
@@ -30291,10 +30483,10 @@
       <c r="AH61" s="66"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="216" t="s">
+      <c r="A62" s="205" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="219">
+      <c r="B62" s="208">
         <v>16</v>
       </c>
       <c r="C62" s="71" t="s">
@@ -30346,8 +30538,8 @@
       <c r="AH62" s="66"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" s="217"/>
-      <c r="B63" s="214"/>
+      <c r="A63" s="206"/>
+      <c r="B63" s="203"/>
       <c r="C63" s="71" t="s">
         <v>220</v>
       </c>
@@ -30397,8 +30589,8 @@
       <c r="AH63" s="66"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="217"/>
-      <c r="B64" s="214"/>
+      <c r="A64" s="206"/>
+      <c r="B64" s="203"/>
       <c r="C64" s="71" t="s">
         <v>221</v>
       </c>
@@ -30448,8 +30640,8 @@
       <c r="AH64" s="66"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="217"/>
-      <c r="B65" s="214"/>
+      <c r="A65" s="206"/>
+      <c r="B65" s="203"/>
       <c r="C65" s="71" t="s">
         <v>222</v>
       </c>
@@ -30499,8 +30691,8 @@
       <c r="AH65" s="66"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="217"/>
-      <c r="B66" s="214">
+      <c r="A66" s="206"/>
+      <c r="B66" s="203">
         <v>17</v>
       </c>
       <c r="C66" s="71" t="s">
@@ -30552,8 +30744,8 @@
       <c r="AH66" s="66"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A67" s="217"/>
-      <c r="B67" s="214"/>
+      <c r="A67" s="206"/>
+      <c r="B67" s="203"/>
       <c r="C67" s="71" t="s">
         <v>224</v>
       </c>
@@ -30603,8 +30795,8 @@
       <c r="AH67" s="66"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="217"/>
-      <c r="B68" s="214"/>
+      <c r="A68" s="206"/>
+      <c r="B68" s="203"/>
       <c r="C68" s="71" t="s">
         <v>225</v>
       </c>
@@ -30654,8 +30846,8 @@
       <c r="AH68" s="66"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="217"/>
-      <c r="B69" s="214"/>
+      <c r="A69" s="206"/>
+      <c r="B69" s="203"/>
       <c r="C69" s="71" t="s">
         <v>226</v>
       </c>
@@ -30705,8 +30897,8 @@
       <c r="AH69" s="66"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="217"/>
-      <c r="B70" s="214">
+      <c r="A70" s="206"/>
+      <c r="B70" s="203">
         <v>18</v>
       </c>
       <c r="C70" s="71" t="s">
@@ -30758,8 +30950,8 @@
       <c r="AH70" s="66"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="217"/>
-      <c r="B71" s="214"/>
+      <c r="A71" s="206"/>
+      <c r="B71" s="203"/>
       <c r="C71" s="71" t="s">
         <v>228</v>
       </c>
@@ -30809,8 +31001,8 @@
       <c r="AH71" s="66"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="217"/>
-      <c r="B72" s="214"/>
+      <c r="A72" s="206"/>
+      <c r="B72" s="203"/>
       <c r="C72" s="71" t="s">
         <v>229</v>
       </c>
@@ -30860,8 +31052,8 @@
       <c r="AH72" s="66"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="217"/>
-      <c r="B73" s="214"/>
+      <c r="A73" s="206"/>
+      <c r="B73" s="203"/>
       <c r="C73" s="71" t="s">
         <v>230</v>
       </c>
@@ -30911,8 +31103,8 @@
       <c r="AH73" s="66"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="217"/>
-      <c r="B74" s="214">
+      <c r="A74" s="206"/>
+      <c r="B74" s="203">
         <v>19</v>
       </c>
       <c r="C74" s="71" t="s">
@@ -30964,8 +31156,8 @@
       <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="217"/>
-      <c r="B75" s="214"/>
+      <c r="A75" s="206"/>
+      <c r="B75" s="203"/>
       <c r="C75" s="71" t="s">
         <v>232</v>
       </c>
@@ -31015,8 +31207,8 @@
       <c r="AH75" s="66"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="217"/>
-      <c r="B76" s="214"/>
+      <c r="A76" s="206"/>
+      <c r="B76" s="203"/>
       <c r="C76" s="71" t="s">
         <v>233</v>
       </c>
@@ -31066,8 +31258,8 @@
       <c r="AH76" s="66"/>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="218"/>
-      <c r="B77" s="215"/>
+      <c r="A77" s="207"/>
+      <c r="B77" s="204"/>
       <c r="C77" s="73" t="s">
         <v>234</v>
       </c>
@@ -31254,10 +31446,10 @@
     <row r="80" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="66"/>
       <c r="B80" s="66"/>
-      <c r="C80" s="210" t="s">
+      <c r="C80" s="212" t="s">
         <v>235</v>
       </c>
-      <c r="D80" s="211"/>
+      <c r="D80" s="213"/>
       <c r="E80" s="70">
         <v>60</v>
       </c>
@@ -31296,10 +31488,10 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="66"/>
       <c r="B81" s="66"/>
-      <c r="C81" s="212" t="s">
+      <c r="C81" s="214" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="213"/>
+      <c r="D81" s="215"/>
       <c r="E81" s="72">
         <v>322.5</v>
       </c>
@@ -31336,10 +31528,10 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="66"/>
-      <c r="C82" s="212" t="s">
+      <c r="C82" s="214" t="s">
         <v>238</v>
       </c>
-      <c r="D82" s="213"/>
+      <c r="D82" s="215"/>
       <c r="E82" s="72">
         <v>35</v>
       </c>
@@ -31376,10 +31568,10 @@
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="B83" s="66"/>
-      <c r="C83" s="212" t="s">
+      <c r="C83" s="214" t="s">
         <v>239</v>
       </c>
-      <c r="D83" s="213"/>
+      <c r="D83" s="215"/>
       <c r="E83" s="72">
         <v>287</v>
       </c>
@@ -31416,10 +31608,10 @@
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="B84" s="66"/>
-      <c r="C84" s="212" t="s">
+      <c r="C84" s="214" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="213"/>
+      <c r="D84" s="215"/>
       <c r="E84" s="72">
         <v>60</v>
       </c>
@@ -31456,10 +31648,10 @@
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
       <c r="B85" s="66"/>
-      <c r="C85" s="208" t="s">
+      <c r="C85" s="210" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="209"/>
+      <c r="D85" s="211"/>
       <c r="E85" s="74">
         <f>Y79</f>
         <v>483</v>
@@ -31527,6 +31719,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="B74:B77"/>
@@ -31543,17 +31746,6 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31575,66 +31767,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="154" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="155" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="154" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="160">
+      <c r="B2" s="156">
         <v>45579</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="154" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="157" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="154" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="158" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="154" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="163">
+      <c r="B5" s="159">
         <v>1.4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="154" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="160">
+      <c r="B6" s="156">
         <v>45726</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="154" t="s">
         <v>339</v>
       </c>
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="157" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="154" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="155" t="s">
         <v>342</v>
       </c>
     </row>
@@ -31883,21 +32075,21 @@
     </row>
     <row r="5" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="216" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="222"/>
-      <c r="K5" s="222"/>
-      <c r="L5" s="222"/>
-      <c r="M5" s="222"/>
-      <c r="N5" s="223"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="218"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -31977,21 +32169,21 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="219" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="224"/>
+      <c r="B11" s="219"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="224"/>
+      <c r="B12" s="219"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="224"/>
+      <c r="B13" s="219"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="224"/>
+      <c r="B14" s="219"/>
     </row>
     <row r="21" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R21" s="18"/>
@@ -32011,6 +32203,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="d03ffd70-462c-4172-9015-a0cdff42c83c">
+      <UserInfo>
+        <DisplayName>Craig Stevens</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Afzan Matloob</DisplayName>
+        <AccountId>46</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65f98c99-c090-489b-8346-b847c18a5011">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060D9039996957B47A2820CA7E129C20F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61c230ac488284aa1c9442a337ce5a7f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65f98c99-c090-489b-8346-b847c18a5011" xmlns:ns3="d03ffd70-462c-4172-9015-a0cdff42c83c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4cea2a2cd68f11dd2b0a1fdf049f3860" ns2:_="" ns3:_="">
     <xsd:import namespace="65f98c99-c090-489b-8346-b847c18a5011"/>
@@ -32227,28 +32441,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="d03ffd70-462c-4172-9015-a0cdff42c83c">
-      <UserInfo>
-        <DisplayName>Craig Stevens</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Afzan Matloob</DisplayName>
-        <AccountId>46</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65f98c99-c090-489b-8346-b847c18a5011">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -32259,6 +32451,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F627C2A1-639E-4000-94D7-FA9740411AFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d03ffd70-462c-4172-9015-a0cdff42c83c"/>
+    <ds:schemaRef ds:uri="65f98c99-c090-489b-8346-b847c18a5011"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{710DD5DA-09F7-4D7C-A10A-C80CDC0D2E16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32277,17 +32480,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F627C2A1-639E-4000-94D7-FA9740411AFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d03ffd70-462c-4172-9015-a0cdff42c83c"/>
-    <ds:schemaRef ds:uri="65f98c99-c090-489b-8346-b847c18a5011"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
   <ds:schemaRefs>

--- a/OTJ Tracker Data Engineer L5.xlsx
+++ b/OTJ Tracker Data Engineer L5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laho2188\Documents\GitHub\Learning-Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF77BB0-E8A2-495A-8630-ACAE696187CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EF3020-28AC-48FE-BECF-2E409129F438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OTJT Log" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="394">
   <si>
     <t xml:space="preserve">Apprenticeship Training Log </t>
   </si>
@@ -1280,6 +1280,21 @@
   </si>
   <si>
     <t xml:space="preserve">Power BI Data Warehouse Backup to Data Mart storage, with incremental refresh </t>
+  </si>
+  <si>
+    <t>Hackathon - UK Road Safety Dashboard (ingest data from excel to database, launch a python app in Azure Apps connected to the database, create CPU/app health alerts and budget/cost alerts)</t>
+  </si>
+  <si>
+    <t>LinkedIn Learning: Advanced Python: Classes and Functions</t>
+  </si>
+  <si>
+    <t>LinkedIn Learning: Data Engineering on AWS: Data Sourcing and Storage</t>
+  </si>
+  <si>
+    <t>LinkedIn Learning: Data Engineering on AWS: Data Cataloging, Processing, Analytics, and Visualization</t>
+  </si>
+  <si>
+    <t>Building Organizational Charts and Flowcharts for projects used in the company</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1755,19 +1770,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2377,13 +2379,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2428,7 +2452,7 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2438,18 +2462,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2469,57 +2493,60 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2527,39 +2554,36 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2569,105 +2593,105 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2686,69 +2710,96 @@
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2780,7 +2831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2792,16 +2843,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2813,43 +2864,70 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2863,27 +2941,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3361,10 +3418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP315"/>
+  <dimension ref="A1:AP317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59:F59"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3429,12 +3486,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="184"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="193"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="2"/>
@@ -3465,14 +3522,14 @@
     </row>
     <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="189"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="198"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="52"/>
@@ -3570,14 +3627,14 @@
       <c r="G5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="202"/>
+      <c r="H5" s="211"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="187"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="196"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3627,7 +3684,7 @@
         <f t="shared" ref="G6:G18" si="0">IF(NOT(ISBLANK(D6)), SUM(E6:F6), 0)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="202"/>
+      <c r="H6" s="211"/>
       <c r="I6" s="2"/>
       <c r="J6" s="128"/>
       <c r="K6" s="128"/>
@@ -3684,7 +3741,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="H7" s="202"/>
+      <c r="H7" s="211"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3741,7 +3798,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="202"/>
+      <c r="H8" s="211"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3798,7 +3855,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H9" s="202"/>
+      <c r="H9" s="211"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3855,7 +3912,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="202"/>
+      <c r="H10" s="211"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3896,8 +3953,12 @@
       <c r="B11" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="132"/>
+      <c r="C11" s="173" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" s="172">
+        <v>45757</v>
+      </c>
       <c r="E11" s="56">
         <v>24</v>
       </c>
@@ -3906,9 +3967,9 @@
       </c>
       <c r="G11" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="202"/>
+        <v>46</v>
+      </c>
+      <c r="H11" s="211"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3949,8 +4010,12 @@
       <c r="B12" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="132"/>
+      <c r="C12" s="173" t="s">
+        <v>380</v>
+      </c>
+      <c r="D12" s="172">
+        <v>45785</v>
+      </c>
       <c r="E12" s="56">
         <v>9</v>
       </c>
@@ -3959,9 +4024,9 @@
       </c>
       <c r="G12" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="202"/>
+        <v>21</v>
+      </c>
+      <c r="H12" s="211"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4014,7 +4079,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="202"/>
+      <c r="H13" s="211"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4067,7 +4132,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="202"/>
+      <c r="H14" s="211"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4120,7 +4185,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="202"/>
+      <c r="H15" s="211"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4173,7 +4238,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="202"/>
+      <c r="H16" s="211"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -4226,14 +4291,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="202"/>
+      <c r="H17" s="211"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="186"/>
-      <c r="L17" s="186"/>
-      <c r="M17" s="186"/>
-      <c r="N17" s="186"/>
-      <c r="O17" s="187"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="195"/>
+      <c r="M17" s="195"/>
+      <c r="N17" s="195"/>
+      <c r="O17" s="196"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -4279,7 +4344,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="202"/>
+      <c r="H18" s="211"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -4332,9 +4397,9 @@
       </c>
       <c r="G19" s="127">
         <f>SUM(G6:G18)</f>
-        <v>141</v>
-      </c>
-      <c r="H19" s="202"/>
+        <v>208</v>
+      </c>
+      <c r="H19" s="211"/>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -4488,14 +4553,14 @@
         <f>IF(NOT(ISBLANK(D22)), SUM(E22:F22), 0)</f>
         <v>24</v>
       </c>
-      <c r="H22" s="175"/>
+      <c r="H22" s="212"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="186"/>
-      <c r="L22" s="186"/>
-      <c r="M22" s="186"/>
-      <c r="N22" s="186"/>
-      <c r="O22" s="187"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="195"/>
+      <c r="L22" s="195"/>
+      <c r="M22" s="195"/>
+      <c r="N22" s="195"/>
+      <c r="O22" s="196"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4543,7 +4608,7 @@
         <f>IF(NOT(ISBLANK(D23)), SUM(E23:F23), 0)</f>
         <v>24</v>
       </c>
-      <c r="H23" s="175"/>
+      <c r="H23" s="212"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4598,7 +4663,7 @@
         <f>IF(NOT(ISBLANK(D24)), SUM(E24:F24), 0)</f>
         <v>24</v>
       </c>
-      <c r="H24" s="175"/>
+      <c r="H24" s="212"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4649,7 +4714,7 @@
         <f>IF(NOT(ISBLANK(D25)), SUM(E25:F25), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="175"/>
+      <c r="H25" s="212"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4700,7 +4765,7 @@
         <f>IF(NOT(ISBLANK(D26)), SUM(E26:F26), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="175"/>
+      <c r="H26" s="212"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4744,7 +4809,7 @@
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
-      <c r="H27" s="175"/>
+      <c r="H27" s="212"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4799,7 +4864,7 @@
         <f>SUM(G22:H27)</f>
         <v>72</v>
       </c>
-      <c r="H28" s="175"/>
+      <c r="H28" s="212"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4837,20 +4902,20 @@
     </row>
     <row r="29" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="196"/>
-      <c r="C29" s="197"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="197"/>
-      <c r="F29" s="197"/>
-      <c r="G29" s="197"/>
-      <c r="H29" s="198"/>
+      <c r="B29" s="205"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="207"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="185"/>
-      <c r="K29" s="186"/>
-      <c r="L29" s="186"/>
-      <c r="M29" s="186"/>
-      <c r="N29" s="186"/>
-      <c r="O29" s="187"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="195"/>
+      <c r="L29" s="195"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="195"/>
+      <c r="O29" s="196"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -4888,12 +4953,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="194"/>
-      <c r="L30" s="194"/>
-      <c r="M30" s="194"/>
-      <c r="N30" s="194"/>
-      <c r="O30" s="195"/>
+      <c r="J30" s="202"/>
+      <c r="K30" s="203"/>
+      <c r="L30" s="203"/>
+      <c r="M30" s="203"/>
+      <c r="N30" s="203"/>
+      <c r="O30" s="204"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -4924,13 +4989,13 @@
     </row>
     <row r="31" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="199" t="s">
+      <c r="B31" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="200"/>
-      <c r="D31" s="200"/>
-      <c r="E31" s="200"/>
-      <c r="F31" s="201"/>
+      <c r="C31" s="209"/>
+      <c r="D31" s="209"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="210"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -5110,23 +5175,23 @@
       <c r="D35" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="181" t="s">
+      <c r="E35" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="181"/>
+      <c r="F35" s="218"/>
       <c r="G35" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="176" t="s">
+      <c r="H35" s="213" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="185"/>
-      <c r="K35" s="186"/>
-      <c r="L35" s="186"/>
-      <c r="M35" s="186"/>
-      <c r="N35" s="186"/>
-      <c r="O35" s="187"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="195"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="196"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5166,14 +5231,14 @@
       <c r="D36" s="142">
         <v>45559</v>
       </c>
-      <c r="E36" s="179" t="s">
+      <c r="E36" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="F36" s="180"/>
+      <c r="F36" s="189"/>
       <c r="G36" s="144">
         <v>3</v>
       </c>
-      <c r="H36" s="177"/>
+      <c r="H36" s="214"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -5220,21 +5285,21 @@
       <c r="D37" s="143">
         <v>45572</v>
       </c>
-      <c r="E37" s="179" t="s">
+      <c r="E37" s="188" t="s">
         <v>344</v>
       </c>
-      <c r="F37" s="180"/>
+      <c r="F37" s="189"/>
       <c r="G37" s="144">
         <v>4</v>
       </c>
-      <c r="H37" s="177"/>
+      <c r="H37" s="214"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="191"/>
-      <c r="L37" s="191"/>
-      <c r="M37" s="191"/>
-      <c r="N37" s="191"/>
-      <c r="O37" s="192"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="200"/>
+      <c r="L37" s="200"/>
+      <c r="M37" s="200"/>
+      <c r="N37" s="200"/>
+      <c r="O37" s="201"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -5274,14 +5339,14 @@
       <c r="D38" s="142">
         <v>45575</v>
       </c>
-      <c r="E38" s="179" t="s">
+      <c r="E38" s="188" t="s">
         <v>349</v>
       </c>
-      <c r="F38" s="180"/>
+      <c r="F38" s="189"/>
       <c r="G38" s="144">
         <v>3</v>
       </c>
-      <c r="H38" s="177"/>
+      <c r="H38" s="214"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -5323,26 +5388,26 @@
         <v>347</v>
       </c>
       <c r="C39" s="141" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D39" s="142">
         <v>45579</v>
       </c>
-      <c r="E39" s="179" t="s">
+      <c r="E39" s="188" t="s">
         <v>348</v>
       </c>
-      <c r="F39" s="180"/>
+      <c r="F39" s="189"/>
       <c r="G39" s="144">
         <v>3</v>
       </c>
-      <c r="H39" s="177"/>
+      <c r="H39" s="214"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="185"/>
-      <c r="K39" s="186"/>
-      <c r="L39" s="186"/>
-      <c r="M39" s="186"/>
-      <c r="N39" s="186"/>
-      <c r="O39" s="187"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="195"/>
+      <c r="L39" s="195"/>
+      <c r="M39" s="195"/>
+      <c r="N39" s="195"/>
+      <c r="O39" s="196"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -5382,14 +5447,14 @@
       <c r="D40" s="142">
         <v>45586</v>
       </c>
-      <c r="E40" s="179" t="s">
+      <c r="E40" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="F40" s="180"/>
+      <c r="F40" s="189"/>
       <c r="G40" s="144">
         <v>8</v>
       </c>
-      <c r="H40" s="177"/>
+      <c r="H40" s="214"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -5436,14 +5501,14 @@
       <c r="D41" s="169">
         <v>45597</v>
       </c>
-      <c r="E41" s="179" t="s">
+      <c r="E41" s="188" t="s">
         <v>352</v>
       </c>
-      <c r="F41" s="180"/>
+      <c r="F41" s="189"/>
       <c r="G41" s="144">
         <v>3</v>
       </c>
-      <c r="H41" s="177"/>
+      <c r="H41" s="214"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -5490,14 +5555,14 @@
       <c r="D42" s="169">
         <v>45601</v>
       </c>
-      <c r="E42" s="179" t="s">
+      <c r="E42" s="188" t="s">
         <v>353</v>
       </c>
-      <c r="F42" s="180"/>
+      <c r="F42" s="189"/>
       <c r="G42" s="144">
         <v>2</v>
       </c>
-      <c r="H42" s="177"/>
+      <c r="H42" s="214"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -5544,14 +5609,14 @@
       <c r="D43" s="149">
         <v>45609</v>
       </c>
-      <c r="E43" s="179" t="s">
+      <c r="E43" s="188" t="s">
         <v>359</v>
       </c>
-      <c r="F43" s="180"/>
+      <c r="F43" s="189"/>
       <c r="G43" s="144">
         <v>8</v>
       </c>
-      <c r="H43" s="177"/>
+      <c r="H43" s="214"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -5598,14 +5663,14 @@
       <c r="D44" s="149">
         <v>45614</v>
       </c>
-      <c r="E44" s="179" t="s">
+      <c r="E44" s="188" t="s">
         <v>360</v>
       </c>
-      <c r="F44" s="180"/>
+      <c r="F44" s="189"/>
       <c r="G44" s="144">
         <v>12</v>
       </c>
-      <c r="H44" s="177"/>
+      <c r="H44" s="214"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -5652,14 +5717,14 @@
       <c r="D45" s="149">
         <v>45623</v>
       </c>
-      <c r="E45" s="179" t="s">
+      <c r="E45" s="188" t="s">
         <v>361</v>
       </c>
-      <c r="F45" s="180"/>
+      <c r="F45" s="189"/>
       <c r="G45" s="144">
         <v>5</v>
       </c>
-      <c r="H45" s="177"/>
+      <c r="H45" s="214"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -5706,14 +5771,14 @@
       <c r="D46" s="149">
         <v>45632</v>
       </c>
-      <c r="E46" s="179" t="s">
+      <c r="E46" s="188" t="s">
         <v>372</v>
       </c>
-      <c r="F46" s="180"/>
+      <c r="F46" s="189"/>
       <c r="G46" s="144">
         <v>5</v>
       </c>
-      <c r="H46" s="177"/>
+      <c r="H46" s="214"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -5760,14 +5825,14 @@
       <c r="D47" s="149">
         <v>45637</v>
       </c>
-      <c r="E47" s="179" t="s">
+      <c r="E47" s="188" t="s">
         <v>364</v>
       </c>
-      <c r="F47" s="180"/>
+      <c r="F47" s="189"/>
       <c r="G47" s="144">
         <v>6</v>
       </c>
-      <c r="H47" s="177"/>
+      <c r="H47" s="214"/>
       <c r="I47" s="42"/>
       <c r="J47" s="36"/>
       <c r="K47" s="2"/>
@@ -5814,14 +5879,14 @@
       <c r="D48" s="149">
         <v>45644</v>
       </c>
-      <c r="E48" s="179" t="s">
+      <c r="E48" s="188" t="s">
         <v>365</v>
       </c>
-      <c r="F48" s="180"/>
+      <c r="F48" s="189"/>
       <c r="G48" s="144">
         <v>18</v>
       </c>
-      <c r="H48" s="177"/>
+      <c r="H48" s="214"/>
       <c r="I48" s="42"/>
       <c r="J48" s="36"/>
       <c r="K48" s="2"/>
@@ -5868,14 +5933,14 @@
       <c r="D49" s="142">
         <v>45299</v>
       </c>
-      <c r="E49" s="179" t="s">
+      <c r="E49" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="F49" s="180"/>
+      <c r="F49" s="189"/>
       <c r="G49" s="144">
         <v>4</v>
       </c>
-      <c r="H49" s="177"/>
+      <c r="H49" s="214"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5922,14 +5987,14 @@
       <c r="D50" s="142">
         <v>45306</v>
       </c>
-      <c r="E50" s="179" t="s">
+      <c r="E50" s="188" t="s">
         <v>366</v>
       </c>
-      <c r="F50" s="180"/>
+      <c r="F50" s="189"/>
       <c r="G50" s="145">
         <v>5</v>
       </c>
-      <c r="H50" s="177"/>
+      <c r="H50" s="214"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -5976,14 +6041,14 @@
       <c r="D51" s="149">
         <v>45679</v>
       </c>
-      <c r="E51" s="179" t="s">
+      <c r="E51" s="188" t="s">
         <v>374</v>
       </c>
-      <c r="F51" s="180"/>
+      <c r="F51" s="189"/>
       <c r="G51" s="145">
         <v>6</v>
       </c>
-      <c r="H51" s="177"/>
+      <c r="H51" s="214"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -6030,14 +6095,14 @@
       <c r="D52" s="149">
         <v>45687</v>
       </c>
-      <c r="E52" s="179" t="s">
+      <c r="E52" s="188" t="s">
         <v>384</v>
       </c>
-      <c r="F52" s="180"/>
+      <c r="F52" s="189"/>
       <c r="G52" s="145">
         <v>5</v>
       </c>
-      <c r="H52" s="177"/>
+      <c r="H52" s="214"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -6084,14 +6149,14 @@
       <c r="D53" s="149">
         <v>45694</v>
       </c>
-      <c r="E53" s="179" t="s">
+      <c r="E53" s="188" t="s">
         <v>378</v>
       </c>
-      <c r="F53" s="180"/>
+      <c r="F53" s="189"/>
       <c r="G53" s="145">
         <v>9</v>
       </c>
-      <c r="H53" s="177"/>
+      <c r="H53" s="214"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -6138,14 +6203,14 @@
       <c r="D54" s="149">
         <v>45701</v>
       </c>
-      <c r="E54" s="179" t="s">
+      <c r="E54" s="188" t="s">
         <v>383</v>
       </c>
-      <c r="F54" s="180"/>
+      <c r="F54" s="189"/>
       <c r="G54" s="145">
         <v>4</v>
       </c>
-      <c r="H54" s="177"/>
+      <c r="H54" s="214"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -6192,14 +6257,14 @@
       <c r="D55" s="149">
         <v>45708</v>
       </c>
-      <c r="E55" s="179" t="s">
+      <c r="E55" s="188" t="s">
         <v>381</v>
       </c>
-      <c r="F55" s="180"/>
+      <c r="F55" s="189"/>
       <c r="G55" s="145">
         <v>12</v>
       </c>
-      <c r="H55" s="177"/>
+      <c r="H55" s="214"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -6246,14 +6311,14 @@
       <c r="D56" s="149">
         <v>45715</v>
       </c>
-      <c r="E56" s="179" t="s">
+      <c r="E56" s="188" t="s">
         <v>382</v>
       </c>
-      <c r="F56" s="180"/>
+      <c r="F56" s="189"/>
       <c r="G56" s="145">
         <v>6</v>
       </c>
-      <c r="H56" s="177"/>
+      <c r="H56" s="214"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -6289,19 +6354,23 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
     </row>
-    <row r="57" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="56"/>
+      <c r="B57" s="77" t="s">
+        <v>356</v>
+      </c>
       <c r="C57" s="151" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D57" s="149">
-        <v>45722</v>
-      </c>
-      <c r="E57" s="174"/>
-      <c r="F57" s="174"/>
-      <c r="G57" s="221"/>
-      <c r="H57" s="177"/>
+        <v>45729</v>
+      </c>
+      <c r="E57" s="188" t="s">
+        <v>386</v>
+      </c>
+      <c r="F57" s="189"/>
+      <c r="G57" s="175"/>
+      <c r="H57" s="214"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -6337,19 +6406,25 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
     </row>
-    <row r="58" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="56"/>
+      <c r="B58" s="75" t="s">
+        <v>373</v>
+      </c>
       <c r="C58" s="151" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D58" s="149">
-        <v>45722</v>
-      </c>
-      <c r="E58" s="174"/>
-      <c r="F58" s="174"/>
-      <c r="G58" s="221"/>
-      <c r="H58" s="177"/>
+        <v>45736</v>
+      </c>
+      <c r="E58" s="216" t="s">
+        <v>388</v>
+      </c>
+      <c r="F58" s="216"/>
+      <c r="G58" s="175">
+        <v>10</v>
+      </c>
+      <c r="H58" s="214"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -6385,19 +6460,25 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="56"/>
+      <c r="B59" s="77" t="s">
+        <v>356</v>
+      </c>
       <c r="C59" s="151" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D59" s="149">
-        <v>45729</v>
-      </c>
-      <c r="E59" s="174"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="221"/>
-      <c r="H59" s="177"/>
+        <v>45743</v>
+      </c>
+      <c r="E59" s="188" t="s">
+        <v>387</v>
+      </c>
+      <c r="F59" s="189"/>
+      <c r="G59" s="175">
+        <v>3</v>
+      </c>
+      <c r="H59" s="214"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -6433,25 +6514,25 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="1:42" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="75" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C60" s="151" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D60" s="149">
-        <v>45736</v>
-      </c>
-      <c r="E60" s="226" t="s">
-        <v>388</v>
-      </c>
-      <c r="F60" s="226"/>
-      <c r="G60" s="221">
-        <v>10</v>
-      </c>
-      <c r="H60" s="177"/>
+        <v>45750</v>
+      </c>
+      <c r="E60" s="188" t="s">
+        <v>385</v>
+      </c>
+      <c r="F60" s="189"/>
+      <c r="G60" s="175">
+        <v>6</v>
+      </c>
+      <c r="H60" s="214"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -6487,25 +6568,25 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="179" t="s">
         <v>356</v>
       </c>
-      <c r="C61" s="151" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="149">
-        <v>45743</v>
-      </c>
-      <c r="E61" s="179" t="s">
-        <v>387</v>
-      </c>
-      <c r="F61" s="180"/>
-      <c r="G61" s="221">
-        <v>3</v>
-      </c>
-      <c r="H61" s="177"/>
+      <c r="C61" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="181">
+        <v>45757</v>
+      </c>
+      <c r="E61" s="219" t="s">
+        <v>389</v>
+      </c>
+      <c r="F61" s="220"/>
+      <c r="G61" s="182">
+        <v>4</v>
+      </c>
+      <c r="H61" s="214"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -6541,25 +6622,25 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="75" t="s">
-        <v>376</v>
-      </c>
-      <c r="C62" s="151" t="s">
-        <v>187</v>
-      </c>
-      <c r="D62" s="149">
-        <v>45750</v>
-      </c>
-      <c r="E62" s="179" t="s">
-        <v>385</v>
-      </c>
-      <c r="F62" s="180"/>
-      <c r="G62" s="221">
-        <v>6</v>
-      </c>
-      <c r="H62" s="177"/>
+      <c r="B62" s="179" t="s">
+        <v>356</v>
+      </c>
+      <c r="C62" s="180" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="181">
+        <v>45764</v>
+      </c>
+      <c r="E62" s="188" t="s">
+        <v>390</v>
+      </c>
+      <c r="F62" s="189"/>
+      <c r="G62" s="175">
+        <v>4</v>
+      </c>
+      <c r="H62" s="214"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -6595,25 +6676,25 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="1:42" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="179" t="s">
         <v>356</v>
       </c>
-      <c r="C63" s="220" t="s">
-        <v>189</v>
+      <c r="C63" s="174" t="s">
+        <v>191</v>
       </c>
       <c r="D63" s="149">
-        <v>45757</v>
-      </c>
-      <c r="E63" s="179" t="s">
-        <v>386</v>
-      </c>
-      <c r="F63" s="180"/>
-      <c r="G63" s="221">
-        <v>2</v>
-      </c>
-      <c r="H63" s="177"/>
+        <v>45792</v>
+      </c>
+      <c r="E63" s="188" t="s">
+        <v>391</v>
+      </c>
+      <c r="F63" s="189"/>
+      <c r="G63" s="145">
+        <v>3</v>
+      </c>
+      <c r="H63" s="214"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -6649,20 +6730,25 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="222"/>
-      <c r="D64" s="224"/>
-      <c r="E64" s="225"/>
-      <c r="F64" s="225"/>
-      <c r="G64" s="146">
-        <f>SUM(G36:G60)</f>
-        <v>141</v>
-      </c>
-      <c r="H64" s="178"/>
+      <c r="B64" s="75" t="s">
+        <v>370</v>
+      </c>
+      <c r="C64" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="142">
+        <v>45806</v>
+      </c>
+      <c r="E64" s="184" t="s">
+        <v>393</v>
+      </c>
+      <c r="F64" s="185"/>
+      <c r="G64" s="145">
+        <v>6</v>
+      </c>
+      <c r="H64" s="214"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -6698,15 +6784,25 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="122"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="223"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="119"/>
+      <c r="B65" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="C65" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" s="149">
+        <v>45813</v>
+      </c>
+      <c r="E65" s="190" t="s">
+        <v>392</v>
+      </c>
+      <c r="F65" s="190"/>
+      <c r="G65" s="175">
+        <v>3</v>
+      </c>
+      <c r="H65" s="215"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -6742,20 +6838,15 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="153"/>
-      <c r="D66" s="150"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="148">
-        <f>G64+G19+G28+G65</f>
-        <v>354</v>
-      </c>
-      <c r="H66" s="43"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="186"/>
+      <c r="F66" s="187"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="183"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -6793,13 +6884,18 @@
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="42"/>
+      <c r="B67" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="176"/>
+      <c r="D67" s="178"/>
+      <c r="E67" s="217"/>
+      <c r="F67" s="217"/>
+      <c r="G67" s="146">
+        <f>SUM(G36:G65)</f>
+        <v>170</v>
+      </c>
+      <c r="H67" s="119"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -6837,11 +6933,13 @@
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="1"/>
-      <c r="D68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="36"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="177"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="147"/>
+      <c r="H68" s="43"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -6877,19 +6975,20 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
-      <c r="B69" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="56">
-        <f>'List - Hide'!AC11</f>
-        <v>487</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="36"/>
+      <c r="B69" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="153"/>
+      <c r="D69" s="150"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="148">
+        <f>G67+G19+G28+G68</f>
+        <v>450</v>
+      </c>
+      <c r="H69" s="42"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -6927,14 +7026,10 @@
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="56">
-        <f>G66</f>
-        <v>354</v>
-      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="36"/>
@@ -6975,13 +7070,7 @@
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="58">
-        <f>C69-C70</f>
-        <v>133</v>
-      </c>
+      <c r="B71" s="1"/>
       <c r="D71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -7023,7 +7112,13 @@
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="2"/>
+      <c r="B72" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="56">
+        <f>'List - Hide'!AC11</f>
+        <v>487</v>
+      </c>
       <c r="D72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -7065,11 +7160,17 @@
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="2"/>
+      <c r="B73" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="56">
+        <f>G69</f>
+        <v>450</v>
+      </c>
       <c r="D73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="H73" s="36"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -7107,11 +7208,17 @@
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="2"/>
+      <c r="B74" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="58">
+        <f>C72-C73</f>
+        <v>37</v>
+      </c>
       <c r="D74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="H74" s="36"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -7150,9 +7257,7 @@
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -7194,9 +7299,7 @@
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -7238,9 +7341,7 @@
     <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -7332,7 +7433,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="4"/>
+      <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -7376,7 +7477,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="5"/>
+      <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -7412,7 +7513,7 @@
       <c r="AP80" s="2"/>
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -7420,7 +7521,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="5"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -7456,7 +7557,7 @@
       <c r="AP81" s="2"/>
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -7464,7 +7565,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+      <c r="I82" s="5"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -7508,7 +7609,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="I83" s="5"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -7843,6 +7944,13 @@
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
+      <c r="AJ90" s="2"/>
+      <c r="AK90" s="2"/>
+      <c r="AL90" s="2"/>
+      <c r="AM90" s="2"/>
+      <c r="AN90" s="2"/>
+      <c r="AO90" s="2"/>
+      <c r="AP90" s="2"/>
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
@@ -7880,6 +7988,13 @@
       <c r="AG91" s="2"/>
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
+      <c r="AJ91" s="2"/>
+      <c r="AK91" s="2"/>
+      <c r="AL91" s="2"/>
+      <c r="AM91" s="2"/>
+      <c r="AN91" s="2"/>
+      <c r="AO91" s="2"/>
+      <c r="AP91" s="2"/>
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
@@ -8400,7 +8515,7 @@
       <c r="AI105" s="2"/>
     </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
+      <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -8437,7 +8552,7 @@
       <c r="AI106" s="2"/>
     </row>
     <row r="107" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
+      <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -8548,6 +8663,7 @@
       <c r="AI109" s="2"/>
     </row>
     <row r="110" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -8584,7 +8700,7 @@
       <c r="AI110" s="2"/>
     </row>
     <row r="111" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="3"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -8621,7 +8737,6 @@
       <c r="AI111" s="2"/>
     </row>
     <row r="112" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -8658,7 +8773,7 @@
       <c r="AI112" s="2"/>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
+      <c r="A113" s="4"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -9897,6 +10012,23 @@
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2"/>
+      <c r="V146" s="2"/>
+      <c r="W146" s="2"/>
+      <c r="X146" s="2"/>
+      <c r="Y146" s="2"/>
+      <c r="Z146" s="2"/>
+      <c r="AA146" s="2"/>
+      <c r="AB146" s="2"/>
+      <c r="AC146" s="2"/>
+      <c r="AD146" s="2"/>
+      <c r="AE146" s="2"/>
+      <c r="AF146" s="2"/>
+      <c r="AG146" s="2"/>
+      <c r="AH146" s="2"/>
+      <c r="AI146" s="2"/>
     </row>
     <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
@@ -9917,6 +10049,23 @@
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2"/>
+      <c r="V147" s="2"/>
+      <c r="W147" s="2"/>
+      <c r="X147" s="2"/>
+      <c r="Y147" s="2"/>
+      <c r="Z147" s="2"/>
+      <c r="AA147" s="2"/>
+      <c r="AB147" s="2"/>
+      <c r="AC147" s="2"/>
+      <c r="AD147" s="2"/>
+      <c r="AE147" s="2"/>
+      <c r="AF147" s="2"/>
+      <c r="AG147" s="2"/>
+      <c r="AH147" s="2"/>
+      <c r="AI147" s="2"/>
     </row>
     <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
@@ -12418,7 +12567,7 @@
       <c r="Q272" s="2"/>
       <c r="R272" s="2"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -12430,8 +12579,15 @@
       <c r="I273" s="2"/>
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L273" s="2"/>
+      <c r="M273" s="2"/>
+      <c r="N273" s="2"/>
+      <c r="O273" s="2"/>
+      <c r="P273" s="2"/>
+      <c r="Q273" s="2"/>
+      <c r="R273" s="2"/>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -12443,8 +12599,15 @@
       <c r="I274" s="2"/>
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L274" s="2"/>
+      <c r="M274" s="2"/>
+      <c r="N274" s="2"/>
+      <c r="O274" s="2"/>
+      <c r="P274" s="2"/>
+      <c r="Q274" s="2"/>
+      <c r="R274" s="2"/>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -12457,7 +12620,7 @@
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -12470,7 +12633,7 @@
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -12483,7 +12646,7 @@
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -12496,7 +12659,7 @@
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -12509,7 +12672,7 @@
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -12522,7 +12685,7 @@
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -12535,7 +12698,7 @@
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -12548,7 +12711,7 @@
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -12561,7 +12724,7 @@
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -12574,7 +12737,7 @@
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -12587,7 +12750,7 @@
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -12600,7 +12763,7 @@
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -12613,7 +12776,7 @@
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -12758,6 +12921,12 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
@@ -12765,6 +12934,12 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
       <c r="H300" s="2"/>
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
@@ -12772,6 +12947,12 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
       <c r="H301" s="2"/>
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
@@ -12779,12 +12960,14 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
+      <c r="H302" s="2"/>
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
+      <c r="H303" s="2"/>
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
@@ -12861,11 +13044,36 @@
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
     </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" s="2"/>
+      <c r="I316" s="2"/>
+      <c r="J316" s="2"/>
+      <c r="K316" s="2"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" s="2"/>
+      <c r="I317" s="2"/>
+      <c r="J317" s="2"/>
+      <c r="K317" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="48">
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E55:F55"/>
     <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="J35:O35"/>
     <mergeCell ref="J37:O37"/>
@@ -12874,40 +13082,30 @@
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="H5:H19"/>
+    <mergeCell ref="H22:H28"/>
+    <mergeCell ref="H35:H65"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E54:F54"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="J29:O29"/>
     <mergeCell ref="J17:O17"/>
     <mergeCell ref="J5:O5"/>
     <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:F65"/>
     <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H22:H28"/>
-    <mergeCell ref="H35:H64"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E56:F56"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="6">
@@ -12933,7 +13131,7 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$A$2:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>C64:C65 C75:C93 C67</xm:sqref>
+          <xm:sqref>C67:C68 C78:C96 C70</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
@@ -12945,7 +13143,7 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$C$2:$C$77</xm:f>
           </x14:formula1>
-          <xm:sqref>C51:C63</xm:sqref>
+          <xm:sqref>C51:C63 C64:C65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27170,10 +27368,10 @@
       <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="223" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="209">
+      <c r="B2" s="227">
         <v>1</v>
       </c>
       <c r="C2" s="69" t="s">
@@ -27229,8 +27427,8 @@
       <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="206"/>
-      <c r="B3" s="203"/>
+      <c r="A3" s="224"/>
+      <c r="B3" s="221"/>
       <c r="C3" s="71" t="s">
         <v>145</v>
       </c>
@@ -27281,8 +27479,8 @@
       <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="206"/>
-      <c r="B4" s="203"/>
+      <c r="A4" s="224"/>
+      <c r="B4" s="221"/>
       <c r="C4" s="71" t="s">
         <v>146</v>
       </c>
@@ -27333,8 +27531,8 @@
       <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="206"/>
-      <c r="B5" s="208"/>
+      <c r="A5" s="224"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="71" t="s">
         <v>147</v>
       </c>
@@ -27385,8 +27583,8 @@
       <c r="AH5" s="66"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="206"/>
-      <c r="B6" s="203">
+      <c r="A6" s="224"/>
+      <c r="B6" s="221">
         <v>2</v>
       </c>
       <c r="C6" s="71" t="s">
@@ -27441,8 +27639,8 @@
       <c r="AH6" s="66"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="206"/>
-      <c r="B7" s="203"/>
+      <c r="A7" s="224"/>
+      <c r="B7" s="221"/>
       <c r="C7" s="71" t="s">
         <v>149</v>
       </c>
@@ -27493,8 +27691,8 @@
       <c r="AH7" s="66"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="206"/>
-      <c r="B8" s="203"/>
+      <c r="A8" s="224"/>
+      <c r="B8" s="221"/>
       <c r="C8" s="71" t="s">
         <v>150</v>
       </c>
@@ -27544,8 +27742,8 @@
       <c r="AH8" s="66"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="206"/>
-      <c r="B9" s="203"/>
+      <c r="A9" s="224"/>
+      <c r="B9" s="221"/>
       <c r="C9" s="71" t="s">
         <v>151</v>
       </c>
@@ -27600,8 +27798,8 @@
       <c r="AH9" s="66"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="206"/>
-      <c r="B10" s="203">
+      <c r="A10" s="224"/>
+      <c r="B10" s="221">
         <v>3</v>
       </c>
       <c r="C10" s="71" t="s">
@@ -27659,8 +27857,8 @@
       <c r="AH10" s="66"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="206"/>
-      <c r="B11" s="203"/>
+      <c r="A11" s="224"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="71" t="s">
         <v>156</v>
       </c>
@@ -27715,8 +27913,8 @@
       <c r="AH11" s="66"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="206"/>
-      <c r="B12" s="203"/>
+      <c r="A12" s="224"/>
+      <c r="B12" s="221"/>
       <c r="C12" s="71" t="s">
         <v>158</v>
       </c>
@@ -27774,8 +27972,8 @@
       <c r="AH12" s="66"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="206"/>
-      <c r="B13" s="203"/>
+      <c r="A13" s="224"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="71" t="s">
         <v>163</v>
       </c>
@@ -27841,8 +28039,8 @@
       <c r="AH13" s="66"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="206"/>
-      <c r="B14" s="203">
+      <c r="A14" s="224"/>
+      <c r="B14" s="221">
         <v>4</v>
       </c>
       <c r="C14" s="71" t="s">
@@ -27909,8 +28107,8 @@
       <c r="AH14" s="66"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="206"/>
-      <c r="B15" s="203"/>
+      <c r="A15" s="224"/>
+      <c r="B15" s="221"/>
       <c r="C15" s="71" t="s">
         <v>166</v>
       </c>
@@ -27973,8 +28171,8 @@
       <c r="AH15" s="66"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="206"/>
-      <c r="B16" s="203"/>
+      <c r="A16" s="224"/>
+      <c r="B16" s="221"/>
       <c r="C16" s="71" t="s">
         <v>167</v>
       </c>
@@ -28037,8 +28235,8 @@
       <c r="AH16" s="66"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="206"/>
-      <c r="B17" s="203"/>
+      <c r="A17" s="224"/>
+      <c r="B17" s="221"/>
       <c r="C17" s="71" t="s">
         <v>168</v>
       </c>
@@ -28101,8 +28299,8 @@
       <c r="AH17" s="66"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="206"/>
-      <c r="B18" s="203">
+      <c r="A18" s="224"/>
+      <c r="B18" s="221">
         <v>5</v>
       </c>
       <c r="C18" s="71" t="s">
@@ -28169,8 +28367,8 @@
       <c r="AH18" s="66"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="206"/>
-      <c r="B19" s="203"/>
+      <c r="A19" s="224"/>
+      <c r="B19" s="221"/>
       <c r="C19" s="71" t="s">
         <v>170</v>
       </c>
@@ -28234,8 +28432,8 @@
       <c r="AH19" s="66"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="206"/>
-      <c r="B20" s="203"/>
+      <c r="A20" s="224"/>
+      <c r="B20" s="221"/>
       <c r="C20" s="71" t="s">
         <v>171</v>
       </c>
@@ -28298,8 +28496,8 @@
       <c r="AH20" s="66"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="206"/>
-      <c r="B21" s="203"/>
+      <c r="A21" s="224"/>
+      <c r="B21" s="221"/>
       <c r="C21" s="71" t="s">
         <v>172</v>
       </c>
@@ -28362,8 +28560,8 @@
       <c r="AG21" s="79"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="206"/>
-      <c r="B22" s="203">
+      <c r="A22" s="224"/>
+      <c r="B22" s="221">
         <v>6</v>
       </c>
       <c r="C22" s="71" t="s">
@@ -28429,8 +28627,8 @@
       <c r="AG22" s="79"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="206"/>
-      <c r="B23" s="203"/>
+      <c r="A23" s="224"/>
+      <c r="B23" s="221"/>
       <c r="C23" s="71" t="s">
         <v>174</v>
       </c>
@@ -28495,8 +28693,8 @@
       <c r="AG23" s="79"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="206"/>
-      <c r="B24" s="203"/>
+      <c r="A24" s="224"/>
+      <c r="B24" s="221"/>
       <c r="C24" s="71" t="s">
         <v>175</v>
       </c>
@@ -28557,8 +28755,8 @@
       <c r="AG24" s="79"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="206"/>
-      <c r="B25" s="203"/>
+      <c r="A25" s="224"/>
+      <c r="B25" s="221"/>
       <c r="C25" s="71" t="s">
         <v>176</v>
       </c>
@@ -28616,8 +28814,8 @@
       <c r="AG25" s="66"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="206"/>
-      <c r="B26" s="203">
+      <c r="A26" s="224"/>
+      <c r="B26" s="221">
         <v>7</v>
       </c>
       <c r="C26" s="71" t="s">
@@ -28677,8 +28875,8 @@
       <c r="AG26" s="66"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="206"/>
-      <c r="B27" s="203"/>
+      <c r="A27" s="224"/>
+      <c r="B27" s="221"/>
       <c r="C27" s="71" t="s">
         <v>178</v>
       </c>
@@ -28734,8 +28932,8 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="206"/>
-      <c r="B28" s="203"/>
+      <c r="A28" s="224"/>
+      <c r="B28" s="221"/>
       <c r="C28" s="71" t="s">
         <v>180</v>
       </c>
@@ -28791,8 +28989,8 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="206"/>
-      <c r="B29" s="203"/>
+      <c r="A29" s="224"/>
+      <c r="B29" s="221"/>
       <c r="C29" s="71" t="s">
         <v>182</v>
       </c>
@@ -28849,8 +29047,8 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="206"/>
-      <c r="B30" s="203">
+      <c r="A30" s="224"/>
+      <c r="B30" s="221">
         <v>8</v>
       </c>
       <c r="C30" s="71" t="s">
@@ -28908,8 +29106,8 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="206"/>
-      <c r="B31" s="203"/>
+      <c r="A31" s="224"/>
+      <c r="B31" s="221"/>
       <c r="C31" s="71" t="s">
         <v>187</v>
       </c>
@@ -28964,8 +29162,8 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="206"/>
-      <c r="B32" s="203"/>
+      <c r="A32" s="224"/>
+      <c r="B32" s="221"/>
       <c r="C32" s="71" t="s">
         <v>189</v>
       </c>
@@ -29015,8 +29213,8 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="206"/>
-      <c r="B33" s="203"/>
+      <c r="A33" s="224"/>
+      <c r="B33" s="221"/>
       <c r="C33" s="71" t="s">
         <v>190</v>
       </c>
@@ -29062,8 +29260,8 @@
       <c r="AA33" s="66"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="206"/>
-      <c r="B34" s="203">
+      <c r="A34" s="224"/>
+      <c r="B34" s="221">
         <v>9</v>
       </c>
       <c r="C34" s="71" t="s">
@@ -29109,8 +29307,8 @@
       <c r="AA34" s="66"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="206"/>
-      <c r="B35" s="203"/>
+      <c r="A35" s="224"/>
+      <c r="B35" s="221"/>
       <c r="C35" s="71" t="s">
         <v>192</v>
       </c>
@@ -29153,8 +29351,8 @@
       <c r="AA35" s="66"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="206"/>
-      <c r="B36" s="203"/>
+      <c r="A36" s="224"/>
+      <c r="B36" s="221"/>
       <c r="C36" s="71" t="s">
         <v>193</v>
       </c>
@@ -29199,8 +29397,8 @@
       <c r="AA36" s="66"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="206"/>
-      <c r="B37" s="203"/>
+      <c r="A37" s="224"/>
+      <c r="B37" s="221"/>
       <c r="C37" s="71" t="s">
         <v>194</v>
       </c>
@@ -29243,8 +29441,8 @@
       <c r="AA37" s="66"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="206"/>
-      <c r="B38" s="203">
+      <c r="A38" s="224"/>
+      <c r="B38" s="221">
         <v>10</v>
       </c>
       <c r="C38" s="71" t="s">
@@ -29292,8 +29490,8 @@
       <c r="AH38" s="66"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="206"/>
-      <c r="B39" s="203"/>
+      <c r="A39" s="224"/>
+      <c r="B39" s="221"/>
       <c r="C39" s="71" t="s">
         <v>196</v>
       </c>
@@ -29338,8 +29536,8 @@
       <c r="AH39" s="66"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="206"/>
-      <c r="B40" s="203"/>
+      <c r="A40" s="224"/>
+      <c r="B40" s="221"/>
       <c r="C40" s="71" t="s">
         <v>197</v>
       </c>
@@ -29383,8 +29581,8 @@
       <c r="AH40" s="66"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="206"/>
-      <c r="B41" s="203"/>
+      <c r="A41" s="224"/>
+      <c r="B41" s="221"/>
       <c r="C41" s="71" t="s">
         <v>198</v>
       </c>
@@ -29434,8 +29632,8 @@
       <c r="AH41" s="66"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="206"/>
-      <c r="B42" s="203">
+      <c r="A42" s="224"/>
+      <c r="B42" s="221">
         <v>11</v>
       </c>
       <c r="C42" s="71" t="s">
@@ -29488,8 +29686,8 @@
       <c r="AH42" s="66"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="206"/>
-      <c r="B43" s="203"/>
+      <c r="A43" s="224"/>
+      <c r="B43" s="221"/>
       <c r="C43" s="71" t="s">
         <v>200</v>
       </c>
@@ -29542,8 +29740,8 @@
       <c r="AH43" s="66"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="206"/>
-      <c r="B44" s="203"/>
+      <c r="A44" s="224"/>
+      <c r="B44" s="221"/>
       <c r="C44" s="71" t="s">
         <v>201</v>
       </c>
@@ -29593,8 +29791,8 @@
       <c r="AH44" s="66"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="206"/>
-      <c r="B45" s="203"/>
+      <c r="A45" s="224"/>
+      <c r="B45" s="221"/>
       <c r="C45" s="71" t="s">
         <v>202</v>
       </c>
@@ -29644,8 +29842,8 @@
       <c r="AH45" s="66"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="206"/>
-      <c r="B46" s="203">
+      <c r="A46" s="224"/>
+      <c r="B46" s="221">
         <v>12</v>
       </c>
       <c r="C46" s="71" t="s">
@@ -29699,8 +29897,8 @@
       <c r="AH46" s="66"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="206"/>
-      <c r="B47" s="203"/>
+      <c r="A47" s="224"/>
+      <c r="B47" s="221"/>
       <c r="C47" s="71" t="s">
         <v>204</v>
       </c>
@@ -29750,8 +29948,8 @@
       <c r="AH47" s="66"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="206"/>
-      <c r="B48" s="203"/>
+      <c r="A48" s="224"/>
+      <c r="B48" s="221"/>
       <c r="C48" s="71" t="s">
         <v>205</v>
       </c>
@@ -29803,8 +30001,8 @@
       <c r="AH48" s="66"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="206"/>
-      <c r="B49" s="203"/>
+      <c r="A49" s="224"/>
+      <c r="B49" s="221"/>
       <c r="C49" s="71" t="s">
         <v>206</v>
       </c>
@@ -29854,8 +30052,8 @@
       <c r="AH49" s="66"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="206"/>
-      <c r="B50" s="203">
+      <c r="A50" s="224"/>
+      <c r="B50" s="221">
         <v>13</v>
       </c>
       <c r="C50" s="71" t="s">
@@ -29909,8 +30107,8 @@
       <c r="AH50" s="66"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="206"/>
-      <c r="B51" s="203"/>
+      <c r="A51" s="224"/>
+      <c r="B51" s="221"/>
       <c r="C51" s="71" t="s">
         <v>208</v>
       </c>
@@ -29960,8 +30158,8 @@
       <c r="AH51" s="66"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="206"/>
-      <c r="B52" s="203"/>
+      <c r="A52" s="224"/>
+      <c r="B52" s="221"/>
       <c r="C52" s="71" t="s">
         <v>209</v>
       </c>
@@ -30010,8 +30208,8 @@
       <c r="AH52" s="66"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="206"/>
-      <c r="B53" s="203"/>
+      <c r="A53" s="224"/>
+      <c r="B53" s="221"/>
       <c r="C53" s="71" t="s">
         <v>210</v>
       </c>
@@ -30061,8 +30259,8 @@
       <c r="AH53" s="66"/>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="206"/>
-      <c r="B54" s="203">
+      <c r="A54" s="224"/>
+      <c r="B54" s="221">
         <v>14</v>
       </c>
       <c r="C54" s="71" t="s">
@@ -30116,8 +30314,8 @@
       <c r="AH54" s="66"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="206"/>
-      <c r="B55" s="203"/>
+      <c r="A55" s="224"/>
+      <c r="B55" s="221"/>
       <c r="C55" s="71" t="s">
         <v>212</v>
       </c>
@@ -30168,8 +30366,8 @@
       <c r="AH55" s="66"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="206"/>
-      <c r="B56" s="203"/>
+      <c r="A56" s="224"/>
+      <c r="B56" s="221"/>
       <c r="C56" s="71" t="s">
         <v>213</v>
       </c>
@@ -30219,8 +30417,8 @@
       <c r="AH56" s="66"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="206"/>
-      <c r="B57" s="203"/>
+      <c r="A57" s="224"/>
+      <c r="B57" s="221"/>
       <c r="C57" s="71" t="s">
         <v>214</v>
       </c>
@@ -30271,8 +30469,8 @@
       <c r="AH57" s="66"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="206"/>
-      <c r="B58" s="203">
+      <c r="A58" s="224"/>
+      <c r="B58" s="221">
         <v>15</v>
       </c>
       <c r="C58" s="71" t="s">
@@ -30327,8 +30525,8 @@
       <c r="AH58" s="66"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="206"/>
-      <c r="B59" s="203"/>
+      <c r="A59" s="224"/>
+      <c r="B59" s="221"/>
       <c r="C59" s="71" t="s">
         <v>216</v>
       </c>
@@ -30379,8 +30577,8 @@
       <c r="AH59" s="66"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="206"/>
-      <c r="B60" s="203"/>
+      <c r="A60" s="224"/>
+      <c r="B60" s="221"/>
       <c r="C60" s="71" t="s">
         <v>217</v>
       </c>
@@ -30431,8 +30629,8 @@
       <c r="AH60" s="66"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" s="207"/>
-      <c r="B61" s="204"/>
+      <c r="A61" s="225"/>
+      <c r="B61" s="222"/>
       <c r="C61" s="73" t="s">
         <v>218</v>
       </c>
@@ -30483,10 +30681,10 @@
       <c r="AH61" s="66"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="205" t="s">
+      <c r="A62" s="223" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="208">
+      <c r="B62" s="226">
         <v>16</v>
       </c>
       <c r="C62" s="71" t="s">
@@ -30538,8 +30736,8 @@
       <c r="AH62" s="66"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" s="206"/>
-      <c r="B63" s="203"/>
+      <c r="A63" s="224"/>
+      <c r="B63" s="221"/>
       <c r="C63" s="71" t="s">
         <v>220</v>
       </c>
@@ -30589,8 +30787,8 @@
       <c r="AH63" s="66"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="206"/>
-      <c r="B64" s="203"/>
+      <c r="A64" s="224"/>
+      <c r="B64" s="221"/>
       <c r="C64" s="71" t="s">
         <v>221</v>
       </c>
@@ -30640,8 +30838,8 @@
       <c r="AH64" s="66"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="206"/>
-      <c r="B65" s="203"/>
+      <c r="A65" s="224"/>
+      <c r="B65" s="221"/>
       <c r="C65" s="71" t="s">
         <v>222</v>
       </c>
@@ -30691,8 +30889,8 @@
       <c r="AH65" s="66"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="206"/>
-      <c r="B66" s="203">
+      <c r="A66" s="224"/>
+      <c r="B66" s="221">
         <v>17</v>
       </c>
       <c r="C66" s="71" t="s">
@@ -30744,8 +30942,8 @@
       <c r="AH66" s="66"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A67" s="206"/>
-      <c r="B67" s="203"/>
+      <c r="A67" s="224"/>
+      <c r="B67" s="221"/>
       <c r="C67" s="71" t="s">
         <v>224</v>
       </c>
@@ -30795,8 +30993,8 @@
       <c r="AH67" s="66"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="206"/>
-      <c r="B68" s="203"/>
+      <c r="A68" s="224"/>
+      <c r="B68" s="221"/>
       <c r="C68" s="71" t="s">
         <v>225</v>
       </c>
@@ -30846,8 +31044,8 @@
       <c r="AH68" s="66"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="206"/>
-      <c r="B69" s="203"/>
+      <c r="A69" s="224"/>
+      <c r="B69" s="221"/>
       <c r="C69" s="71" t="s">
         <v>226</v>
       </c>
@@ -30897,8 +31095,8 @@
       <c r="AH69" s="66"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="206"/>
-      <c r="B70" s="203">
+      <c r="A70" s="224"/>
+      <c r="B70" s="221">
         <v>18</v>
       </c>
       <c r="C70" s="71" t="s">
@@ -30950,8 +31148,8 @@
       <c r="AH70" s="66"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="206"/>
-      <c r="B71" s="203"/>
+      <c r="A71" s="224"/>
+      <c r="B71" s="221"/>
       <c r="C71" s="71" t="s">
         <v>228</v>
       </c>
@@ -31001,8 +31199,8 @@
       <c r="AH71" s="66"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="206"/>
-      <c r="B72" s="203"/>
+      <c r="A72" s="224"/>
+      <c r="B72" s="221"/>
       <c r="C72" s="71" t="s">
         <v>229</v>
       </c>
@@ -31052,8 +31250,8 @@
       <c r="AH72" s="66"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="206"/>
-      <c r="B73" s="203"/>
+      <c r="A73" s="224"/>
+      <c r="B73" s="221"/>
       <c r="C73" s="71" t="s">
         <v>230</v>
       </c>
@@ -31103,8 +31301,8 @@
       <c r="AH73" s="66"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="206"/>
-      <c r="B74" s="203">
+      <c r="A74" s="224"/>
+      <c r="B74" s="221">
         <v>19</v>
       </c>
       <c r="C74" s="71" t="s">
@@ -31156,8 +31354,8 @@
       <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="206"/>
-      <c r="B75" s="203"/>
+      <c r="A75" s="224"/>
+      <c r="B75" s="221"/>
       <c r="C75" s="71" t="s">
         <v>232</v>
       </c>
@@ -31207,8 +31405,8 @@
       <c r="AH75" s="66"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="206"/>
-      <c r="B76" s="203"/>
+      <c r="A76" s="224"/>
+      <c r="B76" s="221"/>
       <c r="C76" s="71" t="s">
         <v>233</v>
       </c>
@@ -31258,8 +31456,8 @@
       <c r="AH76" s="66"/>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="207"/>
-      <c r="B77" s="204"/>
+      <c r="A77" s="225"/>
+      <c r="B77" s="222"/>
       <c r="C77" s="73" t="s">
         <v>234</v>
       </c>
@@ -31446,10 +31644,10 @@
     <row r="80" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="66"/>
       <c r="B80" s="66"/>
-      <c r="C80" s="212" t="s">
+      <c r="C80" s="230" t="s">
         <v>235</v>
       </c>
-      <c r="D80" s="213"/>
+      <c r="D80" s="231"/>
       <c r="E80" s="70">
         <v>60</v>
       </c>
@@ -31488,10 +31686,10 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="66"/>
       <c r="B81" s="66"/>
-      <c r="C81" s="214" t="s">
+      <c r="C81" s="232" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="215"/>
+      <c r="D81" s="233"/>
       <c r="E81" s="72">
         <v>322.5</v>
       </c>
@@ -31528,10 +31726,10 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="66"/>
-      <c r="C82" s="214" t="s">
+      <c r="C82" s="232" t="s">
         <v>238</v>
       </c>
-      <c r="D82" s="215"/>
+      <c r="D82" s="233"/>
       <c r="E82" s="72">
         <v>35</v>
       </c>
@@ -31568,10 +31766,10 @@
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="B83" s="66"/>
-      <c r="C83" s="214" t="s">
+      <c r="C83" s="232" t="s">
         <v>239</v>
       </c>
-      <c r="D83" s="215"/>
+      <c r="D83" s="233"/>
       <c r="E83" s="72">
         <v>287</v>
       </c>
@@ -31608,10 +31806,10 @@
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="B84" s="66"/>
-      <c r="C84" s="214" t="s">
+      <c r="C84" s="232" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="215"/>
+      <c r="D84" s="233"/>
       <c r="E84" s="72">
         <v>60</v>
       </c>
@@ -31648,10 +31846,10 @@
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
       <c r="B85" s="66"/>
-      <c r="C85" s="210" t="s">
+      <c r="C85" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="211"/>
+      <c r="D85" s="229"/>
       <c r="E85" s="74">
         <f>Y79</f>
         <v>483</v>
@@ -31757,7 +31955,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31803,7 +32001,7 @@
         <v>337</v>
       </c>
       <c r="B5" s="159">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -31811,7 +32009,7 @@
         <v>338</v>
       </c>
       <c r="B6" s="156">
-        <v>45726</v>
+        <v>45810</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -32075,21 +32273,21 @@
     </row>
     <row r="5" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="234" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="217"/>
-      <c r="L5" s="217"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="218"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="235"/>
+      <c r="K5" s="235"/>
+      <c r="L5" s="235"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="236"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -32169,21 +32367,21 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="219" t="s">
+      <c r="B10" s="237" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="219"/>
+      <c r="B11" s="237"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="219"/>
+      <c r="B12" s="237"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="219"/>
+      <c r="B13" s="237"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="219"/>
+      <c r="B14" s="237"/>
     </row>
     <row r="21" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R21" s="18"/>
@@ -32203,6 +32401,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="d03ffd70-462c-4172-9015-a0cdff42c83c">
@@ -32224,7 +32431,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060D9039996957B47A2820CA7E129C20F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61c230ac488284aa1c9442a337ce5a7f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65f98c99-c090-489b-8346-b847c18a5011" xmlns:ns3="d03ffd70-462c-4172-9015-a0cdff42c83c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4cea2a2cd68f11dd2b0a1fdf049f3860" ns2:_="" ns3:_="">
     <xsd:import namespace="65f98c99-c090-489b-8346-b847c18a5011"/>
@@ -32441,16 +32648,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F627C2A1-639E-4000-94D7-FA9740411AFB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -32461,7 +32667,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{710DD5DA-09F7-4D7C-A10A-C80CDC0D2E16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32478,12 +32684,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OTJ Tracker Data Engineer L5.xlsx
+++ b/OTJ Tracker Data Engineer L5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laho2188\Documents\GitHub\Learning-Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EF3020-28AC-48FE-BECF-2E409129F438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010F82E9-8C7E-414F-A874-8888EBF1CEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OTJT Log" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="395">
   <si>
     <t xml:space="preserve">Apprenticeship Training Log </t>
   </si>
@@ -1295,6 +1295,9 @@
   </si>
   <si>
     <t>Building Organizational Charts and Flowcharts for projects used in the company</t>
+  </si>
+  <si>
+    <t>LinkedIn Learning: Introduction to Data Warehouses</t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2410,7 @@
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2780,16 +2783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2798,17 +2792,20 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2818,12 +2815,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2879,17 +2870,47 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2912,24 +2933,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2941,6 +2944,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3418,10 +3424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP317"/>
+  <dimension ref="A1:AP318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,12 +3492,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="193"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="215"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="2"/>
@@ -3522,14 +3528,14 @@
     </row>
     <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="198"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="191"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="52"/>
@@ -3627,14 +3633,14 @@
       <c r="G5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="211"/>
+      <c r="H5" s="207"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="195"/>
-      <c r="L5" s="195"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="196"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="193"/>
+      <c r="L5" s="193"/>
+      <c r="M5" s="193"/>
+      <c r="N5" s="193"/>
+      <c r="O5" s="194"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3684,7 +3690,7 @@
         <f t="shared" ref="G6:G18" si="0">IF(NOT(ISBLANK(D6)), SUM(E6:F6), 0)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="211"/>
+      <c r="H6" s="207"/>
       <c r="I6" s="2"/>
       <c r="J6" s="128"/>
       <c r="K6" s="128"/>
@@ -3741,7 +3747,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="H7" s="211"/>
+      <c r="H7" s="207"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3798,7 +3804,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="211"/>
+      <c r="H8" s="207"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3855,7 +3861,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H9" s="211"/>
+      <c r="H9" s="207"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3912,7 +3918,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="211"/>
+      <c r="H10" s="207"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3969,7 +3975,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="H11" s="211"/>
+      <c r="H11" s="207"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -4026,7 +4032,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="211"/>
+      <c r="H12" s="207"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4079,7 +4085,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="211"/>
+      <c r="H13" s="207"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4132,7 +4138,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="211"/>
+      <c r="H14" s="207"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4185,7 +4191,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="211"/>
+      <c r="H15" s="207"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4238,7 +4244,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="211"/>
+      <c r="H16" s="207"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -4291,14 +4297,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="211"/>
+      <c r="H17" s="207"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="195"/>
-      <c r="M17" s="195"/>
-      <c r="N17" s="195"/>
-      <c r="O17" s="196"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="194"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -4344,7 +4350,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="211"/>
+      <c r="H18" s="207"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -4399,7 +4405,7 @@
         <f>SUM(G6:G18)</f>
         <v>208</v>
       </c>
-      <c r="H19" s="211"/>
+      <c r="H19" s="207"/>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -4553,14 +4559,14 @@
         <f>IF(NOT(ISBLANK(D22)), SUM(E22:F22), 0)</f>
         <v>24</v>
       </c>
-      <c r="H22" s="212"/>
+      <c r="H22" s="208"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="195"/>
-      <c r="L22" s="195"/>
-      <c r="M22" s="195"/>
-      <c r="N22" s="195"/>
-      <c r="O22" s="196"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="193"/>
+      <c r="L22" s="193"/>
+      <c r="M22" s="193"/>
+      <c r="N22" s="193"/>
+      <c r="O22" s="194"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4608,7 +4614,7 @@
         <f>IF(NOT(ISBLANK(D23)), SUM(E23:F23), 0)</f>
         <v>24</v>
       </c>
-      <c r="H23" s="212"/>
+      <c r="H23" s="208"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4663,7 +4669,7 @@
         <f>IF(NOT(ISBLANK(D24)), SUM(E24:F24), 0)</f>
         <v>24</v>
       </c>
-      <c r="H24" s="212"/>
+      <c r="H24" s="208"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4714,7 +4720,7 @@
         <f>IF(NOT(ISBLANK(D25)), SUM(E25:F25), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="212"/>
+      <c r="H25" s="208"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4765,7 +4771,7 @@
         <f>IF(NOT(ISBLANK(D26)), SUM(E26:F26), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="212"/>
+      <c r="H26" s="208"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4809,7 +4815,7 @@
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
-      <c r="H27" s="212"/>
+      <c r="H27" s="208"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4864,7 +4870,7 @@
         <f>SUM(G22:H27)</f>
         <v>72</v>
       </c>
-      <c r="H28" s="212"/>
+      <c r="H28" s="208"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4902,20 +4908,20 @@
     </row>
     <row r="29" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="205"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="206"/>
-      <c r="F29" s="206"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="207"/>
+      <c r="B29" s="201"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="203"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="195"/>
-      <c r="L29" s="195"/>
-      <c r="M29" s="195"/>
-      <c r="N29" s="195"/>
-      <c r="O29" s="196"/>
+      <c r="J29" s="192"/>
+      <c r="K29" s="193"/>
+      <c r="L29" s="193"/>
+      <c r="M29" s="193"/>
+      <c r="N29" s="193"/>
+      <c r="O29" s="194"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -4953,12 +4959,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="202"/>
-      <c r="K30" s="203"/>
-      <c r="L30" s="203"/>
-      <c r="M30" s="203"/>
-      <c r="N30" s="203"/>
-      <c r="O30" s="204"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="199"/>
+      <c r="L30" s="199"/>
+      <c r="M30" s="199"/>
+      <c r="N30" s="199"/>
+      <c r="O30" s="200"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -4989,13 +4995,13 @@
     </row>
     <row r="31" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="208" t="s">
+      <c r="B31" s="204" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="209"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="209"/>
-      <c r="F31" s="210"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="206"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -5175,23 +5181,23 @@
       <c r="D35" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="218" t="s">
+      <c r="E35" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="218"/>
+      <c r="F35" s="187"/>
       <c r="G35" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="213" t="s">
+      <c r="H35" s="209" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="195"/>
-      <c r="L35" s="195"/>
-      <c r="M35" s="195"/>
-      <c r="N35" s="195"/>
-      <c r="O35" s="196"/>
+      <c r="J35" s="192"/>
+      <c r="K35" s="193"/>
+      <c r="L35" s="193"/>
+      <c r="M35" s="193"/>
+      <c r="N35" s="193"/>
+      <c r="O35" s="194"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5231,14 +5237,14 @@
       <c r="D36" s="142">
         <v>45559</v>
       </c>
-      <c r="E36" s="188" t="s">
+      <c r="E36" s="185" t="s">
         <v>345</v>
       </c>
-      <c r="F36" s="189"/>
+      <c r="F36" s="186"/>
       <c r="G36" s="144">
         <v>3</v>
       </c>
-      <c r="H36" s="214"/>
+      <c r="H36" s="210"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -5285,21 +5291,21 @@
       <c r="D37" s="143">
         <v>45572</v>
       </c>
-      <c r="E37" s="188" t="s">
+      <c r="E37" s="185" t="s">
         <v>344</v>
       </c>
-      <c r="F37" s="189"/>
+      <c r="F37" s="186"/>
       <c r="G37" s="144">
         <v>4</v>
       </c>
-      <c r="H37" s="214"/>
+      <c r="H37" s="210"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="200"/>
-      <c r="L37" s="200"/>
-      <c r="M37" s="200"/>
-      <c r="N37" s="200"/>
-      <c r="O37" s="201"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="196"/>
+      <c r="L37" s="196"/>
+      <c r="M37" s="196"/>
+      <c r="N37" s="196"/>
+      <c r="O37" s="197"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -5339,14 +5345,14 @@
       <c r="D38" s="142">
         <v>45575</v>
       </c>
-      <c r="E38" s="188" t="s">
+      <c r="E38" s="185" t="s">
         <v>349</v>
       </c>
-      <c r="F38" s="189"/>
+      <c r="F38" s="186"/>
       <c r="G38" s="144">
         <v>3</v>
       </c>
-      <c r="H38" s="214"/>
+      <c r="H38" s="210"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -5393,21 +5399,21 @@
       <c r="D39" s="142">
         <v>45579</v>
       </c>
-      <c r="E39" s="188" t="s">
+      <c r="E39" s="185" t="s">
         <v>348</v>
       </c>
-      <c r="F39" s="189"/>
+      <c r="F39" s="186"/>
       <c r="G39" s="144">
         <v>3</v>
       </c>
-      <c r="H39" s="214"/>
+      <c r="H39" s="210"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="195"/>
-      <c r="L39" s="195"/>
-      <c r="M39" s="195"/>
-      <c r="N39" s="195"/>
-      <c r="O39" s="196"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="193"/>
+      <c r="L39" s="193"/>
+      <c r="M39" s="193"/>
+      <c r="N39" s="193"/>
+      <c r="O39" s="194"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -5447,14 +5453,14 @@
       <c r="D40" s="142">
         <v>45586</v>
       </c>
-      <c r="E40" s="188" t="s">
+      <c r="E40" s="185" t="s">
         <v>343</v>
       </c>
-      <c r="F40" s="189"/>
+      <c r="F40" s="186"/>
       <c r="G40" s="144">
         <v>8</v>
       </c>
-      <c r="H40" s="214"/>
+      <c r="H40" s="210"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -5501,14 +5507,14 @@
       <c r="D41" s="169">
         <v>45597</v>
       </c>
-      <c r="E41" s="188" t="s">
+      <c r="E41" s="185" t="s">
         <v>352</v>
       </c>
-      <c r="F41" s="189"/>
+      <c r="F41" s="186"/>
       <c r="G41" s="144">
         <v>3</v>
       </c>
-      <c r="H41" s="214"/>
+      <c r="H41" s="210"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -5555,14 +5561,14 @@
       <c r="D42" s="169">
         <v>45601</v>
       </c>
-      <c r="E42" s="188" t="s">
+      <c r="E42" s="185" t="s">
         <v>353</v>
       </c>
-      <c r="F42" s="189"/>
+      <c r="F42" s="186"/>
       <c r="G42" s="144">
         <v>2</v>
       </c>
-      <c r="H42" s="214"/>
+      <c r="H42" s="210"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -5609,14 +5615,14 @@
       <c r="D43" s="149">
         <v>45609</v>
       </c>
-      <c r="E43" s="188" t="s">
+      <c r="E43" s="185" t="s">
         <v>359</v>
       </c>
-      <c r="F43" s="189"/>
+      <c r="F43" s="186"/>
       <c r="G43" s="144">
         <v>8</v>
       </c>
-      <c r="H43" s="214"/>
+      <c r="H43" s="210"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -5663,14 +5669,14 @@
       <c r="D44" s="149">
         <v>45614</v>
       </c>
-      <c r="E44" s="188" t="s">
+      <c r="E44" s="185" t="s">
         <v>360</v>
       </c>
-      <c r="F44" s="189"/>
+      <c r="F44" s="186"/>
       <c r="G44" s="144">
         <v>12</v>
       </c>
-      <c r="H44" s="214"/>
+      <c r="H44" s="210"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -5717,14 +5723,14 @@
       <c r="D45" s="149">
         <v>45623</v>
       </c>
-      <c r="E45" s="188" t="s">
+      <c r="E45" s="185" t="s">
         <v>361</v>
       </c>
-      <c r="F45" s="189"/>
+      <c r="F45" s="186"/>
       <c r="G45" s="144">
         <v>5</v>
       </c>
-      <c r="H45" s="214"/>
+      <c r="H45" s="210"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -5771,14 +5777,14 @@
       <c r="D46" s="149">
         <v>45632</v>
       </c>
-      <c r="E46" s="188" t="s">
+      <c r="E46" s="185" t="s">
         <v>372</v>
       </c>
-      <c r="F46" s="189"/>
+      <c r="F46" s="186"/>
       <c r="G46" s="144">
         <v>5</v>
       </c>
-      <c r="H46" s="214"/>
+      <c r="H46" s="210"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -5825,14 +5831,14 @@
       <c r="D47" s="149">
         <v>45637</v>
       </c>
-      <c r="E47" s="188" t="s">
+      <c r="E47" s="185" t="s">
         <v>364</v>
       </c>
-      <c r="F47" s="189"/>
+      <c r="F47" s="186"/>
       <c r="G47" s="144">
         <v>6</v>
       </c>
-      <c r="H47" s="214"/>
+      <c r="H47" s="210"/>
       <c r="I47" s="42"/>
       <c r="J47" s="36"/>
       <c r="K47" s="2"/>
@@ -5879,14 +5885,14 @@
       <c r="D48" s="149">
         <v>45644</v>
       </c>
-      <c r="E48" s="188" t="s">
+      <c r="E48" s="185" t="s">
         <v>365</v>
       </c>
-      <c r="F48" s="189"/>
+      <c r="F48" s="186"/>
       <c r="G48" s="144">
         <v>18</v>
       </c>
-      <c r="H48" s="214"/>
+      <c r="H48" s="210"/>
       <c r="I48" s="42"/>
       <c r="J48" s="36"/>
       <c r="K48" s="2"/>
@@ -5933,14 +5939,14 @@
       <c r="D49" s="142">
         <v>45299</v>
       </c>
-      <c r="E49" s="188" t="s">
+      <c r="E49" s="185" t="s">
         <v>371</v>
       </c>
-      <c r="F49" s="189"/>
+      <c r="F49" s="186"/>
       <c r="G49" s="144">
         <v>4</v>
       </c>
-      <c r="H49" s="214"/>
+      <c r="H49" s="210"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5987,14 +5993,14 @@
       <c r="D50" s="142">
         <v>45306</v>
       </c>
-      <c r="E50" s="188" t="s">
+      <c r="E50" s="185" t="s">
         <v>366</v>
       </c>
-      <c r="F50" s="189"/>
+      <c r="F50" s="186"/>
       <c r="G50" s="145">
         <v>5</v>
       </c>
-      <c r="H50" s="214"/>
+      <c r="H50" s="210"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -6041,14 +6047,14 @@
       <c r="D51" s="149">
         <v>45679</v>
       </c>
-      <c r="E51" s="188" t="s">
+      <c r="E51" s="185" t="s">
         <v>374</v>
       </c>
-      <c r="F51" s="189"/>
+      <c r="F51" s="186"/>
       <c r="G51" s="145">
         <v>6</v>
       </c>
-      <c r="H51" s="214"/>
+      <c r="H51" s="210"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -6095,14 +6101,14 @@
       <c r="D52" s="149">
         <v>45687</v>
       </c>
-      <c r="E52" s="188" t="s">
+      <c r="E52" s="185" t="s">
         <v>384</v>
       </c>
-      <c r="F52" s="189"/>
+      <c r="F52" s="186"/>
       <c r="G52" s="145">
         <v>5</v>
       </c>
-      <c r="H52" s="214"/>
+      <c r="H52" s="210"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -6149,14 +6155,14 @@
       <c r="D53" s="149">
         <v>45694</v>
       </c>
-      <c r="E53" s="188" t="s">
+      <c r="E53" s="185" t="s">
         <v>378</v>
       </c>
-      <c r="F53" s="189"/>
+      <c r="F53" s="186"/>
       <c r="G53" s="145">
         <v>9</v>
       </c>
-      <c r="H53" s="214"/>
+      <c r="H53" s="210"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -6203,14 +6209,14 @@
       <c r="D54" s="149">
         <v>45701</v>
       </c>
-      <c r="E54" s="188" t="s">
+      <c r="E54" s="185" t="s">
         <v>383</v>
       </c>
-      <c r="F54" s="189"/>
+      <c r="F54" s="186"/>
       <c r="G54" s="145">
         <v>4</v>
       </c>
-      <c r="H54" s="214"/>
+      <c r="H54" s="210"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -6257,14 +6263,14 @@
       <c r="D55" s="149">
         <v>45708</v>
       </c>
-      <c r="E55" s="188" t="s">
+      <c r="E55" s="185" t="s">
         <v>381</v>
       </c>
-      <c r="F55" s="189"/>
+      <c r="F55" s="186"/>
       <c r="G55" s="145">
         <v>12</v>
       </c>
-      <c r="H55" s="214"/>
+      <c r="H55" s="210"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -6311,14 +6317,14 @@
       <c r="D56" s="149">
         <v>45715</v>
       </c>
-      <c r="E56" s="188" t="s">
+      <c r="E56" s="185" t="s">
         <v>382</v>
       </c>
-      <c r="F56" s="189"/>
+      <c r="F56" s="186"/>
       <c r="G56" s="145">
         <v>6</v>
       </c>
-      <c r="H56" s="214"/>
+      <c r="H56" s="210"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -6365,12 +6371,12 @@
       <c r="D57" s="149">
         <v>45729</v>
       </c>
-      <c r="E57" s="188" t="s">
+      <c r="E57" s="185" t="s">
         <v>386</v>
       </c>
-      <c r="F57" s="189"/>
+      <c r="F57" s="186"/>
       <c r="G57" s="175"/>
-      <c r="H57" s="214"/>
+      <c r="H57" s="210"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -6417,14 +6423,14 @@
       <c r="D58" s="149">
         <v>45736</v>
       </c>
-      <c r="E58" s="216" t="s">
+      <c r="E58" s="212" t="s">
         <v>388</v>
       </c>
-      <c r="F58" s="216"/>
+      <c r="F58" s="212"/>
       <c r="G58" s="175">
         <v>10</v>
       </c>
-      <c r="H58" s="214"/>
+      <c r="H58" s="210"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -6471,14 +6477,14 @@
       <c r="D59" s="149">
         <v>45743</v>
       </c>
-      <c r="E59" s="188" t="s">
+      <c r="E59" s="185" t="s">
         <v>387</v>
       </c>
-      <c r="F59" s="189"/>
+      <c r="F59" s="186"/>
       <c r="G59" s="175">
         <v>3</v>
       </c>
-      <c r="H59" s="214"/>
+      <c r="H59" s="210"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -6525,14 +6531,14 @@
       <c r="D60" s="149">
         <v>45750</v>
       </c>
-      <c r="E60" s="188" t="s">
+      <c r="E60" s="185" t="s">
         <v>385</v>
       </c>
-      <c r="F60" s="189"/>
+      <c r="F60" s="186"/>
       <c r="G60" s="175">
         <v>6</v>
       </c>
-      <c r="H60" s="214"/>
+      <c r="H60" s="210"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -6579,14 +6585,14 @@
       <c r="D61" s="181">
         <v>45757</v>
       </c>
-      <c r="E61" s="219" t="s">
+      <c r="E61" s="188" t="s">
         <v>389</v>
       </c>
-      <c r="F61" s="220"/>
+      <c r="F61" s="189"/>
       <c r="G61" s="182">
         <v>4</v>
       </c>
-      <c r="H61" s="214"/>
+      <c r="H61" s="210"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -6633,14 +6639,14 @@
       <c r="D62" s="181">
         <v>45764</v>
       </c>
-      <c r="E62" s="188" t="s">
+      <c r="E62" s="185" t="s">
         <v>390</v>
       </c>
-      <c r="F62" s="189"/>
+      <c r="F62" s="186"/>
       <c r="G62" s="175">
         <v>4</v>
       </c>
-      <c r="H62" s="214"/>
+      <c r="H62" s="210"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -6687,14 +6693,14 @@
       <c r="D63" s="149">
         <v>45792</v>
       </c>
-      <c r="E63" s="188" t="s">
+      <c r="E63" s="185" t="s">
         <v>391</v>
       </c>
-      <c r="F63" s="189"/>
+      <c r="F63" s="186"/>
       <c r="G63" s="145">
         <v>3</v>
       </c>
-      <c r="H63" s="214"/>
+      <c r="H63" s="210"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -6741,14 +6747,14 @@
       <c r="D64" s="142">
         <v>45806</v>
       </c>
-      <c r="E64" s="184" t="s">
+      <c r="E64" s="216" t="s">
         <v>393</v>
       </c>
-      <c r="F64" s="185"/>
+      <c r="F64" s="217"/>
       <c r="G64" s="145">
         <v>6</v>
       </c>
-      <c r="H64" s="214"/>
+      <c r="H64" s="210"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -6795,14 +6801,14 @@
       <c r="D65" s="149">
         <v>45813</v>
       </c>
-      <c r="E65" s="190" t="s">
+      <c r="E65" s="220" t="s">
         <v>392</v>
       </c>
-      <c r="F65" s="190"/>
+      <c r="F65" s="220"/>
       <c r="G65" s="175">
         <v>3</v>
       </c>
-      <c r="H65" s="215"/>
+      <c r="H65" s="211"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -6838,15 +6844,25 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="186"/>
-      <c r="F66" s="187"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="183"/>
+      <c r="B66" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="C66" s="174" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="149">
+        <v>45827</v>
+      </c>
+      <c r="E66" s="220" t="s">
+        <v>394</v>
+      </c>
+      <c r="F66" s="220"/>
+      <c r="G66" s="175">
+        <v>3</v>
+      </c>
+      <c r="H66" s="238"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -6884,18 +6900,13 @@
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="176"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="217"/>
-      <c r="F67" s="217"/>
-      <c r="G67" s="146">
-        <f>SUM(G36:G65)</f>
-        <v>170</v>
-      </c>
-      <c r="H67" s="119"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="218"/>
+      <c r="F67" s="219"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="183"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -6933,13 +6944,18 @@
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="122"/>
-      <c r="C68" s="152"/>
-      <c r="D68" s="177"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="147"/>
-      <c r="H68" s="43"/>
+      <c r="B68" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="176"/>
+      <c r="D68" s="178"/>
+      <c r="E68" s="184"/>
+      <c r="F68" s="184"/>
+      <c r="G68" s="146">
+        <f>SUM(G36:G66)</f>
+        <v>173</v>
+      </c>
+      <c r="H68" s="119"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -6975,20 +6991,15 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
     </row>
-    <row r="69" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="153"/>
-      <c r="D69" s="150"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="148">
-        <f>G67+G19+G28+G68</f>
-        <v>450</v>
-      </c>
-      <c r="H69" s="42"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="152"/>
+      <c r="D69" s="177"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="147"/>
+      <c r="H69" s="43"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -7024,15 +7035,20 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="36"/>
+      <c r="B70" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="153"/>
+      <c r="D70" s="150"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="148">
+        <f>G68+G19+G28+G69</f>
+        <v>453</v>
+      </c>
+      <c r="H70" s="42"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -7070,8 +7086,10 @@
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="36"/>
@@ -7112,13 +7130,7 @@
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" s="56">
-        <f>'List - Hide'!AC11</f>
-        <v>487</v>
-      </c>
+      <c r="B72" s="1"/>
       <c r="D72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -7161,11 +7173,11 @@
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C73" s="56">
-        <f>G69</f>
-        <v>450</v>
+        <f>'List - Hide'!AC11</f>
+        <v>487</v>
       </c>
       <c r="D73" s="2"/>
       <c r="F73" s="2"/>
@@ -7209,11 +7221,11 @@
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="58">
-        <f>C72-C73</f>
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="C74" s="56">
+        <f>G70</f>
+        <v>453</v>
       </c>
       <c r="D74" s="2"/>
       <c r="F74" s="2"/>
@@ -7256,11 +7268,17 @@
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="2"/>
+      <c r="B75" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="58">
+        <f>C73-C74</f>
+        <v>34</v>
+      </c>
       <c r="D75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="H75" s="36"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -7383,9 +7401,7 @@
     <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -7521,7 +7537,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="4"/>
+      <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -7565,7 +7581,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="5"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -7601,7 +7617,7 @@
       <c r="AP82" s="2"/>
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -7653,7 +7669,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+      <c r="I84" s="5"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -8032,6 +8048,13 @@
       <c r="AG92" s="2"/>
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
+      <c r="AJ92" s="2"/>
+      <c r="AK92" s="2"/>
+      <c r="AL92" s="2"/>
+      <c r="AM92" s="2"/>
+      <c r="AN92" s="2"/>
+      <c r="AO92" s="2"/>
+      <c r="AP92" s="2"/>
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
@@ -8589,7 +8612,7 @@
       <c r="AI107" s="2"/>
     </row>
     <row r="108" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
+      <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -8737,6 +8760,7 @@
       <c r="AI111" s="2"/>
     </row>
     <row r="112" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -8773,7 +8797,6 @@
       <c r="AI112" s="2"/>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -8810,7 +8833,7 @@
       <c r="AI113" s="2"/>
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
+      <c r="A114" s="4"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -10086,6 +10109,23 @@
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="2"/>
+      <c r="V148" s="2"/>
+      <c r="W148" s="2"/>
+      <c r="X148" s="2"/>
+      <c r="Y148" s="2"/>
+      <c r="Z148" s="2"/>
+      <c r="AA148" s="2"/>
+      <c r="AB148" s="2"/>
+      <c r="AC148" s="2"/>
+      <c r="AD148" s="2"/>
+      <c r="AE148" s="2"/>
+      <c r="AF148" s="2"/>
+      <c r="AG148" s="2"/>
+      <c r="AH148" s="2"/>
+      <c r="AI148" s="2"/>
     </row>
     <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
@@ -12619,6 +12659,13 @@
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
+      <c r="L275" s="2"/>
+      <c r="M275" s="2"/>
+      <c r="N275" s="2"/>
+      <c r="O275" s="2"/>
+      <c r="P275" s="2"/>
+      <c r="Q275" s="2"/>
+      <c r="R275" s="2"/>
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
@@ -12960,6 +13007,12 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
@@ -12974,6 +13027,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
+      <c r="H304" s="2"/>
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
@@ -13056,24 +13110,31 @@
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
     </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" s="2"/>
+      <c r="I318" s="2"/>
+      <c r="J318" s="2"/>
+      <c r="K318" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J22:O22"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="J35:O35"/>
     <mergeCell ref="J37:O37"/>
@@ -13090,22 +13151,22 @@
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E54:F54"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E53:F53"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="6">
@@ -13131,7 +13192,7 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$A$2:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>C67:C68 C78:C96 C70</xm:sqref>
+          <xm:sqref>C68:C69 C79:C97 C71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
@@ -13143,7 +13204,7 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$C$2:$C$77</xm:f>
           </x14:formula1>
-          <xm:sqref>C51:C63 C64:C65</xm:sqref>
+          <xm:sqref>C51:C66</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27368,10 +27429,10 @@
       <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="227">
+      <c r="B2" s="233">
         <v>1</v>
       </c>
       <c r="C2" s="69" t="s">
@@ -27427,8 +27488,8 @@
       <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="224"/>
-      <c r="B3" s="221"/>
+      <c r="A3" s="230"/>
+      <c r="B3" s="227"/>
       <c r="C3" s="71" t="s">
         <v>145</v>
       </c>
@@ -27479,8 +27540,8 @@
       <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="224"/>
-      <c r="B4" s="221"/>
+      <c r="A4" s="230"/>
+      <c r="B4" s="227"/>
       <c r="C4" s="71" t="s">
         <v>146</v>
       </c>
@@ -27531,8 +27592,8 @@
       <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="224"/>
-      <c r="B5" s="226"/>
+      <c r="A5" s="230"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="71" t="s">
         <v>147</v>
       </c>
@@ -27583,8 +27644,8 @@
       <c r="AH5" s="66"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="224"/>
-      <c r="B6" s="221">
+      <c r="A6" s="230"/>
+      <c r="B6" s="227">
         <v>2</v>
       </c>
       <c r="C6" s="71" t="s">
@@ -27639,8 +27700,8 @@
       <c r="AH6" s="66"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="224"/>
-      <c r="B7" s="221"/>
+      <c r="A7" s="230"/>
+      <c r="B7" s="227"/>
       <c r="C7" s="71" t="s">
         <v>149</v>
       </c>
@@ -27691,8 +27752,8 @@
       <c r="AH7" s="66"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="224"/>
-      <c r="B8" s="221"/>
+      <c r="A8" s="230"/>
+      <c r="B8" s="227"/>
       <c r="C8" s="71" t="s">
         <v>150</v>
       </c>
@@ -27742,8 +27803,8 @@
       <c r="AH8" s="66"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="224"/>
-      <c r="B9" s="221"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="227"/>
       <c r="C9" s="71" t="s">
         <v>151</v>
       </c>
@@ -27798,8 +27859,8 @@
       <c r="AH9" s="66"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="224"/>
-      <c r="B10" s="221">
+      <c r="A10" s="230"/>
+      <c r="B10" s="227">
         <v>3</v>
       </c>
       <c r="C10" s="71" t="s">
@@ -27857,8 +27918,8 @@
       <c r="AH10" s="66"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="224"/>
-      <c r="B11" s="221"/>
+      <c r="A11" s="230"/>
+      <c r="B11" s="227"/>
       <c r="C11" s="71" t="s">
         <v>156</v>
       </c>
@@ -27913,8 +27974,8 @@
       <c r="AH11" s="66"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="224"/>
-      <c r="B12" s="221"/>
+      <c r="A12" s="230"/>
+      <c r="B12" s="227"/>
       <c r="C12" s="71" t="s">
         <v>158</v>
       </c>
@@ -27972,8 +28033,8 @@
       <c r="AH12" s="66"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="224"/>
-      <c r="B13" s="221"/>
+      <c r="A13" s="230"/>
+      <c r="B13" s="227"/>
       <c r="C13" s="71" t="s">
         <v>163</v>
       </c>
@@ -28039,8 +28100,8 @@
       <c r="AH13" s="66"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="224"/>
-      <c r="B14" s="221">
+      <c r="A14" s="230"/>
+      <c r="B14" s="227">
         <v>4</v>
       </c>
       <c r="C14" s="71" t="s">
@@ -28107,8 +28168,8 @@
       <c r="AH14" s="66"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="224"/>
-      <c r="B15" s="221"/>
+      <c r="A15" s="230"/>
+      <c r="B15" s="227"/>
       <c r="C15" s="71" t="s">
         <v>166</v>
       </c>
@@ -28171,8 +28232,8 @@
       <c r="AH15" s="66"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="224"/>
-      <c r="B16" s="221"/>
+      <c r="A16" s="230"/>
+      <c r="B16" s="227"/>
       <c r="C16" s="71" t="s">
         <v>167</v>
       </c>
@@ -28235,8 +28296,8 @@
       <c r="AH16" s="66"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="224"/>
-      <c r="B17" s="221"/>
+      <c r="A17" s="230"/>
+      <c r="B17" s="227"/>
       <c r="C17" s="71" t="s">
         <v>168</v>
       </c>
@@ -28299,8 +28360,8 @@
       <c r="AH17" s="66"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="224"/>
-      <c r="B18" s="221">
+      <c r="A18" s="230"/>
+      <c r="B18" s="227">
         <v>5</v>
       </c>
       <c r="C18" s="71" t="s">
@@ -28367,8 +28428,8 @@
       <c r="AH18" s="66"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="224"/>
-      <c r="B19" s="221"/>
+      <c r="A19" s="230"/>
+      <c r="B19" s="227"/>
       <c r="C19" s="71" t="s">
         <v>170</v>
       </c>
@@ -28432,8 +28493,8 @@
       <c r="AH19" s="66"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="224"/>
-      <c r="B20" s="221"/>
+      <c r="A20" s="230"/>
+      <c r="B20" s="227"/>
       <c r="C20" s="71" t="s">
         <v>171</v>
       </c>
@@ -28496,8 +28557,8 @@
       <c r="AH20" s="66"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="224"/>
-      <c r="B21" s="221"/>
+      <c r="A21" s="230"/>
+      <c r="B21" s="227"/>
       <c r="C21" s="71" t="s">
         <v>172</v>
       </c>
@@ -28560,8 +28621,8 @@
       <c r="AG21" s="79"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="224"/>
-      <c r="B22" s="221">
+      <c r="A22" s="230"/>
+      <c r="B22" s="227">
         <v>6</v>
       </c>
       <c r="C22" s="71" t="s">
@@ -28627,8 +28688,8 @@
       <c r="AG22" s="79"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="224"/>
-      <c r="B23" s="221"/>
+      <c r="A23" s="230"/>
+      <c r="B23" s="227"/>
       <c r="C23" s="71" t="s">
         <v>174</v>
       </c>
@@ -28693,8 +28754,8 @@
       <c r="AG23" s="79"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="224"/>
-      <c r="B24" s="221"/>
+      <c r="A24" s="230"/>
+      <c r="B24" s="227"/>
       <c r="C24" s="71" t="s">
         <v>175</v>
       </c>
@@ -28755,8 +28816,8 @@
       <c r="AG24" s="79"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="224"/>
-      <c r="B25" s="221"/>
+      <c r="A25" s="230"/>
+      <c r="B25" s="227"/>
       <c r="C25" s="71" t="s">
         <v>176</v>
       </c>
@@ -28814,8 +28875,8 @@
       <c r="AG25" s="66"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="224"/>
-      <c r="B26" s="221">
+      <c r="A26" s="230"/>
+      <c r="B26" s="227">
         <v>7</v>
       </c>
       <c r="C26" s="71" t="s">
@@ -28875,8 +28936,8 @@
       <c r="AG26" s="66"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="224"/>
-      <c r="B27" s="221"/>
+      <c r="A27" s="230"/>
+      <c r="B27" s="227"/>
       <c r="C27" s="71" t="s">
         <v>178</v>
       </c>
@@ -28932,8 +28993,8 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="224"/>
-      <c r="B28" s="221"/>
+      <c r="A28" s="230"/>
+      <c r="B28" s="227"/>
       <c r="C28" s="71" t="s">
         <v>180</v>
       </c>
@@ -28989,8 +29050,8 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="224"/>
-      <c r="B29" s="221"/>
+      <c r="A29" s="230"/>
+      <c r="B29" s="227"/>
       <c r="C29" s="71" t="s">
         <v>182</v>
       </c>
@@ -29047,8 +29108,8 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="224"/>
-      <c r="B30" s="221">
+      <c r="A30" s="230"/>
+      <c r="B30" s="227">
         <v>8</v>
       </c>
       <c r="C30" s="71" t="s">
@@ -29106,8 +29167,8 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="224"/>
-      <c r="B31" s="221"/>
+      <c r="A31" s="230"/>
+      <c r="B31" s="227"/>
       <c r="C31" s="71" t="s">
         <v>187</v>
       </c>
@@ -29162,8 +29223,8 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="224"/>
-      <c r="B32" s="221"/>
+      <c r="A32" s="230"/>
+      <c r="B32" s="227"/>
       <c r="C32" s="71" t="s">
         <v>189</v>
       </c>
@@ -29213,8 +29274,8 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="224"/>
-      <c r="B33" s="221"/>
+      <c r="A33" s="230"/>
+      <c r="B33" s="227"/>
       <c r="C33" s="71" t="s">
         <v>190</v>
       </c>
@@ -29260,8 +29321,8 @@
       <c r="AA33" s="66"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="224"/>
-      <c r="B34" s="221">
+      <c r="A34" s="230"/>
+      <c r="B34" s="227">
         <v>9</v>
       </c>
       <c r="C34" s="71" t="s">
@@ -29307,8 +29368,8 @@
       <c r="AA34" s="66"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="224"/>
-      <c r="B35" s="221"/>
+      <c r="A35" s="230"/>
+      <c r="B35" s="227"/>
       <c r="C35" s="71" t="s">
         <v>192</v>
       </c>
@@ -29351,8 +29412,8 @@
       <c r="AA35" s="66"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="224"/>
-      <c r="B36" s="221"/>
+      <c r="A36" s="230"/>
+      <c r="B36" s="227"/>
       <c r="C36" s="71" t="s">
         <v>193</v>
       </c>
@@ -29397,8 +29458,8 @@
       <c r="AA36" s="66"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="224"/>
-      <c r="B37" s="221"/>
+      <c r="A37" s="230"/>
+      <c r="B37" s="227"/>
       <c r="C37" s="71" t="s">
         <v>194</v>
       </c>
@@ -29441,8 +29502,8 @@
       <c r="AA37" s="66"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="224"/>
-      <c r="B38" s="221">
+      <c r="A38" s="230"/>
+      <c r="B38" s="227">
         <v>10</v>
       </c>
       <c r="C38" s="71" t="s">
@@ -29490,8 +29551,8 @@
       <c r="AH38" s="66"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="224"/>
-      <c r="B39" s="221"/>
+      <c r="A39" s="230"/>
+      <c r="B39" s="227"/>
       <c r="C39" s="71" t="s">
         <v>196</v>
       </c>
@@ -29536,8 +29597,8 @@
       <c r="AH39" s="66"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="224"/>
-      <c r="B40" s="221"/>
+      <c r="A40" s="230"/>
+      <c r="B40" s="227"/>
       <c r="C40" s="71" t="s">
         <v>197</v>
       </c>
@@ -29581,8 +29642,8 @@
       <c r="AH40" s="66"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="224"/>
-      <c r="B41" s="221"/>
+      <c r="A41" s="230"/>
+      <c r="B41" s="227"/>
       <c r="C41" s="71" t="s">
         <v>198</v>
       </c>
@@ -29632,8 +29693,8 @@
       <c r="AH41" s="66"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="224"/>
-      <c r="B42" s="221">
+      <c r="A42" s="230"/>
+      <c r="B42" s="227">
         <v>11</v>
       </c>
       <c r="C42" s="71" t="s">
@@ -29686,8 +29747,8 @@
       <c r="AH42" s="66"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="224"/>
-      <c r="B43" s="221"/>
+      <c r="A43" s="230"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="71" t="s">
         <v>200</v>
       </c>
@@ -29740,8 +29801,8 @@
       <c r="AH43" s="66"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="224"/>
-      <c r="B44" s="221"/>
+      <c r="A44" s="230"/>
+      <c r="B44" s="227"/>
       <c r="C44" s="71" t="s">
         <v>201</v>
       </c>
@@ -29791,8 +29852,8 @@
       <c r="AH44" s="66"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="224"/>
-      <c r="B45" s="221"/>
+      <c r="A45" s="230"/>
+      <c r="B45" s="227"/>
       <c r="C45" s="71" t="s">
         <v>202</v>
       </c>
@@ -29842,8 +29903,8 @@
       <c r="AH45" s="66"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="224"/>
-      <c r="B46" s="221">
+      <c r="A46" s="230"/>
+      <c r="B46" s="227">
         <v>12</v>
       </c>
       <c r="C46" s="71" t="s">
@@ -29897,8 +29958,8 @@
       <c r="AH46" s="66"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="224"/>
-      <c r="B47" s="221"/>
+      <c r="A47" s="230"/>
+      <c r="B47" s="227"/>
       <c r="C47" s="71" t="s">
         <v>204</v>
       </c>
@@ -29948,8 +30009,8 @@
       <c r="AH47" s="66"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="224"/>
-      <c r="B48" s="221"/>
+      <c r="A48" s="230"/>
+      <c r="B48" s="227"/>
       <c r="C48" s="71" t="s">
         <v>205</v>
       </c>
@@ -30001,8 +30062,8 @@
       <c r="AH48" s="66"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="224"/>
-      <c r="B49" s="221"/>
+      <c r="A49" s="230"/>
+      <c r="B49" s="227"/>
       <c r="C49" s="71" t="s">
         <v>206</v>
       </c>
@@ -30052,8 +30113,8 @@
       <c r="AH49" s="66"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="224"/>
-      <c r="B50" s="221">
+      <c r="A50" s="230"/>
+      <c r="B50" s="227">
         <v>13</v>
       </c>
       <c r="C50" s="71" t="s">
@@ -30107,8 +30168,8 @@
       <c r="AH50" s="66"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="224"/>
-      <c r="B51" s="221"/>
+      <c r="A51" s="230"/>
+      <c r="B51" s="227"/>
       <c r="C51" s="71" t="s">
         <v>208</v>
       </c>
@@ -30158,8 +30219,8 @@
       <c r="AH51" s="66"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="224"/>
-      <c r="B52" s="221"/>
+      <c r="A52" s="230"/>
+      <c r="B52" s="227"/>
       <c r="C52" s="71" t="s">
         <v>209</v>
       </c>
@@ -30208,8 +30269,8 @@
       <c r="AH52" s="66"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="224"/>
-      <c r="B53" s="221"/>
+      <c r="A53" s="230"/>
+      <c r="B53" s="227"/>
       <c r="C53" s="71" t="s">
         <v>210</v>
       </c>
@@ -30259,8 +30320,8 @@
       <c r="AH53" s="66"/>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="224"/>
-      <c r="B54" s="221">
+      <c r="A54" s="230"/>
+      <c r="B54" s="227">
         <v>14</v>
       </c>
       <c r="C54" s="71" t="s">
@@ -30314,8 +30375,8 @@
       <c r="AH54" s="66"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="224"/>
-      <c r="B55" s="221"/>
+      <c r="A55" s="230"/>
+      <c r="B55" s="227"/>
       <c r="C55" s="71" t="s">
         <v>212</v>
       </c>
@@ -30366,8 +30427,8 @@
       <c r="AH55" s="66"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="224"/>
-      <c r="B56" s="221"/>
+      <c r="A56" s="230"/>
+      <c r="B56" s="227"/>
       <c r="C56" s="71" t="s">
         <v>213</v>
       </c>
@@ -30417,8 +30478,8 @@
       <c r="AH56" s="66"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="224"/>
-      <c r="B57" s="221"/>
+      <c r="A57" s="230"/>
+      <c r="B57" s="227"/>
       <c r="C57" s="71" t="s">
         <v>214</v>
       </c>
@@ -30469,8 +30530,8 @@
       <c r="AH57" s="66"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="224"/>
-      <c r="B58" s="221">
+      <c r="A58" s="230"/>
+      <c r="B58" s="227">
         <v>15</v>
       </c>
       <c r="C58" s="71" t="s">
@@ -30525,8 +30586,8 @@
       <c r="AH58" s="66"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="224"/>
-      <c r="B59" s="221"/>
+      <c r="A59" s="230"/>
+      <c r="B59" s="227"/>
       <c r="C59" s="71" t="s">
         <v>216</v>
       </c>
@@ -30577,8 +30638,8 @@
       <c r="AH59" s="66"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="224"/>
-      <c r="B60" s="221"/>
+      <c r="A60" s="230"/>
+      <c r="B60" s="227"/>
       <c r="C60" s="71" t="s">
         <v>217</v>
       </c>
@@ -30629,8 +30690,8 @@
       <c r="AH60" s="66"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" s="225"/>
-      <c r="B61" s="222"/>
+      <c r="A61" s="231"/>
+      <c r="B61" s="228"/>
       <c r="C61" s="73" t="s">
         <v>218</v>
       </c>
@@ -30681,10 +30742,10 @@
       <c r="AH61" s="66"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="223" t="s">
+      <c r="A62" s="229" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="226">
+      <c r="B62" s="232">
         <v>16</v>
       </c>
       <c r="C62" s="71" t="s">
@@ -30736,8 +30797,8 @@
       <c r="AH62" s="66"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" s="224"/>
-      <c r="B63" s="221"/>
+      <c r="A63" s="230"/>
+      <c r="B63" s="227"/>
       <c r="C63" s="71" t="s">
         <v>220</v>
       </c>
@@ -30787,8 +30848,8 @@
       <c r="AH63" s="66"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="224"/>
-      <c r="B64" s="221"/>
+      <c r="A64" s="230"/>
+      <c r="B64" s="227"/>
       <c r="C64" s="71" t="s">
         <v>221</v>
       </c>
@@ -30838,8 +30899,8 @@
       <c r="AH64" s="66"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="224"/>
-      <c r="B65" s="221"/>
+      <c r="A65" s="230"/>
+      <c r="B65" s="227"/>
       <c r="C65" s="71" t="s">
         <v>222</v>
       </c>
@@ -30889,8 +30950,8 @@
       <c r="AH65" s="66"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="224"/>
-      <c r="B66" s="221">
+      <c r="A66" s="230"/>
+      <c r="B66" s="227">
         <v>17</v>
       </c>
       <c r="C66" s="71" t="s">
@@ -30942,8 +31003,8 @@
       <c r="AH66" s="66"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A67" s="224"/>
-      <c r="B67" s="221"/>
+      <c r="A67" s="230"/>
+      <c r="B67" s="227"/>
       <c r="C67" s="71" t="s">
         <v>224</v>
       </c>
@@ -30993,8 +31054,8 @@
       <c r="AH67" s="66"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="224"/>
-      <c r="B68" s="221"/>
+      <c r="A68" s="230"/>
+      <c r="B68" s="227"/>
       <c r="C68" s="71" t="s">
         <v>225</v>
       </c>
@@ -31044,8 +31105,8 @@
       <c r="AH68" s="66"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="224"/>
-      <c r="B69" s="221"/>
+      <c r="A69" s="230"/>
+      <c r="B69" s="227"/>
       <c r="C69" s="71" t="s">
         <v>226</v>
       </c>
@@ -31095,8 +31156,8 @@
       <c r="AH69" s="66"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="224"/>
-      <c r="B70" s="221">
+      <c r="A70" s="230"/>
+      <c r="B70" s="227">
         <v>18</v>
       </c>
       <c r="C70" s="71" t="s">
@@ -31148,8 +31209,8 @@
       <c r="AH70" s="66"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="224"/>
-      <c r="B71" s="221"/>
+      <c r="A71" s="230"/>
+      <c r="B71" s="227"/>
       <c r="C71" s="71" t="s">
         <v>228</v>
       </c>
@@ -31199,8 +31260,8 @@
       <c r="AH71" s="66"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="224"/>
-      <c r="B72" s="221"/>
+      <c r="A72" s="230"/>
+      <c r="B72" s="227"/>
       <c r="C72" s="71" t="s">
         <v>229</v>
       </c>
@@ -31250,8 +31311,8 @@
       <c r="AH72" s="66"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="224"/>
-      <c r="B73" s="221"/>
+      <c r="A73" s="230"/>
+      <c r="B73" s="227"/>
       <c r="C73" s="71" t="s">
         <v>230</v>
       </c>
@@ -31301,8 +31362,8 @@
       <c r="AH73" s="66"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="224"/>
-      <c r="B74" s="221">
+      <c r="A74" s="230"/>
+      <c r="B74" s="227">
         <v>19</v>
       </c>
       <c r="C74" s="71" t="s">
@@ -31354,8 +31415,8 @@
       <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="224"/>
-      <c r="B75" s="221"/>
+      <c r="A75" s="230"/>
+      <c r="B75" s="227"/>
       <c r="C75" s="71" t="s">
         <v>232</v>
       </c>
@@ -31405,8 +31466,8 @@
       <c r="AH75" s="66"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="224"/>
-      <c r="B76" s="221"/>
+      <c r="A76" s="230"/>
+      <c r="B76" s="227"/>
       <c r="C76" s="71" t="s">
         <v>233</v>
       </c>
@@ -31456,8 +31517,8 @@
       <c r="AH76" s="66"/>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="225"/>
-      <c r="B77" s="222"/>
+      <c r="A77" s="231"/>
+      <c r="B77" s="228"/>
       <c r="C77" s="73" t="s">
         <v>234</v>
       </c>
@@ -31644,10 +31705,10 @@
     <row r="80" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="66"/>
       <c r="B80" s="66"/>
-      <c r="C80" s="230" t="s">
+      <c r="C80" s="223" t="s">
         <v>235</v>
       </c>
-      <c r="D80" s="231"/>
+      <c r="D80" s="224"/>
       <c r="E80" s="70">
         <v>60</v>
       </c>
@@ -31686,10 +31747,10 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="66"/>
       <c r="B81" s="66"/>
-      <c r="C81" s="232" t="s">
+      <c r="C81" s="225" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="233"/>
+      <c r="D81" s="226"/>
       <c r="E81" s="72">
         <v>322.5</v>
       </c>
@@ -31726,10 +31787,10 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="66"/>
-      <c r="C82" s="232" t="s">
+      <c r="C82" s="225" t="s">
         <v>238</v>
       </c>
-      <c r="D82" s="233"/>
+      <c r="D82" s="226"/>
       <c r="E82" s="72">
         <v>35</v>
       </c>
@@ -31766,10 +31827,10 @@
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="B83" s="66"/>
-      <c r="C83" s="232" t="s">
+      <c r="C83" s="225" t="s">
         <v>239</v>
       </c>
-      <c r="D83" s="233"/>
+      <c r="D83" s="226"/>
       <c r="E83" s="72">
         <v>287</v>
       </c>
@@ -31806,10 +31867,10 @@
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="B84" s="66"/>
-      <c r="C84" s="232" t="s">
+      <c r="C84" s="225" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="233"/>
+      <c r="D84" s="226"/>
       <c r="E84" s="72">
         <v>60</v>
       </c>
@@ -31846,10 +31907,10 @@
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
       <c r="B85" s="66"/>
-      <c r="C85" s="228" t="s">
+      <c r="C85" s="221" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="229"/>
+      <c r="D85" s="222"/>
       <c r="E85" s="74">
         <f>Y79</f>
         <v>483</v>
@@ -31917,17 +31978,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="B74:B77"/>
@@ -31944,6 +31994,17 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31954,8 +32015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5573FE42-47CE-4B60-892F-474181DB115B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32001,7 +32062,7 @@
         <v>337</v>
       </c>
       <c r="B5" s="159">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -32009,7 +32070,7 @@
         <v>338</v>
       </c>
       <c r="B6" s="156">
-        <v>45810</v>
+        <v>45827</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -32401,15 +32462,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="d03ffd70-462c-4172-9015-a0cdff42c83c">
@@ -32429,6 +32481,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32649,20 +32710,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F627C2A1-639E-4000-94D7-FA9740411AFB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="d03ffd70-462c-4172-9015-a0cdff42c83c"/>
     <ds:schemaRef ds:uri="65f98c99-c090-489b-8346-b847c18a5011"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/OTJ Tracker Data Engineer L5.xlsx
+++ b/OTJ Tracker Data Engineer L5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laho2188\Documents\GitHub\Learning-Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010F82E9-8C7E-414F-A874-8888EBF1CEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B446566-8DB7-47C5-A6FA-9BA63FE39AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OTJT Log" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="396">
   <si>
     <t xml:space="preserve">Apprenticeship Training Log </t>
   </si>
@@ -1298,6 +1298,9 @@
   </si>
   <si>
     <t>LinkedIn Learning: Introduction to Data Warehouses</t>
+  </si>
+  <si>
+    <t>LinkedIn Learning: Big Data Analytics with Hadoop and Apache Spark</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2413,7 @@
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2783,7 +2786,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2792,20 +2804,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2815,6 +2824,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2870,47 +2885,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2933,6 +2918,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2944,9 +2947,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3424,10 +3424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP318"/>
+  <dimension ref="A1:AP319"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,12 +3492,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="215"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="193"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="2"/>
@@ -3528,14 +3528,14 @@
     </row>
     <row r="3" spans="1:42" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="191"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="198"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="52"/>
@@ -3633,14 +3633,14 @@
       <c r="G5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="207"/>
+      <c r="H5" s="211"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="193"/>
-      <c r="M5" s="193"/>
-      <c r="N5" s="193"/>
-      <c r="O5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="196"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3690,7 +3690,7 @@
         <f t="shared" ref="G6:G18" si="0">IF(NOT(ISBLANK(D6)), SUM(E6:F6), 0)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="207"/>
+      <c r="H6" s="211"/>
       <c r="I6" s="2"/>
       <c r="J6" s="128"/>
       <c r="K6" s="128"/>
@@ -3747,7 +3747,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="H7" s="207"/>
+      <c r="H7" s="211"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3804,7 +3804,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="207"/>
+      <c r="H8" s="211"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3861,7 +3861,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H9" s="207"/>
+      <c r="H9" s="211"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3918,7 +3918,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="207"/>
+      <c r="H10" s="211"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3975,7 +3975,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="H11" s="207"/>
+      <c r="H11" s="211"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -4032,7 +4032,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="207"/>
+      <c r="H12" s="211"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4085,7 +4085,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="207"/>
+      <c r="H13" s="211"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4138,7 +4138,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="207"/>
+      <c r="H14" s="211"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4191,7 +4191,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="207"/>
+      <c r="H15" s="211"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4244,7 +4244,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="207"/>
+      <c r="H16" s="211"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -4297,14 +4297,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="207"/>
+      <c r="H17" s="211"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="193"/>
-      <c r="M17" s="193"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="195"/>
+      <c r="M17" s="195"/>
+      <c r="N17" s="195"/>
+      <c r="O17" s="196"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -4350,7 +4350,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="207"/>
+      <c r="H18" s="211"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -4405,7 +4405,7 @@
         <f>SUM(G6:G18)</f>
         <v>208</v>
       </c>
-      <c r="H19" s="207"/>
+      <c r="H19" s="211"/>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -4559,14 +4559,14 @@
         <f>IF(NOT(ISBLANK(D22)), SUM(E22:F22), 0)</f>
         <v>24</v>
       </c>
-      <c r="H22" s="208"/>
+      <c r="H22" s="212"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="193"/>
-      <c r="L22" s="193"/>
-      <c r="M22" s="193"/>
-      <c r="N22" s="193"/>
-      <c r="O22" s="194"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="195"/>
+      <c r="L22" s="195"/>
+      <c r="M22" s="195"/>
+      <c r="N22" s="195"/>
+      <c r="O22" s="196"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4614,7 +4614,7 @@
         <f>IF(NOT(ISBLANK(D23)), SUM(E23:F23), 0)</f>
         <v>24</v>
       </c>
-      <c r="H23" s="208"/>
+      <c r="H23" s="212"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4669,7 +4669,7 @@
         <f>IF(NOT(ISBLANK(D24)), SUM(E24:F24), 0)</f>
         <v>24</v>
       </c>
-      <c r="H24" s="208"/>
+      <c r="H24" s="212"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4720,7 +4720,7 @@
         <f>IF(NOT(ISBLANK(D25)), SUM(E25:F25), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="208"/>
+      <c r="H25" s="212"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4771,7 +4771,7 @@
         <f>IF(NOT(ISBLANK(D26)), SUM(E26:F26), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="208"/>
+      <c r="H26" s="212"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4815,7 +4815,7 @@
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
-      <c r="H27" s="208"/>
+      <c r="H27" s="212"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4870,7 +4870,7 @@
         <f>SUM(G22:H27)</f>
         <v>72</v>
       </c>
-      <c r="H28" s="208"/>
+      <c r="H28" s="212"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4908,20 +4908,20 @@
     </row>
     <row r="29" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="201"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="203"/>
+      <c r="B29" s="205"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="207"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="193"/>
-      <c r="L29" s="193"/>
-      <c r="M29" s="193"/>
-      <c r="N29" s="193"/>
-      <c r="O29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="195"/>
+      <c r="L29" s="195"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="195"/>
+      <c r="O29" s="196"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -4959,12 +4959,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="198"/>
-      <c r="K30" s="199"/>
-      <c r="L30" s="199"/>
-      <c r="M30" s="199"/>
-      <c r="N30" s="199"/>
-      <c r="O30" s="200"/>
+      <c r="J30" s="202"/>
+      <c r="K30" s="203"/>
+      <c r="L30" s="203"/>
+      <c r="M30" s="203"/>
+      <c r="N30" s="203"/>
+      <c r="O30" s="204"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -4995,13 +4995,13 @@
     </row>
     <row r="31" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="204" t="s">
+      <c r="B31" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="205"/>
-      <c r="D31" s="205"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="206"/>
+      <c r="C31" s="209"/>
+      <c r="D31" s="209"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="210"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -5181,23 +5181,23 @@
       <c r="D35" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="187" t="s">
+      <c r="E35" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="187"/>
+      <c r="F35" s="218"/>
       <c r="G35" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="209" t="s">
+      <c r="H35" s="213" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="193"/>
-      <c r="L35" s="193"/>
-      <c r="M35" s="193"/>
-      <c r="N35" s="193"/>
-      <c r="O35" s="194"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="195"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="196"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5237,14 +5237,14 @@
       <c r="D36" s="142">
         <v>45559</v>
       </c>
-      <c r="E36" s="185" t="s">
+      <c r="E36" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="F36" s="186"/>
+      <c r="F36" s="189"/>
       <c r="G36" s="144">
         <v>3</v>
       </c>
-      <c r="H36" s="210"/>
+      <c r="H36" s="214"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -5291,21 +5291,21 @@
       <c r="D37" s="143">
         <v>45572</v>
       </c>
-      <c r="E37" s="185" t="s">
+      <c r="E37" s="188" t="s">
         <v>344</v>
       </c>
-      <c r="F37" s="186"/>
+      <c r="F37" s="189"/>
       <c r="G37" s="144">
         <v>4</v>
       </c>
-      <c r="H37" s="210"/>
+      <c r="H37" s="214"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="195"/>
-      <c r="K37" s="196"/>
-      <c r="L37" s="196"/>
-      <c r="M37" s="196"/>
-      <c r="N37" s="196"/>
-      <c r="O37" s="197"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="200"/>
+      <c r="L37" s="200"/>
+      <c r="M37" s="200"/>
+      <c r="N37" s="200"/>
+      <c r="O37" s="201"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -5345,14 +5345,14 @@
       <c r="D38" s="142">
         <v>45575</v>
       </c>
-      <c r="E38" s="185" t="s">
+      <c r="E38" s="188" t="s">
         <v>349</v>
       </c>
-      <c r="F38" s="186"/>
+      <c r="F38" s="189"/>
       <c r="G38" s="144">
         <v>3</v>
       </c>
-      <c r="H38" s="210"/>
+      <c r="H38" s="214"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -5399,21 +5399,21 @@
       <c r="D39" s="142">
         <v>45579</v>
       </c>
-      <c r="E39" s="185" t="s">
+      <c r="E39" s="188" t="s">
         <v>348</v>
       </c>
-      <c r="F39" s="186"/>
+      <c r="F39" s="189"/>
       <c r="G39" s="144">
         <v>3</v>
       </c>
-      <c r="H39" s="210"/>
+      <c r="H39" s="214"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="192"/>
-      <c r="K39" s="193"/>
-      <c r="L39" s="193"/>
-      <c r="M39" s="193"/>
-      <c r="N39" s="193"/>
-      <c r="O39" s="194"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="195"/>
+      <c r="L39" s="195"/>
+      <c r="M39" s="195"/>
+      <c r="N39" s="195"/>
+      <c r="O39" s="196"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -5453,14 +5453,14 @@
       <c r="D40" s="142">
         <v>45586</v>
       </c>
-      <c r="E40" s="185" t="s">
+      <c r="E40" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="F40" s="186"/>
+      <c r="F40" s="189"/>
       <c r="G40" s="144">
         <v>8</v>
       </c>
-      <c r="H40" s="210"/>
+      <c r="H40" s="214"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -5507,14 +5507,14 @@
       <c r="D41" s="169">
         <v>45597</v>
       </c>
-      <c r="E41" s="185" t="s">
+      <c r="E41" s="188" t="s">
         <v>352</v>
       </c>
-      <c r="F41" s="186"/>
+      <c r="F41" s="189"/>
       <c r="G41" s="144">
         <v>3</v>
       </c>
-      <c r="H41" s="210"/>
+      <c r="H41" s="214"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -5561,14 +5561,14 @@
       <c r="D42" s="169">
         <v>45601</v>
       </c>
-      <c r="E42" s="185" t="s">
+      <c r="E42" s="188" t="s">
         <v>353</v>
       </c>
-      <c r="F42" s="186"/>
+      <c r="F42" s="189"/>
       <c r="G42" s="144">
         <v>2</v>
       </c>
-      <c r="H42" s="210"/>
+      <c r="H42" s="214"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -5615,14 +5615,14 @@
       <c r="D43" s="149">
         <v>45609</v>
       </c>
-      <c r="E43" s="185" t="s">
+      <c r="E43" s="188" t="s">
         <v>359</v>
       </c>
-      <c r="F43" s="186"/>
+      <c r="F43" s="189"/>
       <c r="G43" s="144">
         <v>8</v>
       </c>
-      <c r="H43" s="210"/>
+      <c r="H43" s="214"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -5669,14 +5669,14 @@
       <c r="D44" s="149">
         <v>45614</v>
       </c>
-      <c r="E44" s="185" t="s">
+      <c r="E44" s="188" t="s">
         <v>360</v>
       </c>
-      <c r="F44" s="186"/>
+      <c r="F44" s="189"/>
       <c r="G44" s="144">
         <v>12</v>
       </c>
-      <c r="H44" s="210"/>
+      <c r="H44" s="214"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -5723,14 +5723,14 @@
       <c r="D45" s="149">
         <v>45623</v>
       </c>
-      <c r="E45" s="185" t="s">
+      <c r="E45" s="188" t="s">
         <v>361</v>
       </c>
-      <c r="F45" s="186"/>
+      <c r="F45" s="189"/>
       <c r="G45" s="144">
         <v>5</v>
       </c>
-      <c r="H45" s="210"/>
+      <c r="H45" s="214"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -5777,14 +5777,14 @@
       <c r="D46" s="149">
         <v>45632</v>
       </c>
-      <c r="E46" s="185" t="s">
+      <c r="E46" s="188" t="s">
         <v>372</v>
       </c>
-      <c r="F46" s="186"/>
+      <c r="F46" s="189"/>
       <c r="G46" s="144">
         <v>5</v>
       </c>
-      <c r="H46" s="210"/>
+      <c r="H46" s="214"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -5831,14 +5831,14 @@
       <c r="D47" s="149">
         <v>45637</v>
       </c>
-      <c r="E47" s="185" t="s">
+      <c r="E47" s="188" t="s">
         <v>364</v>
       </c>
-      <c r="F47" s="186"/>
+      <c r="F47" s="189"/>
       <c r="G47" s="144">
         <v>6</v>
       </c>
-      <c r="H47" s="210"/>
+      <c r="H47" s="214"/>
       <c r="I47" s="42"/>
       <c r="J47" s="36"/>
       <c r="K47" s="2"/>
@@ -5885,14 +5885,14 @@
       <c r="D48" s="149">
         <v>45644</v>
       </c>
-      <c r="E48" s="185" t="s">
+      <c r="E48" s="188" t="s">
         <v>365</v>
       </c>
-      <c r="F48" s="186"/>
+      <c r="F48" s="189"/>
       <c r="G48" s="144">
         <v>18</v>
       </c>
-      <c r="H48" s="210"/>
+      <c r="H48" s="214"/>
       <c r="I48" s="42"/>
       <c r="J48" s="36"/>
       <c r="K48" s="2"/>
@@ -5939,14 +5939,14 @@
       <c r="D49" s="142">
         <v>45299</v>
       </c>
-      <c r="E49" s="185" t="s">
+      <c r="E49" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="F49" s="186"/>
+      <c r="F49" s="189"/>
       <c r="G49" s="144">
         <v>4</v>
       </c>
-      <c r="H49" s="210"/>
+      <c r="H49" s="214"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5993,14 +5993,14 @@
       <c r="D50" s="142">
         <v>45306</v>
       </c>
-      <c r="E50" s="185" t="s">
+      <c r="E50" s="188" t="s">
         <v>366</v>
       </c>
-      <c r="F50" s="186"/>
+      <c r="F50" s="189"/>
       <c r="G50" s="145">
         <v>5</v>
       </c>
-      <c r="H50" s="210"/>
+      <c r="H50" s="214"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -6047,14 +6047,14 @@
       <c r="D51" s="149">
         <v>45679</v>
       </c>
-      <c r="E51" s="185" t="s">
+      <c r="E51" s="188" t="s">
         <v>374</v>
       </c>
-      <c r="F51" s="186"/>
+      <c r="F51" s="189"/>
       <c r="G51" s="145">
         <v>6</v>
       </c>
-      <c r="H51" s="210"/>
+      <c r="H51" s="214"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -6101,14 +6101,14 @@
       <c r="D52" s="149">
         <v>45687</v>
       </c>
-      <c r="E52" s="185" t="s">
+      <c r="E52" s="188" t="s">
         <v>384</v>
       </c>
-      <c r="F52" s="186"/>
+      <c r="F52" s="189"/>
       <c r="G52" s="145">
         <v>5</v>
       </c>
-      <c r="H52" s="210"/>
+      <c r="H52" s="214"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -6155,14 +6155,14 @@
       <c r="D53" s="149">
         <v>45694</v>
       </c>
-      <c r="E53" s="185" t="s">
+      <c r="E53" s="188" t="s">
         <v>378</v>
       </c>
-      <c r="F53" s="186"/>
+      <c r="F53" s="189"/>
       <c r="G53" s="145">
         <v>9</v>
       </c>
-      <c r="H53" s="210"/>
+      <c r="H53" s="214"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -6209,14 +6209,14 @@
       <c r="D54" s="149">
         <v>45701</v>
       </c>
-      <c r="E54" s="185" t="s">
+      <c r="E54" s="188" t="s">
         <v>383</v>
       </c>
-      <c r="F54" s="186"/>
+      <c r="F54" s="189"/>
       <c r="G54" s="145">
         <v>4</v>
       </c>
-      <c r="H54" s="210"/>
+      <c r="H54" s="214"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -6263,14 +6263,14 @@
       <c r="D55" s="149">
         <v>45708</v>
       </c>
-      <c r="E55" s="185" t="s">
+      <c r="E55" s="188" t="s">
         <v>381</v>
       </c>
-      <c r="F55" s="186"/>
+      <c r="F55" s="189"/>
       <c r="G55" s="145">
         <v>12</v>
       </c>
-      <c r="H55" s="210"/>
+      <c r="H55" s="214"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -6317,14 +6317,14 @@
       <c r="D56" s="149">
         <v>45715</v>
       </c>
-      <c r="E56" s="185" t="s">
+      <c r="E56" s="188" t="s">
         <v>382</v>
       </c>
-      <c r="F56" s="186"/>
+      <c r="F56" s="189"/>
       <c r="G56" s="145">
         <v>6</v>
       </c>
-      <c r="H56" s="210"/>
+      <c r="H56" s="214"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -6371,12 +6371,12 @@
       <c r="D57" s="149">
         <v>45729</v>
       </c>
-      <c r="E57" s="185" t="s">
+      <c r="E57" s="188" t="s">
         <v>386</v>
       </c>
-      <c r="F57" s="186"/>
+      <c r="F57" s="189"/>
       <c r="G57" s="175"/>
-      <c r="H57" s="210"/>
+      <c r="H57" s="214"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -6423,14 +6423,14 @@
       <c r="D58" s="149">
         <v>45736</v>
       </c>
-      <c r="E58" s="212" t="s">
+      <c r="E58" s="216" t="s">
         <v>388</v>
       </c>
-      <c r="F58" s="212"/>
+      <c r="F58" s="216"/>
       <c r="G58" s="175">
         <v>10</v>
       </c>
-      <c r="H58" s="210"/>
+      <c r="H58" s="214"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -6477,14 +6477,14 @@
       <c r="D59" s="149">
         <v>45743</v>
       </c>
-      <c r="E59" s="185" t="s">
+      <c r="E59" s="188" t="s">
         <v>387</v>
       </c>
-      <c r="F59" s="186"/>
+      <c r="F59" s="189"/>
       <c r="G59" s="175">
         <v>3</v>
       </c>
-      <c r="H59" s="210"/>
+      <c r="H59" s="214"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -6531,14 +6531,14 @@
       <c r="D60" s="149">
         <v>45750</v>
       </c>
-      <c r="E60" s="185" t="s">
+      <c r="E60" s="188" t="s">
         <v>385</v>
       </c>
-      <c r="F60" s="186"/>
+      <c r="F60" s="189"/>
       <c r="G60" s="175">
         <v>6</v>
       </c>
-      <c r="H60" s="210"/>
+      <c r="H60" s="214"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -6585,14 +6585,14 @@
       <c r="D61" s="181">
         <v>45757</v>
       </c>
-      <c r="E61" s="188" t="s">
+      <c r="E61" s="219" t="s">
         <v>389</v>
       </c>
-      <c r="F61" s="189"/>
+      <c r="F61" s="220"/>
       <c r="G61" s="182">
         <v>4</v>
       </c>
-      <c r="H61" s="210"/>
+      <c r="H61" s="214"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -6639,14 +6639,14 @@
       <c r="D62" s="181">
         <v>45764</v>
       </c>
-      <c r="E62" s="185" t="s">
+      <c r="E62" s="188" t="s">
         <v>390</v>
       </c>
-      <c r="F62" s="186"/>
+      <c r="F62" s="189"/>
       <c r="G62" s="175">
         <v>4</v>
       </c>
-      <c r="H62" s="210"/>
+      <c r="H62" s="214"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -6693,14 +6693,14 @@
       <c r="D63" s="149">
         <v>45792</v>
       </c>
-      <c r="E63" s="185" t="s">
+      <c r="E63" s="188" t="s">
         <v>391</v>
       </c>
-      <c r="F63" s="186"/>
+      <c r="F63" s="189"/>
       <c r="G63" s="145">
         <v>3</v>
       </c>
-      <c r="H63" s="210"/>
+      <c r="H63" s="214"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -6747,14 +6747,14 @@
       <c r="D64" s="142">
         <v>45806</v>
       </c>
-      <c r="E64" s="216" t="s">
+      <c r="E64" s="184" t="s">
         <v>393</v>
       </c>
-      <c r="F64" s="217"/>
+      <c r="F64" s="185"/>
       <c r="G64" s="145">
         <v>6</v>
       </c>
-      <c r="H64" s="210"/>
+      <c r="H64" s="214"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -6801,14 +6801,14 @@
       <c r="D65" s="149">
         <v>45813</v>
       </c>
-      <c r="E65" s="220" t="s">
+      <c r="E65" s="190" t="s">
         <v>392</v>
       </c>
-      <c r="F65" s="220"/>
+      <c r="F65" s="190"/>
       <c r="G65" s="175">
         <v>3</v>
       </c>
-      <c r="H65" s="211"/>
+      <c r="H65" s="215"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -6855,14 +6855,14 @@
       <c r="D66" s="149">
         <v>45827</v>
       </c>
-      <c r="E66" s="220" t="s">
+      <c r="E66" s="190" t="s">
         <v>394</v>
       </c>
-      <c r="F66" s="220"/>
+      <c r="F66" s="190"/>
       <c r="G66" s="175">
         <v>3</v>
       </c>
-      <c r="H66" s="238"/>
+      <c r="H66" s="173"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -6898,15 +6898,25 @@
       <c r="AO66" s="2"/>
       <c r="AP66" s="2"/>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="218"/>
-      <c r="F67" s="219"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="183"/>
+      <c r="B67" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="C67" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="149">
+        <v>45839</v>
+      </c>
+      <c r="E67" s="190" t="s">
+        <v>395</v>
+      </c>
+      <c r="F67" s="190"/>
+      <c r="G67" s="175">
+        <v>4</v>
+      </c>
+      <c r="H67" s="173"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -6944,18 +6954,13 @@
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="176"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="184"/>
-      <c r="F68" s="184"/>
-      <c r="G68" s="146">
-        <f>SUM(G36:G66)</f>
-        <v>173</v>
-      </c>
-      <c r="H68" s="119"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="186"/>
+      <c r="F68" s="187"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="183"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -6993,13 +6998,18 @@
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="122"/>
-      <c r="C69" s="152"/>
-      <c r="D69" s="177"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="147"/>
-      <c r="H69" s="43"/>
+      <c r="B69" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="176"/>
+      <c r="D69" s="178"/>
+      <c r="E69" s="217"/>
+      <c r="F69" s="217"/>
+      <c r="G69" s="146">
+        <f>SUM(G36:G66)</f>
+        <v>173</v>
+      </c>
+      <c r="H69" s="119"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -7035,20 +7045,15 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
     </row>
-    <row r="70" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" s="153"/>
-      <c r="D70" s="150"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="148">
-        <f>G68+G19+G28+G69</f>
-        <v>453</v>
-      </c>
-      <c r="H70" s="42"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="152"/>
+      <c r="D70" s="177"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="147"/>
+      <c r="H70" s="43"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -7084,15 +7089,20 @@
       <c r="AO70" s="2"/>
       <c r="AP70" s="2"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="36"/>
+      <c r="B71" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="153"/>
+      <c r="D71" s="150"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="148">
+        <f>G69+G19+G28+G70</f>
+        <v>453</v>
+      </c>
+      <c r="H71" s="42"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -7130,8 +7140,10 @@
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="36"/>
@@ -7172,13 +7184,7 @@
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="56">
-        <f>'List - Hide'!AC11</f>
-        <v>487</v>
-      </c>
+      <c r="B73" s="1"/>
       <c r="D73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -7221,11 +7227,11 @@
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C74" s="56">
-        <f>G70</f>
-        <v>453</v>
+        <f>'List - Hide'!AC11</f>
+        <v>487</v>
       </c>
       <c r="D74" s="2"/>
       <c r="F74" s="2"/>
@@ -7269,11 +7275,11 @@
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="58">
-        <f>C73-C74</f>
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="C75" s="56">
+        <f>G71</f>
+        <v>453</v>
       </c>
       <c r="D75" s="2"/>
       <c r="F75" s="2"/>
@@ -7316,11 +7322,17 @@
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="2"/>
+      <c r="B76" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="58">
+        <f>C74-C75</f>
+        <v>34</v>
+      </c>
       <c r="D76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="H76" s="36"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -7443,9 +7455,7 @@
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -7581,7 +7591,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="4"/>
+      <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -7625,7 +7635,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="5"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -7661,7 +7671,7 @@
       <c r="AP83" s="2"/>
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -7713,7 +7723,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="I85" s="5"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -8092,6 +8102,13 @@
       <c r="AG93" s="2"/>
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
+      <c r="AJ93" s="2"/>
+      <c r="AK93" s="2"/>
+      <c r="AL93" s="2"/>
+      <c r="AM93" s="2"/>
+      <c r="AN93" s="2"/>
+      <c r="AO93" s="2"/>
+      <c r="AP93" s="2"/>
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
@@ -8649,7 +8666,7 @@
       <c r="AI108" s="2"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
+      <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -8797,6 +8814,7 @@
       <c r="AI112" s="2"/>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -8833,7 +8851,6 @@
       <c r="AI113" s="2"/>
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -8870,7 +8887,7 @@
       <c r="AI114" s="2"/>
     </row>
     <row r="115" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
+      <c r="A115" s="4"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -10146,6 +10163,23 @@
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
+      <c r="S149" s="2"/>
+      <c r="T149" s="2"/>
+      <c r="U149" s="2"/>
+      <c r="V149" s="2"/>
+      <c r="W149" s="2"/>
+      <c r="X149" s="2"/>
+      <c r="Y149" s="2"/>
+      <c r="Z149" s="2"/>
+      <c r="AA149" s="2"/>
+      <c r="AB149" s="2"/>
+      <c r="AC149" s="2"/>
+      <c r="AD149" s="2"/>
+      <c r="AE149" s="2"/>
+      <c r="AF149" s="2"/>
+      <c r="AG149" s="2"/>
+      <c r="AH149" s="2"/>
+      <c r="AI149" s="2"/>
     </row>
     <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
@@ -12679,6 +12713,13 @@
       <c r="I276" s="2"/>
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
+      <c r="L276" s="2"/>
+      <c r="M276" s="2"/>
+      <c r="N276" s="2"/>
+      <c r="O276" s="2"/>
+      <c r="P276" s="2"/>
+      <c r="Q276" s="2"/>
+      <c r="R276" s="2"/>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
@@ -13020,6 +13061,12 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
+      <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
@@ -13034,6 +13081,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
+      <c r="H305" s="2"/>
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
@@ -13116,25 +13164,30 @@
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
     </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" s="2"/>
+      <c r="I319" s="2"/>
+      <c r="J319" s="2"/>
+      <c r="K319" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J22:O22"/>
+  <mergeCells count="50">
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="J35:O35"/>
     <mergeCell ref="J37:O37"/>
@@ -13151,22 +13204,24 @@
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E54:F54"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="6">
@@ -13192,7 +13247,7 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$A$2:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>C68:C69 C79:C97 C71</xm:sqref>
+          <xm:sqref>C69:C70 C80:C98 C72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please pick from the list!" prompt="Please select from the list" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
@@ -13204,7 +13259,7 @@
           <x14:formula1>
             <xm:f>'List - Hide'!$C$2:$C$77</xm:f>
           </x14:formula1>
-          <xm:sqref>C51:C66</xm:sqref>
+          <xm:sqref>C51:C67</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27429,10 +27484,10 @@
       <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="223" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="233">
+      <c r="B2" s="227">
         <v>1</v>
       </c>
       <c r="C2" s="69" t="s">
@@ -27488,8 +27543,8 @@
       <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="230"/>
-      <c r="B3" s="227"/>
+      <c r="A3" s="224"/>
+      <c r="B3" s="221"/>
       <c r="C3" s="71" t="s">
         <v>145</v>
       </c>
@@ -27540,8 +27595,8 @@
       <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="230"/>
-      <c r="B4" s="227"/>
+      <c r="A4" s="224"/>
+      <c r="B4" s="221"/>
       <c r="C4" s="71" t="s">
         <v>146</v>
       </c>
@@ -27592,8 +27647,8 @@
       <c r="AH4" s="66"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="230"/>
-      <c r="B5" s="232"/>
+      <c r="A5" s="224"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="71" t="s">
         <v>147</v>
       </c>
@@ -27644,8 +27699,8 @@
       <c r="AH5" s="66"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="230"/>
-      <c r="B6" s="227">
+      <c r="A6" s="224"/>
+      <c r="B6" s="221">
         <v>2</v>
       </c>
       <c r="C6" s="71" t="s">
@@ -27700,8 +27755,8 @@
       <c r="AH6" s="66"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="230"/>
-      <c r="B7" s="227"/>
+      <c r="A7" s="224"/>
+      <c r="B7" s="221"/>
       <c r="C7" s="71" t="s">
         <v>149</v>
       </c>
@@ -27752,8 +27807,8 @@
       <c r="AH7" s="66"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="230"/>
-      <c r="B8" s="227"/>
+      <c r="A8" s="224"/>
+      <c r="B8" s="221"/>
       <c r="C8" s="71" t="s">
         <v>150</v>
       </c>
@@ -27803,8 +27858,8 @@
       <c r="AH8" s="66"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="230"/>
-      <c r="B9" s="227"/>
+      <c r="A9" s="224"/>
+      <c r="B9" s="221"/>
       <c r="C9" s="71" t="s">
         <v>151</v>
       </c>
@@ -27859,8 +27914,8 @@
       <c r="AH9" s="66"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="230"/>
-      <c r="B10" s="227">
+      <c r="A10" s="224"/>
+      <c r="B10" s="221">
         <v>3</v>
       </c>
       <c r="C10" s="71" t="s">
@@ -27918,8 +27973,8 @@
       <c r="AH10" s="66"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="230"/>
-      <c r="B11" s="227"/>
+      <c r="A11" s="224"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="71" t="s">
         <v>156</v>
       </c>
@@ -27974,8 +28029,8 @@
       <c r="AH11" s="66"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="230"/>
-      <c r="B12" s="227"/>
+      <c r="A12" s="224"/>
+      <c r="B12" s="221"/>
       <c r="C12" s="71" t="s">
         <v>158</v>
       </c>
@@ -28033,8 +28088,8 @@
       <c r="AH12" s="66"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="230"/>
-      <c r="B13" s="227"/>
+      <c r="A13" s="224"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="71" t="s">
         <v>163</v>
       </c>
@@ -28100,8 +28155,8 @@
       <c r="AH13" s="66"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="230"/>
-      <c r="B14" s="227">
+      <c r="A14" s="224"/>
+      <c r="B14" s="221">
         <v>4</v>
       </c>
       <c r="C14" s="71" t="s">
@@ -28168,8 +28223,8 @@
       <c r="AH14" s="66"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="230"/>
-      <c r="B15" s="227"/>
+      <c r="A15" s="224"/>
+      <c r="B15" s="221"/>
       <c r="C15" s="71" t="s">
         <v>166</v>
       </c>
@@ -28232,8 +28287,8 @@
       <c r="AH15" s="66"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="230"/>
-      <c r="B16" s="227"/>
+      <c r="A16" s="224"/>
+      <c r="B16" s="221"/>
       <c r="C16" s="71" t="s">
         <v>167</v>
       </c>
@@ -28296,8 +28351,8 @@
       <c r="AH16" s="66"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="230"/>
-      <c r="B17" s="227"/>
+      <c r="A17" s="224"/>
+      <c r="B17" s="221"/>
       <c r="C17" s="71" t="s">
         <v>168</v>
       </c>
@@ -28360,8 +28415,8 @@
       <c r="AH17" s="66"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="230"/>
-      <c r="B18" s="227">
+      <c r="A18" s="224"/>
+      <c r="B18" s="221">
         <v>5</v>
       </c>
       <c r="C18" s="71" t="s">
@@ -28428,8 +28483,8 @@
       <c r="AH18" s="66"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="230"/>
-      <c r="B19" s="227"/>
+      <c r="A19" s="224"/>
+      <c r="B19" s="221"/>
       <c r="C19" s="71" t="s">
         <v>170</v>
       </c>
@@ -28493,8 +28548,8 @@
       <c r="AH19" s="66"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="230"/>
-      <c r="B20" s="227"/>
+      <c r="A20" s="224"/>
+      <c r="B20" s="221"/>
       <c r="C20" s="71" t="s">
         <v>171</v>
       </c>
@@ -28557,8 +28612,8 @@
       <c r="AH20" s="66"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="230"/>
-      <c r="B21" s="227"/>
+      <c r="A21" s="224"/>
+      <c r="B21" s="221"/>
       <c r="C21" s="71" t="s">
         <v>172</v>
       </c>
@@ -28621,8 +28676,8 @@
       <c r="AG21" s="79"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="230"/>
-      <c r="B22" s="227">
+      <c r="A22" s="224"/>
+      <c r="B22" s="221">
         <v>6</v>
       </c>
       <c r="C22" s="71" t="s">
@@ -28688,8 +28743,8 @@
       <c r="AG22" s="79"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="230"/>
-      <c r="B23" s="227"/>
+      <c r="A23" s="224"/>
+      <c r="B23" s="221"/>
       <c r="C23" s="71" t="s">
         <v>174</v>
       </c>
@@ -28754,8 +28809,8 @@
       <c r="AG23" s="79"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="230"/>
-      <c r="B24" s="227"/>
+      <c r="A24" s="224"/>
+      <c r="B24" s="221"/>
       <c r="C24" s="71" t="s">
         <v>175</v>
       </c>
@@ -28816,8 +28871,8 @@
       <c r="AG24" s="79"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="230"/>
-      <c r="B25" s="227"/>
+      <c r="A25" s="224"/>
+      <c r="B25" s="221"/>
       <c r="C25" s="71" t="s">
         <v>176</v>
       </c>
@@ -28875,8 +28930,8 @@
       <c r="AG25" s="66"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="230"/>
-      <c r="B26" s="227">
+      <c r="A26" s="224"/>
+      <c r="B26" s="221">
         <v>7</v>
       </c>
       <c r="C26" s="71" t="s">
@@ -28936,8 +28991,8 @@
       <c r="AG26" s="66"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="230"/>
-      <c r="B27" s="227"/>
+      <c r="A27" s="224"/>
+      <c r="B27" s="221"/>
       <c r="C27" s="71" t="s">
         <v>178</v>
       </c>
@@ -28993,8 +29048,8 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="230"/>
-      <c r="B28" s="227"/>
+      <c r="A28" s="224"/>
+      <c r="B28" s="221"/>
       <c r="C28" s="71" t="s">
         <v>180</v>
       </c>
@@ -29050,8 +29105,8 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="230"/>
-      <c r="B29" s="227"/>
+      <c r="A29" s="224"/>
+      <c r="B29" s="221"/>
       <c r="C29" s="71" t="s">
         <v>182</v>
       </c>
@@ -29108,8 +29163,8 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="230"/>
-      <c r="B30" s="227">
+      <c r="A30" s="224"/>
+      <c r="B30" s="221">
         <v>8</v>
       </c>
       <c r="C30" s="71" t="s">
@@ -29167,8 +29222,8 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="230"/>
-      <c r="B31" s="227"/>
+      <c r="A31" s="224"/>
+      <c r="B31" s="221"/>
       <c r="C31" s="71" t="s">
         <v>187</v>
       </c>
@@ -29223,8 +29278,8 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="230"/>
-      <c r="B32" s="227"/>
+      <c r="A32" s="224"/>
+      <c r="B32" s="221"/>
       <c r="C32" s="71" t="s">
         <v>189</v>
       </c>
@@ -29274,8 +29329,8 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="230"/>
-      <c r="B33" s="227"/>
+      <c r="A33" s="224"/>
+      <c r="B33" s="221"/>
       <c r="C33" s="71" t="s">
         <v>190</v>
       </c>
@@ -29321,8 +29376,8 @@
       <c r="AA33" s="66"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="230"/>
-      <c r="B34" s="227">
+      <c r="A34" s="224"/>
+      <c r="B34" s="221">
         <v>9</v>
       </c>
       <c r="C34" s="71" t="s">
@@ -29368,8 +29423,8 @@
       <c r="AA34" s="66"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="230"/>
-      <c r="B35" s="227"/>
+      <c r="A35" s="224"/>
+      <c r="B35" s="221"/>
       <c r="C35" s="71" t="s">
         <v>192</v>
       </c>
@@ -29412,8 +29467,8 @@
       <c r="AA35" s="66"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="230"/>
-      <c r="B36" s="227"/>
+      <c r="A36" s="224"/>
+      <c r="B36" s="221"/>
       <c r="C36" s="71" t="s">
         <v>193</v>
       </c>
@@ -29458,8 +29513,8 @@
       <c r="AA36" s="66"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="230"/>
-      <c r="B37" s="227"/>
+      <c r="A37" s="224"/>
+      <c r="B37" s="221"/>
       <c r="C37" s="71" t="s">
         <v>194</v>
       </c>
@@ -29502,8 +29557,8 @@
       <c r="AA37" s="66"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="230"/>
-      <c r="B38" s="227">
+      <c r="A38" s="224"/>
+      <c r="B38" s="221">
         <v>10</v>
       </c>
       <c r="C38" s="71" t="s">
@@ -29551,8 +29606,8 @@
       <c r="AH38" s="66"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="230"/>
-      <c r="B39" s="227"/>
+      <c r="A39" s="224"/>
+      <c r="B39" s="221"/>
       <c r="C39" s="71" t="s">
         <v>196</v>
       </c>
@@ -29597,8 +29652,8 @@
       <c r="AH39" s="66"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="230"/>
-      <c r="B40" s="227"/>
+      <c r="A40" s="224"/>
+      <c r="B40" s="221"/>
       <c r="C40" s="71" t="s">
         <v>197</v>
       </c>
@@ -29642,8 +29697,8 @@
       <c r="AH40" s="66"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="230"/>
-      <c r="B41" s="227"/>
+      <c r="A41" s="224"/>
+      <c r="B41" s="221"/>
       <c r="C41" s="71" t="s">
         <v>198</v>
       </c>
@@ -29693,8 +29748,8 @@
       <c r="AH41" s="66"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="230"/>
-      <c r="B42" s="227">
+      <c r="A42" s="224"/>
+      <c r="B42" s="221">
         <v>11</v>
       </c>
       <c r="C42" s="71" t="s">
@@ -29747,8 +29802,8 @@
       <c r="AH42" s="66"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="230"/>
-      <c r="B43" s="227"/>
+      <c r="A43" s="224"/>
+      <c r="B43" s="221"/>
       <c r="C43" s="71" t="s">
         <v>200</v>
       </c>
@@ -29801,8 +29856,8 @@
       <c r="AH43" s="66"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="230"/>
-      <c r="B44" s="227"/>
+      <c r="A44" s="224"/>
+      <c r="B44" s="221"/>
       <c r="C44" s="71" t="s">
         <v>201</v>
       </c>
@@ -29852,8 +29907,8 @@
       <c r="AH44" s="66"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="230"/>
-      <c r="B45" s="227"/>
+      <c r="A45" s="224"/>
+      <c r="B45" s="221"/>
       <c r="C45" s="71" t="s">
         <v>202</v>
       </c>
@@ -29903,8 +29958,8 @@
       <c r="AH45" s="66"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="230"/>
-      <c r="B46" s="227">
+      <c r="A46" s="224"/>
+      <c r="B46" s="221">
         <v>12</v>
       </c>
       <c r="C46" s="71" t="s">
@@ -29958,8 +30013,8 @@
       <c r="AH46" s="66"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="230"/>
-      <c r="B47" s="227"/>
+      <c r="A47" s="224"/>
+      <c r="B47" s="221"/>
       <c r="C47" s="71" t="s">
         <v>204</v>
       </c>
@@ -30009,8 +30064,8 @@
       <c r="AH47" s="66"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="230"/>
-      <c r="B48" s="227"/>
+      <c r="A48" s="224"/>
+      <c r="B48" s="221"/>
       <c r="C48" s="71" t="s">
         <v>205</v>
       </c>
@@ -30062,8 +30117,8 @@
       <c r="AH48" s="66"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="230"/>
-      <c r="B49" s="227"/>
+      <c r="A49" s="224"/>
+      <c r="B49" s="221"/>
       <c r="C49" s="71" t="s">
         <v>206</v>
       </c>
@@ -30113,8 +30168,8 @@
       <c r="AH49" s="66"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="230"/>
-      <c r="B50" s="227">
+      <c r="A50" s="224"/>
+      <c r="B50" s="221">
         <v>13</v>
       </c>
       <c r="C50" s="71" t="s">
@@ -30168,8 +30223,8 @@
       <c r="AH50" s="66"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="230"/>
-      <c r="B51" s="227"/>
+      <c r="A51" s="224"/>
+      <c r="B51" s="221"/>
       <c r="C51" s="71" t="s">
         <v>208</v>
       </c>
@@ -30219,8 +30274,8 @@
       <c r="AH51" s="66"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="230"/>
-      <c r="B52" s="227"/>
+      <c r="A52" s="224"/>
+      <c r="B52" s="221"/>
       <c r="C52" s="71" t="s">
         <v>209</v>
       </c>
@@ -30269,8 +30324,8 @@
       <c r="AH52" s="66"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="230"/>
-      <c r="B53" s="227"/>
+      <c r="A53" s="224"/>
+      <c r="B53" s="221"/>
       <c r="C53" s="71" t="s">
         <v>210</v>
       </c>
@@ -30320,8 +30375,8 @@
       <c r="AH53" s="66"/>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="230"/>
-      <c r="B54" s="227">
+      <c r="A54" s="224"/>
+      <c r="B54" s="221">
         <v>14</v>
       </c>
       <c r="C54" s="71" t="s">
@@ -30375,8 +30430,8 @@
       <c r="AH54" s="66"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="230"/>
-      <c r="B55" s="227"/>
+      <c r="A55" s="224"/>
+      <c r="B55" s="221"/>
       <c r="C55" s="71" t="s">
         <v>212</v>
       </c>
@@ -30427,8 +30482,8 @@
       <c r="AH55" s="66"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="230"/>
-      <c r="B56" s="227"/>
+      <c r="A56" s="224"/>
+      <c r="B56" s="221"/>
       <c r="C56" s="71" t="s">
         <v>213</v>
       </c>
@@ -30478,8 +30533,8 @@
       <c r="AH56" s="66"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="230"/>
-      <c r="B57" s="227"/>
+      <c r="A57" s="224"/>
+      <c r="B57" s="221"/>
       <c r="C57" s="71" t="s">
         <v>214</v>
       </c>
@@ -30530,8 +30585,8 @@
       <c r="AH57" s="66"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="230"/>
-      <c r="B58" s="227">
+      <c r="A58" s="224"/>
+      <c r="B58" s="221">
         <v>15</v>
       </c>
       <c r="C58" s="71" t="s">
@@ -30586,8 +30641,8 @@
       <c r="AH58" s="66"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="230"/>
-      <c r="B59" s="227"/>
+      <c r="A59" s="224"/>
+      <c r="B59" s="221"/>
       <c r="C59" s="71" t="s">
         <v>216</v>
       </c>
@@ -30638,8 +30693,8 @@
       <c r="AH59" s="66"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="230"/>
-      <c r="B60" s="227"/>
+      <c r="A60" s="224"/>
+      <c r="B60" s="221"/>
       <c r="C60" s="71" t="s">
         <v>217</v>
       </c>
@@ -30690,8 +30745,8 @@
       <c r="AH60" s="66"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" s="231"/>
-      <c r="B61" s="228"/>
+      <c r="A61" s="225"/>
+      <c r="B61" s="222"/>
       <c r="C61" s="73" t="s">
         <v>218</v>
       </c>
@@ -30742,10 +30797,10 @@
       <c r="AH61" s="66"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="229" t="s">
+      <c r="A62" s="223" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="232">
+      <c r="B62" s="226">
         <v>16</v>
       </c>
       <c r="C62" s="71" t="s">
@@ -30797,8 +30852,8 @@
       <c r="AH62" s="66"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" s="230"/>
-      <c r="B63" s="227"/>
+      <c r="A63" s="224"/>
+      <c r="B63" s="221"/>
       <c r="C63" s="71" t="s">
         <v>220</v>
       </c>
@@ -30848,8 +30903,8 @@
       <c r="AH63" s="66"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="230"/>
-      <c r="B64" s="227"/>
+      <c r="A64" s="224"/>
+      <c r="B64" s="221"/>
       <c r="C64" s="71" t="s">
         <v>221</v>
       </c>
@@ -30899,8 +30954,8 @@
       <c r="AH64" s="66"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="230"/>
-      <c r="B65" s="227"/>
+      <c r="A65" s="224"/>
+      <c r="B65" s="221"/>
       <c r="C65" s="71" t="s">
         <v>222</v>
       </c>
@@ -30950,8 +31005,8 @@
       <c r="AH65" s="66"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="230"/>
-      <c r="B66" s="227">
+      <c r="A66" s="224"/>
+      <c r="B66" s="221">
         <v>17</v>
       </c>
       <c r="C66" s="71" t="s">
@@ -31003,8 +31058,8 @@
       <c r="AH66" s="66"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A67" s="230"/>
-      <c r="B67" s="227"/>
+      <c r="A67" s="224"/>
+      <c r="B67" s="221"/>
       <c r="C67" s="71" t="s">
         <v>224</v>
       </c>
@@ -31054,8 +31109,8 @@
       <c r="AH67" s="66"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A68" s="230"/>
-      <c r="B68" s="227"/>
+      <c r="A68" s="224"/>
+      <c r="B68" s="221"/>
       <c r="C68" s="71" t="s">
         <v>225</v>
       </c>
@@ -31105,8 +31160,8 @@
       <c r="AH68" s="66"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="230"/>
-      <c r="B69" s="227"/>
+      <c r="A69" s="224"/>
+      <c r="B69" s="221"/>
       <c r="C69" s="71" t="s">
         <v>226</v>
       </c>
@@ -31156,8 +31211,8 @@
       <c r="AH69" s="66"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="230"/>
-      <c r="B70" s="227">
+      <c r="A70" s="224"/>
+      <c r="B70" s="221">
         <v>18</v>
       </c>
       <c r="C70" s="71" t="s">
@@ -31209,8 +31264,8 @@
       <c r="AH70" s="66"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="230"/>
-      <c r="B71" s="227"/>
+      <c r="A71" s="224"/>
+      <c r="B71" s="221"/>
       <c r="C71" s="71" t="s">
         <v>228</v>
       </c>
@@ -31260,8 +31315,8 @@
       <c r="AH71" s="66"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="230"/>
-      <c r="B72" s="227"/>
+      <c r="A72" s="224"/>
+      <c r="B72" s="221"/>
       <c r="C72" s="71" t="s">
         <v>229</v>
       </c>
@@ -31311,8 +31366,8 @@
       <c r="AH72" s="66"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="230"/>
-      <c r="B73" s="227"/>
+      <c r="A73" s="224"/>
+      <c r="B73" s="221"/>
       <c r="C73" s="71" t="s">
         <v>230</v>
       </c>
@@ -31362,8 +31417,8 @@
       <c r="AH73" s="66"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="230"/>
-      <c r="B74" s="227">
+      <c r="A74" s="224"/>
+      <c r="B74" s="221">
         <v>19</v>
       </c>
       <c r="C74" s="71" t="s">
@@ -31415,8 +31470,8 @@
       <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="230"/>
-      <c r="B75" s="227"/>
+      <c r="A75" s="224"/>
+      <c r="B75" s="221"/>
       <c r="C75" s="71" t="s">
         <v>232</v>
       </c>
@@ -31466,8 +31521,8 @@
       <c r="AH75" s="66"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="230"/>
-      <c r="B76" s="227"/>
+      <c r="A76" s="224"/>
+      <c r="B76" s="221"/>
       <c r="C76" s="71" t="s">
         <v>233</v>
       </c>
@@ -31517,8 +31572,8 @@
       <c r="AH76" s="66"/>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="231"/>
-      <c r="B77" s="228"/>
+      <c r="A77" s="225"/>
+      <c r="B77" s="222"/>
       <c r="C77" s="73" t="s">
         <v>234</v>
       </c>
@@ -31705,10 +31760,10 @@
     <row r="80" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="66"/>
       <c r="B80" s="66"/>
-      <c r="C80" s="223" t="s">
+      <c r="C80" s="230" t="s">
         <v>235</v>
       </c>
-      <c r="D80" s="224"/>
+      <c r="D80" s="231"/>
       <c r="E80" s="70">
         <v>60</v>
       </c>
@@ -31747,10 +31802,10 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="66"/>
       <c r="B81" s="66"/>
-      <c r="C81" s="225" t="s">
+      <c r="C81" s="232" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="226"/>
+      <c r="D81" s="233"/>
       <c r="E81" s="72">
         <v>322.5</v>
       </c>
@@ -31787,10 +31842,10 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="66"/>
-      <c r="C82" s="225" t="s">
+      <c r="C82" s="232" t="s">
         <v>238</v>
       </c>
-      <c r="D82" s="226"/>
+      <c r="D82" s="233"/>
       <c r="E82" s="72">
         <v>35</v>
       </c>
@@ -31827,10 +31882,10 @@
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="B83" s="66"/>
-      <c r="C83" s="225" t="s">
+      <c r="C83" s="232" t="s">
         <v>239</v>
       </c>
-      <c r="D83" s="226"/>
+      <c r="D83" s="233"/>
       <c r="E83" s="72">
         <v>287</v>
       </c>
@@ -31867,10 +31922,10 @@
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="B84" s="66"/>
-      <c r="C84" s="225" t="s">
+      <c r="C84" s="232" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="226"/>
+      <c r="D84" s="233"/>
       <c r="E84" s="72">
         <v>60</v>
       </c>
@@ -31907,10 +31962,10 @@
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
       <c r="B85" s="66"/>
-      <c r="C85" s="221" t="s">
+      <c r="C85" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="222"/>
+      <c r="D85" s="229"/>
       <c r="E85" s="74">
         <f>Y79</f>
         <v>483</v>
@@ -31978,6 +32033,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="B74:B77"/>
@@ -31994,17 +32060,6 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32015,8 +32070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5573FE42-47CE-4B60-892F-474181DB115B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32062,7 +32117,7 @@
         <v>337</v>
       </c>
       <c r="B5" s="159">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -32070,7 +32125,7 @@
         <v>338</v>
       </c>
       <c r="B6" s="156">
-        <v>45827</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -32462,6 +32517,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="d03ffd70-462c-4172-9015-a0cdff42c83c">
@@ -32481,15 +32545,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32710,20 +32765,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F627C2A1-639E-4000-94D7-FA9740411AFB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="d03ffd70-462c-4172-9015-a0cdff42c83c"/>
     <ds:schemaRef ds:uri="65f98c99-c090-489b-8346-b847c18a5011"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D0D882-CBE1-41A5-A59C-C48B26872275}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
